--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A183A8-7081-49AB-A076-E3243D7F1905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1153BACF-9FB9-4331-8C2E-2D6ADC580477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="3345" windowWidth="14700" windowHeight="11520" xr2:uid="{87694299-5AA0-4D97-B707-F20F1FF08949}"/>
+    <workbookView xWindow="885" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{87694299-5AA0-4D97-B707-F20F1FF08949}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$L$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="278">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,19 +60,1057 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基础会员阅读密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游客阅读密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>游客阅读获取码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>基础会员阅读获取密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21931924</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VB+SQLite组合，真香！（一）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>721</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VB编程</t>
+  </si>
+  <si>
+    <t>VB编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-05-10 22:13:00</t>
+  </si>
+  <si>
+    <t>648051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>723</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88638358</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>954301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>995</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌翻译突然不灵？别急，你可以试试这个方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统运维</t>
+  </si>
+  <si>
+    <t>2022-11-06 10:34:59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82905221</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（游客/基础会员）阅读密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别再徒手肉搏 Windows 共享文件夹了，看我早用上了躺平工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>994</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-10-30 16:18:46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>648161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43827879</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSD 也搞仿古 Cosplay，模拟机械硬盘的音效和灯光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>993</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>2022-10-23 19:45:37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>735491</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47123540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>991</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我就是怀疑U盘被人拷贝过文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-10-12 08:47:56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>657480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54531381</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一款入门学习 Linux 的方便法门：Webmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>990</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>2022-10-08 20:00:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69009365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>989</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好消息，VirtualBox 发布 7.0 预览版！</t>
+  </si>
+  <si>
+    <t>410102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62262357</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-10-02 20:10:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有人专门解决了拷贝文件时大眼瞪小眼干等的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>259301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81961551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-09-28 10:39:52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标玩过界 Mouse without Borders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏碎片</t>
+  </si>
+  <si>
+    <t>829302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15238354</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-09-25 20:39:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页版的在线红白机游戏，怎么做到的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-09-21 13:21:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00483213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>432321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14868217</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咄咄怪事，不同密码居然可以成功解压同一个 ZIP 文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-09-14 12:32:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我就不想开机按 F12 ，还能不能愉快地玩 UEFI 多系统启动呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17123179</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-09-11 15:51:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>981</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用 VBRichClient 实现 WebServer 服务，玩玩可以别当真！</t>
+  </si>
+  <si>
+    <t>222380</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44591280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-09-07 08:32:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怀旧一把打鸭子居然发现光线枪没鸟用？是时候告诉你真相了！</t>
+  </si>
+  <si>
+    <t>152361</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47786143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-09-04 16:32:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>979</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误无法登录？是谁动了我的电脑？</t>
+  </si>
+  <si>
+    <t>011061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73483476</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-30 16:01:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>975</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【快速全面掌握 WAMPServer】14.各种组件的升级方法</t>
+  </si>
+  <si>
+    <t>WEB学习</t>
+  </si>
+  <si>
+    <t>254111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70550240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-09 11:14:52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>974</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【快速全面掌握 WAMPServer】13.PHP调试麻烦？请 xDebug 来帮忙！</t>
+  </si>
+  <si>
+    <t>2022-08-09 10:38:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>318301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51694920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【快速全面掌握 WAMPServer】12.WAMPServer 故障排除经验大总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>973</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>625001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51635657</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-09 10:05:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【快速全面掌握 WAMPServer】11.安装 PHP 扩展踩过的坑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>972</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>717390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-09 09:37:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>971</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【快速全面掌握 WAMPServer】10.HTTP2.0时代，让 WampServer 开启 SSL 吧！</t>
+  </si>
+  <si>
+    <t>657061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06813176</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-08 16:07:56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91335094</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>970</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【快速全面掌握 WAMPServer】09.如何在 WAMPServer 中安装 Composer</t>
+  </si>
+  <si>
+    <t>048351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32302361</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-08 15:38:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>969</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【快速全面掌握 WAMPServer】08.想玩多个站点？你必须了解虚拟主机的创建和使用</t>
+  </si>
+  <si>
+    <t>808011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81908384</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-08 11:08:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>247290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-08 09:27:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63153146</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>968</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小伙儿徒手构建测试数据库，结果累瘫了！其实不用这么辛苦，有现成的！</t>
+  </si>
+  <si>
+    <t>付费内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>967</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【快速全面掌握 WAMPServer】07.整明白 MySQL 和 MariaDB</t>
+  </si>
+  <si>
+    <t>049541</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22994684</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-02 14:59:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>966</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【快速全面掌握 WAMPServer】06.整明白 PHP</t>
+  </si>
+  <si>
+    <t>239421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28379765</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-01 12:49:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【快速全面掌握 WAMPServer】05.整明白 Apache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>965</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-01 12:19:07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>709121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00413446</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【快速全面掌握 WAMPServer】04.人生初体验</t>
+  </si>
+  <si>
+    <t>964</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44880517</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-01 11:10:52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>813351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统偷偷保留的程序使用记录，你知道都在哪儿吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>963</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73580843</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-07-31 15:33:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>961</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VB爱好者有福音，不用 WinSOCK 照样可以实现 TCP 或 UDP 多客户端通讯！</t>
+  </si>
+  <si>
+    <t>719171</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66743405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-07-17 17:19:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>960</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用 UrBackup 备份和恢复 PostgreSQL</t>
+  </si>
+  <si>
+    <t>513280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47887173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-07-15 08:23:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[下载]UrBackup Server 2.4.x 管理手册中文版（网管小贾高级进阶版）</t>
+  </si>
+  <si>
+    <t>946</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>955421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98608691</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-06-22 12:45:59</t>
+  </si>
+  <si>
+    <t>945</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堪称神器，能将普通应用程序注册成 Windows 服务的助手程序 NSSM ！</t>
+  </si>
+  <si>
+    <t>137390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-06-19 09:37:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22972691</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以让你在一分钟内快速建立网盘的神器 filebrowser ！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>944</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>712080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59672098</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-06-13 08:02:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4X，一位 Basic 编程语言江湖中的风云人物！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>943</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141371</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87261213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-06-09 17:31:41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>942</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows系统中用查询字符串可以用grep命令吗？</t>
+  </si>
+  <si>
+    <t>157441</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47113540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-06-05 14:47:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝不吹牛，不用 U 盘就能搞定 Windows 和复古游戏 Batocera 双系统！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>941</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>040301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14821957</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-06-03 10:30:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>940</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档堆积如山，你却还在用 Ctrl+F 搜索文档关键字？效率神器 AnyTXT 赶快了解一下！</t>
+  </si>
+  <si>
+    <t>625490</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66743403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-05-29 09:54:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>938</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的地盘我做主，电脑显示屏幕也能玩“三八线”之 ScreenSlicer ！</t>
+  </si>
+  <si>
+    <t>153441</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81120587</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-05-15 14:43:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>848441</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>937</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28938924</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时至今日我才发现，居然还有支持64位可跨平台开发的BASIC程序（不是点NET）！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-05-08 14:48:48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>936</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时将电脑投影到手机、平板和电视上，居然可以不用接线？！</t>
+  </si>
+  <si>
+    <t>314341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36316005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-05-03 14:34:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>935</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件拷贝命令引出一幅全家福照片中隐藏的秘密！</t>
+  </si>
+  <si>
+    <t>243531</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36459576</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-04-27 13:53:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>934</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板下令，今天必须搞定居家办公的VPN！我却笑而不语，晚上准时回家吃饭！</t>
+  </si>
+  <si>
+    <t>118341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-04-25 14:38:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65049769</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>931</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩复古游戏还要刷机就 OUT 了！赶快进来看看，用U盘就可以秒变游戏系统的 Batocera.linux ！</t>
+  </si>
+  <si>
+    <t>018001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58291651</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-04-11 10:08:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>748241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你时间多也不能那么糟蹋啊，还挨个给服务器打补丁？赶紧上 WSUS 吧，超简单哦！（下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51567523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>930</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-04-06 14:28:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>928</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有比删库跑路更狠的？他居然用 AskAdmin 将工作程序文件锁定了！</t>
+  </si>
+  <si>
+    <t>724280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11267957</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-30 08:24:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>927</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为防止熊孩子乱玩电脑，家长用 Simple Run Blocker 锁定程序，结果搞砸后找我帮忙~</t>
+  </si>
+  <si>
+    <t>455221</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03453819</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-28 12:25:54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>926</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不靠某葵某team某desk，更不靠微信QQ啥的聊天软件，就一光板Win10照样实现任意两台电脑远程控制桌面，我去咋做到的？</t>
+  </si>
+  <si>
+    <t>2022-03-23 09:27:09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>907290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28938921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我说的是真的，我居然用ZeroTier把村里各家的电脑整成了一个“局域网”！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>246180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91662361</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>923</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-14 08:16:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>922</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以快速预览大量不同格式文件内容的神器，一番研究后我选择了 QuickLook</t>
+  </si>
+  <si>
+    <t>045390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-07 09:35:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17150576</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我找到了一款非常厉害的WinSCP密码恢复工具，顺便还偷偷动了点手脚！</t>
+  </si>
+  <si>
+    <t>131321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41524657</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-02-28 12:31:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>915</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是壁纸也不是屏保，没见过真3D电脑桌面吧？甭废话赶紧进来试试 BumpTop 吧！</t>
+  </si>
+  <si>
+    <t>2022-02-18 08:08:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>818080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25678328</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77,7 +1118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +1131,15 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -128,18 +1178,54 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,59 +1541,1500 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0538F1C1-2570-401E-A9F2-4BEF1D958528}">
-  <dimension ref="A2:H5"/>
+  <dimension ref="A2:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="27.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.25" style="8" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.75" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="21.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="J4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f>"000"&amp;B5</f>
+        <v>000721</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f>"000"&amp;B6</f>
+        <v>000723</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J7" s="5" t="str">
+        <f>"000"&amp;B7</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J8" s="5" t="str">
+        <f>"000"&amp;B8</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J9" s="5" t="str">
+        <f>"000"&amp;B9</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J10" s="5" t="str">
+        <f>"000"&amp;B10</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J11" s="5" t="str">
+        <f>"000"&amp;B11</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J12" s="5" t="str">
+        <f>"000"&amp;B12</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J13" s="5" t="str">
+        <f>"000"&amp;B13</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J14" s="5" t="str">
+        <f t="shared" ref="J14:J31" si="0">"000"&amp;B14</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000915</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="6">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G16" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="J16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000920</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000922</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="J18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000923</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="J19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000926</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="J20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000927</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000928</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000930</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000931</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="J24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000934</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000935</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="J26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000936</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000937</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000938</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000940</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000941</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000942</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J32" s="5" t="str">
+        <f>"000"&amp;B32</f>
+        <v>000943</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J33" s="5" t="str">
+        <f>"000"&amp;B33</f>
+        <v>000944</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J34" s="5" t="str">
+        <f>"000"&amp;B34</f>
+        <v>000945</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J35" s="5" t="str">
+        <f>"000"&amp;B35</f>
+        <v>000946</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J36" s="5" t="str">
+        <f>"000"&amp;B36</f>
+        <v>000960</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J37" s="5" t="str">
+        <f>"000"&amp;B37</f>
+        <v>000961</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J38" s="5" t="str">
+        <f>"000"&amp;B38</f>
+        <v>000963</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J39" s="5" t="str">
+        <f>"000"&amp;B39</f>
+        <v>000964</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J40" s="5" t="str">
+        <f>"000"&amp;B40</f>
+        <v>000965</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J41" s="5" t="str">
+        <f>"000"&amp;B41</f>
+        <v>000966</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J42" s="5" t="str">
+        <f>"000"&amp;B42</f>
+        <v>000967</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J43" s="5" t="str">
+        <f>"000"&amp;B43</f>
+        <v>000968</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J44" s="5" t="str">
+        <f>"000"&amp;B44</f>
+        <v>000969</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J45" s="5" t="str">
+        <f>"000"&amp;B45</f>
+        <v>000970</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J46" s="5" t="str">
+        <f>"000"&amp;B46</f>
+        <v>000971</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J47" s="5" t="str">
+        <f>"000"&amp;B47</f>
+        <v>000972</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J48" s="5" t="str">
+        <f>"000"&amp;B48</f>
+        <v>000973</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B49" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J49" s="5" t="str">
+        <f>"000"&amp;B49</f>
+        <v>000974</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J50" s="5" t="str">
+        <f>"000"&amp;B50</f>
+        <v>000975</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J51" s="5" t="str">
+        <f>"000"&amp;B51</f>
+        <v>000979</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J52" s="5" t="str">
+        <f>"000"&amp;B52</f>
+        <v>000980</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J53" s="5" t="str">
+        <f>"000"&amp;B53</f>
+        <v>000981</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J54" s="5" t="str">
+        <f>"000"&amp;B54</f>
+        <v>000983</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B55" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J55" s="5" t="str">
+        <f>"000"&amp;B55</f>
+        <v>000984</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J56" s="5" t="str">
+        <f>"000"&amp;B56</f>
+        <v>000986</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J57" s="5" t="str">
+        <f>"000"&amp;B57</f>
+        <v>000987</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B58" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J58" s="5" t="str">
+        <f>"000"&amp;B58</f>
+        <v>000988</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J59" s="5" t="str">
+        <f>"000"&amp;B59</f>
+        <v>000989</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J60" s="5" t="str">
+        <f>"000"&amp;B60</f>
+        <v>000990</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J61" s="5" t="str">
+        <f>"000"&amp;B61</f>
+        <v>000991</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62" s="5" t="str">
+        <f>"000"&amp;B62</f>
+        <v>000993</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B63" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J63" s="5" t="str">
+        <f>"000"&amp;B63</f>
+        <v>000994</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" s="5" t="str">
+        <f>"000"&amp;B64</f>
+        <v>000995</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J65" s="5" t="str">
+        <f>"000"&amp;B65</f>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J66" s="5" t="str">
+        <f>"000"&amp;B66</f>
+        <v>000</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:L4" xr:uid="{0538F1C1-2570-401E-A9F2-4BEF1D958528}"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{4BD8861C-A4A7-4A60-A003-2116BD341883}">
+      <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:E1048576 D1:E3" xr:uid="{CCACDB5F-AB3D-42D2-9E15-7A0119E2BCC0}">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1153BACF-9FB9-4331-8C2E-2D6ADC580477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E04B1F-DFE3-44C2-A71A-73A8F20F8B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{87694299-5AA0-4D97-B707-F20F1FF08949}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="313">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1112,6 +1112,143 @@
   <si>
     <t>25678328</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊不惊喜，意不意外？没想到VB6到现在还在更新！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>309380</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74590843</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-02-15 08:39:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件不够，软件来凑？这次可有点不一样！音效增强软件 FXSound 让你坐享殿堂级音响设备效果！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>335590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11290250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-02-14 09:55:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足我小小的任性，我就是要把Win7安装到固态硬盘上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>032280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36453840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-02-07 08:22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【快速全面掌握 WAMPServer】03.玩转安装和升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>908</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>314580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77440149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-01-26 08:54:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【快速全面掌握 WAMPServer】02.亲密接触之前你必须知道的事情</t>
+  </si>
+  <si>
+    <t>906</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>229441</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95036332</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-01-19 14:49:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【快速全面掌握 WAMPServer】01.初次见面，请多关照</t>
+  </si>
+  <si>
+    <t>903351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99302335</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-01-12 15:33:09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>746480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33779406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-01-10 08:46:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将《先生请出山》放到桌面上，聊聊如何将视频做成动态壁纸</t>
   </si>
 </sst>
 </file>
@@ -1541,11 +1678,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0538F1C1-2570-401E-A9F2-4BEF1D958528}">
-  <dimension ref="A2:L66"/>
+  <dimension ref="A2:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1553,9 +1690,10 @@
     <col min="1" max="1" width="4.25" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="14" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="6" customWidth="1"/>
+    <col min="6" max="7" width="8.75" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="4" customWidth="1"/>
     <col min="10" max="10" width="14.625" style="5" customWidth="1"/>
     <col min="11" max="11" width="21.375" style="3" bestFit="1" customWidth="1"/>
@@ -1622,7 +1760,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="5" t="str">
-        <f>"000"&amp;B5</f>
+        <f t="shared" ref="J5:J31" si="0">"000"&amp;B5</f>
         <v>000721</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -1640,7 +1778,7 @@
         <v>11</v>
       </c>
       <c r="J6" s="5" t="str">
-        <f>"000"&amp;B6</f>
+        <f t="shared" si="0"/>
         <v>000723</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -1652,541 +1790,310 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J7" s="5" t="str">
-        <f>"000"&amp;B7</f>
+        <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J8" s="5" t="str">
-        <f>"000"&amp;B8</f>
+        <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J9" s="5" t="str">
-        <f>"000"&amp;B9</f>
+        <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J10" s="5" t="str">
-        <f>"000"&amp;B10</f>
+        <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J11" s="5" t="str">
-        <f>"000"&amp;B11</f>
+        <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J12" s="5" t="str">
-        <f>"000"&amp;B12</f>
+        <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J13" s="5" t="str">
-        <f>"000"&amp;B13</f>
+        <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J14" s="5" t="str">
-        <f t="shared" ref="J14:J31" si="0">"000"&amp;B14</f>
+        <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>275</v>
-      </c>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000915</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="6">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="G16" s="6">
-        <v>9.9</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>270</v>
-      </c>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000920</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000922</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>260</v>
-      </c>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000923</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>253</v>
-      </c>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000926</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>250</v>
-      </c>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000927</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>245</v>
-      </c>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000928</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>240</v>
-      </c>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000930</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>235</v>
-      </c>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000931</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>229</v>
-      </c>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000934</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>225</v>
-      </c>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000935</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>224</v>
+        <v>000</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>216</v>
+        <v>311</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>32</v>
+        <v>312</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="J26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000936</v>
+        <v>000903</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>218</v>
+        <v>308</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>219</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
-        <v>212</v>
+        <v>303</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>214</v>
+        <v>304</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>215</v>
+        <v>307</v>
       </c>
       <c r="J27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000937</v>
+        <v>000904</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>211</v>
+        <v>305</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>206</v>
+        <v>299</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D28" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="J28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000938</v>
+        <v>000906</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>209</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>201</v>
+        <v>294</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D29" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>205</v>
+        <v>297</v>
       </c>
       <c r="J29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000940</v>
+        <v>000908</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>203</v>
+        <v>295</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>204</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>196</v>
+        <v>288</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="J30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000941</v>
+        <v>000911</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>198</v>
+        <v>290</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>191</v>
+        <v>284</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>192</v>
+        <v>283</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>195</v>
+        <v>287</v>
       </c>
       <c r="J31" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000942</v>
+        <v>000913</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>193</v>
+        <v>285</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>186</v>
+        <v>278</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="J32" s="5" t="str">
-        <f>"000"&amp;B32</f>
-        <v>000943</v>
+        <f t="shared" ref="J32:J49" si="1">"000"&amp;B32</f>
+        <v>000914</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>181</v>
+        <v>274</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>32</v>
@@ -2195,133 +2102,139 @@
         <v>21</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="J33" s="5" t="str">
-        <f>"000"&amp;B33</f>
-        <v>000944</v>
+        <f t="shared" si="1"/>
+        <v>000915</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>183</v>
+        <v>276</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>176</v>
+        <v>266</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>32</v>
+      </c>
+      <c r="F34" s="6">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G34" s="6">
+        <v>9.9</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>179</v>
+        <v>270</v>
       </c>
       <c r="J34" s="5" t="str">
-        <f>"000"&amp;B34</f>
-        <v>000945</v>
+        <f t="shared" si="1"/>
+        <v>000920</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
-        <v>172</v>
+        <v>261</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E35" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>175</v>
+        <v>264</v>
       </c>
       <c r="J35" s="5" t="str">
-        <f>"000"&amp;B35</f>
-        <v>000946</v>
+        <f t="shared" si="1"/>
+        <v>000922</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E36" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="J36" s="5" t="str">
-        <f>"000"&amp;B36</f>
-        <v>000960</v>
+        <f t="shared" si="1"/>
+        <v>000923</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>168</v>
+        <v>257</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="57" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E37" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>165</v>
+        <v>253</v>
       </c>
       <c r="J37" s="5" t="str">
-        <f>"000"&amp;B37</f>
-        <v>000961</v>
+        <f t="shared" si="1"/>
+        <v>000926</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>163</v>
+        <v>254</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>158</v>
+        <v>246</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>32</v>
@@ -2330,697 +2243,1174 @@
         <v>21</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="J38" s="5" t="str">
-        <f>"000"&amp;B38</f>
-        <v>000963</v>
+        <f t="shared" si="1"/>
+        <v>000927</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
-        <v>152</v>
+        <v>241</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>151</v>
+        <v>242</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="J39" s="5" t="str">
-        <f>"000"&amp;B39</f>
-        <v>000964</v>
+        <f t="shared" si="1"/>
+        <v>000928</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>153</v>
+        <v>243</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>146</v>
+        <v>237</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>148</v>
+        <v>240</v>
       </c>
       <c r="J40" s="5" t="str">
-        <f>"000"&amp;B40</f>
-        <v>000965</v>
+        <f t="shared" si="1"/>
+        <v>000930</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>149</v>
+        <v>236</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>142</v>
+        <v>232</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="J41" s="5" t="str">
-        <f>"000"&amp;B41</f>
-        <v>000966</v>
+        <f t="shared" si="1"/>
+        <v>000931</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>143</v>
+        <v>233</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>137</v>
+        <v>227</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c r="J42" s="5" t="str">
-        <f>"000"&amp;B42</f>
-        <v>000967</v>
+        <f t="shared" si="1"/>
+        <v>000934</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>139</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
-        <v>132</v>
+        <v>221</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="H43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="J43" s="5" t="str">
-        <f>"000"&amp;B43</f>
-        <v>000968</v>
+        <f t="shared" si="1"/>
+        <v>000935</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>125</v>
+        <v>217</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="J44" s="5" t="str">
-        <f>"000"&amp;B44</f>
-        <v>000969</v>
+        <f t="shared" si="1"/>
+        <v>000936</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>126</v>
+        <v>218</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="J45" s="5" t="str">
-        <f>"000"&amp;B45</f>
-        <v>000970</v>
+        <f t="shared" si="1"/>
+        <v>000937</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>122</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>114</v>
+        <v>207</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="J46" s="5" t="str">
-        <f>"000"&amp;B46</f>
-        <v>000971</v>
+        <f t="shared" si="1"/>
+        <v>000938</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>109</v>
+        <v>202</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="J47" s="5" t="str">
-        <f>"000"&amp;B47</f>
-        <v>000972</v>
+        <f t="shared" si="1"/>
+        <v>000940</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>104</v>
+        <v>196</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="J48" s="5" t="str">
-        <f>"000"&amp;B48</f>
-        <v>000973</v>
+        <f t="shared" si="1"/>
+        <v>000941</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>107</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="J49" s="5" t="str">
-        <f>"000"&amp;B49</f>
-        <v>000974</v>
+        <f t="shared" si="1"/>
+        <v>000942</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>103</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J50" s="5" t="str">
+        <f t="shared" ref="J50:J84" si="2">"000"&amp;B50</f>
+        <v>000943</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J50" s="5" t="str">
-        <f>"000"&amp;B50</f>
-        <v>000975</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B51" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="J51" s="5" t="str">
-        <f>"000"&amp;B51</f>
-        <v>000979</v>
+        <f t="shared" si="2"/>
+        <v>000944</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>44</v>
+        <v>177</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="J52" s="5" t="str">
-        <f>"000"&amp;B52</f>
-        <v>000980</v>
+        <f t="shared" si="2"/>
+        <v>000945</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="J53" s="5" t="str">
-        <f>"000"&amp;B53</f>
-        <v>000981</v>
+        <f t="shared" si="2"/>
+        <v>000946</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="J54" s="5" t="str">
-        <f>"000"&amp;B54</f>
-        <v>000983</v>
+        <f t="shared" si="2"/>
+        <v>000960</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J55" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000961</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I55" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J55" s="5" t="str">
-        <f>"000"&amp;B55</f>
-        <v>000984</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B56" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="I56" s="4" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="J56" s="5" t="str">
-        <f>"000"&amp;B56</f>
-        <v>000986</v>
+        <f t="shared" si="2"/>
+        <v>000963</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="J57" s="5" t="str">
-        <f>"000"&amp;B57</f>
-        <v>000987</v>
+        <f t="shared" si="2"/>
+        <v>000964</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E58" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J58" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000965</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J59" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000966</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J60" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000967</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J58" s="5" t="str">
-        <f>"000"&amp;B58</f>
-        <v>000988</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B59" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J59" s="5" t="str">
-        <f>"000"&amp;B59</f>
-        <v>000989</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B60" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J60" s="5" t="str">
-        <f>"000"&amp;B60</f>
-        <v>000990</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B61" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I61" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J61" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000968</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J62" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000969</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B63" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J63" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000970</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J64" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000971</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J65" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000972</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B66" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J66" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000973</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B67" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J67" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000974</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B68" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J68" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000975</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B69" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J69" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000979</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B70" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J70" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000980</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B71" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J71" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000981</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B72" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J72" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000983</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B73" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J73" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000984</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B74" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J74" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000986</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B75" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J75" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000987</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J76" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000988</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B77" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J77" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000989</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B78" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J78" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000990</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B79" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J61" s="5" t="str">
-        <f>"000"&amp;B61</f>
+      <c r="J79" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>000991</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="K79" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="L79" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B62" s="4" t="s">
+    <row r="80" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B80" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="I80" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J62" s="5" t="str">
-        <f>"000"&amp;B62</f>
+      <c r="J80" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>000993</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="K80" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="L80" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B63" s="4" t="s">
+    <row r="81" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B81" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E81" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="I81" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J63" s="5" t="str">
-        <f>"000"&amp;B63</f>
+      <c r="J81" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>000994</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="K81" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="L81" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B64" s="4" t="s">
+    <row r="82" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B82" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="I82" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J64" s="5" t="str">
-        <f>"000"&amp;B64</f>
+      <c r="J82" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>000995</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="K82" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="L82" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J65" s="5" t="str">
-        <f>"000"&amp;B65</f>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J83" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J66" s="5" t="str">
-        <f>"000"&amp;B66</f>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J84" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E04B1F-DFE3-44C2-A71A-73A8F20F8B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC89B3A-506D-4813-8759-E124DB62E3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{87694299-5AA0-4D97-B707-F20F1FF08949}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="419">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1249,6 +1249,427 @@
   </si>
   <si>
     <t>将《先生请出山》放到桌面上，聊聊如何将视频做成动态壁纸</t>
+  </si>
+  <si>
+    <t>935180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17824187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>895</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Markdown 利器 Typora 突然不能升级了，原因令人意想不到！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-12-15 08:15:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>152190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>893</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55631394</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大神真闲传，又一款纯汇编撸成的操作系统：MenuetOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-12-08 09:12:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个可能是最好的VB连接SQLite的方法</t>
+  </si>
+  <si>
+    <t>530001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-12-01 10:00:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>889</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了在 Windows 11 上启用 IE ，我撸了个修复工具</t>
+  </si>
+  <si>
+    <t>924180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11-30 08:14:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32042135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现一款牛叉输入法“小狼毫”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>531331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77528247</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11-29 13:31:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这台电脑无法运行 Windows 11？试试这几招，管用！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>887</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11-26 13:03:04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取U盘神秘的最后访问时间（下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>884</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>926091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21605657</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11-18 19:06:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就在刚才有人问我怎么拼接合并 PDF 文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>938231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>876</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-10-21 13:28:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>875</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同语言系统下的文件名乱码问题</t>
+  </si>
+  <si>
+    <t>308180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48254280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-10-19 08:18:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何简单快速地清除带有无名分区的U盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>868</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>937211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98965625</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-09-22 11:27:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>865</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞职后全职开发的操作系统 SerenityOS 到底是个怎样的系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70119476</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-09-13 09:18:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>134390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28928913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>864</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动编译安装 KVM 就是找虐，万幸我还活着！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-09-07 09:34:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>304180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>862</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-09-01 08:14:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KVM 上安装 Mac OS X 到底难不难？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>861</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48561687</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-23 08:20:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初识 HaikuOS，一款小巧却功能强大的操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又一款“山寨” Windows 系统，可是这次感觉大不一样！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>860</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77150880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-19 09:32:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>436501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>857</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70413872</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试微软自家出品的 Linux 系统 CBL-Mariner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-10 10:56:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何让 ESXi 7.x 识别普通台式机的网卡？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>856</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>757190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74790846</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-09 09:17:57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单而快速地搞定 SQL Server 高可用（中篇）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>847</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66713402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-07-07 08:50:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>146580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81221587</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版 TPLINK 家用路由器实现自动修改 WIFI 密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-28 08:56:41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>844</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>613290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95605698</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-15 09:23:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历经艰难险阻，我搞定了自动修改路由器 WIFI 密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>841</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSLg 就是带 GUI 的 WSL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25005794</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>836</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-24 11:01:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win10 更新补丁后打印机挂了，这事儿也让我碰上了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-04-14 09:03:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39372798</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>828</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1678,11 +2099,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0538F1C1-2570-401E-A9F2-4BEF1D958528}">
-  <dimension ref="A2:L84"/>
+  <dimension ref="A2:L94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1705,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -1760,7 +2181,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="5" t="str">
-        <f t="shared" ref="J5:J31" si="0">"000"&amp;B5</f>
+        <f t="shared" ref="J5:J41" si="0">"000"&amp;B5</f>
         <v>000721</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -1830,1586 +2251,2084 @@
         <v>000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>415</v>
+      </c>
       <c r="J14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000</v>
+        <v>000828</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>413</v>
+      </c>
       <c r="J15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>000836</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>406</v>
+      </c>
       <c r="J16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+        <v>000841</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>402</v>
+      </c>
       <c r="J17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+        <v>000844</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>398</v>
+      </c>
       <c r="J18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+        <v>000847</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>393</v>
+      </c>
       <c r="J19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+        <v>000856</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>388</v>
+      </c>
       <c r="J20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+        <v>000857</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>383</v>
+      </c>
       <c r="J21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+        <v>000860</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>377</v>
+      </c>
       <c r="J22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000</v>
+        <v>000861</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>372</v>
+      </c>
       <c r="J23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+        <v>000862</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>369</v>
+      </c>
       <c r="J24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+        <v>000864</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>364</v>
+      </c>
       <c r="J25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000</v>
+        <v>000865</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>312</v>
+        <v>355</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="J26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000903</v>
+        <v>000868</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>32</v>
+        <v>351</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="J27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000904</v>
+        <v>000875</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>32</v>
+        <v>346</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="J28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000906</v>
+        <v>000876</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E29" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="J29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000908</v>
+        <v>000884</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>32</v>
+        <v>337</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="J30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000911</v>
+        <v>000887</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>32</v>
+        <v>332</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="J31" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000913</v>
+        <v>000888</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="J32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000889</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="J33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000890</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="J34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000893</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="J35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000895</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000903</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="J37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000904</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="J38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000906</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="J39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000908</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000911</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000913</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="E42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="J32" s="5" t="str">
-        <f t="shared" ref="J32:J49" si="1">"000"&amp;B32</f>
+      <c r="J42" s="5" t="str">
+        <f t="shared" ref="J42:J59" si="1">"000"&amp;B42</f>
         <v>000914</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="4" t="s">
+    <row r="43" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="4" t="s">
+      <c r="D43" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="J33" s="5" t="str">
+      <c r="J43" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000915</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B34" s="4" t="s">
+    <row r="44" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="6">
+      <c r="E44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="6">
         <v>19.899999999999999</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G44" s="6">
         <v>9.9</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="4" t="s">
+      <c r="H44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="J34" s="5" t="str">
+      <c r="J44" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000920</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L44" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B35" s="4" t="s">
+    <row r="45" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="4" t="s">
+      <c r="D45" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="J35" s="5" t="str">
+      <c r="J45" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000922</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B36" s="4" t="s">
+    <row r="46" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D36" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="4" t="s">
+      <c r="D46" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="J36" s="5" t="str">
+      <c r="J46" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000923</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K46" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L46" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="B37" s="4" t="s">
+    <row r="47" spans="2:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="4" t="s">
+      <c r="D47" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="J37" s="5" t="str">
+      <c r="J47" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000926</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L47" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B38" s="4" t="s">
+    <row r="48" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D38" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="4" t="s">
+      <c r="D48" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="J38" s="5" t="str">
+      <c r="J48" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000927</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L48" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B39" s="4" t="s">
+    <row r="49" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B49" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D39" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="4" t="s">
+      <c r="D49" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="J39" s="5" t="str">
+      <c r="J49" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000928</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K49" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L49" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B40" s="4" t="s">
+    <row r="50" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="4" t="s">
+      <c r="D50" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="J40" s="5" t="str">
+      <c r="J50" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000930</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L50" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B41" s="4" t="s">
+    <row r="51" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D41" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" s="1" t="s">
+      <c r="D51" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I51" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="J41" s="5" t="str">
+      <c r="J51" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000931</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B42" s="4" t="s">
+    <row r="52" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="4" t="s">
+      <c r="E52" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="J42" s="5" t="str">
+      <c r="J52" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000934</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L52" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="4" t="s">
+    <row r="53" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D43" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I43" s="4" t="s">
+      <c r="D53" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="J43" s="5" t="str">
+      <c r="J53" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000935</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K53" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L53" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="4" t="s">
+    <row r="54" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D44" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="4" t="s">
+      <c r="D54" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="J44" s="5" t="str">
+      <c r="J54" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000936</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K54" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L54" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B45" s="4" t="s">
+    <row r="55" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B55" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I55" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="J45" s="5" t="str">
+      <c r="J55" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000937</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K55" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L55" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="4" t="s">
+    <row r="56" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D46" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="4" t="s">
+      <c r="D56" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="J46" s="5" t="str">
+      <c r="J56" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000938</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="K56" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L56" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B47" s="4" t="s">
+    <row r="57" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D47" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="4" t="s">
+      <c r="D57" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="J47" s="5" t="str">
+      <c r="J57" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000940</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K57" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L57" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B48" s="4" t="s">
+    <row r="58" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B58" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="1" t="s">
+      <c r="D58" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I58" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="J48" s="5" t="str">
+      <c r="J58" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000941</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="L58" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B49" s="4" t="s">
+    <row r="59" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" s="4" t="s">
+      <c r="H59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="J49" s="5" t="str">
+      <c r="J59" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000942</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K59" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L59" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B50" s="4" t="s">
+    <row r="60" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I60" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="J50" s="5" t="str">
-        <f t="shared" ref="J50:J84" si="2">"000"&amp;B50</f>
+      <c r="J60" s="5" t="str">
+        <f t="shared" ref="J60:J94" si="2">"000"&amp;B60</f>
         <v>000943</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="K60" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="L60" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="4" t="s">
+    <row r="61" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D51" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51" s="4" t="s">
+      <c r="D61" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="J51" s="5" t="str">
+      <c r="J61" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000944</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K61" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L61" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B52" s="4" t="s">
+    <row r="62" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D52" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I52" s="4" t="s">
+      <c r="D62" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="J52" s="5" t="str">
+      <c r="J62" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000945</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K62" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="L62" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B53" s="4" t="s">
+    <row r="63" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B63" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53" s="4" t="s">
+      <c r="E63" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J53" s="5" t="str">
+      <c r="J63" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000946</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K63" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L63" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B54" s="4" t="s">
+    <row r="64" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I54" s="4" t="s">
+      <c r="E64" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="J54" s="5" t="str">
+      <c r="J64" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000960</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="K64" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="L64" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B55" s="4" t="s">
+    <row r="65" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="1" t="s">
+      <c r="E65" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="I65" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="J55" s="5" t="str">
+      <c r="J65" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000961</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="K65" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="L65" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B56" s="4" t="s">
+    <row r="66" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B66" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D56" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I56" s="4" t="s">
+      <c r="D66" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J56" s="5" t="str">
+      <c r="J66" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000963</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="K66" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L66" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B57" s="4" t="s">
+    <row r="67" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B67" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="I67" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J57" s="5" t="str">
+      <c r="J67" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000964</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="K67" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="L67" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B58" s="4" t="s">
+    <row r="68" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B68" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="I68" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="J58" s="5" t="str">
+      <c r="J68" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000965</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K68" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="L68" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B59" s="4" t="s">
+    <row r="69" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B69" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="I69" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="J59" s="5" t="str">
+      <c r="J69" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000966</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="K69" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="L69" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B60" s="4" t="s">
+    <row r="70" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B70" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="I70" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="J60" s="5" t="str">
+      <c r="J70" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000967</v>
       </c>
-      <c r="K60" s="3" t="s">
+      <c r="K70" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="L70" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B61" s="4" t="s">
+    <row r="71" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B71" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D61" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="6" t="s">
+      <c r="D71" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I61" s="4" t="s">
+      <c r="H71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J61" s="5" t="str">
+      <c r="J71" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000968</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="K71" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="L71" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B62" s="4" t="s">
+    <row r="72" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B72" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="I72" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="J62" s="5" t="str">
+      <c r="J72" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000969</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="K72" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="L72" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B63" s="4" t="s">
+    <row r="73" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B73" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="I73" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="J63" s="5" t="str">
+      <c r="J73" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000970</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="K73" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="L73" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B64" s="4" t="s">
+    <row r="74" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B74" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="I74" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="J64" s="5" t="str">
+      <c r="J74" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000971</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="K74" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="L74" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B65" s="4" t="s">
+    <row r="75" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B75" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="I75" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="J65" s="5" t="str">
+      <c r="J75" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000972</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="K75" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="L75" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B66" s="4" t="s">
+    <row r="76" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I66" s="4" t="s">
+      <c r="I76" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J66" s="5" t="str">
+      <c r="J76" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000973</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="K76" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="L76" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B67" s="4" t="s">
+    <row r="77" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B77" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E67" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H67" s="1" t="s">
+      <c r="E77" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="I77" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J67" s="5" t="str">
+      <c r="J77" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000974</v>
       </c>
-      <c r="K67" s="3" t="s">
+      <c r="K77" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="L77" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B68" s="4" t="s">
+    <row r="78" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B78" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E68" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H68" s="1" t="s">
+      <c r="E78" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="I78" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J68" s="5" t="str">
+      <c r="J78" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000975</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="K78" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="L78" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B69" s="4" t="s">
+    <row r="79" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B79" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E79" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I69" s="4" t="s">
+      <c r="H79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J69" s="5" t="str">
+      <c r="J79" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000979</v>
       </c>
-      <c r="K69" s="3" t="s">
+      <c r="K79" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="L79" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B70" s="4" t="s">
+    <row r="80" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B80" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E80" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="I80" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J70" s="5" t="str">
+      <c r="J80" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000980</v>
       </c>
-      <c r="K70" s="3" t="s">
+      <c r="K80" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="L80" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B71" s="4" t="s">
+    <row r="81" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B81" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E81" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I71" s="4" t="s">
+      <c r="I81" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J71" s="5" t="str">
+      <c r="J81" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000981</v>
       </c>
-      <c r="K71" s="3" t="s">
+      <c r="K81" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="L81" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B72" s="4" t="s">
+    <row r="82" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B82" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E82" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I72" s="4" t="s">
+      <c r="H82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J72" s="5" t="str">
+      <c r="J82" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000983</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="K82" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L72" s="2" t="s">
+      <c r="L82" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B73" s="4" t="s">
+    <row r="83" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B83" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E83" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I73" s="4" t="s">
+      <c r="H83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J73" s="5" t="str">
+      <c r="J83" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000984</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L73" s="2" t="s">
+      <c r="L83" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B74" s="4" t="s">
+    <row r="84" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B84" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H74" s="1" t="s">
+      <c r="E84" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="I84" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J74" s="5" t="str">
+      <c r="J84" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000986</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="K84" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L74" s="2" t="s">
+      <c r="L84" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B75" s="4" t="s">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B85" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E85" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I75" s="4" t="s">
+      <c r="H85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J75" s="5" t="str">
+      <c r="J85" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000987</v>
       </c>
-      <c r="K75" s="3" t="s">
+      <c r="K85" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="L85" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B76" s="4" t="s">
+    <row r="86" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B86" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E86" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="I86" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J76" s="5" t="str">
+      <c r="J86" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000988</v>
       </c>
-      <c r="K76" s="3" t="s">
+      <c r="K86" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L76" s="2" t="s">
+      <c r="L86" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B77" s="4" t="s">
+    <row r="87" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B87" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E87" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I77" s="4" t="s">
+      <c r="H87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I87" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J77" s="5" t="str">
+      <c r="J87" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000989</v>
       </c>
-      <c r="K77" s="3" t="s">
+      <c r="K87" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L77" s="2" t="s">
+      <c r="L87" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B78" s="4" t="s">
+    <row r="88" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B88" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E88" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I78" s="4" t="s">
+      <c r="H88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J78" s="5" t="str">
+      <c r="J88" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000990</v>
       </c>
-      <c r="K78" s="3" t="s">
+      <c r="K88" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L78" s="2" t="s">
+      <c r="L88" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B79" s="4" t="s">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B89" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H79" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I79" s="4" t="s">
+      <c r="H89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I89" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J79" s="5" t="str">
+      <c r="J89" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000991</v>
       </c>
-      <c r="K79" s="3" t="s">
+      <c r="K89" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="L89" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B80" s="4" t="s">
+    <row r="90" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B90" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H90" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="I90" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J80" s="5" t="str">
+      <c r="J90" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000993</v>
       </c>
-      <c r="K80" s="3" t="s">
+      <c r="K90" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="L90" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B81" s="4" t="s">
+    <row r="91" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B91" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E81" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H81" s="1" t="s">
+      <c r="E91" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H91" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I81" s="4" t="s">
+      <c r="I91" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J81" s="5" t="str">
+      <c r="J91" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000994</v>
       </c>
-      <c r="K81" s="3" t="s">
+      <c r="K91" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L81" s="2" t="s">
+      <c r="L91" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B82" s="4" t="s">
+    <row r="92" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B92" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I82" s="4" t="s">
+      <c r="H92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I92" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J82" s="5" t="str">
+      <c r="J92" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000995</v>
       </c>
-      <c r="K82" s="3" t="s">
+      <c r="K92" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L82" s="2" t="s">
+      <c r="L92" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J83" s="5" t="str">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J93" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J84" s="5" t="str">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J94" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC89B3A-506D-4813-8759-E124DB62E3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6B6221-97BB-461D-A061-9E98BBDD6559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{87694299-5AA0-4D97-B707-F20F1FF08949}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="545">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1669,6 +1669,510 @@
   </si>
   <si>
     <t>828</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用U盘制作工具，超简单方法让 Windows 7 通过 UEFI 方式启动并安装系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>052231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07280213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-03-26 13:22:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>824</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诡异的 SATAFIRM S11 硬盘问题，重启数据自动还原？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>823</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>427290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36789439</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-03-26 09:27:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌面版 FreeBSD 系统 HelloSystem 初体验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>836380</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96702065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-02-25 08:36:38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用 Symantec Backup Exec 将数据备份到磁带库中（二）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-02-12 14:26:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77856816</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>808</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>307551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25342739</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-02-03 15:57:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUTLOOK 缓存模式下调整缓存保留时间的滑动块为什么是灰色的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>659090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40820813</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-01-29 09:09:56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试自制 Windows File Recovery 文件恢复便捷工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>621090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44116806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-01-26 09:01:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一文搞懂 phpVirtualBox 远程管理 VirtualBox 服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用 UrBackup 备份和恢复 MySQL 和 MariaDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>914090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40581887</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-01-20 09:04:19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>444480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11524547</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-01-20 08:44:44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用 UrBackup 备份和恢复 Microsoft SQL Server (MSSQL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>826090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有没有优雅一点的BitLocker密钥查询方法？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-29 09:06:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>795</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>518321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-24 12:38:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理中如何记住那么多管理员密码？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>794</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40157510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何手工打造一款公平的年会抽奖软件（二）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>306161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65642495</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-11 16:16:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>791</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>754151</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>781</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14553840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何离线安装XPS查看器？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-11-10 15:14:57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还想免费玩 VMware vSphere Hypervisor 7.x？小心别被坑了哦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>765</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>356101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09719702</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-08-11 10:16:53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>040521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44194803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>759</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版 Microsoft Edge 完整版下载的正确姿势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-07-20 12:50:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>758</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37450776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-07-20 11:13:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳尼？Windows照片查看器无法显示此图片？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用VB实现Win10内置应用的安装和卸载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>359122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32715768</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>754</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-07-06 22:19:53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25991328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-07-02 13:19:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win10或2016下的NetFramework3.5安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>753</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>751</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>748101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70487512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-22 10:18:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字洗牌游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22308068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-20 15:30:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VB自制Win10锁屏壁纸自定义程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAMPServer最新版一键安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>746</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58998254</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-13 11:26:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能是最简单省钱的数据备份方案：OpenMediaVault+UrBackup 打造整机备份方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>843111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51261257</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-09 11:13:48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>742</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看小白如何用VB连接使用PostgreSQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70750440</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-05 12:41:04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>418041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能是最简单省钱的数据备份方案：XigmaNas+UrBackup 打造整机备份方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47450576</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-03 14:08:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>739</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VB+SQLite组合，真香！（二）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-05-12 15:08:46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>996</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>809141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54837657</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-11-13 14:19:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我又做了一个Windows11下打开IE11的小工具，虽然不一定好使，但关键它不伤系统不修改替换文件！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1736,7 +2240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1764,25 +2268,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2099,11 +2600,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0538F1C1-2570-401E-A9F2-4BEF1D958528}">
-  <dimension ref="A2:L94"/>
+  <dimension ref="A2:L126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="4" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2111,14 +2612,14 @@
     <col min="1" max="1" width="4.25" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="14" customWidth="1"/>
+    <col min="4" max="4" width="7" style="9" customWidth="1"/>
     <col min="5" max="5" width="6.875" style="6" customWidth="1"/>
     <col min="6" max="7" width="8.75" style="6" customWidth="1"/>
     <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="4" customWidth="1"/>
     <col min="10" max="10" width="14.625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="21.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2126,17 +2627,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="10" t="s">
         <v>135</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -2151,16 +2653,16 @@
       <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2174,6 +2676,15 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6">
+        <v>18</v>
+      </c>
+      <c r="G5" s="6">
+        <v>10</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
@@ -2181,7 +2692,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="5" t="str">
-        <f t="shared" ref="J5:J41" si="0">"000"&amp;B5</f>
+        <f t="shared" ref="J5:J61" si="0">"000"&amp;B5</f>
         <v>000721</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -2195,8 +2706,23 @@
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6">
+        <v>39</v>
+      </c>
+      <c r="G6" s="6">
+        <v>19</v>
+      </c>
       <c r="H6" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>539</v>
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2227,2108 +2753,2843 @@
         <v>000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>536</v>
+      </c>
       <c r="J10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>000739</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>532</v>
+      </c>
       <c r="J11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>000740</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>526</v>
+      </c>
       <c r="J12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000</v>
+        <v>000742</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>522</v>
+      </c>
       <c r="J13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>000746</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>418</v>
+        <v>513</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>32</v>
+        <v>517</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>415</v>
+        <v>515</v>
       </c>
       <c r="J14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000828</v>
+        <v>000750</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>416</v>
+        <v>516</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>417</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>412</v>
+        <v>508</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>32</v>
+        <v>512</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>413</v>
+        <v>511</v>
       </c>
       <c r="J15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000836</v>
+        <v>000751</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>410</v>
+        <v>509</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>411</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>408</v>
+        <v>507</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>407</v>
+        <v>506</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>406</v>
+        <v>505</v>
       </c>
       <c r="J16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000841</v>
+        <v>000753</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>404</v>
+        <v>503</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>405</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>403</v>
+        <v>501</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>401</v>
+        <v>498</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>402</v>
+        <v>502</v>
       </c>
       <c r="J17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000844</v>
+        <v>000754</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>399</v>
+        <v>499</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>396</v>
+        <v>494</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>32</v>
+        <v>497</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>398</v>
+        <v>496</v>
       </c>
       <c r="J18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000847</v>
+        <v>000758</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>395</v>
+        <v>493</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>397</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>390</v>
+        <v>490</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D19" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>393</v>
+        <v>492</v>
       </c>
       <c r="J19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000856</v>
+        <v>000759</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>391</v>
+        <v>488</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>392</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>385</v>
+        <v>484</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>32</v>
+        <v>483</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="6">
+        <v>29</v>
+      </c>
+      <c r="G20" s="6">
+        <v>19</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>388</v>
+        <v>487</v>
       </c>
       <c r="J20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000857</v>
+        <v>000765</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>384</v>
+        <v>485</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>380</v>
+        <v>479</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>379</v>
+        <v>481</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>383</v>
+        <v>482</v>
       </c>
       <c r="J21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000860</v>
+        <v>000781</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>381</v>
+        <v>478</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>382</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
-        <v>375</v>
+        <v>477</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D22" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>377</v>
+        <v>476</v>
       </c>
       <c r="J22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000861</v>
+        <v>000791</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>374</v>
+        <v>474</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
-        <v>371</v>
+        <v>471</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D23" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>372</v>
+        <v>469</v>
       </c>
       <c r="J23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000862</v>
+        <v>000794</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>370</v>
+        <v>468</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>219</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
-        <v>367</v>
+        <v>467</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D24" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>369</v>
+        <v>466</v>
       </c>
       <c r="J24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000864</v>
+        <v>000795</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>365</v>
+        <v>464</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>366</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>360</v>
+        <v>459</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>32</v>
+        <v>463</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="6">
+        <v>39</v>
+      </c>
+      <c r="G25" s="6">
+        <v>19</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>364</v>
+        <v>462</v>
       </c>
       <c r="J25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000865</v>
+        <v>000800</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>362</v>
+        <v>460</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>363</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>356</v>
+        <v>458</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>32</v>
+        <v>454</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="6">
+        <v>39</v>
+      </c>
+      <c r="G26" s="6">
+        <v>19</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>359</v>
+        <v>457</v>
       </c>
       <c r="J26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000868</v>
+        <v>000801</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>357</v>
+        <v>455</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
-        <v>350</v>
+        <v>453</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>351</v>
+        <v>452</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>354</v>
+        <v>451</v>
       </c>
       <c r="J27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000875</v>
+        <v>000802</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>352</v>
+        <v>449</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>353</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>348</v>
+        <v>444</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>346</v>
+        <v>448</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>349</v>
+        <v>447</v>
       </c>
       <c r="J28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000876</v>
+        <v>000804</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>347</v>
+        <v>445</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>342</v>
+        <v>441</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>32</v>
+        <v>443</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>345</v>
+        <v>442</v>
       </c>
       <c r="J29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000884</v>
+        <v>000806</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>343</v>
+        <v>439</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>344</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>338</v>
+        <v>438</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>337</v>
+        <v>434</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>340</v>
+        <v>435</v>
       </c>
       <c r="J30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000887</v>
+        <v>000808</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>339</v>
+        <v>436</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>333</v>
+        <v>430</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>332</v>
+        <v>429</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>336</v>
+        <v>433</v>
       </c>
       <c r="J31" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000888</v>
+        <v>000812</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>334</v>
+        <v>431</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>335</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>327</v>
+        <v>425</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="F32" s="6">
+        <v>19</v>
+      </c>
+      <c r="G32" s="6">
+        <v>10</v>
+      </c>
       <c r="H32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>330</v>
+        <v>428</v>
       </c>
       <c r="J32" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000889</v>
+        <v>000823</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>329</v>
+        <v>426</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>323</v>
+        <v>423</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E33" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>326</v>
+        <v>422</v>
       </c>
       <c r="J33" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000890</v>
+        <v>000824</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>325</v>
+        <v>420</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>169</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>319</v>
+        <v>418</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>321</v>
+        <v>414</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>322</v>
+        <v>415</v>
       </c>
       <c r="J34" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000893</v>
+        <v>000828</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>318</v>
+        <v>416</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
-        <v>315</v>
+        <v>412</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D35" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>317</v>
+        <v>413</v>
       </c>
       <c r="J35" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000895</v>
+        <v>000836</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>313</v>
+        <v>410</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>314</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>311</v>
+        <v>408</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>312</v>
+        <v>407</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>310</v>
+        <v>406</v>
       </c>
       <c r="J36" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000903</v>
+        <v>000841</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>308</v>
+        <v>404</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>309</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
-        <v>303</v>
+        <v>403</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>32</v>
+        <v>401</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>307</v>
+        <v>402</v>
       </c>
       <c r="J37" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000904</v>
+        <v>000844</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>305</v>
+        <v>399</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>306</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>299</v>
+        <v>396</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E38" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>302</v>
+        <v>398</v>
       </c>
       <c r="J38" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000906</v>
+        <v>000847</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>300</v>
+        <v>395</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>301</v>
+        <v>397</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
-        <v>294</v>
+        <v>390</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E39" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>297</v>
+        <v>393</v>
       </c>
       <c r="J39" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000908</v>
+        <v>000856</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>295</v>
+        <v>391</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>296</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
-        <v>289</v>
+        <v>385</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D40" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>292</v>
+        <v>388</v>
       </c>
       <c r="J40" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000911</v>
+        <v>000857</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>290</v>
+        <v>384</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
-        <v>284</v>
+        <v>380</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>32</v>
+        <v>379</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>287</v>
+        <v>383</v>
       </c>
       <c r="J41" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000913</v>
+        <v>000860</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>285</v>
+        <v>381</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>286</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="J42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000861</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="J43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000862</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="J44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000864</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="J45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000865</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="J46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000868</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000875</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="J48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000876</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B49" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="J49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000884</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="J50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000887</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="J51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000888</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="6">
+        <v>39</v>
+      </c>
+      <c r="G52" s="6">
+        <v>19</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="J52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000889</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="6">
+        <v>68</v>
+      </c>
+      <c r="G53" s="6">
+        <v>48</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="J53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000890</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="J54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000893</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B55" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="J55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000895</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000903</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="J57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000904</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B58" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="J58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000906</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="J59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000908</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000911</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J61" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000913</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="1" t="s">
+      <c r="E62" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I62" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="J42" s="5" t="str">
-        <f t="shared" ref="J42:J59" si="1">"000"&amp;B42</f>
+      <c r="J62" s="5" t="str">
+        <f t="shared" ref="J62:J79" si="1">"000"&amp;B62</f>
         <v>000914</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K62" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L62" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B43" s="4" t="s">
+    <row r="63" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B63" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D43" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I43" s="4" t="s">
+      <c r="D63" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="J43" s="5" t="str">
+      <c r="J63" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000915</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K63" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L63" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B44" s="4" t="s">
+    <row r="64" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" s="6">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="G44" s="6">
-        <v>9.9</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="4" t="s">
+      <c r="E64" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="6">
+        <v>19</v>
+      </c>
+      <c r="G64" s="6">
+        <v>9</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="J44" s="5" t="str">
+      <c r="J64" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000920</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K64" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L64" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B45" s="4" t="s">
+    <row r="65" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D45" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="4" t="s">
+      <c r="D65" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="J45" s="5" t="str">
+      <c r="J65" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000922</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K65" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L65" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B46" s="4" t="s">
+    <row r="66" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B66" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D46" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="4" t="s">
+      <c r="D66" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="J46" s="5" t="str">
+      <c r="J66" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000923</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="K66" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L66" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="B47" s="4" t="s">
+    <row r="67" spans="2:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="B67" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D47" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="4" t="s">
+      <c r="D67" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="J47" s="5" t="str">
+      <c r="J67" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000926</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K67" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L67" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B48" s="4" t="s">
+    <row r="68" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B68" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D48" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I48" s="4" t="s">
+      <c r="D68" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="J48" s="5" t="str">
+      <c r="J68" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000927</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="K68" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="L68" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B49" s="4" t="s">
+    <row r="69" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B69" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D49" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" s="4" t="s">
+      <c r="D69" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="J49" s="5" t="str">
+      <c r="J69" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000928</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K69" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L69" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B50" s="4" t="s">
+    <row r="70" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B70" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D50" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I50" s="4" t="s">
+      <c r="D70" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="J50" s="5" t="str">
+      <c r="J70" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000930</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="K70" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="L70" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B51" s="4" t="s">
+    <row r="71" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B71" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D51" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="1" t="s">
+      <c r="D71" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I71" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="J51" s="5" t="str">
+      <c r="J71" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000931</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K71" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L71" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B52" s="4" t="s">
+    <row r="72" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B72" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I52" s="4" t="s">
+      <c r="E72" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72" s="6">
+        <v>59</v>
+      </c>
+      <c r="G72" s="6">
+        <v>39</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="J52" s="5" t="str">
+      <c r="J72" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000934</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K72" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="L72" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B53" s="4" t="s">
+    <row r="73" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B73" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D53" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53" s="4" t="s">
+      <c r="D73" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="J53" s="5" t="str">
+      <c r="J73" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000935</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K73" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L73" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B54" s="4" t="s">
+    <row r="74" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B74" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D54" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I54" s="4" t="s">
+      <c r="D74" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="J54" s="5" t="str">
+      <c r="J74" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000936</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="K74" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="L74" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B55" s="4" t="s">
+    <row r="75" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B75" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="I75" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="J55" s="5" t="str">
+      <c r="J75" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000937</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="K75" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="L75" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B56" s="4" t="s">
+    <row r="76" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D56" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I56" s="4" t="s">
+      <c r="D76" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="J56" s="5" t="str">
+      <c r="J76" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000938</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="K76" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L76" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B57" s="4" t="s">
+    <row r="77" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B77" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D57" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I57" s="4" t="s">
+      <c r="D77" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="J57" s="5" t="str">
+      <c r="J77" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000940</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="K77" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="L77" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B58" s="4" t="s">
+    <row r="78" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B78" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D58" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H58" s="1" t="s">
+      <c r="D78" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="I78" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="J58" s="5" t="str">
+      <c r="J78" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000941</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K78" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="L78" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B59" s="4" t="s">
+    <row r="79" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B79" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I59" s="4" t="s">
+      <c r="H79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="J59" s="5" t="str">
+      <c r="J79" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000942</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="K79" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="L79" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B60" s="4" t="s">
+    <row r="80" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B80" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="I80" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="J60" s="5" t="str">
-        <f t="shared" ref="J60:J94" si="2">"000"&amp;B60</f>
+      <c r="J80" s="5" t="str">
+        <f t="shared" ref="J80:J126" si="2">"000"&amp;B80</f>
         <v>000943</v>
       </c>
-      <c r="K60" s="3" t="s">
+      <c r="K80" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="L80" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B61" s="4" t="s">
+    <row r="81" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B81" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D61" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I61" s="4" t="s">
+      <c r="D81" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="J61" s="5" t="str">
+      <c r="J81" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000944</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="K81" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="L81" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B62" s="4" t="s">
+    <row r="82" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B82" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D62" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I62" s="4" t="s">
+      <c r="D82" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="J62" s="5" t="str">
+      <c r="J82" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000945</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="K82" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="L82" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B63" s="4" t="s">
+    <row r="83" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B83" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I63" s="4" t="s">
+      <c r="E83" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F83" s="6">
+        <v>69</v>
+      </c>
+      <c r="G83" s="6">
+        <v>49</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J63" s="5" t="str">
+      <c r="J83" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000946</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="L83" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B64" s="4" t="s">
+    <row r="84" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B84" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E64" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" s="4" t="s">
+      <c r="E84" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F84" s="6">
+        <v>88</v>
+      </c>
+      <c r="G84" s="6">
+        <v>68</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="J64" s="5" t="str">
+      <c r="J84" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000960</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="K84" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="L84" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B65" s="4" t="s">
+    <row r="85" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B85" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H65" s="1" t="s">
+      <c r="E85" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F85" s="6">
+        <v>89</v>
+      </c>
+      <c r="G85" s="6">
+        <v>69</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="I85" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="J65" s="5" t="str">
+      <c r="J85" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000961</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="K85" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="L85" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B66" s="4" t="s">
+    <row r="86" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B86" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D66" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66" s="4" t="s">
+      <c r="D86" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J66" s="5" t="str">
+      <c r="J86" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000963</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="K86" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="L86" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B67" s="4" t="s">
+    <row r="87" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B87" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="I87" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J67" s="5" t="str">
+      <c r="J87" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000964</v>
       </c>
-      <c r="K67" s="3" t="s">
+      <c r="K87" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="L87" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B68" s="4" t="s">
+    <row r="88" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B88" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H88" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="I88" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="J68" s="5" t="str">
+      <c r="J88" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000965</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="K88" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="L88" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B69" s="4" t="s">
+    <row r="89" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B89" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="I89" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="J69" s="5" t="str">
+      <c r="J89" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000966</v>
       </c>
-      <c r="K69" s="3" t="s">
+      <c r="K89" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="L89" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B70" s="4" t="s">
+    <row r="90" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B90" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H90" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="I90" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="J70" s="5" t="str">
+      <c r="J90" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000967</v>
       </c>
-      <c r="K70" s="3" t="s">
+      <c r="K90" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="L90" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B71" s="4" t="s">
+    <row r="91" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B91" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D71" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I71" s="4" t="s">
+      <c r="D91" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J71" s="5" t="str">
+      <c r="J91" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000968</v>
       </c>
-      <c r="K71" s="3" t="s">
+      <c r="K91" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="L91" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B72" s="4" t="s">
+    <row r="92" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B92" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I72" s="4" t="s">
+      <c r="I92" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="J72" s="5" t="str">
+      <c r="J92" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000969</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="K92" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="L72" s="2" t="s">
+      <c r="L92" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B73" s="4" t="s">
+    <row r="93" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B93" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H93" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I73" s="4" t="s">
+      <c r="I93" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="J73" s="5" t="str">
+      <c r="J93" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000970</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="K93" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="L73" s="2" t="s">
+      <c r="L93" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B74" s="4" t="s">
+    <row r="94" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B94" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="I94" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="J74" s="5" t="str">
+      <c r="J94" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000971</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L74" s="2" t="s">
+      <c r="L94" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B75" s="4" t="s">
+    <row r="95" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B95" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="I95" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="J75" s="5" t="str">
+      <c r="J95" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000972</v>
       </c>
-      <c r="K75" s="3" t="s">
+      <c r="K95" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="L95" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B76" s="4" t="s">
+    <row r="96" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B96" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H96" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="I96" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J76" s="5" t="str">
+      <c r="J96" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000973</v>
       </c>
-      <c r="K76" s="3" t="s">
+      <c r="K96" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="L76" s="2" t="s">
+      <c r="L96" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B77" s="4" t="s">
+    <row r="97" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B97" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H77" s="1" t="s">
+      <c r="E97" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H97" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I77" s="4" t="s">
+      <c r="I97" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J77" s="5" t="str">
+      <c r="J97" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000974</v>
       </c>
-      <c r="K77" s="3" t="s">
+      <c r="K97" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L77" s="2" t="s">
+      <c r="L97" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B78" s="4" t="s">
+    <row r="98" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B98" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E78" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H78" s="1" t="s">
+      <c r="E98" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I78" s="4" t="s">
+      <c r="I98" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J78" s="5" t="str">
+      <c r="J98" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000975</v>
       </c>
-      <c r="K78" s="3" t="s">
+      <c r="K98" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L78" s="2" t="s">
+      <c r="L98" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B79" s="4" t="s">
+    <row r="99" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B99" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E79" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I79" s="4" t="s">
+      <c r="H99" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I99" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J79" s="5" t="str">
+      <c r="J99" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000979</v>
       </c>
-      <c r="K79" s="3" t="s">
+      <c r="K99" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="L99" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B80" s="4" t="s">
+    <row r="100" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B100" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E80" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H80" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="I100" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J80" s="5" t="str">
+      <c r="J100" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000980</v>
       </c>
-      <c r="K80" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="L100" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B81" s="4" t="s">
+    <row r="101" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B101" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E81" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H81" s="1" t="s">
+      <c r="H101" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I81" s="4" t="s">
+      <c r="I101" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J81" s="5" t="str">
+      <c r="J101" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000981</v>
       </c>
-      <c r="K81" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L81" s="2" t="s">
+      <c r="L101" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B82" s="4" t="s">
+    <row r="102" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B102" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I82" s="4" t="s">
+      <c r="H102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I102" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J82" s="5" t="str">
+      <c r="J102" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000983</v>
       </c>
-      <c r="K82" s="3" t="s">
+      <c r="K102" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L82" s="2" t="s">
+      <c r="L102" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B83" s="4" t="s">
+    <row r="103" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B103" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I83" s="4" t="s">
+      <c r="H103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I103" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J83" s="5" t="str">
+      <c r="J103" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000984</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="K103" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L83" s="2" t="s">
+      <c r="L103" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B84" s="4" t="s">
+    <row r="104" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B104" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H84" s="1" t="s">
+      <c r="E104" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="I104" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J84" s="5" t="str">
+      <c r="J104" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000986</v>
       </c>
-      <c r="K84" s="3" t="s">
+      <c r="K104" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L84" s="2" t="s">
+      <c r="L104" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B85" s="4" t="s">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B105" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E105" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I85" s="4" t="s">
+      <c r="H105" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I105" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J85" s="5" t="str">
+      <c r="J105" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000987</v>
       </c>
-      <c r="K85" s="3" t="s">
+      <c r="K105" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L85" s="2" t="s">
+      <c r="L105" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B86" s="4" t="s">
+    <row r="106" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B106" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E106" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H106" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I86" s="4" t="s">
+      <c r="I106" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J86" s="5" t="str">
+      <c r="J106" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000988</v>
       </c>
-      <c r="K86" s="3" t="s">
+      <c r="K106" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L86" s="2" t="s">
+      <c r="L106" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B87" s="4" t="s">
+    <row r="107" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B107" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E107" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I87" s="4" t="s">
+      <c r="H107" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I107" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J87" s="5" t="str">
+      <c r="J107" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000989</v>
       </c>
-      <c r="K87" s="3" t="s">
+      <c r="K107" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L87" s="2" t="s">
+      <c r="L107" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B88" s="4" t="s">
+    <row r="108" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B108" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E108" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H88" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I88" s="4" t="s">
+      <c r="H108" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I108" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J88" s="5" t="str">
+      <c r="J108" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000990</v>
       </c>
-      <c r="K88" s="3" t="s">
+      <c r="K108" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L88" s="2" t="s">
+      <c r="L108" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B89" s="4" t="s">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B109" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H89" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I89" s="4" t="s">
+      <c r="H109" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I109" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J89" s="5" t="str">
+      <c r="J109" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000991</v>
       </c>
-      <c r="K89" s="3" t="s">
+      <c r="K109" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L89" s="2" t="s">
+      <c r="L109" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B90" s="4" t="s">
+    <row r="110" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B110" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H110" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I90" s="4" t="s">
+      <c r="I110" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J90" s="5" t="str">
+      <c r="J110" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000993</v>
       </c>
-      <c r="K90" s="3" t="s">
+      <c r="K110" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L90" s="2" t="s">
+      <c r="L110" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B91" s="4" t="s">
+    <row r="111" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B111" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E91" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H91" s="1" t="s">
+      <c r="E111" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H111" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I91" s="4" t="s">
+      <c r="I111" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J91" s="5" t="str">
+      <c r="J111" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000994</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K111" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L91" s="2" t="s">
+      <c r="L111" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B92" s="4" t="s">
+    <row r="112" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B112" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I92" s="4" t="s">
+      <c r="H112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I112" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J92" s="5" t="str">
+      <c r="J112" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000995</v>
       </c>
-      <c r="K92" s="3" t="s">
+      <c r="K112" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L92" s="2" t="s">
+      <c r="L112" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J93" s="5" t="str">
+    <row r="113" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B113" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="J113" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000996</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J114" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J94" s="5" t="str">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J115" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J116" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J117" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J118" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J119" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J120" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J121" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J122" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J123" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J124" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J125" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J126" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
@@ -4337,11 +5598,11 @@
   <autoFilter ref="A4:L4" xr:uid="{0538F1C1-2570-401E-A9F2-4BEF1D958528}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E3 D5:E1048576" xr:uid="{CCACDB5F-AB3D-42D2-9E15-7A0119E2BCC0}">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{4BD8861C-A4A7-4A60-A003-2116BD341883}">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:E1048576 D1:E3" xr:uid="{CCACDB5F-AB3D-42D2-9E15-7A0119E2BCC0}">
-      <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6B6221-97BB-461D-A061-9E98BBDD6559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2DE67A-D456-410F-A6D2-191BDDCAC2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{87694299-5AA0-4D97-B707-F20F1FF08949}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="544">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,9 +210,6 @@
   <si>
     <t>990</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
   </si>
   <si>
     <t>2022-10-08 20:00:08</t>
@@ -2603,8 +2600,8 @@
   <dimension ref="A2:L126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2639,16 +2636,16 @@
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -2707,7 +2704,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>32</v>
@@ -2722,7 +2719,7 @@
         <v>11</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2755,10 +2752,10 @@
     </row>
     <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>32</v>
@@ -2767,25 +2764,25 @@
         <v>21</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000739</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>32</v>
@@ -2794,145 +2791,145 @@
         <v>11</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000740</v>
       </c>
       <c r="K11" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000742</v>
       </c>
       <c r="K12" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000746</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000750</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000751</v>
       </c>
       <c r="K15" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000753</v>
       </c>
       <c r="K16" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>32</v>
@@ -2941,76 +2938,76 @@
         <v>11</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000754</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000758</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>492</v>
       </c>
       <c r="J19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000759</v>
       </c>
       <c r="K19" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>32</v>
@@ -3025,52 +3022,52 @@
         <v>21</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000765</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>481</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>482</v>
       </c>
       <c r="J21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000781</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>32</v>
@@ -3079,25 +3076,25 @@
         <v>11</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000791</v>
       </c>
       <c r="K22" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>32</v>
@@ -3106,52 +3103,52 @@
         <v>21</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000794</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>466</v>
       </c>
       <c r="J24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000795</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>32</v>
@@ -3166,25 +3163,25 @@
         <v>21</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000800</v>
       </c>
       <c r="K25" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>32</v>
@@ -3199,25 +3196,25 @@
         <v>21</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000801</v>
       </c>
       <c r="K26" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>32</v>
@@ -3226,25 +3223,25 @@
         <v>21</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000802</v>
       </c>
       <c r="K27" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>32</v>
@@ -3253,73 +3250,73 @@
         <v>21</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J28" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000804</v>
       </c>
       <c r="K28" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>442</v>
       </c>
       <c r="J29" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000806</v>
       </c>
       <c r="K29" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>435</v>
       </c>
       <c r="J30" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000808</v>
       </c>
       <c r="K30" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>32</v>
@@ -3328,25 +3325,25 @@
         <v>21</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J31" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000812</v>
       </c>
       <c r="K31" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>32</v>
@@ -3361,25 +3358,25 @@
         <v>21</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J32" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000823</v>
       </c>
       <c r="K32" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>32</v>
@@ -3388,127 +3385,127 @@
         <v>21</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J33" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000824</v>
       </c>
       <c r="K33" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="L33" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>415</v>
       </c>
       <c r="J34" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000828</v>
       </c>
       <c r="K34" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>412</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>413</v>
       </c>
       <c r="J35" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000836</v>
       </c>
       <c r="K35" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J36" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000841</v>
       </c>
       <c r="K36" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>402</v>
       </c>
       <c r="J37" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000844</v>
       </c>
       <c r="K37" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>32</v>
@@ -3517,25 +3514,25 @@
         <v>21</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J38" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000847</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>32</v>
@@ -3544,76 +3541,76 @@
         <v>21</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J39" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000856</v>
       </c>
       <c r="K39" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="J40" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000857</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J41" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000860</v>
       </c>
       <c r="K41" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>32</v>
@@ -3622,80 +3619,80 @@
         <v>21</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J42" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000861</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="J43" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000862</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="J44" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000864</v>
       </c>
       <c r="K44" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="L44" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="45" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="D45" s="9" t="s">
         <v>32</v>
       </c>
@@ -3703,25 +3700,25 @@
         <v>21</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J45" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000865</v>
       </c>
       <c r="K45" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="L45" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="46" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>32</v>
@@ -3730,73 +3727,73 @@
         <v>21</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J46" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000868</v>
       </c>
       <c r="K46" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="L46" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J47" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000875</v>
       </c>
       <c r="K47" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="L47" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="J48" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000876</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>32</v>
@@ -3805,73 +3802,73 @@
         <v>21</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J49" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000884</v>
       </c>
       <c r="K49" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="L49" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="50" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J50" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000887</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J51" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000888</v>
       </c>
       <c r="K51" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="L51" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="52" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>32</v>
@@ -3886,25 +3883,25 @@
         <v>21</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J52" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000889</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>32</v>
@@ -3919,181 +3916,199 @@
         <v>11</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J53" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000890</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="J54" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000893</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="J55" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000895</v>
       </c>
       <c r="K55" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="L55" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="56" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J56" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000903</v>
       </c>
       <c r="K56" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="L56" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="E57" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="F57" s="6">
+        <v>18</v>
+      </c>
+      <c r="G57" s="6">
+        <v>5</v>
+      </c>
       <c r="H57" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J57" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000904</v>
       </c>
       <c r="K57" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L57" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="58" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="F58" s="6">
+        <v>18</v>
+      </c>
+      <c r="G58" s="6">
+        <v>9</v>
+      </c>
       <c r="H58" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J58" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000906</v>
       </c>
       <c r="K58" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="L58" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="59" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="F59" s="6">
+        <v>18</v>
+      </c>
+      <c r="G59" s="6">
+        <v>9</v>
+      </c>
       <c r="H59" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J59" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000908</v>
       </c>
       <c r="K59" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L59" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>32</v>
@@ -4102,25 +4117,25 @@
         <v>21</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J60" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000911</v>
       </c>
       <c r="K60" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="L60" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="61" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>32</v>
@@ -4129,79 +4144,85 @@
         <v>21</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J61" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000913</v>
       </c>
       <c r="K61" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="L61" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="62" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>32</v>
+      </c>
+      <c r="F62" s="6">
+        <v>18</v>
+      </c>
+      <c r="G62" s="6">
+        <v>8</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J62" s="5" t="str">
         <f t="shared" ref="J62:J79" si="1">"000"&amp;B62</f>
         <v>000914</v>
       </c>
       <c r="K62" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="L62" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="63" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="J63" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000915</v>
       </c>
       <c r="K63" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="L63" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="64" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>32</v>
@@ -4216,26 +4237,26 @@
         <v>21</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J64" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000920</v>
       </c>
       <c r="K64" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="L64" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="65" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="D65" s="9" t="s">
         <v>32</v>
       </c>
@@ -4243,80 +4264,80 @@
         <v>21</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J65" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000922</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="J66" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000923</v>
       </c>
       <c r="K66" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="L66" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="67" spans="2:12" ht="57" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="J67" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000926</v>
       </c>
       <c r="K67" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="L67" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="68" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="D68" s="9" t="s">
         <v>32</v>
       </c>
@@ -4324,26 +4345,26 @@
         <v>21</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J68" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000927</v>
       </c>
       <c r="K68" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="L68" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="69" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="D69" s="9" t="s">
         <v>32</v>
       </c>
@@ -4351,79 +4372,79 @@
         <v>21</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J69" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000928</v>
       </c>
       <c r="K69" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="L69" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B70" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>240</v>
       </c>
       <c r="J70" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000930</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B71" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="D71" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J71" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000931</v>
       </c>
       <c r="K71" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L71" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="72" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B72" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>32</v>
@@ -4438,26 +4459,26 @@
         <v>21</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J72" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000934</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B73" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="D73" s="9" t="s">
         <v>32</v>
       </c>
@@ -4465,26 +4486,26 @@
         <v>21</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J73" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000935</v>
       </c>
       <c r="K73" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="L73" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="74" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B74" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="D74" s="9" t="s">
         <v>32</v>
       </c>
@@ -4492,50 +4513,50 @@
         <v>21</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J74" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000936</v>
       </c>
       <c r="K74" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="L74" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="75" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B75" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J75" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000937</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B76" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="D76" s="9" t="s">
         <v>32</v>
       </c>
@@ -4543,26 +4564,26 @@
         <v>21</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J76" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000938</v>
       </c>
       <c r="K76" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="L76" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="77" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B77" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="D77" s="9" t="s">
         <v>32</v>
       </c>
@@ -4570,100 +4591,100 @@
         <v>21</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J77" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000940</v>
       </c>
       <c r="K77" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="L77" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="78" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B78" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J78" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000941</v>
       </c>
       <c r="K78" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="L78" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="79" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B79" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="H79" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J79" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000942</v>
       </c>
       <c r="K79" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L79" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="80" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J80" s="5" t="str">
         <f t="shared" ref="J80:J126" si="2">"000"&amp;B80</f>
         <v>000943</v>
       </c>
       <c r="K80" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L80" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="81" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B81" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>32</v>
@@ -4672,26 +4693,26 @@
         <v>21</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J81" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000944</v>
       </c>
       <c r="K81" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L81" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="82" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B82" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="D82" s="9" t="s">
         <v>32</v>
       </c>
@@ -4699,25 +4720,25 @@
         <v>21</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J82" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000945</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B83" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>32</v>
@@ -4732,25 +4753,25 @@
         <v>21</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J83" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000946</v>
       </c>
       <c r="K83" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="L83" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="84" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B84" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>32</v>
@@ -4765,25 +4786,25 @@
         <v>21</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J84" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000960</v>
       </c>
       <c r="K84" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="L84" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="85" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B85" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>32</v>
@@ -4798,25 +4819,25 @@
         <v>11</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J85" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000961</v>
       </c>
       <c r="K85" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="L85" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="86" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B86" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>32</v>
@@ -4825,122 +4846,158 @@
         <v>21</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J86" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000963</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B87" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" s="6">
+        <v>18</v>
+      </c>
+      <c r="G87" s="6">
+        <v>9</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J87" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000964</v>
       </c>
       <c r="K87" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L87" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="88" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B88" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F88" s="6">
+        <v>18</v>
+      </c>
+      <c r="G88" s="6">
+        <v>9</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I88" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="J88" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000965</v>
       </c>
       <c r="K88" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L88" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="89" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B89" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>142</v>
+      <c r="E89" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F89" s="6">
+        <v>18</v>
+      </c>
+      <c r="G89" s="6">
+        <v>9</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J89" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000966</v>
       </c>
       <c r="K89" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L89" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="90" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B90" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>137</v>
+      <c r="E90" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F90" s="6">
+        <v>18</v>
+      </c>
+      <c r="G90" s="6">
+        <v>9</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J90" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000967</v>
       </c>
       <c r="K90" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L90" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="91" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="D91" s="9" t="s">
         <v>32</v>
       </c>
@@ -4948,419 +5005,473 @@
         <v>21</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J91" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000968</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>125</v>
+      <c r="E92" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F92" s="6">
+        <v>18</v>
+      </c>
+      <c r="G92" s="6">
+        <v>9</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J92" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000969</v>
       </c>
       <c r="K92" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L92" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="93" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>120</v>
+      <c r="E93" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F93" s="6">
+        <v>18</v>
+      </c>
+      <c r="G93" s="6">
+        <v>9</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J93" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000970</v>
       </c>
       <c r="K93" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L93" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="94" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B94" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>114</v>
+      <c r="E94" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F94" s="6">
+        <v>18</v>
+      </c>
+      <c r="G94" s="6">
+        <v>9</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J94" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000971</v>
       </c>
       <c r="K94" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L94" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="95" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F95" s="6">
+        <v>18</v>
+      </c>
+      <c r="G95" s="6">
+        <v>9</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J95" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000972</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B96" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F96" s="6">
+        <v>18</v>
+      </c>
+      <c r="G96" s="6">
+        <v>9</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J96" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000973</v>
       </c>
       <c r="K96" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L96" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="L96" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="97" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B97" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="E97" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F97" s="6">
+        <v>18</v>
+      </c>
+      <c r="G97" s="6">
+        <v>9</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I97" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="J97" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000974</v>
       </c>
       <c r="K97" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L97" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="98" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="E98" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F98" s="6">
+        <v>18</v>
+      </c>
+      <c r="G98" s="6">
+        <v>9</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E98" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="I98" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J98" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000975</v>
       </c>
       <c r="K98" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L98" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="99" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H99" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J99" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000979</v>
       </c>
       <c r="K99" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L99" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="100" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B100" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="H100" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J100" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000980</v>
       </c>
       <c r="K100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L100" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="L100" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="101" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B101" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J101" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000981</v>
       </c>
       <c r="K101" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L101" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="L101" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="102" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B102" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J102" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000983</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L102" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="103" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B103" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I103" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="J103" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000984</v>
       </c>
       <c r="K103" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L103" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="104" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B104" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F104" s="6">
+        <v>18</v>
+      </c>
+      <c r="G104" s="6">
+        <v>9</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I104" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="J104" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000986</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B105" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="H105" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J105" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000987</v>
       </c>
       <c r="K105" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L105" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="106" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B106" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="H106" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J106" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000988</v>
       </c>
       <c r="K106" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L106" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="L106" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="107" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B107" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="H107" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J107" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000989</v>
       </c>
       <c r="K107" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L107" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="L107" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="108" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -5370,14 +5481,11 @@
       <c r="C108" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="H108" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I108" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="J108" s="5" t="str">
         <f t="shared" si="2"/>
@@ -5387,7 +5495,7 @@
         <v>41</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.2">
@@ -5448,6 +5556,12 @@
       <c r="E111" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="F111" s="6">
+        <v>39</v>
+      </c>
+      <c r="G111" s="6">
+        <v>19</v>
+      </c>
       <c r="H111" s="1" t="s">
         <v>11</v>
       </c>
@@ -5491,10 +5605,10 @@
     </row>
     <row r="113" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B113" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>32</v>
@@ -5503,17 +5617,17 @@
         <v>11</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J113" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000996</v>
       </c>
       <c r="K113" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="L113" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="L113" s="2" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.2">

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2DE67A-D456-410F-A6D2-191BDDCAC2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FBD67C-D989-42F4-83E4-08C8F1EA1611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{87694299-5AA0-4D97-B707-F20F1FF08949}"/>
+    <workbookView xWindow="12015" yWindow="1110" windowWidth="14670" windowHeight="10050" xr2:uid="{87694299-5AA0-4D97-B707-F20F1FF08949}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="547">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2170,6 +2170,18 @@
   </si>
   <si>
     <t>我又做了一个Windows11下打开IE11的小工具，虽然不一定好使，但关键它不伤系统不修改替换文件！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>798</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>817</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>977</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2597,11 +2609,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0538F1C1-2570-401E-A9F2-4BEF1D958528}">
-  <dimension ref="A2:L126"/>
+  <dimension ref="A2:L129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
+      <pane ySplit="4" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2689,7 +2701,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="5" t="str">
-        <f t="shared" ref="J5:J61" si="0">"000"&amp;B5</f>
+        <f t="shared" ref="J5:J63" si="0">"000"&amp;B5</f>
         <v>000721</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -2757,7 +2769,7 @@
       <c r="C10" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -2778,6 +2790,9 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>0</v>
+      </c>
       <c r="B11" s="4" t="s">
         <v>530</v>
       </c>
@@ -2811,6 +2826,9 @@
       <c r="C12" s="1" t="s">
         <v>522</v>
       </c>
+      <c r="E12" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H12" s="1" t="s">
         <v>21</v>
       </c>
@@ -2829,6 +2847,9 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>0</v>
+      </c>
       <c r="B13" s="4" t="s">
         <v>519</v>
       </c>
@@ -2853,6 +2874,9 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>0</v>
+      </c>
       <c r="B14" s="4" t="s">
         <v>512</v>
       </c>
@@ -2877,6 +2901,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>0</v>
+      </c>
       <c r="B15" s="4" t="s">
         <v>507</v>
       </c>
@@ -2924,7 +2951,10 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>0</v>
+      </c>
       <c r="B17" s="4" t="s">
         <v>500</v>
       </c>
@@ -2951,7 +2981,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>493</v>
       </c>
@@ -2975,7 +3005,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>489</v>
       </c>
@@ -3002,7 +3032,10 @@
         <v>488</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>0</v>
+      </c>
       <c r="B20" s="4" t="s">
         <v>483</v>
       </c>
@@ -3035,7 +3068,10 @@
         <v>485</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>0</v>
+      </c>
       <c r="B21" s="4" t="s">
         <v>478</v>
       </c>
@@ -3062,7 +3098,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>476</v>
       </c>
@@ -3089,7 +3125,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>470</v>
       </c>
@@ -3116,7 +3152,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>466</v>
       </c>
@@ -3143,45 +3179,21 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="6">
-        <v>39</v>
-      </c>
-      <c r="G25" s="6">
-        <v>19</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>461</v>
+        <v>544</v>
       </c>
       <c r="J25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000800</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>000798</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>32</v>
@@ -3196,52 +3208,58 @@
         <v>21</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="J26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000801</v>
+        <v>000800</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>32</v>
+        <v>453</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="6">
+        <v>39</v>
+      </c>
+      <c r="G27" s="6">
+        <v>19</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="J27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000802</v>
+        <v>000801</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>32</v>
@@ -3250,187 +3268,169 @@
         <v>21</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="J28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000804</v>
+        <v>000802</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="J29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000806</v>
+        <v>000804</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="J30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000808</v>
+        <v>000806</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>32</v>
+        <v>433</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J31" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000812</v>
+        <v>000808</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="6">
-        <v>19</v>
-      </c>
-      <c r="G32" s="6">
-        <v>10</v>
+        <v>428</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="J32" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000823</v>
+        <v>000812</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>421</v>
+        <v>545</v>
       </c>
       <c r="J33" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000824</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>420</v>
+        <v>000817</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>32</v>
+        <v>423</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="6">
+        <v>19</v>
+      </c>
+      <c r="G34" s="6">
+        <v>10</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="J34" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000828</v>
+        <v>000823</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>32</v>
@@ -3439,127 +3439,127 @@
         <v>21</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="J35" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000836</v>
+        <v>000824</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>406</v>
+        <v>413</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="J36" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000841</v>
+        <v>000828</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>400</v>
+        <v>408</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="J37" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000844</v>
+        <v>000836</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>32</v>
+        <v>406</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="J38" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000847</v>
+        <v>000841</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>32</v>
+        <v>400</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="J39" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000856</v>
+        <v>000844</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>32</v>
@@ -3568,49 +3568,52 @@
         <v>21</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="J40" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000857</v>
+        <v>000847</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>378</v>
+        <v>388</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="J41" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000860</v>
+        <v>000856</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>32</v>
@@ -3619,52 +3622,49 @@
         <v>21</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="J42" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000861</v>
+        <v>000857</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>32</v>
+        <v>378</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="J43" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000862</v>
+        <v>000860</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>218</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>32</v>
@@ -3673,25 +3673,25 @@
         <v>21</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="J44" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000864</v>
+        <v>000861</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>32</v>
@@ -3700,25 +3700,25 @@
         <v>21</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="J45" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000865</v>
+        <v>000862</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>362</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>32</v>
@@ -3727,355 +3727,343 @@
         <v>21</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="J46" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000868</v>
+        <v>000864</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>350</v>
+        <v>360</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="J47" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000875</v>
+        <v>000865</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>345</v>
+        <v>354</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="J48" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000876</v>
+        <v>000868</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>193</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>32</v>
+        <v>350</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="J49" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000884</v>
+        <v>000875</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="J50" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000887</v>
+        <v>000876</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>331</v>
+        <v>340</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="J51" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000888</v>
+        <v>000884</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="6">
-        <v>39</v>
-      </c>
-      <c r="G52" s="6">
-        <v>19</v>
+        <v>336</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="J52" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000889</v>
+        <v>000887</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" s="6">
-        <v>68</v>
-      </c>
-      <c r="G53" s="6">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="J53" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000890</v>
+        <v>000888</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>168</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>320</v>
+        <v>327</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="6">
+        <v>39</v>
+      </c>
+      <c r="G54" s="6">
+        <v>19</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="J54" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000893</v>
+        <v>000889</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>32</v>
+        <v>323</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="6">
+        <v>68</v>
+      </c>
+      <c r="G55" s="6">
+        <v>48</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="J55" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000895</v>
+        <v>000890</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>313</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="J56" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000903</v>
+        <v>000893</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F57" s="6">
-        <v>18</v>
-      </c>
-      <c r="G57" s="6">
-        <v>5</v>
+        <v>315</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="J57" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000904</v>
+        <v>000895</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F58" s="6">
-        <v>18</v>
-      </c>
-      <c r="G58" s="6">
-        <v>9</v>
+        <v>311</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="J58" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000906</v>
+        <v>000903</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>32</v>
@@ -4084,1568 +4072,1625 @@
         <v>18</v>
       </c>
       <c r="G59" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>94</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="J59" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000908</v>
+        <v>000904</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>32</v>
+        <v>297</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="6">
+        <v>18</v>
+      </c>
+      <c r="G60" s="6">
+        <v>9</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J60" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000911</v>
+        <v>000906</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>32</v>
+        <v>292</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="6">
+        <v>18</v>
+      </c>
+      <c r="G61" s="6">
+        <v>9</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="J61" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000913</v>
+        <v>000908</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F62" s="6">
-        <v>18</v>
-      </c>
-      <c r="G62" s="6">
-        <v>8</v>
+        <v>287</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="J62" s="5" t="str">
-        <f t="shared" ref="J62:J79" si="1">"000"&amp;B62</f>
-        <v>000914</v>
+        <f t="shared" si="0"/>
+        <v>000911</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J63" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>000913</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="6">
+        <v>18</v>
+      </c>
+      <c r="G64" s="6">
+        <v>8</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="J64" s="5" t="str">
+        <f t="shared" ref="J64:J81" si="1">"000"&amp;B64</f>
+        <v>000914</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I63" s="4" t="s">
+      <c r="D65" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="J63" s="5" t="str">
+      <c r="J65" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000915</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="K65" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="L65" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B64" s="4" t="s">
+    <row r="66" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B66" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E64" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F64" s="6">
+      <c r="E66" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="6">
         <v>19</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G66" s="6">
         <v>9</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" s="4" t="s">
+      <c r="H66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="J64" s="5" t="str">
+      <c r="J66" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000920</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="K66" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="L66" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B65" s="4" t="s">
+    <row r="67" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B67" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I65" s="4" t="s">
+      <c r="D67" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="J65" s="5" t="str">
+      <c r="J67" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000922</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="K67" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="L67" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B66" s="4" t="s">
+    <row r="68" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B68" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66" s="4" t="s">
+      <c r="D68" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="J66" s="5" t="str">
+      <c r="J68" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000923</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="K68" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="L68" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="B67" s="4" t="s">
+    <row r="69" spans="2:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="B69" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D67" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" s="4" t="s">
+      <c r="D69" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="J67" s="5" t="str">
+      <c r="J69" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000926</v>
       </c>
-      <c r="K67" s="3" t="s">
+      <c r="K69" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="L69" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B68" s="4" t="s">
+    <row r="70" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B70" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I68" s="4" t="s">
+      <c r="D70" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="J68" s="5" t="str">
+      <c r="J70" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000927</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="K70" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="L70" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B69" s="4" t="s">
+    <row r="71" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B71" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D69" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I69" s="4" t="s">
+      <c r="D71" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J69" s="5" t="str">
+      <c r="J71" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000928</v>
       </c>
-      <c r="K69" s="3" t="s">
+      <c r="K71" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="L71" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B70" s="4" t="s">
+    <row r="72" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B72" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D70" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I70" s="4" t="s">
+      <c r="D72" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="J70" s="5" t="str">
+      <c r="J72" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000930</v>
       </c>
-      <c r="K70" s="3" t="s">
+      <c r="K72" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="L72" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B71" s="4" t="s">
+    <row r="73" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B73" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H71" s="1" t="s">
+      <c r="D73" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I71" s="4" t="s">
+      <c r="I73" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="J71" s="5" t="str">
+      <c r="J73" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000931</v>
       </c>
-      <c r="K71" s="3" t="s">
+      <c r="K73" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="L73" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B72" s="4" t="s">
+    <row r="74" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B74" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F72" s="6">
+      <c r="E74" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" s="6">
         <v>59</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G74" s="6">
         <v>39</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I72" s="4" t="s">
+      <c r="H74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="J72" s="5" t="str">
+      <c r="J74" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000934</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="K74" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="L72" s="2" t="s">
+      <c r="L74" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B73" s="4" t="s">
+    <row r="75" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B75" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D73" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I73" s="4" t="s">
+      <c r="D75" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="J73" s="5" t="str">
+      <c r="J75" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000935</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="K75" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="L73" s="2" t="s">
+      <c r="L75" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B74" s="4" t="s">
+    <row r="76" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D74" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" s="4" t="s">
+      <c r="D76" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="J74" s="5" t="str">
+      <c r="J76" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000936</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="K76" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="L74" s="2" t="s">
+      <c r="L76" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B75" s="4" t="s">
+    <row r="77" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B77" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="I77" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="J75" s="5" t="str">
+      <c r="J77" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000937</v>
       </c>
-      <c r="K75" s="3" t="s">
+      <c r="K77" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="L77" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B76" s="4" t="s">
+    <row r="78" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B78" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D76" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" s="4" t="s">
+      <c r="D78" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="J76" s="5" t="str">
+      <c r="J78" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000938</v>
       </c>
-      <c r="K76" s="3" t="s">
+      <c r="K78" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="L76" s="2" t="s">
+      <c r="L78" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B77" s="4" t="s">
+    <row r="79" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B79" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D77" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I77" s="4" t="s">
+      <c r="D79" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="J77" s="5" t="str">
+      <c r="J79" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000940</v>
       </c>
-      <c r="K77" s="3" t="s">
+      <c r="K79" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="L77" s="2" t="s">
+      <c r="L79" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B78" s="4" t="s">
+    <row r="80" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B80" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D78" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H78" s="1" t="s">
+      <c r="D80" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I78" s="4" t="s">
+      <c r="I80" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J78" s="5" t="str">
+      <c r="J80" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000941</v>
       </c>
-      <c r="K78" s="3" t="s">
+      <c r="K80" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="L78" s="2" t="s">
+      <c r="L80" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B79" s="4" t="s">
+    <row r="81" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B81" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H79" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I79" s="4" t="s">
+      <c r="H81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="J79" s="5" t="str">
+      <c r="J81" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000942</v>
       </c>
-      <c r="K79" s="3" t="s">
+      <c r="K81" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="L81" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B80" s="4" t="s">
+    <row r="82" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B82" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="I82" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="J80" s="5" t="str">
-        <f t="shared" ref="J80:J126" si="2">"000"&amp;B80</f>
+      <c r="J82" s="5" t="str">
+        <f t="shared" ref="J82:J129" si="2">"000"&amp;B82</f>
         <v>000943</v>
       </c>
-      <c r="K80" s="3" t="s">
+      <c r="K82" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="L82" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B81" s="4" t="s">
+    <row r="83" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B83" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D81" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I81" s="4" t="s">
+      <c r="D83" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="J81" s="5" t="str">
+      <c r="J83" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000944</v>
       </c>
-      <c r="K81" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="L81" s="2" t="s">
+      <c r="L83" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B82" s="4" t="s">
+    <row r="84" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B84" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D82" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I82" s="4" t="s">
+      <c r="D84" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="J82" s="5" t="str">
+      <c r="J84" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000945</v>
       </c>
-      <c r="K82" s="3" t="s">
+      <c r="K84" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="L82" s="2" t="s">
+      <c r="L84" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B83" s="4" t="s">
+    <row r="85" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B85" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F83" s="6">
+      <c r="E85" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F85" s="6">
         <v>69</v>
       </c>
-      <c r="G83" s="6">
+      <c r="G85" s="6">
         <v>49</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I83" s="4" t="s">
+      <c r="H85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="J83" s="5" t="str">
+      <c r="J85" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000946</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="K85" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L83" s="2" t="s">
+      <c r="L85" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B84" s="4" t="s">
+    <row r="86" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B86" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F84" s="6">
+      <c r="E86" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86" s="6">
         <v>88</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G86" s="6">
         <v>68</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I84" s="4" t="s">
+      <c r="H86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="J84" s="5" t="str">
+      <c r="J86" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000960</v>
       </c>
-      <c r="K84" s="3" t="s">
+      <c r="K86" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="L84" s="2" t="s">
+      <c r="L86" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B85" s="4" t="s">
+    <row r="87" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B87" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E85" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F85" s="6">
+      <c r="E87" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" s="6">
         <v>89</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G87" s="6">
         <v>69</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I85" s="4" t="s">
+      <c r="I87" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="J85" s="5" t="str">
+      <c r="J87" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000961</v>
       </c>
-      <c r="K85" s="3" t="s">
+      <c r="K87" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L85" s="2" t="s">
+      <c r="L87" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B86" s="4" t="s">
+    <row r="88" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B88" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D86" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I86" s="4" t="s">
+      <c r="D88" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="J86" s="5" t="str">
+      <c r="J88" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000963</v>
       </c>
-      <c r="K86" s="3" t="s">
+      <c r="K88" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L86" s="2" t="s">
+      <c r="L88" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B87" s="4" t="s">
+    <row r="89" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B89" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E87" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F87" s="6">
+      <c r="E89" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F89" s="6">
         <v>18</v>
       </c>
-      <c r="G87" s="6">
+      <c r="G89" s="6">
         <v>9</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I87" s="4" t="s">
+      <c r="I89" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="J87" s="5" t="str">
+      <c r="J89" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000964</v>
       </c>
-      <c r="K87" s="3" t="s">
+      <c r="K89" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="L87" s="2" t="s">
+      <c r="L89" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B88" s="4" t="s">
+    <row r="90" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B90" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E88" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F88" s="6">
+      <c r="E90" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F90" s="6">
         <v>18</v>
       </c>
-      <c r="G88" s="6">
+      <c r="G90" s="6">
         <v>9</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="H90" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I88" s="4" t="s">
+      <c r="I90" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="J88" s="5" t="str">
+      <c r="J90" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000965</v>
       </c>
-      <c r="K88" s="3" t="s">
+      <c r="K90" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L88" s="2" t="s">
+      <c r="L90" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B89" s="4" t="s">
+    <row r="91" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B91" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E89" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F89" s="6">
+      <c r="E91" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" s="6">
         <v>18</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G91" s="6">
         <v>9</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="H91" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="I91" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="J89" s="5" t="str">
+      <c r="J91" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000966</v>
       </c>
-      <c r="K89" s="3" t="s">
+      <c r="K91" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="L89" s="2" t="s">
+      <c r="L91" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B90" s="4" t="s">
+    <row r="92" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B92" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F90" s="6">
+      <c r="E92" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F92" s="6">
         <v>18</v>
       </c>
-      <c r="G90" s="6">
+      <c r="G92" s="6">
         <v>9</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I90" s="4" t="s">
+      <c r="I92" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J90" s="5" t="str">
+      <c r="J92" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000967</v>
       </c>
-      <c r="K90" s="3" t="s">
+      <c r="K92" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="L90" s="2" t="s">
+      <c r="L92" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B91" s="4" t="s">
+    <row r="93" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B93" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D91" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I91" s="4" t="s">
+      <c r="D93" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="J91" s="5" t="str">
+      <c r="J93" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000968</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K93" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="L91" s="2" t="s">
+      <c r="L93" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B92" s="4" t="s">
+    <row r="94" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B94" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E92" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F92" s="6">
+      <c r="E94" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F94" s="6">
         <v>18</v>
       </c>
-      <c r="G92" s="6">
+      <c r="G94" s="6">
         <v>9</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I92" s="4" t="s">
+      <c r="I94" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J92" s="5" t="str">
+      <c r="J94" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000969</v>
       </c>
-      <c r="K92" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L92" s="2" t="s">
+      <c r="L94" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B93" s="4" t="s">
+    <row r="95" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B95" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E93" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F93" s="6">
+      <c r="E95" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F95" s="6">
         <v>18</v>
       </c>
-      <c r="G93" s="6">
+      <c r="G95" s="6">
         <v>9</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I93" s="4" t="s">
+      <c r="I95" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J93" s="5" t="str">
+      <c r="J95" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000970</v>
       </c>
-      <c r="K93" s="3" t="s">
+      <c r="K95" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="L93" s="2" t="s">
+      <c r="L95" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B94" s="4" t="s">
+    <row r="96" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B96" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E94" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F94" s="6">
+      <c r="E96" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F96" s="6">
         <v>18</v>
       </c>
-      <c r="G94" s="6">
+      <c r="G96" s="6">
         <v>9</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="H96" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I94" s="4" t="s">
+      <c r="I96" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J94" s="5" t="str">
+      <c r="J96" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000971</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="K96" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="L94" s="2" t="s">
+      <c r="L96" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B95" s="4" t="s">
+    <row r="97" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B97" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E95" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F95" s="6">
+      <c r="E97" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F97" s="6">
         <v>18</v>
       </c>
-      <c r="G95" s="6">
+      <c r="G97" s="6">
         <v>9</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I95" s="4" t="s">
+      <c r="I97" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J95" s="5" t="str">
+      <c r="J97" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000972</v>
       </c>
-      <c r="K95" s="3" t="s">
+      <c r="K97" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="L95" s="2" t="s">
+      <c r="L97" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B96" s="4" t="s">
+    <row r="98" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B98" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E96" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F96" s="6">
+      <c r="E98" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F98" s="6">
         <v>18</v>
       </c>
-      <c r="G96" s="6">
+      <c r="G98" s="6">
         <v>9</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H98" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I96" s="4" t="s">
+      <c r="I98" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J96" s="5" t="str">
+      <c r="J98" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000973</v>
       </c>
-      <c r="K96" s="3" t="s">
+      <c r="K98" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L96" s="2" t="s">
+      <c r="L98" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B97" s="4" t="s">
+    <row r="99" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B99" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E97" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F97" s="6">
+      <c r="E99" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F99" s="6">
         <v>18</v>
       </c>
-      <c r="G97" s="6">
+      <c r="G99" s="6">
         <v>9</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I97" s="4" t="s">
+      <c r="I99" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J97" s="5" t="str">
+      <c r="J99" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000974</v>
       </c>
-      <c r="K97" s="3" t="s">
+      <c r="K99" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L97" s="2" t="s">
+      <c r="L99" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="98" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B98" s="4" t="s">
+    <row r="100" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B100" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E98" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F98" s="6">
+      <c r="E100" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F100" s="6">
         <v>18</v>
       </c>
-      <c r="G98" s="6">
+      <c r="G100" s="6">
         <v>9</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I98" s="4" t="s">
+      <c r="I100" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J98" s="5" t="str">
+      <c r="J100" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000975</v>
       </c>
-      <c r="K98" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L98" s="2" t="s">
+      <c r="L100" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B99" s="4" t="s">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B101" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="J101" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000977</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B102" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I99" s="4" t="s">
+      <c r="H102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I102" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J99" s="5" t="str">
+      <c r="J102" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000979</v>
       </c>
-      <c r="K99" s="3" t="s">
+      <c r="K102" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L99" s="2" t="s">
+      <c r="L102" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B100" s="4" t="s">
+    <row r="103" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B103" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I100" s="4" t="s">
+      <c r="I103" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J100" s="5" t="str">
+      <c r="J103" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000980</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="K103" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L100" s="2" t="s">
+      <c r="L103" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B101" s="4" t="s">
+    <row r="104" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B104" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="H104" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I101" s="4" t="s">
+      <c r="I104" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J101" s="5" t="str">
+      <c r="J104" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000981</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="K104" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L101" s="2" t="s">
+      <c r="L104" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B102" s="4" t="s">
+    <row r="105" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B105" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H102" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I102" s="4" t="s">
+      <c r="H105" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I105" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J102" s="5" t="str">
+      <c r="J105" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000983</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="K105" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L102" s="2" t="s">
+      <c r="L105" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B103" s="4" t="s">
+    <row r="106" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B106" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H103" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I103" s="4" t="s">
+      <c r="H106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I106" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J103" s="5" t="str">
+      <c r="J106" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000984</v>
       </c>
-      <c r="K103" s="3" t="s">
+      <c r="K106" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L103" s="2" t="s">
+      <c r="L106" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B104" s="4" t="s">
+    <row r="107" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B107" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E104" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F104" s="6">
+      <c r="E107" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F107" s="6">
         <v>18</v>
       </c>
-      <c r="G104" s="6">
+      <c r="G107" s="6">
         <v>9</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="H107" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I104" s="4" t="s">
+      <c r="I107" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J104" s="5" t="str">
+      <c r="J107" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000986</v>
       </c>
-      <c r="K104" s="3" t="s">
+      <c r="K107" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L104" s="2" t="s">
+      <c r="L107" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B105" s="4" t="s">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B108" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I105" s="4" t="s">
+      <c r="H108" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I108" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J105" s="5" t="str">
+      <c r="J108" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000987</v>
       </c>
-      <c r="K105" s="3" t="s">
+      <c r="K108" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L105" s="2" t="s">
+      <c r="L108" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B106" s="4" t="s">
+    <row r="109" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B109" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I106" s="4" t="s">
+      <c r="I109" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J106" s="5" t="str">
+      <c r="J109" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000988</v>
       </c>
-      <c r="K106" s="3" t="s">
+      <c r="K109" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L106" s="2" t="s">
+      <c r="L109" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B107" s="4" t="s">
+    <row r="110" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B110" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H107" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I107" s="4" t="s">
+      <c r="H110" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I110" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J107" s="5" t="str">
+      <c r="J110" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000989</v>
       </c>
-      <c r="K107" s="3" t="s">
+      <c r="K110" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L107" s="2" t="s">
+      <c r="L110" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B108" s="4" t="s">
+    <row r="111" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B111" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H108" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I108" s="4" t="s">
+      <c r="H111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I111" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J108" s="5" t="str">
+      <c r="J111" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000990</v>
       </c>
-      <c r="K108" s="3" t="s">
+      <c r="K111" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L108" s="2" t="s">
+      <c r="L111" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B109" s="4" t="s">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B112" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H109" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I109" s="4" t="s">
+      <c r="H112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I112" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J109" s="5" t="str">
+      <c r="J112" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000991</v>
       </c>
-      <c r="K109" s="3" t="s">
+      <c r="K112" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L109" s="2" t="s">
+      <c r="L112" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B110" s="4" t="s">
+    <row r="113" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B113" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H110" s="1" t="s">
+      <c r="H113" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I110" s="4" t="s">
+      <c r="I113" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J110" s="5" t="str">
+      <c r="J113" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000993</v>
       </c>
-      <c r="K110" s="3" t="s">
+      <c r="K113" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L110" s="2" t="s">
+      <c r="L113" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B111" s="4" t="s">
+    <row r="114" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B114" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E111" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F111" s="6">
+      <c r="E114" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F114" s="6">
         <v>39</v>
       </c>
-      <c r="G111" s="6">
+      <c r="G114" s="6">
         <v>19</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="H114" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I111" s="4" t="s">
+      <c r="I114" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J111" s="5" t="str">
+      <c r="J114" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000994</v>
       </c>
-      <c r="K111" s="3" t="s">
+      <c r="K114" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L111" s="2" t="s">
+      <c r="L114" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B112" s="4" t="s">
+    <row r="115" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B115" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I112" s="4" t="s">
+      <c r="H115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I115" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J112" s="5" t="str">
+      <c r="J115" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000995</v>
       </c>
-      <c r="K112" s="3" t="s">
+      <c r="K115" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L112" s="2" t="s">
+      <c r="L115" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B113" s="4" t="s">
+    <row r="116" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B116" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D113" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H113" s="1" t="s">
+      <c r="D116" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H116" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I113" s="4" t="s">
+      <c r="I116" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="J113" s="5" t="str">
+      <c r="J116" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000996</v>
       </c>
-      <c r="K113" s="3" t="s">
+      <c r="K116" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="L113" s="2" t="s">
+      <c r="L116" s="2" t="s">
         <v>541</v>
-      </c>
-    </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J114" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J115" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J116" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>000</v>
       </c>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.2">
@@ -5704,6 +5749,24 @@
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J126" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J127" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J128" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="129" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J129" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FBD67C-D989-42F4-83E4-08C8F1EA1611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12015" yWindow="1110" windowWidth="14670" windowHeight="10050" xr2:uid="{87694299-5AA0-4D97-B707-F20F1FF08949}"/>
+    <workbookView xWindow="13060" yWindow="1110" windowWidth="14670" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$L$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2188,7 +2187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2608,36 +2607,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0538F1C1-2570-401E-A9F2-4BEF1D958528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+      <pane ySplit="4" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="9" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="6" customWidth="1"/>
     <col min="6" max="7" width="8.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.08203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.58203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -2675,7 +2674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -2711,7 +2710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
@@ -2744,25 +2743,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>536</v>
       </c>
@@ -2789,7 +2788,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>0</v>
       </c>
@@ -2819,7 +2818,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>526</v>
       </c>
@@ -2846,7 +2845,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>0</v>
       </c>
@@ -2873,7 +2872,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>0</v>
       </c>
@@ -2900,7 +2899,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>0</v>
       </c>
@@ -2927,7 +2926,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>506</v>
       </c>
@@ -2951,7 +2950,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>0</v>
       </c>
@@ -2981,7 +2980,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>493</v>
       </c>
@@ -3005,7 +3004,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>489</v>
       </c>
@@ -3032,7 +3031,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>0</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>0</v>
       </c>
@@ -3098,7 +3097,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>476</v>
       </c>
@@ -3125,7 +3124,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>470</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>466</v>
       </c>
@@ -3179,7 +3178,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>544</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>000798</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>458</v>
       </c>
@@ -3221,7 +3220,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>457</v>
       </c>
@@ -3254,7 +3253,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>452</v>
       </c>
@@ -3281,7 +3280,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>443</v>
       </c>
@@ -3308,7 +3307,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>440</v>
       </c>
@@ -3332,7 +3331,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>437</v>
       </c>
@@ -3356,7 +3355,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>429</v>
       </c>
@@ -3383,7 +3382,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>545</v>
       </c>
@@ -3392,7 +3391,7 @@
         <v>000817</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>424</v>
       </c>
@@ -3425,7 +3424,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>422</v>
       </c>
@@ -3452,7 +3451,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>417</v>
       </c>
@@ -3479,7 +3478,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>411</v>
       </c>
@@ -3506,7 +3505,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>407</v>
       </c>
@@ -3530,7 +3529,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>402</v>
       </c>
@@ -3554,7 +3553,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>395</v>
       </c>
@@ -3581,7 +3580,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>389</v>
       </c>
@@ -3608,7 +3607,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>384</v>
       </c>
@@ -3635,7 +3634,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>379</v>
       </c>
@@ -3659,7 +3658,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>374</v>
       </c>
@@ -3686,7 +3685,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>370</v>
       </c>
@@ -3713,7 +3712,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>366</v>
       </c>
@@ -3740,7 +3739,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>359</v>
       </c>
@@ -3767,7 +3766,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>355</v>
       </c>
@@ -3794,7 +3793,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
         <v>349</v>
       </c>
@@ -3818,7 +3817,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
         <v>347</v>
       </c>
@@ -3842,7 +3841,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>341</v>
       </c>
@@ -3869,7 +3868,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>337</v>
       </c>
@@ -3893,7 +3892,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>332</v>
       </c>
@@ -3917,7 +3916,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
         <v>326</v>
       </c>
@@ -3950,7 +3949,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
         <v>322</v>
       </c>
@@ -3983,7 +3982,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
         <v>318</v>
       </c>
@@ -4007,7 +4006,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>314</v>
       </c>
@@ -4034,7 +4033,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>310</v>
       </c>
@@ -4058,7 +4057,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
         <v>302</v>
       </c>
@@ -4091,7 +4090,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
         <v>298</v>
       </c>
@@ -4124,7 +4123,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
         <v>293</v>
       </c>
@@ -4157,7 +4156,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
         <v>288</v>
       </c>
@@ -4184,7 +4183,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
         <v>283</v>
       </c>
@@ -4211,7 +4210,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
         <v>278</v>
       </c>
@@ -4244,7 +4243,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B65" s="4" t="s">
         <v>272</v>
       </c>
@@ -4271,7 +4270,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
         <v>265</v>
       </c>
@@ -4304,7 +4303,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B67" s="4" t="s">
         <v>260</v>
       </c>
@@ -4331,7 +4330,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
         <v>258</v>
       </c>
@@ -4358,7 +4357,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:12" ht="56" x14ac:dyDescent="0.3">
       <c r="B69" s="4" t="s">
         <v>250</v>
       </c>
@@ -4385,7 +4384,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
         <v>245</v>
       </c>
@@ -4412,7 +4411,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
         <v>240</v>
       </c>
@@ -4439,7 +4438,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="s">
         <v>238</v>
       </c>
@@ -4466,7 +4465,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
         <v>230</v>
       </c>
@@ -4493,7 +4492,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B74" s="4" t="s">
         <v>225</v>
       </c>
@@ -4526,7 +4525,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B75" s="4" t="s">
         <v>220</v>
       </c>
@@ -4553,7 +4552,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B76" s="4" t="s">
         <v>215</v>
       </c>
@@ -4580,7 +4579,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B77" s="4" t="s">
         <v>211</v>
       </c>
@@ -4604,7 +4603,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B78" s="4" t="s">
         <v>205</v>
       </c>
@@ -4631,7 +4630,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B79" s="4" t="s">
         <v>200</v>
       </c>
@@ -4658,7 +4657,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B80" s="4" t="s">
         <v>196</v>
       </c>
@@ -4685,7 +4684,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B81" s="4" t="s">
         <v>190</v>
       </c>
@@ -4709,7 +4708,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B82" s="4" t="s">
         <v>186</v>
       </c>
@@ -4733,7 +4732,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B83" s="4" t="s">
         <v>181</v>
       </c>
@@ -4760,7 +4759,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B84" s="4" t="s">
         <v>175</v>
       </c>
@@ -4787,7 +4786,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B85" s="4" t="s">
         <v>171</v>
       </c>
@@ -4820,7 +4819,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
         <v>165</v>
       </c>
@@ -4853,7 +4852,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B87" s="4" t="s">
         <v>160</v>
       </c>
@@ -4886,7 +4885,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B88" s="4" t="s">
         <v>157</v>
       </c>
@@ -4913,7 +4912,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B89" s="4" t="s">
         <v>151</v>
       </c>
@@ -4946,7 +4945,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
         <v>146</v>
       </c>
@@ -4979,7 +4978,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
         <v>140</v>
       </c>
@@ -5012,7 +5011,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
         <v>135</v>
       </c>
@@ -5045,7 +5044,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
         <v>131</v>
       </c>
@@ -5072,7 +5071,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B94" s="4" t="s">
         <v>123</v>
       </c>
@@ -5105,7 +5104,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
         <v>118</v>
       </c>
@@ -5138,7 +5137,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B96" s="4" t="s">
         <v>112</v>
       </c>
@@ -5171,7 +5170,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B97" s="4" t="s">
         <v>109</v>
       </c>
@@ -5204,7 +5203,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
         <v>104</v>
       </c>
@@ -5237,7 +5236,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
         <v>98</v>
       </c>
@@ -5270,7 +5269,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B100" s="4" t="s">
         <v>92</v>
       </c>
@@ -5303,7 +5302,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="s">
         <v>546</v>
       </c>
@@ -5312,7 +5311,7 @@
         <v>000977</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B102" s="4" t="s">
         <v>87</v>
       </c>
@@ -5336,7 +5335,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B103" s="4" t="s">
         <v>82</v>
       </c>
@@ -5360,7 +5359,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B104" s="4" t="s">
         <v>77</v>
       </c>
@@ -5384,7 +5383,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B105" s="4" t="s">
         <v>73</v>
       </c>
@@ -5408,7 +5407,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B106" s="4" t="s">
         <v>70</v>
       </c>
@@ -5432,7 +5431,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B107" s="4" t="s">
         <v>62</v>
       </c>
@@ -5465,7 +5464,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B108" s="4" t="s">
         <v>56</v>
       </c>
@@ -5489,7 +5488,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
         <v>51</v>
       </c>
@@ -5513,7 +5512,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B110" s="4" t="s">
         <v>46</v>
       </c>
@@ -5537,7 +5536,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B111" s="4" t="s">
         <v>43</v>
       </c>
@@ -5561,7 +5560,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B112" s="4" t="s">
         <v>36</v>
       </c>
@@ -5585,7 +5584,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="113" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B113" s="4" t="s">
         <v>31</v>
       </c>
@@ -5609,7 +5608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B114" s="4" t="s">
         <v>26</v>
       </c>
@@ -5642,7 +5641,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B115" s="4" t="s">
         <v>19</v>
       </c>
@@ -5666,7 +5665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B116" s="4" t="s">
         <v>539</v>
       </c>
@@ -5693,92 +5692,92 @@
         <v>541</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J117" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J118" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J119" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J120" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J121" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J122" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J123" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J124" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J125" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J126" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J127" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J128" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J129" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L4" xr:uid="{0538F1C1-2570-401E-A9F2-4BEF1D958528}"/>
+  <autoFilter ref="A4:L4"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E3 D5:E1048576" xr:uid="{CCACDB5F-AB3D-42D2-9E15-7A0119E2BCC0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E3 D5:E1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{4BD8861C-A4A7-4A60-A003-2116BD341883}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13060" yWindow="1110" windowWidth="14670" windowHeight="10050"/>
+    <workbookView xWindow="14100" yWindow="1110" windowWidth="14670" windowHeight="10050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$L$4</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="567">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2181,6 +2182,79 @@
   </si>
   <si>
     <t>977</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>996</t>
+  </si>
+  <si>
+    <t>我又做了一个Windows11下打开IE11的小工具，虽然不一定好使，但关键它不伤系统不修改替换文件！</t>
+  </si>
+  <si>
+    <t>2022-11-13 14:19:08</t>
+  </si>
+  <si>
+    <t>000996</t>
+  </si>
+  <si>
+    <t>809141</t>
+  </si>
+  <si>
+    <t>54837657</t>
+  </si>
+  <si>
+    <t>000996</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复注册引导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可直接查看，同时在网站上的隐藏区域写明可回复本密钥在公众号上查看。</t>
+  </si>
+  <si>
+    <t>可直接查看，同时在网站上的隐藏区域写明可回复本密钥在公众号上查看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号自动回复示例二（游客限免，注册即可查看）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送密钥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复折扣文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复免费文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号自动回复示例一（游客即可查看）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号自动回复示例三（付费内容，基础会员折扣，专业会员免费）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复隐藏信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复54837657，同时在网站上的隐藏区域写明可回复本密钥在公众号上查看。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2188,7 +2262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2213,8 +2287,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2233,6 +2325,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2248,7 +2346,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2293,6 +2391,27 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2610,9 +2729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2630,10 +2749,21 @@
     <col min="12" max="12" width="13.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:12" ht="25" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:12" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
@@ -5772,12 +5902,391 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:L4"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:L2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E3 D5:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:E1048576 D1:E1 D3:E3">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576">
+      <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34" style="4" customWidth="1"/>
+    <col min="4" max="4" width="4.75" customWidth="1"/>
+    <col min="8" max="8" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+    </row>
+    <row r="4" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>549</v>
+      </c>
+      <c r="J5" t="s">
+        <v>550</v>
+      </c>
+      <c r="K5" t="s">
+        <v>551</v>
+      </c>
+      <c r="L5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C8" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C9" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E9" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>551</v>
+      </c>
+      <c r="E10" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>552</v>
+      </c>
+      <c r="E11" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="15" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>547</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
+        <v>549</v>
+      </c>
+      <c r="J16" t="s">
+        <v>550</v>
+      </c>
+      <c r="K16" t="s">
+        <v>551</v>
+      </c>
+      <c r="L16">
+        <v>54837657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C19" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E20" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>551</v>
+      </c>
+      <c r="E21" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>552</v>
+      </c>
+      <c r="E22" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C23"/>
+    </row>
+    <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+    </row>
+    <row r="27" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>547</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" t="s">
+        <v>549</v>
+      </c>
+      <c r="J28" t="s">
+        <v>550</v>
+      </c>
+      <c r="K28" t="s">
+        <v>551</v>
+      </c>
+      <c r="L28" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C31" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C32" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E32" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>551</v>
+      </c>
+      <c r="E33" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>552</v>
+      </c>
+      <c r="E34" t="s">
+        <v>562</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A2:L2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\writing\11_付费课程\99.资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F183D96-C8D2-4BF9-86DB-75F35DEDEE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="1110" windowWidth="14670" windowHeight="10050" activeTab="1"/>
+    <workbookView xWindow="885" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$L$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="571">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2255,13 +2256,29 @@
   </si>
   <si>
     <t>回复54837657，同时在网站上的隐藏区域写明可回复本密钥在公众号上查看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅凭着一腔热血开发出来的 ToaruOS 系统，到底是个什么水平？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-11-28 12:18:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>558121</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2392,9 +2409,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2409,6 +2423,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2726,47 +2743,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:L128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="9" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="6" customWidth="1"/>
     <col min="6" max="7" width="8.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.08203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.58203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="25" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-    </row>
-    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -2804,7 +2821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -2840,7 +2857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
@@ -2873,25 +2890,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>536</v>
       </c>
@@ -2918,7 +2935,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>0</v>
       </c>
@@ -2948,7 +2965,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>526</v>
       </c>
@@ -2975,7 +2992,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>0</v>
       </c>
@@ -3002,7 +3019,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>0</v>
       </c>
@@ -3029,7 +3046,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>0</v>
       </c>
@@ -3056,7 +3073,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>506</v>
       </c>
@@ -3080,7 +3097,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>0</v>
       </c>
@@ -3110,7 +3127,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>493</v>
       </c>
@@ -3134,7 +3151,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>489</v>
       </c>
@@ -3161,7 +3178,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>0</v>
       </c>
@@ -3197,7 +3214,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>0</v>
       </c>
@@ -3227,7 +3244,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>476</v>
       </c>
@@ -3254,7 +3271,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>470</v>
       </c>
@@ -3281,7 +3298,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>466</v>
       </c>
@@ -3308,7 +3325,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>544</v>
       </c>
@@ -3317,7 +3334,7 @@
         <v>000798</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>458</v>
       </c>
@@ -3350,7 +3367,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>457</v>
       </c>
@@ -3383,7 +3400,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>452</v>
       </c>
@@ -3410,7 +3427,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>443</v>
       </c>
@@ -3437,7 +3454,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>440</v>
       </c>
@@ -3461,7 +3478,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>437</v>
       </c>
@@ -3485,7 +3502,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>429</v>
       </c>
@@ -3512,7 +3529,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>545</v>
       </c>
@@ -3521,7 +3538,7 @@
         <v>000817</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>424</v>
       </c>
@@ -3554,7 +3571,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>422</v>
       </c>
@@ -3581,7 +3598,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>417</v>
       </c>
@@ -3608,7 +3625,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
         <v>411</v>
       </c>
@@ -3635,7 +3652,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>407</v>
       </c>
@@ -3659,7 +3676,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>402</v>
       </c>
@@ -3683,7 +3700,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
         <v>395</v>
       </c>
@@ -3710,7 +3727,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>389</v>
       </c>
@@ -3737,7 +3754,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
         <v>384</v>
       </c>
@@ -3764,7 +3781,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>379</v>
       </c>
@@ -3788,7 +3805,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>374</v>
       </c>
@@ -3815,7 +3832,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
         <v>370</v>
       </c>
@@ -3842,7 +3859,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>366</v>
       </c>
@@ -3869,7 +3886,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>359</v>
       </c>
@@ -3896,7 +3913,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
         <v>355</v>
       </c>
@@ -3923,7 +3940,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>349</v>
       </c>
@@ -3947,7 +3964,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>347</v>
       </c>
@@ -3971,7 +3988,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>341</v>
       </c>
@@ -3998,7 +4015,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>337</v>
       </c>
@@ -4022,7 +4039,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>332</v>
       </c>
@@ -4046,7 +4063,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
         <v>326</v>
       </c>
@@ -4079,7 +4096,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>322</v>
       </c>
@@ -4112,7 +4129,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
         <v>318</v>
       </c>
@@ -4136,7 +4153,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
         <v>314</v>
       </c>
@@ -4163,7 +4180,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
         <v>310</v>
       </c>
@@ -4187,7 +4204,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
         <v>302</v>
       </c>
@@ -4220,7 +4237,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>298</v>
       </c>
@@ -4253,7 +4270,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
         <v>293</v>
       </c>
@@ -4286,7 +4303,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>288</v>
       </c>
@@ -4313,7 +4330,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
         <v>283</v>
       </c>
@@ -4340,7 +4357,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
         <v>278</v>
       </c>
@@ -4373,7 +4390,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
         <v>272</v>
       </c>
@@ -4400,7 +4417,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
         <v>265</v>
       </c>
@@ -4433,7 +4450,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
         <v>260</v>
       </c>
@@ -4460,7 +4477,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
         <v>258</v>
       </c>
@@ -4487,7 +4504,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" ht="57" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
         <v>250</v>
       </c>
@@ -4514,7 +4531,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B70" s="4" t="s">
         <v>245</v>
       </c>
@@ -4541,7 +4558,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B71" s="4" t="s">
         <v>240</v>
       </c>
@@ -4568,7 +4585,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B72" s="4" t="s">
         <v>238</v>
       </c>
@@ -4595,7 +4612,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B73" s="4" t="s">
         <v>230</v>
       </c>
@@ -4622,7 +4639,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B74" s="4" t="s">
         <v>225</v>
       </c>
@@ -4655,7 +4672,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B75" s="4" t="s">
         <v>220</v>
       </c>
@@ -4682,7 +4699,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B76" s="4" t="s">
         <v>215</v>
       </c>
@@ -4709,7 +4726,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B77" s="4" t="s">
         <v>211</v>
       </c>
@@ -4733,7 +4750,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B78" s="4" t="s">
         <v>205</v>
       </c>
@@ -4760,7 +4777,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B79" s="4" t="s">
         <v>200</v>
       </c>
@@ -4787,7 +4804,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
         <v>196</v>
       </c>
@@ -4814,7 +4831,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B81" s="4" t="s">
         <v>190</v>
       </c>
@@ -4838,7 +4855,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B82" s="4" t="s">
         <v>186</v>
       </c>
@@ -4852,7 +4869,7 @@
         <v>189</v>
       </c>
       <c r="J82" s="5" t="str">
-        <f t="shared" ref="J82:J129" si="2">"000"&amp;B82</f>
+        <f t="shared" ref="J82:J128" si="2">"000"&amp;B82</f>
         <v>000943</v>
       </c>
       <c r="K82" s="3" t="s">
@@ -4862,7 +4879,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B83" s="4" t="s">
         <v>181</v>
       </c>
@@ -4889,7 +4906,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B84" s="4" t="s">
         <v>175</v>
       </c>
@@ -4916,7 +4933,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B85" s="4" t="s">
         <v>171</v>
       </c>
@@ -4949,7 +4966,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B86" s="4" t="s">
         <v>165</v>
       </c>
@@ -4982,7 +4999,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B87" s="4" t="s">
         <v>160</v>
       </c>
@@ -5015,7 +5032,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B88" s="4" t="s">
         <v>157</v>
       </c>
@@ -5042,7 +5059,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B89" s="4" t="s">
         <v>151</v>
       </c>
@@ -5075,7 +5092,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B90" s="4" t="s">
         <v>146</v>
       </c>
@@ -5108,7 +5125,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
         <v>140</v>
       </c>
@@ -5141,7 +5158,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
         <v>135</v>
       </c>
@@ -5174,7 +5191,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
         <v>131</v>
       </c>
@@ -5201,7 +5218,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B94" s="4" t="s">
         <v>123</v>
       </c>
@@ -5234,7 +5251,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
         <v>118</v>
       </c>
@@ -5267,7 +5284,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B96" s="4" t="s">
         <v>112</v>
       </c>
@@ -5300,7 +5317,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B97" s="4" t="s">
         <v>109</v>
       </c>
@@ -5333,7 +5350,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
         <v>104</v>
       </c>
@@ -5366,7 +5383,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
         <v>98</v>
       </c>
@@ -5399,7 +5416,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B100" s="4" t="s">
         <v>92</v>
       </c>
@@ -5432,7 +5449,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B101" s="4" t="s">
         <v>546</v>
       </c>
@@ -5441,7 +5458,7 @@
         <v>000977</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B102" s="4" t="s">
         <v>87</v>
       </c>
@@ -5465,7 +5482,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B103" s="4" t="s">
         <v>82</v>
       </c>
@@ -5489,7 +5506,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B104" s="4" t="s">
         <v>77</v>
       </c>
@@ -5513,7 +5530,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B105" s="4" t="s">
         <v>73</v>
       </c>
@@ -5537,7 +5554,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B106" s="4" t="s">
         <v>70</v>
       </c>
@@ -5561,7 +5578,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B107" s="4" t="s">
         <v>62</v>
       </c>
@@ -5594,7 +5611,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B108" s="4" t="s">
         <v>56</v>
       </c>
@@ -5618,7 +5635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B109" s="4" t="s">
         <v>51</v>
       </c>
@@ -5642,7 +5659,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B110" s="4" t="s">
         <v>46</v>
       </c>
@@ -5666,7 +5683,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B111" s="4" t="s">
         <v>43</v>
       </c>
@@ -5690,7 +5707,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B112" s="4" t="s">
         <v>36</v>
       </c>
@@ -5714,7 +5731,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="113" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B113" s="4" t="s">
         <v>31</v>
       </c>
@@ -5738,7 +5755,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B114" s="4" t="s">
         <v>26</v>
       </c>
@@ -5771,7 +5788,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="2:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B115" s="4" t="s">
         <v>19</v>
       </c>
@@ -5795,7 +5812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B116" s="4" t="s">
         <v>539</v>
       </c>
@@ -5822,95 +5839,107 @@
         <v>541</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B117" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>569</v>
+      </c>
       <c r="J117" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
+        <v>000998</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J118" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J119" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J120" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J121" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J122" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J123" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J124" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J125" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J126" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J127" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J128" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J129" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>000</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A4:L4"/>
+  <autoFilter ref="A4:L4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:E1048576 D1:E1 D3:E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D5:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5920,25 +5949,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
     <col min="3" max="3" width="34" style="4" customWidth="1"/>
     <col min="4" max="4" width="4.75" customWidth="1"/>
-    <col min="8" max="8" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>563</v>
       </c>
@@ -5954,7 +5983,7 @@
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
     </row>
-    <row r="4" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -5992,14 +6021,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>547</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="19"/>
       <c r="H5" t="s">
         <v>11</v>
       </c>
@@ -6016,16 +6045,16 @@
         <v>552</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="18" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C8" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
         <v>553</v>
       </c>
@@ -6033,7 +6062,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>551</v>
       </c>
@@ -6041,7 +6070,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>552</v>
       </c>
@@ -6049,7 +6078,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>557</v>
       </c>
@@ -6065,7 +6094,7 @@
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
     </row>
-    <row r="15" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -6103,14 +6132,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>547</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>32</v>
       </c>
       <c r="H16" t="s">
@@ -6129,16 +6158,16 @@
         <v>54837657</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="18" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="18" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C20" s="4" t="s">
         <v>553</v>
       </c>
@@ -6146,7 +6175,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>551</v>
       </c>
@@ -6154,7 +6183,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>552</v>
       </c>
@@ -6162,10 +6191,10 @@
         <v>555</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C23"/>
     </row>
-    <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
         <v>564</v>
       </c>
@@ -6181,7 +6210,7 @@
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
     </row>
-    <row r="27" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
@@ -6219,14 +6248,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>547</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>558</v>
       </c>
       <c r="H28" t="s">
@@ -6245,16 +6274,16 @@
         <v>552</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C31" s="18" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C31" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19" t="s">
+      <c r="D31" s="18"/>
+      <c r="E31" s="18" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C32" s="4" t="s">
         <v>553</v>
       </c>
@@ -6262,7 +6291,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>551</v>
       </c>
@@ -6270,7 +6299,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>552</v>
       </c>
@@ -6286,7 +6315,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F183D96-C8D2-4BF9-86DB-75F35DEDEE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9240DE-3116-4058-9141-962C8A88783B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="574">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2272,6 +2272,18 @@
   </si>
   <si>
     <t>558121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2747,8 +2759,8 @@
   <dimension ref="A2:L128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
+      <pane ySplit="4" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L114" sqref="L114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5731,7 +5743,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="113" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B113" s="4" t="s">
         <v>31</v>
       </c>
@@ -5755,7 +5767,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="8" t="s">
+        <v>573</v>
+      </c>
       <c r="B114" s="4" t="s">
         <v>26</v>
       </c>
@@ -5788,7 +5803,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="8" t="s">
+        <v>571</v>
+      </c>
       <c r="B115" s="4" t="s">
         <v>19</v>
       </c>
@@ -5812,7 +5830,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="8" t="s">
+        <v>572</v>
+      </c>
       <c r="B116" s="4" t="s">
         <v>539</v>
       </c>
@@ -5839,7 +5860,10 @@
         <v>541</v>
       </c>
     </row>
-    <row r="117" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="8" t="s">
+        <v>571</v>
+      </c>
       <c r="B117" s="4" t="s">
         <v>568</v>
       </c>
@@ -5863,67 +5887,67 @@
         <v>173</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J118" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J119" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J120" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J121" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J122" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J123" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J124" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J125" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J126" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J127" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J128" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
@@ -5952,8 +5976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6067,7 +6091,7 @@
         <v>551</v>
       </c>
       <c r="E10" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9240DE-3116-4058-9141-962C8A88783B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D042C4F-E206-40AB-A7E2-6F50739A4B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="574">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2760,7 +2760,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L114" sqref="L114"/>
+      <selection pane="bottomLeft" activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5329,7 +5329,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B97" s="4" t="s">
         <v>109</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
         <v>104</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
         <v>98</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B100" s="4" t="s">
         <v>92</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B101" s="4" t="s">
         <v>546</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>000977</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B102" s="4" t="s">
         <v>87</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B103" s="4" t="s">
         <v>82</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B104" s="4" t="s">
         <v>77</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B105" s="4" t="s">
         <v>73</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B106" s="4" t="s">
         <v>70</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B107" s="4" t="s">
         <v>62</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B108" s="4" t="s">
         <v>56</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B109" s="4" t="s">
         <v>51</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B110" s="4" t="s">
         <v>46</v>
       </c>
@@ -5695,7 +5695,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="8" t="s">
+        <v>571</v>
+      </c>
       <c r="B111" s="4" t="s">
         <v>43</v>
       </c>
@@ -5719,7 +5722,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" s="8" t="s">
+        <v>571</v>
+      </c>
       <c r="B112" s="4" t="s">
         <v>36</v>
       </c>
@@ -5744,6 +5750,9 @@
       </c>
     </row>
     <row r="113" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="8" t="s">
+        <v>571</v>
+      </c>
       <c r="B113" s="4" t="s">
         <v>31</v>
       </c>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D042C4F-E206-40AB-A7E2-6F50739A4B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B15F74-6BE6-4F38-B906-6CCFA0E0568C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="574">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2759,8 +2759,8 @@
   <dimension ref="A2:L128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E111" sqref="E111"/>
+      <pane ySplit="4" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5471,6 +5471,9 @@
       </c>
     </row>
     <row r="102" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="8" t="s">
+        <v>571</v>
+      </c>
       <c r="B102" s="4" t="s">
         <v>87</v>
       </c>
@@ -5495,6 +5498,9 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="8" t="s">
+        <v>571</v>
+      </c>
       <c r="B103" s="4" t="s">
         <v>82</v>
       </c>
@@ -5519,6 +5525,9 @@
       </c>
     </row>
     <row r="104" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="8" t="s">
+        <v>571</v>
+      </c>
       <c r="B104" s="4" t="s">
         <v>77</v>
       </c>
@@ -5543,6 +5552,9 @@
       </c>
     </row>
     <row r="105" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="8" t="s">
+        <v>571</v>
+      </c>
       <c r="B105" s="4" t="s">
         <v>73</v>
       </c>
@@ -5567,6 +5579,9 @@
       </c>
     </row>
     <row r="106" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="8" t="s">
+        <v>571</v>
+      </c>
       <c r="B106" s="4" t="s">
         <v>70</v>
       </c>
@@ -5591,6 +5606,9 @@
       </c>
     </row>
     <row r="107" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="8" t="s">
+        <v>573</v>
+      </c>
       <c r="B107" s="4" t="s">
         <v>62</v>
       </c>
@@ -5624,11 +5642,17 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108" s="8" t="s">
+        <v>572</v>
+      </c>
       <c r="B108" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>57</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>21</v>
@@ -5648,6 +5672,9 @@
       </c>
     </row>
     <row r="109" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="8" t="s">
+        <v>571</v>
+      </c>
       <c r="B109" s="4" t="s">
         <v>51</v>
       </c>
@@ -5672,6 +5699,9 @@
       </c>
     </row>
     <row r="110" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="8" t="s">
+        <v>571</v>
+      </c>
       <c r="B110" s="4" t="s">
         <v>46</v>
       </c>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B15F74-6BE6-4F38-B906-6CCFA0E0568C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309B595D-4C94-4866-BEDE-C615054238FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="586">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -916,1374 +916,1425 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>118341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-04-25 14:38:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65049769</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>931</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩复古游戏还要刷机就 OUT 了！赶快进来看看，用U盘就可以秒变游戏系统的 Batocera.linux ！</t>
+  </si>
+  <si>
+    <t>018001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58291651</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-04-11 10:08:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>748241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你时间多也不能那么糟蹋啊，还挨个给服务器打补丁？赶紧上 WSUS 吧，超简单哦！（下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51567523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>930</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-04-06 14:28:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>928</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有比删库跑路更狠的？他居然用 AskAdmin 将工作程序文件锁定了！</t>
+  </si>
+  <si>
+    <t>724280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11267957</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-30 08:24:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>927</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为防止熊孩子乱玩电脑，家长用 Simple Run Blocker 锁定程序，结果搞砸后找我帮忙~</t>
+  </si>
+  <si>
+    <t>455221</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03453819</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-28 12:25:54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>926</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-23 09:27:09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>907290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28938921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我说的是真的，我居然用ZeroTier把村里各家的电脑整成了一个“局域网”！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>246180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91662361</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>923</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-14 08:16:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>922</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以快速预览大量不同格式文件内容的神器，一番研究后我选择了 QuickLook</t>
+  </si>
+  <si>
+    <t>045390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-07 09:35:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17150576</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我找到了一款非常厉害的WinSCP密码恢复工具，顺便还偷偷动了点手脚！</t>
+  </si>
+  <si>
+    <t>131321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41524657</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-02-28 12:31:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>915</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-02-18 08:08:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>818080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25678328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊不惊喜，意不意外？没想到VB6到现在还在更新！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>309380</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74590843</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-02-15 08:39:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件不够，软件来凑？这次可有点不一样！音效增强软件 FXSound 让你坐享殿堂级音响设备效果！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>335590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11290250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-02-14 09:55:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足我小小的任性，我就是要把Win7安装到固态硬盘上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>032280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36453840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-02-07 08:22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【快速全面掌握 WAMPServer】03.玩转安装和升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>908</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>314580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77440149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-01-26 08:54:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【快速全面掌握 WAMPServer】02.亲密接触之前你必须知道的事情</t>
+  </si>
+  <si>
+    <t>906</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>229441</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95036332</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-01-19 14:49:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【快速全面掌握 WAMPServer】01.初次见面，请多关照</t>
+  </si>
+  <si>
+    <t>903351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99302335</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-01-12 15:33:09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>746480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33779406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-01-10 08:46:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将《先生请出山》放到桌面上，聊聊如何将视频做成动态壁纸</t>
+  </si>
+  <si>
+    <t>935180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17824187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>895</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Markdown 利器 Typora 突然不能升级了，原因令人意想不到！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-12-15 08:15:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>152190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>893</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55631394</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大神真闲传，又一款纯汇编撸成的操作系统：MenuetOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-12-08 09:12:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个可能是最好的VB连接SQLite的方法</t>
+  </si>
+  <si>
+    <t>530001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-12-01 10:00:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>889</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了在 Windows 11 上启用 IE ，我撸了个修复工具</t>
+  </si>
+  <si>
+    <t>924180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11-30 08:14:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32042135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现一款牛叉输入法“小狼毫”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>531331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77528247</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11-29 13:31:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这台电脑无法运行 Windows 11？试试这几招，管用！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>887</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11-26 13:03:04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取U盘神秘的最后访问时间（下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>884</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>926091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21605657</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11-18 19:06:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就在刚才有人问我怎么拼接合并 PDF 文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>938231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>876</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-10-21 13:28:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>875</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同语言系统下的文件名乱码问题</t>
+  </si>
+  <si>
+    <t>308180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48254280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-10-19 08:18:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何简单快速地清除带有无名分区的U盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>868</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>937211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98965625</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-09-22 11:27:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>865</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞职后全职开发的操作系统 SerenityOS 到底是个怎样的系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70119476</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-09-13 09:18:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>134390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28928913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>864</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动编译安装 KVM 就是找虐，万幸我还活着！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-09-07 09:34:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>304180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>862</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-09-01 08:14:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KVM 上安装 Mac OS X 到底难不难？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>861</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48561687</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-23 08:20:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初识 HaikuOS，一款小巧却功能强大的操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又一款“山寨” Windows 系统，可是这次感觉大不一样！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>860</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77150880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-19 09:32:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>436501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>857</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70413872</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试微软自家出品的 Linux 系统 CBL-Mariner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-10 10:56:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何让 ESXi 7.x 识别普通台式机的网卡？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>856</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>757190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74790846</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-09 09:17:57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单而快速地搞定 SQL Server 高可用（中篇）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>847</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66713402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-07-07 08:50:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>146580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81221587</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版 TPLINK 家用路由器实现自动修改 WIFI 密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-28 08:56:41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>844</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>613290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95605698</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-15 09:23:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历经艰难险阻，我搞定了自动修改路由器 WIFI 密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>841</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSLg 就是带 GUI 的 WSL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25005794</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>836</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-24 11:01:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用U盘制作工具，超简单方法让 Windows 7 通过 UEFI 方式启动并安装系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>052231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07280213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-03-26 13:22:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>824</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诡异的 SATAFIRM S11 硬盘问题，重启数据自动还原？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>823</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>427290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36789439</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-03-26 09:27:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌面版 FreeBSD 系统 HelloSystem 初体验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>836380</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96702065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-02-25 08:36:38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用 Symantec Backup Exec 将数据备份到磁带库中（二）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-02-12 14:26:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77856816</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>808</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>307551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25342739</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-02-03 15:57:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUTLOOK 缓存模式下调整缓存保留时间的滑动块为什么是灰色的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>659090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40820813</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-01-29 09:09:56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试自制 Windows File Recovery 文件恢复便捷工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>621090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44116806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-01-26 09:01:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一文搞懂 phpVirtualBox 远程管理 VirtualBox 服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用 UrBackup 备份和恢复 MySQL 和 MariaDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>914090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40581887</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-01-20 09:04:19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>444480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11524547</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-01-20 08:44:44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用 UrBackup 备份和恢复 Microsoft SQL Server (MSSQL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>826090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有没有优雅一点的BitLocker密钥查询方法？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-29 09:06:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>795</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>518321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-24 12:38:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理中如何记住那么多管理员密码？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>794</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40157510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何手工打造一款公平的年会抽奖软件（二）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>306161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65642495</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-11 16:16:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>791</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>754151</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>781</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14553840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何离线安装XPS查看器？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-11-10 15:14:57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还想免费玩 VMware vSphere Hypervisor 7.x？小心别被坑了哦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>765</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>356101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09719702</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-08-11 10:16:53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>040521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44194803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>759</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版 Microsoft Edge 完整版下载的正确姿势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-07-20 12:50:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>758</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37450776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-07-20 11:13:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳尼？Windows照片查看器无法显示此图片？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用VB实现Win10内置应用的安装和卸载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>359122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32715768</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>754</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-07-06 22:19:53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25991328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-07-02 13:19:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win10或2016下的NetFramework3.5安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>753</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>751</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>748101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70487512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-22 10:18:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字洗牌游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22308068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-20 15:30:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VB自制Win10锁屏壁纸自定义程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAMPServer最新版一键安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>746</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58998254</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-13 11:26:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能是最简单省钱的数据备份方案：OpenMediaVault+UrBackup 打造整机备份方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>843111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51261257</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-09 11:13:48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>742</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看小白如何用VB连接使用PostgreSQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70750440</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-05 12:41:04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>418041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能是最简单省钱的数据备份方案：XigmaNas+UrBackup 打造整机备份方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47450576</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-03 14:08:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>739</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VB+SQLite组合，真香！（二）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-05-12 15:08:46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>996</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>809141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54837657</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-11-13 14:19:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我又做了一个Windows11下打开IE11的小工具，虽然不一定好使，但关键它不伤系统不修改替换文件！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>798</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>817</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>977</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>996</t>
+  </si>
+  <si>
+    <t>我又做了一个Windows11下打开IE11的小工具，虽然不一定好使，但关键它不伤系统不修改替换文件！</t>
+  </si>
+  <si>
+    <t>2022-11-13 14:19:08</t>
+  </si>
+  <si>
+    <t>000996</t>
+  </si>
+  <si>
+    <t>809141</t>
+  </si>
+  <si>
+    <t>54837657</t>
+  </si>
+  <si>
+    <t>000996</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复注册引导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可直接查看，同时在网站上的隐藏区域写明可回复本密钥在公众号上查看。</t>
+  </si>
+  <si>
+    <t>可直接查看，同时在网站上的隐藏区域写明可回复本密钥在公众号上查看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号自动回复示例二（游客限免，注册即可查看）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送密钥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复折扣文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复免费文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号自动回复示例一（游客即可查看）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号自动回复示例三（付费内容，基础会员折扣，专业会员免费）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复隐藏信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复54837657，同时在网站上的隐藏区域写明可回复本密钥在公众号上查看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅凭着一腔热血开发出来的 ToaruOS 系统，到底是个什么水平？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-11-28 12:18:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>558121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows 运用 UrBackup 备份服务的最佳实践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-20 10:18:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>158101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11861580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>老板下令，今天必须搞定居家办公的VPN！我却笑而不语，晚上准时回家吃饭！</t>
-  </si>
-  <si>
-    <t>118341</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-04-25 14:38:11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65049769</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>931</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩复古游戏还要刷机就 OUT 了！赶快进来看看，用U盘就可以秒变游戏系统的 Batocera.linux ！</t>
-  </si>
-  <si>
-    <t>018001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58291651</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-04-11 10:08:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>748241</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你时间多也不能那么糟蹋啊，还挨个给服务器打补丁？赶紧上 WSUS 吧，超简单哦！（下）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51567523</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>930</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-04-06 14:28:47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>928</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还有比删库跑路更狠的？他居然用 AskAdmin 将工作程序文件锁定了！</t>
-  </si>
-  <si>
-    <t>724280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11267957</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-30 08:24:27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>927</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为防止熊孩子乱玩电脑，家长用 Simple Run Blocker 锁定程序，结果搞砸后找我帮忙~</t>
-  </si>
-  <si>
-    <t>455221</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03453819</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-28 12:25:54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>926</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>不靠某葵某team某desk，更不靠微信QQ啥的聊天软件，就一光板Win10照样实现任意两台电脑远程控制桌面，我去咋做到的？</t>
-  </si>
-  <si>
-    <t>2022-03-23 09:27:09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>907290</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28938921</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我说的是真的，我居然用ZeroTier把村里各家的电脑整成了一个“局域网”！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>246180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91662361</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>923</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-14 08:16:42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>922</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以快速预览大量不同格式文件内容的神器，一番研究后我选择了 QuickLook</t>
-  </si>
-  <si>
-    <t>045390</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-07 09:35:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17150576</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>920</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我找到了一款非常厉害的WinSCP密码恢复工具，顺便还偷偷动了点手脚！</t>
-  </si>
-  <si>
-    <t>131321</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41524657</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-02-28 12:31:31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>915</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>不是壁纸也不是屏保，没见过真3D电脑桌面吧？甭废话赶紧进来试试 BumpTop 吧！</t>
-  </si>
-  <si>
-    <t>2022-02-18 08:08:18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>818080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25678328</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>惊不惊喜，意不意外？没想到VB6到现在还在更新！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>914</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>309380</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>74590843</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-02-15 08:39:03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬件不够，软件来凑？这次可有点不一样！音效增强软件 FXSound 让你坐享殿堂级音响设备效果！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>913</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>335590</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11290250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-02-14 09:55:33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满足我小小的任性，我就是要把Win7安装到固态硬盘上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>911</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>032280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36453840</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-02-07 08:22:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【快速全面掌握 WAMPServer】03.玩转安装和升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>908</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>314580</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77440149</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-01-26 08:54:13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【快速全面掌握 WAMPServer】02.亲密接触之前你必须知道的事情</t>
-  </si>
-  <si>
-    <t>906</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>229441</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95036332</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-01-19 14:49:22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>904</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【快速全面掌握 WAMPServer】01.初次见面，请多关照</t>
-  </si>
-  <si>
-    <t>903351</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99302335</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-01-12 15:33:09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>746480</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33779406</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-01-10 08:46:47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>903</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将《先生请出山》放到桌面上，聊聊如何将视频做成动态壁纸</t>
-  </si>
-  <si>
-    <t>935180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17824187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>895</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Markdown 利器 Typora 突然不能升级了，原因令人意想不到！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-12-15 08:15:39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>152190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>893</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55631394</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大神真闲传，又一款纯汇编撸成的操作系统：MenuetOS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-12-08 09:12:51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>890</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个可能是最好的VB连接SQLite的方法</t>
-  </si>
-  <si>
-    <t>530001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-12-01 10:00:35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>889</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为了在 Windows 11 上启用 IE ，我撸了个修复工具</t>
-  </si>
-  <si>
-    <t>924180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-11-30 08:14:29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32042135</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现一款牛叉输入法“小狼毫”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>531331</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77528247</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-11-29 13:31:35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这台电脑无法运行 Windows 11？试试这几招，管用！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>887</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>403031</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-11-26 13:03:04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取U盘神秘的最后访问时间（下）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>884</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>926091</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21605657</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-11-18 19:06:29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就在刚才有人问我怎么拼接合并 PDF 文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>938231</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>876</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-10-21 13:28:39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>875</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同语言系统下的文件名乱码问题</t>
-  </si>
-  <si>
-    <t>308180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48254280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-10-19 08:18:03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何简单快速地清除带有无名分区的U盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>868</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>937211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>98965625</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-09-22 11:27:39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>865</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辞职后全职开发的操作系统 SerenityOS 到底是个怎样的系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>028190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70119476</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-09-13 09:18:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>134390</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28928913</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>864</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动编译安装 KVM 就是找虐，万幸我还活着！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-09-07 09:34:31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>304180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>862</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-09-01 08:14:03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KVM 上安装 Mac OS X 到底难不难？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>861</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48561687</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-08-23 08:20:22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初识 HaikuOS，一款小巧却功能强大的操作系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>又一款“山寨” Windows 系统，可是这次感觉大不一样！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>860</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002390</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77150880</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-08-19 09:32:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>436501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>857</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70413872</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尝试微软自家出品的 Linux 系统 CBL-Mariner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-08-10 10:56:34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何让 ESXi 7.x 识别普通台式机的网卡？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>856</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>757190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>74790846</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-08-09 09:17:57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简单而快速地搞定 SQL Server 高可用（中篇）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>230580</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>847</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66713402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-07-07 08:50:32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>146580</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>81221587</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新版 TPLINK 家用路由器实现自动修改 WIFI 密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-06-28 08:56:41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>844</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>613290</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95605698</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-06-15 09:23:16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历经艰难险阻，我搞定了自动修改路由器 WIFI 密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>841</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WSLg 就是带 GUI 的 WSL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25005794</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>836</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-05-24 11:01:11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Win10 更新补丁后打印机挂了，这事儿也让我碰上了！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-04-14 09:03:03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>303090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39372798</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>828</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不用U盘制作工具，超简单方法让 Windows 7 通过 UEFI 方式启动并安装系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>052231</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07280213</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-03-26 13:22:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>824</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诡异的 SATAFIRM S11 硬盘问题，重启数据自动还原？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>823</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>427290</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36789439</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-03-26 09:27:24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桌面版 FreeBSD 系统 HelloSystem 初体验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>812</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>836380</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>96702065</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-02-25 08:36:38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用 Symantec Backup Exec 将数据备份到磁带库中（二）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-02-12 14:26:11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116241</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77856816</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>808</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>307551</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25342739</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>806</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-02-03 15:57:03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUTLOOK 缓存模式下调整缓存保留时间的滑动块为什么是灰色的？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>804</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>659090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40820813</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-01-29 09:09:56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尝试自制 Windows File Recovery 文件恢复便捷工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>621090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44116806</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-01-26 09:01:26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一文搞懂 phpVirtualBox 远程管理 VirtualBox 服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用 UrBackup 备份和恢复 MySQL 和 MariaDB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>914090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40581887</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-01-20 09:04:19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>444480</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11524547</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-01-20 08:44:44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用 UrBackup 备份和恢复 Microsoft SQL Server (MSSQL)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>826090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有没有优雅一点的BitLocker密钥查询方法？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-29 09:06:28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>795</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>518321</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-24 12:38:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理中如何记住那么多管理员密码？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>794</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40157510</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何手工打造一款公平的年会抽奖软件（二）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>306161</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65642495</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-11 16:16:03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>791</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>754151</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>781</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14553840</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何离线安装XPS查看器？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-11-10 15:14:57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还想免费玩 VMware vSphere Hypervisor 7.x？小心别被坑了哦！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>765</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>356101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09719702</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-08-11 10:16:53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>040521</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44194803</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>759</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新版 Microsoft Edge 完整版下载的正确姿势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-07-20 12:50:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>303111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>758</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37450776</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-07-20 11:13:03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳尼？Windows照片查看器无法显示此图片？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用VB实现Win10内置应用的安装和卸载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>359122</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32715768</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>754</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-07-06 22:19:53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25991328</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-07-02 13:19:01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Win10或2016下的NetFramework3.5安装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>753</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>751</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>748101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70487512</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-06-22 10:18:47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字洗牌游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>750</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22308068</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-06-20 15:30:32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>230351</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VB自制Win10锁屏壁纸自定义程序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WAMPServer最新版一键安装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>112629</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>746</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58998254</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-06-13 11:26:29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能是最简单省钱的数据备份方案：OpenMediaVault+UrBackup 打造整机备份方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>843111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51261257</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-06-09 11:13:48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>742</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看小白如何用VB连接使用PostgreSQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>124104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70750440</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>740</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-06-05 12:41:04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>418041</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能是最简单省钱的数据备份方案：XigmaNas+UrBackup 打造整机备份方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47450576</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-06-03 14:08:14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>739</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VB+SQLite组合，真香！（二）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-05-12 15:08:46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>996</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>809141</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54837657</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-11-13 14:19:08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我又做了一个Windows11下打开IE11的小工具，虽然不一定好使，但关键它不伤系统不修改替换文件！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>798</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>817</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>977</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>996</t>
-  </si>
-  <si>
-    <t>我又做了一个Windows11下打开IE11的小工具，虽然不一定好使，但关键它不伤系统不修改替换文件！</t>
-  </si>
-  <si>
-    <t>2022-11-13 14:19:08</t>
-  </si>
-  <si>
-    <t>000996</t>
-  </si>
-  <si>
-    <t>809141</t>
-  </si>
-  <si>
-    <t>54837657</t>
-  </si>
-  <si>
-    <t>000996</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复注册引导</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可直接查看，同时在网站上的隐藏区域写明可回复本密钥在公众号上查看。</t>
-  </si>
-  <si>
-    <t>可直接查看，同时在网站上的隐藏区域写明可回复本密钥在公众号上查看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号自动回复示例二（游客限免，注册即可查看）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送密钥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复折扣文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复免费文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号自动回复示例一（游客即可查看）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号自动回复示例三（付费内容，基础会员折扣，专业会员免费）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复隐藏信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复54837657，同时在网站上的隐藏区域写明可回复本密钥在公众号上查看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅凭着一腔热血开发出来的 ToaruOS 系统，到底是个什么水平？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-11-28 12:18:55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>558121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我倒要看看排到 macOS 前面的 Chrome OS 长什么样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-03-08 15:42:59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>952451</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92005331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十六进制的时间格式到底是个什么鬼？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-01-13 09:32:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>212390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33716769</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-05-08 16:11:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>931161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25902328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAMPSERVER仓库镜像（中文）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2759,8 +2810,8 @@
   <dimension ref="A2:L128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2812,10 +2863,10 @@
         <v>133</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -2834,78 +2885,99 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>581</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="6">
-        <v>18</v>
-      </c>
-      <c r="G5" s="6">
-        <v>10</v>
+        <v>585</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>13</v>
+        <v>582</v>
       </c>
       <c r="J5" s="5" t="str">
         <f t="shared" ref="J5:J63" si="0">"000"&amp;B5</f>
-        <v>000721</v>
+        <v>000720</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>15</v>
+        <v>583</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>7</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>565</v>
+      </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>537</v>
+        <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="6">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G6" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>538</v>
+        <v>13</v>
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000723</v>
+        <v>000721</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="6">
+        <v>39</v>
+      </c>
+      <c r="G7" s="6">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>530</v>
+      </c>
       <c r="J7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000</v>
+        <v>000723</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -2920,471 +2992,462 @@
         <v>000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>535</v>
-      </c>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000739</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>0</v>
-      </c>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>527</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>531</v>
       </c>
       <c r="J11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000740</v>
+        <v>000739</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>564</v>
+      </c>
       <c r="B12" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E12" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000742</v>
+        <v>000740</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>0</v>
-      </c>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>521</v>
       </c>
       <c r="J13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000746</v>
+        <v>000742</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>0</v>
+      <c r="A14" s="8" t="s">
+        <v>563</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000750</v>
+        <v>000746</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>0</v>
+      <c r="A15" s="8" t="s">
+        <v>563</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="J15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000751</v>
+        <v>000750</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B16" s="4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000753</v>
+        <v>000751</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
-        <v>0</v>
+      <c r="A17" s="8" t="s">
+        <v>563</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="J17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000754</v>
+        <v>000753</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B18" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>493</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>495</v>
       </c>
       <c r="J18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000758</v>
+        <v>000754</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B19" s="4" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>32</v>
+        <v>488</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="J19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000759</v>
+        <v>000758</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>0</v>
-      </c>
       <c r="B20" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="6">
-        <v>29</v>
-      </c>
-      <c r="G20" s="6">
-        <v>19</v>
-      </c>
       <c r="H20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000765</v>
+        <v>000759</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <v>0</v>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>565</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="6">
+        <v>39</v>
+      </c>
+      <c r="G21" s="6">
+        <v>39</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>478</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>481</v>
       </c>
       <c r="J21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000781</v>
+        <v>000765</v>
       </c>
       <c r="K21" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B22" s="4" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000791</v>
+        <v>000781</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>564</v>
+      </c>
       <c r="B23" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000794</v>
+        <v>000791</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B24" s="4" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>32</v>
+        <v>461</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="J24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000795</v>
+        <v>000794</v>
       </c>
       <c r="K24" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B25" s="4" t="s">
-        <v>544</v>
+        <v>458</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>457</v>
       </c>
       <c r="J25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000798</v>
+        <v>000795</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B26" s="4" t="s">
-        <v>458</v>
+        <v>536</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="6">
-        <v>39</v>
-      </c>
-      <c r="G26" s="6">
-        <v>19</v>
+        <v>577</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>461</v>
+        <v>578</v>
       </c>
       <c r="J26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000800</v>
+        <v>000798</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>459</v>
+        <v>579</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>460</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>32</v>
@@ -3399,688 +3462,751 @@
         <v>21</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="J27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000801</v>
+        <v>000800</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D28" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="F28" s="6">
+        <v>39</v>
+      </c>
+      <c r="G28" s="6">
+        <v>19</v>
+      </c>
       <c r="H28" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000802</v>
+        <v>000801</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B29" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="H29" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="J29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000804</v>
+        <v>000802</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B30" s="4" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000806</v>
+        <v>000804</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B31" s="4" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>433</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>434</v>
       </c>
       <c r="J31" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000808</v>
+        <v>000806</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B32" s="4" t="s">
         <v>429</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>32</v>
+        <v>425</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="J32" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000812</v>
+        <v>000808</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B33" s="4" t="s">
-        <v>545</v>
+        <v>421</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="J33" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000817</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>000812</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B34" s="4" t="s">
-        <v>424</v>
+        <v>537</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="6">
-        <v>19</v>
-      </c>
-      <c r="G34" s="6">
-        <v>10</v>
+        <v>573</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>427</v>
+        <v>574</v>
       </c>
       <c r="J34" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000823</v>
+        <v>000817</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>425</v>
+        <v>575</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>565</v>
+      </c>
       <c r="B35" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D35" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="F35" s="6">
+        <v>39</v>
+      </c>
+      <c r="G35" s="6">
+        <v>39</v>
+      </c>
       <c r="H35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J35" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000824</v>
+        <v>000823</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B36" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>414</v>
       </c>
       <c r="J36" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000828</v>
+        <v>000824</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B37" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>32</v>
+        <v>405</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J37" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000836</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B38" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="J38" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000841</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B39" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J39" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000844</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B40" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>32</v>
+        <v>390</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J40" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000847</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>565</v>
+      </c>
       <c r="B41" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F41" s="6">
+        <v>18</v>
+      </c>
+      <c r="G41" s="6">
+        <v>18</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="J41" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000856</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B42" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>387</v>
       </c>
       <c r="J42" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000857</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B43" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>382</v>
       </c>
       <c r="J43" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000860</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B44" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="H44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J44" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000861</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B45" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>32</v>
+        <v>369</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J45" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000862</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B46" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>32</v>
+        <v>364</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J46" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000864</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B47" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="J47" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000865</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B48" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>358</v>
       </c>
       <c r="J48" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000868</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B49" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J49" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000875</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B50" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>348</v>
       </c>
       <c r="J50" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000876</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B51" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>344</v>
       </c>
       <c r="J51" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000884</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B52" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="J52" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000887</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B53" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="J53" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000888</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>565</v>
+      </c>
       <c r="B54" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>32</v>
@@ -4089,31 +4215,34 @@
         <v>39</v>
       </c>
       <c r="G54" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J54" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000889</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>565</v>
+      </c>
       <c r="B55" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>32</v>
@@ -4122,106 +4251,121 @@
         <v>68</v>
       </c>
       <c r="G55" s="6">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J55" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000890</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B56" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="J56" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000893</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
+        <v>564</v>
+      </c>
       <c r="B57" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D57" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="F57" s="6">
+        <v>8</v>
+      </c>
+      <c r="G57" s="6">
+        <v>8</v>
+      </c>
       <c r="H57" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J57" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000895</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B58" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J58" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000903</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>32</v>
@@ -4236,25 +4380,25 @@
         <v>94</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J59" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000904</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>32</v>
@@ -4269,25 +4413,25 @@
         <v>94</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J60" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000906</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>32</v>
@@ -4302,79 +4446,82 @@
         <v>94</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J61" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000908</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B62" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="J62" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000911</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B63" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>286</v>
       </c>
       <c r="J63" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000913</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
+        <v>565</v>
+      </c>
       <c r="B64" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>32</v>
@@ -4383,145 +4530,145 @@
         <v>18</v>
       </c>
       <c r="G64" s="6">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J64" s="5" t="str">
         <f t="shared" ref="J64:J81" si="1">"000"&amp;B64</f>
         <v>000914</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B65" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>32</v>
+        <v>572</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J65" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000915</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
+        <v>564</v>
+      </c>
       <c r="B66" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E66" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F66" s="6">
-        <v>19</v>
-      </c>
-      <c r="G66" s="6">
-        <v>9</v>
-      </c>
       <c r="H66" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J66" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000920</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B67" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="J67" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000922</v>
       </c>
       <c r="K67" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="L67" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="L67" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B68" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>32</v>
+        <v>253</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J68" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000923</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12" ht="57" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
+        <v>564</v>
+      </c>
       <c r="B69" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>251</v>
+        <v>571</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>32</v>
@@ -4530,25 +4677,28 @@
         <v>21</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J69" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000926</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
+        <v>564</v>
+      </c>
       <c r="B70" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>32</v>
@@ -4557,25 +4707,28 @@
         <v>21</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J70" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000927</v>
       </c>
       <c r="K70" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L70" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="L70" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
+        <v>564</v>
+      </c>
       <c r="B71" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>32</v>
@@ -4584,115 +4737,115 @@
         <v>21</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J71" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000928</v>
       </c>
       <c r="K71" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="L71" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="L71" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B72" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="J72" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000930</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B73" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J73" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000931</v>
       </c>
       <c r="K73" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="L73" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="L73" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="8" t="s">
+        <v>564</v>
+      </c>
       <c r="B74" s="4" t="s">
         <v>225</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>226</v>
+        <v>570</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F74" s="6">
-        <v>59</v>
-      </c>
-      <c r="G74" s="6">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J74" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000934</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B75" s="4" t="s">
         <v>220</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>21</v>
@@ -4711,7 +4864,10 @@
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="8" t="s">
+        <v>564</v>
+      </c>
       <c r="B76" s="4" t="s">
         <v>215</v>
       </c>
@@ -4738,7 +4894,10 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B77" s="4" t="s">
         <v>211</v>
       </c>
@@ -4762,7 +4921,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="8" t="s">
+        <v>564</v>
+      </c>
       <c r="B78" s="4" t="s">
         <v>205</v>
       </c>
@@ -4789,15 +4951,15 @@
         <v>208</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B79" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>21</v>
@@ -4816,15 +4978,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B80" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>58</v>
@@ -4843,7 +5005,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B81" s="4" t="s">
         <v>190</v>
       </c>
@@ -4867,7 +5032,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B82" s="4" t="s">
         <v>186</v>
       </c>
@@ -4891,7 +5059,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="8" t="s">
+        <v>564</v>
+      </c>
       <c r="B83" s="4" t="s">
         <v>181</v>
       </c>
@@ -4918,15 +5089,15 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B84" s="4" t="s">
         <v>175</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>21</v>
@@ -4945,7 +5116,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B85" s="4" t="s">
         <v>171</v>
       </c>
@@ -4978,7 +5149,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B86" s="4" t="s">
         <v>165</v>
       </c>
@@ -5011,7 +5182,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B87" s="4" t="s">
         <v>160</v>
       </c>
@@ -5044,15 +5215,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="B88" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>21</v>
@@ -5071,7 +5242,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B89" s="4" t="s">
         <v>151</v>
       </c>
@@ -5104,7 +5275,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B90" s="4" t="s">
         <v>146</v>
       </c>
@@ -5137,7 +5308,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
         <v>140</v>
       </c>
@@ -5170,7 +5341,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
         <v>135</v>
       </c>
@@ -5203,7 +5374,10 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="8" t="s">
+        <v>564</v>
+      </c>
       <c r="B93" s="4" t="s">
         <v>131</v>
       </c>
@@ -5230,7 +5404,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B94" s="4" t="s">
         <v>123</v>
       </c>
@@ -5263,7 +5437,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
         <v>118</v>
       </c>
@@ -5296,7 +5470,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B96" s="4" t="s">
         <v>112</v>
       </c>
@@ -5461,18 +5635,45 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="8" t="s">
+        <v>565</v>
+      </c>
       <c r="B101" s="4" t="s">
-        <v>546</v>
+        <v>538</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" s="6">
+        <v>38</v>
+      </c>
+      <c r="G101" s="6">
+        <v>38</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>567</v>
       </c>
       <c r="J101" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000977</v>
       </c>
+      <c r="K101" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="102" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>87</v>
@@ -5499,7 +5700,7 @@
     </row>
     <row r="103" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>82</v>
@@ -5526,7 +5727,7 @@
     </row>
     <row r="104" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>77</v>
@@ -5553,7 +5754,7 @@
     </row>
     <row r="105" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>73</v>
@@ -5580,7 +5781,7 @@
     </row>
     <row r="106" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>70</v>
@@ -5607,7 +5808,7 @@
     </row>
     <row r="107" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>62</v>
@@ -5643,7 +5844,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>56</v>
@@ -5673,7 +5874,7 @@
     </row>
     <row r="109" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>51</v>
@@ -5700,7 +5901,7 @@
     </row>
     <row r="110" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>46</v>
@@ -5727,7 +5928,7 @@
     </row>
     <row r="111" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>43</v>
@@ -5754,7 +5955,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>36</v>
@@ -5781,7 +5982,7 @@
     </row>
     <row r="113" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>31</v>
@@ -5808,7 +6009,7 @@
     </row>
     <row r="114" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>26</v>
@@ -5844,7 +6045,7 @@
     </row>
     <row r="115" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>19</v>
@@ -5871,13 +6072,13 @@
     </row>
     <row r="116" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>32</v>
@@ -5886,41 +6087,41 @@
         <v>11</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="J116" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000996</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="J117" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000998</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="L117" s="2" t="s">
         <v>173</v>
@@ -5999,7 +6200,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D5:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
@@ -6032,7 +6233,7 @@
   <sheetData>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -6063,10 +6264,10 @@
         <v>133</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -6086,64 +6287,64 @@
     </row>
     <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D5" s="19"/>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="J5" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="K5" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="L5" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="17" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="E9" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E10" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="E11" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -6174,10 +6375,10 @@
         <v>133</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>10</v>
@@ -6197,10 +6398,10 @@
     </row>
     <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>32</v>
@@ -6209,13 +6410,13 @@
         <v>11</v>
       </c>
       <c r="I16" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="J16" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="K16" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="L16">
         <v>54837657</v>
@@ -6223,35 +6424,35 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C19" s="17" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C20" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="E20" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E21" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="E22" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -6259,7 +6460,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -6290,10 +6491,10 @@
         <v>133</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>10</v>
@@ -6313,61 +6514,61 @@
     </row>
     <row r="28" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="H28" t="s">
         <v>11</v>
       </c>
       <c r="I28" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="J28" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="K28" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="L28" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C31" s="17" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C32" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="E32" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E33" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="E34" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309B595D-4C94-4866-BEDE-C615054238FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB64AE4F-D523-42ED-B15B-CFFAA86DE759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="587">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1917,26 +1917,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>040521</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44194803</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>759</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新版 Microsoft Edge 完整版下载的正确姿势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-07-20 12:50:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>303111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2335,6 +2315,30 @@
   </si>
   <si>
     <t>WAMPSERVER仓库镜像（中文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>448805127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36316605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47113543</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59672094</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67887173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18608691</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2497,7 +2501,15 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2807,11 +2819,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L128"/>
+  <dimension ref="A2:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="4" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2885,32 +2897,35 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>558</v>
+      </c>
       <c r="B5" s="4" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>94</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="J5" s="5" t="str">
-        <f t="shared" ref="J5:J63" si="0">"000"&amp;B5</f>
+        <f t="shared" ref="J5:J62" si="0">"000"&amp;B5</f>
         <v>000720</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -2946,13 +2961,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>32</v>
@@ -2967,7 +2982,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="J7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3000,10 +3015,10 @@
     </row>
     <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>32</v>
@@ -3012,28 +3027,28 @@
         <v>21</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="J11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000739</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>32</v>
@@ -3042,1330 +3057,1348 @@
         <v>11</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000740</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>559</v>
+      </c>
       <c r="B13" s="4" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E13" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="J13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000742</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>94</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="J14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000746</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="J15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000750</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="J16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000751</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="J17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000753</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="J18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000754</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="J19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000758</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>560</v>
+      </c>
       <c r="B20" s="4" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>482</v>
+        <v>474</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="6">
+        <v>39</v>
+      </c>
+      <c r="G20" s="6">
+        <v>39</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="J20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000759</v>
+        <v>000765</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="6">
-        <v>39</v>
-      </c>
-      <c r="G21" s="6">
-        <v>39</v>
+        <v>472</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="J21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000765</v>
+        <v>000781</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="J22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000781</v>
+        <v>000791</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>32</v>
+        <v>461</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="J23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000791</v>
+        <v>000794</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="J24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000794</v>
+        <v>000795</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>463</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>458</v>
+        <v>531</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>457</v>
+        <v>573</v>
       </c>
       <c r="J25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000795</v>
+        <v>000798</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>455</v>
+        <v>574</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>153</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>536</v>
+        <v>450</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>577</v>
+        <v>454</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="6">
+        <v>38</v>
+      </c>
+      <c r="G26" s="6">
+        <v>38</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>578</v>
+        <v>453</v>
       </c>
       <c r="J26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000798</v>
+        <v>000800</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>579</v>
+        <v>451</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>580</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>560</v>
+      </c>
       <c r="B27" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F27" s="6">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="6">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="J27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000800</v>
+        <v>000801</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>558</v>
+      </c>
       <c r="B28" s="4" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="6">
-        <v>39</v>
-      </c>
-      <c r="G28" s="6">
-        <v>19</v>
+        <v>443</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="J28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000801</v>
+        <v>000802</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="J29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000802</v>
+        <v>000804</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000804</v>
+        <v>000806</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="J31" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000806</v>
+        <v>000808</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J32" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000808</v>
+        <v>000812</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>421</v>
+        <v>532</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>420</v>
+        <v>568</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>424</v>
+        <v>569</v>
       </c>
       <c r="J33" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000812</v>
+        <v>000817</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>422</v>
+        <v>570</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>423</v>
+        <v>571</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>537</v>
+        <v>416</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>573</v>
+        <v>415</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="6">
+        <v>39</v>
+      </c>
+      <c r="G34" s="6">
+        <v>39</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>574</v>
+        <v>419</v>
       </c>
       <c r="J34" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000817</v>
+        <v>000823</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>575</v>
+        <v>417</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="6">
-        <v>39</v>
-      </c>
-      <c r="G35" s="6">
-        <v>39</v>
+        <v>410</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J35" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000823</v>
+        <v>000824</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="J36" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000824</v>
+        <v>000836</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="J37" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000836</v>
+        <v>000841</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J38" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000841</v>
+        <v>000844</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="J39" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000844</v>
+        <v>000847</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
+      </c>
+      <c r="F40" s="6">
+        <v>18</v>
+      </c>
+      <c r="G40" s="6">
+        <v>18</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="J40" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000847</v>
+        <v>000856</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F41" s="6">
-        <v>18</v>
-      </c>
-      <c r="G41" s="6">
-        <v>18</v>
+        <v>383</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="J41" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000856</v>
+        <v>000857</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J42" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000857</v>
+        <v>000860</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J43" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000860</v>
+        <v>000861</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="J44" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000861</v>
+        <v>000862</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J45" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000862</v>
+        <v>000864</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>218</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="J46" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000864</v>
+        <v>000865</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="J47" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000865</v>
+        <v>000868</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J48" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000868</v>
+        <v>000875</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="J49" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000875</v>
+        <v>000876</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J50" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000876</v>
+        <v>000884</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J51" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000884</v>
+        <v>000887</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="J52" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000887</v>
+        <v>000888</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="6">
+        <v>39</v>
+      </c>
+      <c r="G53" s="6">
+        <v>18</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="J53" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000888</v>
+        <v>000889</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F54" s="6">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="G54" s="6">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="J54" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000889</v>
+        <v>000890</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>327</v>
+        <v>585</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" s="6">
-        <v>68</v>
-      </c>
-      <c r="G55" s="6">
-        <v>38</v>
+        <v>317</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="J55" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000890</v>
+        <v>000893</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>168</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="6">
+        <v>8</v>
+      </c>
+      <c r="G56" s="6">
+        <v>8</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="J56" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000893</v>
+        <v>000895</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F57" s="6">
-        <v>8</v>
-      </c>
-      <c r="G57" s="6">
-        <v>8</v>
+        <v>308</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="J57" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000895</v>
+        <v>000903</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
-        <v>563</v>
-      </c>
       <c r="B58" s="4" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" s="6">
+        <v>18</v>
+      </c>
+      <c r="G58" s="6">
+        <v>5</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J58" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000903</v>
+        <v>000904</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>32</v>
@@ -4374,31 +4407,31 @@
         <v>18</v>
       </c>
       <c r="G59" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>94</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="J59" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000904</v>
+        <v>000906</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>32</v>
@@ -4413,262 +4446,259 @@
         <v>94</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="J60" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000906</v>
+        <v>000908</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
+        <v>558</v>
+      </c>
       <c r="B61" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F61" s="6">
-        <v>18</v>
-      </c>
-      <c r="G61" s="6">
-        <v>9</v>
+        <v>284</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="J61" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000908</v>
+        <v>000911</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="J62" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000911</v>
+        <v>000913</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" s="6">
+        <v>18</v>
+      </c>
+      <c r="G63" s="6">
+        <v>18</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J63" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>000913</v>
+        <f t="shared" ref="J63:J80" si="1">"000"&amp;B63</f>
+        <v>000914</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F64" s="6">
-        <v>18</v>
-      </c>
-      <c r="G64" s="6">
-        <v>18</v>
+        <v>567</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="J64" s="5" t="str">
-        <f t="shared" ref="J64:J81" si="1">"000"&amp;B64</f>
-        <v>000914</v>
+        <f t="shared" si="1"/>
+        <v>000915</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>572</v>
+        <v>264</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J65" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000915</v>
+        <v>000920</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J66" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000920</v>
+        <v>000922</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J67" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000922</v>
+        <v>000923</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>253</v>
+        <v>566</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J68" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000923</v>
+        <v>000926</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>571</v>
+        <v>245</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>32</v>
@@ -4677,28 +4707,28 @@
         <v>21</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J69" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000926</v>
+        <v>000927</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>32</v>
@@ -4707,547 +4737,559 @@
         <v>21</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J70" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000927</v>
+        <v>000928</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="J71" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000928</v>
+        <v>000930</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="J72" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000930</v>
+        <v>000931</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>230</v>
+        <v>565</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" s="6">
+        <v>38</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="J73" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000931</v>
+        <v>000934</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F74" s="6">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J74" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000934</v>
+        <v>000935</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="J75" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000935</v>
+        <v>000936</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="J76" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000936</v>
+        <v>000937</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="J77" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000937</v>
+        <v>000938</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J78" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000938</v>
+        <v>000940</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="J79" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000940</v>
+        <v>000941</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J80" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000941</v>
+        <v>000942</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J81" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>000942</v>
+        <f t="shared" ref="J81:J127" si="2">"000"&amp;B81</f>
+        <v>000943</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J82" s="5" t="str">
-        <f t="shared" ref="J82:J128" si="2">"000"&amp;B82</f>
-        <v>000943</v>
+        <f t="shared" si="2"/>
+        <v>000944</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J83" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000944</v>
+        <v>000945</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F84" s="6">
+        <v>69</v>
+      </c>
+      <c r="G84" s="6">
+        <v>38</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J84" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000945</v>
+        <v>000946</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="8" t="s">
+        <v>560</v>
+      </c>
       <c r="B85" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F85" s="6">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="G85" s="6">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J85" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000946</v>
+        <v>000960</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="8" t="s">
+        <v>560</v>
+      </c>
       <c r="B86" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F86" s="6">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="G86" s="6">
         <v>68</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J86" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000960</v>
+        <v>000961</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="8" t="s">
+        <v>558</v>
+      </c>
       <c r="B87" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F87" s="6">
-        <v>89</v>
-      </c>
-      <c r="G87" s="6">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J87" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000961</v>
+        <v>000963</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="8" t="s">
-        <v>563</v>
-      </c>
       <c r="B88" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F88" s="6">
+        <v>18</v>
+      </c>
+      <c r="G88" s="6">
+        <v>9</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J88" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000963</v>
+        <v>000964</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B89" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>32</v>
@@ -5262,25 +5304,25 @@
         <v>94</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="J89" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000964</v>
+        <v>000965</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B90" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>32</v>
@@ -5295,25 +5337,25 @@
         <v>94</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J90" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000965</v>
+        <v>000966</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>32</v>
@@ -5328,88 +5370,88 @@
         <v>94</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J91" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000966</v>
+        <v>000967</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="8" t="s">
+        <v>559</v>
+      </c>
       <c r="B92" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E92" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F92" s="6">
-        <v>18</v>
-      </c>
-      <c r="G92" s="6">
-        <v>9</v>
-      </c>
       <c r="H92" s="1" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="J92" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000967</v>
+        <v>000968</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="8" t="s">
-        <v>564</v>
-      </c>
       <c r="B93" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D93" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="F93" s="6">
+        <v>18</v>
+      </c>
+      <c r="G93" s="6">
+        <v>9</v>
+      </c>
       <c r="H93" s="1" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J93" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000968</v>
+        <v>000969</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B94" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>32</v>
@@ -5424,25 +5466,25 @@
         <v>94</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J94" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000969</v>
+        <v>000970</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>32</v>
@@ -5457,25 +5499,25 @@
         <v>94</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J95" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000970</v>
+        <v>000971</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B96" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>32</v>
@@ -5490,25 +5532,25 @@
         <v>94</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J96" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000971</v>
+        <v>000972</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B97" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>32</v>
@@ -5523,25 +5565,25 @@
         <v>94</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J97" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000972</v>
+        <v>000973</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>32</v>
@@ -5556,25 +5598,25 @@
         <v>94</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J98" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000973</v>
+        <v>000974</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>32</v>
@@ -5589,542 +5631,515 @@
         <v>94</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J99" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000974</v>
+        <v>000975</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="8" t="s">
+        <v>560</v>
+      </c>
       <c r="B100" s="4" t="s">
-        <v>92</v>
+        <v>533</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>93</v>
+        <v>561</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F100" s="6">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G100" s="6">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>97</v>
+        <v>562</v>
       </c>
       <c r="J100" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000975</v>
+        <v>000977</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>95</v>
+        <v>563</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>96</v>
+        <v>564</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>538</v>
+        <v>87</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F101" s="6">
-        <v>38</v>
-      </c>
-      <c r="G101" s="6">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>567</v>
+        <v>91</v>
       </c>
       <c r="J101" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000977</v>
+        <v>000979</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>568</v>
+        <v>89</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>569</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J102" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000979</v>
+        <v>000980</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J103" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000980</v>
+        <v>000981</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J104" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000981</v>
+        <v>000983</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J105" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000983</v>
+        <v>000984</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F106" s="6">
+        <v>18</v>
+      </c>
+      <c r="G106" s="6">
+        <v>9</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J106" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000984</v>
+        <v>000986</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E107" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F107" s="6">
-        <v>18</v>
-      </c>
-      <c r="G107" s="6">
-        <v>9</v>
-      </c>
       <c r="H107" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J107" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000986</v>
+        <v>000987</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J108" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000987</v>
+        <v>000988</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J109" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000988</v>
+        <v>000989</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J110" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000989</v>
+        <v>000990</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J111" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000990</v>
+        <v>000991</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J112" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000991</v>
+        <v>000993</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F113" s="6">
+        <v>39</v>
+      </c>
+      <c r="G113" s="6">
+        <v>19</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J113" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000993</v>
+        <v>000994</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F114" s="6">
-        <v>39</v>
-      </c>
-      <c r="G114" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J114" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000994</v>
+        <v>000995</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>19</v>
+        <v>526</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>20</v>
+        <v>530</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>22</v>
+        <v>529</v>
       </c>
       <c r="J115" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000995</v>
+        <v>000996</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>18</v>
+        <v>527</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>32</v>
+        <v>554</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="J116" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000996</v>
+        <v>000998</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>532</v>
+        <v>557</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>561</v>
-      </c>
+        <v>586</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J117" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000998</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="L117" s="2" t="s">
-        <v>173</v>
+        <v>000</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -6183,12 +6198,6 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J127" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J128" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
@@ -6199,6 +6208,9 @@
     <mergeCell ref="A2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="J1:L1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
@@ -6233,7 +6245,7 @@
   <sheetData>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -6287,64 +6299,64 @@
     </row>
     <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D5" s="19"/>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="J5" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="K5" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L5" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="17" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E9" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E10" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E11" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -6398,10 +6410,10 @@
     </row>
     <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>32</v>
@@ -6410,13 +6422,13 @@
         <v>11</v>
       </c>
       <c r="I16" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="J16" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="K16" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L16">
         <v>54837657</v>
@@ -6424,35 +6436,35 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C19" s="17" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C20" s="4" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E20" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E21" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E22" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -6460,7 +6472,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -6514,61 +6526,61 @@
     </row>
     <row r="28" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="H28" t="s">
         <v>11</v>
       </c>
       <c r="I28" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="J28" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="K28" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L28" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C31" s="17" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C32" s="4" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E32" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E33" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E34" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB64AE4F-D523-42ED-B15B-CFFAA86DE759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1930" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$L$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -839,1513 +838,1514 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>153441</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81120587</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-05-15 14:43:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>848441</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>937</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28938924</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时至今日我才发现，居然还有支持64位可跨平台开发的BASIC程序（不是点NET）！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-05-08 14:48:48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>936</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时将电脑投影到手机、平板和电视上，居然可以不用接线？！</t>
+  </si>
+  <si>
+    <t>314341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36316005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-05-03 14:34:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>935</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件拷贝命令引出一幅全家福照片中隐藏的秘密！</t>
+  </si>
+  <si>
+    <t>243531</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36459576</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-04-27 13:53:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>934</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>118341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-04-25 14:38:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65049769</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>931</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩复古游戏还要刷机就 OUT 了！赶快进来看看，用U盘就可以秒变游戏系统的 Batocera.linux ！</t>
+  </si>
+  <si>
+    <t>018001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58291651</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-04-11 10:08:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>748241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你时间多也不能那么糟蹋啊，还挨个给服务器打补丁？赶紧上 WSUS 吧，超简单哦！（下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51567523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>930</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-04-06 14:28:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>928</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有比删库跑路更狠的？他居然用 AskAdmin 将工作程序文件锁定了！</t>
+  </si>
+  <si>
+    <t>724280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11267957</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-30 08:24:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>927</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为防止熊孩子乱玩电脑，家长用 Simple Run Blocker 锁定程序，结果搞砸后找我帮忙~</t>
+  </si>
+  <si>
+    <t>455221</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03453819</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-28 12:25:54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>926</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-23 09:27:09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>907290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28938921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我说的是真的，我居然用ZeroTier把村里各家的电脑整成了一个“局域网”！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>246180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91662361</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>923</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-14 08:16:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>922</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以快速预览大量不同格式文件内容的神器，一番研究后我选择了 QuickLook</t>
+  </si>
+  <si>
+    <t>045390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-07 09:35:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17150576</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我找到了一款非常厉害的WinSCP密码恢复工具，顺便还偷偷动了点手脚！</t>
+  </si>
+  <si>
+    <t>131321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41524657</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-02-28 12:31:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>915</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-02-18 08:08:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>818080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25678328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊不惊喜，意不意外？没想到VB6到现在还在更新！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>309380</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74590843</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-02-15 08:39:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件不够，软件来凑？这次可有点不一样！音效增强软件 FXSound 让你坐享殿堂级音响设备效果！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>335590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11290250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-02-14 09:55:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足我小小的任性，我就是要把Win7安装到固态硬盘上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>032280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36453840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-02-07 08:22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【快速全面掌握 WAMPServer】03.玩转安装和升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>908</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>314580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77440149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-01-26 08:54:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【快速全面掌握 WAMPServer】02.亲密接触之前你必须知道的事情</t>
+  </si>
+  <si>
+    <t>906</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>229441</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95036332</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-01-19 14:49:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【快速全面掌握 WAMPServer】01.初次见面，请多关照</t>
+  </si>
+  <si>
+    <t>903351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99302335</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-01-12 15:33:09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>746480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33779406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-01-10 08:46:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将《先生请出山》放到桌面上，聊聊如何将视频做成动态壁纸</t>
+  </si>
+  <si>
+    <t>935180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17824187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>895</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Markdown 利器 Typora 突然不能升级了，原因令人意想不到！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-12-15 08:15:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>152190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>893</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55631394</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大神真闲传，又一款纯汇编撸成的操作系统：MenuetOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-12-08 09:12:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个可能是最好的VB连接SQLite的方法</t>
+  </si>
+  <si>
+    <t>530001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-12-01 10:00:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>889</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了在 Windows 11 上启用 IE ，我撸了个修复工具</t>
+  </si>
+  <si>
+    <t>924180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11-30 08:14:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32042135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现一款牛叉输入法“小狼毫”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>531331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77528247</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11-29 13:31:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这台电脑无法运行 Windows 11？试试这几招，管用！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>887</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11-26 13:03:04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取U盘神秘的最后访问时间（下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>884</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>926091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21605657</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11-18 19:06:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就在刚才有人问我怎么拼接合并 PDF 文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>938231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>876</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-10-21 13:28:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>875</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同语言系统下的文件名乱码问题</t>
+  </si>
+  <si>
+    <t>308180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48254280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-10-19 08:18:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何简单快速地清除带有无名分区的U盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>868</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>937211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98965625</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-09-22 11:27:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>865</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞职后全职开发的操作系统 SerenityOS 到底是个怎样的系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70119476</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-09-13 09:18:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>134390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28928913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>864</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动编译安装 KVM 就是找虐，万幸我还活着！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-09-07 09:34:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>304180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>862</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-09-01 08:14:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KVM 上安装 Mac OS X 到底难不难？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>861</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48561687</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-23 08:20:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初识 HaikuOS，一款小巧却功能强大的操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又一款“山寨” Windows 系统，可是这次感觉大不一样！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>860</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77150880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-19 09:32:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>436501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>857</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70413872</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试微软自家出品的 Linux 系统 CBL-Mariner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-10 10:56:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何让 ESXi 7.x 识别普通台式机的网卡？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>856</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>757190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74790846</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-09 09:17:57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单而快速地搞定 SQL Server 高可用（中篇）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>847</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66713402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-07-07 08:50:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>146580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81221587</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版 TPLINK 家用路由器实现自动修改 WIFI 密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-28 08:56:41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>844</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>613290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95605698</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-06-15 09:23:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历经艰难险阻，我搞定了自动修改路由器 WIFI 密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>841</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSLg 就是带 GUI 的 WSL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25005794</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>836</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-24 11:01:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用U盘制作工具，超简单方法让 Windows 7 通过 UEFI 方式启动并安装系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>052231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07280213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-03-26 13:22:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>824</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诡异的 SATAFIRM S11 硬盘问题，重启数据自动还原？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>823</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>427290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36789439</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-03-26 09:27:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌面版 FreeBSD 系统 HelloSystem 初体验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>836380</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96702065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-02-25 08:36:38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用 Symantec Backup Exec 将数据备份到磁带库中（二）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-02-12 14:26:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77856816</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>808</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>307551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25342739</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-02-03 15:57:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUTLOOK 缓存模式下调整缓存保留时间的滑动块为什么是灰色的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>659090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40820813</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-01-29 09:09:56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试自制 Windows File Recovery 文件恢复便捷工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>621090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44116806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-01-26 09:01:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一文搞懂 phpVirtualBox 远程管理 VirtualBox 服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用 UrBackup 备份和恢复 MySQL 和 MariaDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>914090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40581887</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-01-20 09:04:19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>444480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11524547</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-01-20 08:44:44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用 UrBackup 备份和恢复 Microsoft SQL Server (MSSQL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>826090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有没有优雅一点的BitLocker密钥查询方法？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-29 09:06:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>795</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>518321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-24 12:38:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理中如何记住那么多管理员密码？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>794</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40157510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何手工打造一款公平的年会抽奖软件（二）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>306161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65642495</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-11 16:16:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>791</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>754151</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>781</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14553840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何离线安装XPS查看器？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-11-10 15:14:57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还想免费玩 VMware vSphere Hypervisor 7.x？小心别被坑了哦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>765</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>356101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09719702</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-08-11 10:16:53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>758</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37450776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-07-20 11:13:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳尼？Windows照片查看器无法显示此图片？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用VB实现Win10内置应用的安装和卸载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>359122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32715768</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>754</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-07-06 22:19:53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25991328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-07-02 13:19:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win10或2016下的NetFramework3.5安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>753</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>751</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>748101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70487512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-22 10:18:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字洗牌游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22308068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-20 15:30:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VB自制Win10锁屏壁纸自定义程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAMPServer最新版一键安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>746</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58998254</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-13 11:26:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能是最简单省钱的数据备份方案：OpenMediaVault+UrBackup 打造整机备份方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>843111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51261257</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-09 11:13:48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>742</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看小白如何用VB连接使用PostgreSQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70750440</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-05 12:41:04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>418041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能是最简单省钱的数据备份方案：XigmaNas+UrBackup 打造整机备份方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47450576</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-03 14:08:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>739</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VB+SQLite组合，真香！（二）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-05-12 15:08:46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>996</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>809141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54837657</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-11-13 14:19:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我又做了一个Windows11下打开IE11的小工具，虽然不一定好使，但关键它不伤系统不修改替换文件！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>798</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>817</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>977</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>996</t>
+  </si>
+  <si>
+    <t>我又做了一个Windows11下打开IE11的小工具，虽然不一定好使，但关键它不伤系统不修改替换文件！</t>
+  </si>
+  <si>
+    <t>2022-11-13 14:19:08</t>
+  </si>
+  <si>
+    <t>000996</t>
+  </si>
+  <si>
+    <t>809141</t>
+  </si>
+  <si>
+    <t>54837657</t>
+  </si>
+  <si>
+    <t>000996</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复注册引导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可直接查看，同时在网站上的隐藏区域写明可回复本密钥在公众号上查看。</t>
+  </si>
+  <si>
+    <t>可直接查看，同时在网站上的隐藏区域写明可回复本密钥在公众号上查看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号自动回复示例二（游客限免，注册即可查看）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送密钥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复折扣文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复免费文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号自动回复示例一（游客即可查看）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号自动回复示例三（付费内容，基础会员折扣，专业会员免费）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复隐藏信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复54837657，同时在网站上的隐藏区域写明可回复本密钥在公众号上查看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅凭着一腔热血开发出来的 ToaruOS 系统，到底是个什么水平？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-11-28 12:18:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>558121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows 运用 UrBackup 备份服务的最佳实践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-20 10:18:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>158101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11861580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板下令，今天必须搞定居家办公的VPN！我却笑而不语，晚上准时回家吃饭！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不靠某葵某team某desk，更不靠微信QQ啥的聊天软件，就一光板Win10照样实现任意两台电脑远程控制桌面，我去咋做到的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是壁纸也不是屏保，没见过真3D电脑桌面吧？甭废话赶紧进来试试 BumpTop 吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我倒要看看排到 macOS 前面的 Chrome OS 长什么样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-03-08 15:42:59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>952451</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92005331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十六进制的时间格式到底是个什么鬼？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-01-13 09:32:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>212390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33716769</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-05-08 16:11:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>931161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25902328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAMPSERVER仓库镜像（中文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>448805127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36316605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47113543</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59672094</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67887173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18608691</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>我的地盘我做主，电脑显示屏幕也能玩“三八线”之 ScreenSlicer ！</t>
-  </si>
-  <si>
-    <t>153441</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>81120587</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-05-15 14:43:51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>848441</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>937</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28938924</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时至今日我才发现，居然还有支持64位可跨平台开发的BASIC程序（不是点NET）！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-05-08 14:48:48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>936</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时将电脑投影到手机、平板和电视上，居然可以不用接线？！</t>
-  </si>
-  <si>
-    <t>314341</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36316005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-05-03 14:34:13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>935</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件拷贝命令引出一幅全家福照片中隐藏的秘密！</t>
-  </si>
-  <si>
-    <t>243531</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36459576</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-04-27 13:53:42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>934</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>118341</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-04-25 14:38:11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65049769</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>931</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩复古游戏还要刷机就 OUT 了！赶快进来看看，用U盘就可以秒变游戏系统的 Batocera.linux ！</t>
-  </si>
-  <si>
-    <t>018001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58291651</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-04-11 10:08:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>748241</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你时间多也不能那么糟蹋啊，还挨个给服务器打补丁？赶紧上 WSUS 吧，超简单哦！（下）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51567523</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>930</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-04-06 14:28:47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>928</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还有比删库跑路更狠的？他居然用 AskAdmin 将工作程序文件锁定了！</t>
-  </si>
-  <si>
-    <t>724280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11267957</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-30 08:24:27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>927</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为防止熊孩子乱玩电脑，家长用 Simple Run Blocker 锁定程序，结果搞砸后找我帮忙~</t>
-  </si>
-  <si>
-    <t>455221</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03453819</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-28 12:25:54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>926</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-23 09:27:09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>907290</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28938921</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我说的是真的，我居然用ZeroTier把村里各家的电脑整成了一个“局域网”！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>246180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91662361</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>923</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-14 08:16:42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>922</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以快速预览大量不同格式文件内容的神器，一番研究后我选择了 QuickLook</t>
-  </si>
-  <si>
-    <t>045390</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-03-07 09:35:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17150576</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>920</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我找到了一款非常厉害的WinSCP密码恢复工具，顺便还偷偷动了点手脚！</t>
-  </si>
-  <si>
-    <t>131321</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41524657</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-02-28 12:31:31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>915</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-02-18 08:08:18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>818080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25678328</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>惊不惊喜，意不意外？没想到VB6到现在还在更新！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>914</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>309380</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>74590843</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-02-15 08:39:03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬件不够，软件来凑？这次可有点不一样！音效增强软件 FXSound 让你坐享殿堂级音响设备效果！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>913</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>335590</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11290250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-02-14 09:55:33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满足我小小的任性，我就是要把Win7安装到固态硬盘上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>911</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>032280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36453840</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-02-07 08:22:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【快速全面掌握 WAMPServer】03.玩转安装和升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>908</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>314580</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77440149</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-01-26 08:54:13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【快速全面掌握 WAMPServer】02.亲密接触之前你必须知道的事情</t>
-  </si>
-  <si>
-    <t>906</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>229441</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95036332</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-01-19 14:49:22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>904</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【快速全面掌握 WAMPServer】01.初次见面，请多关照</t>
-  </si>
-  <si>
-    <t>903351</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99302335</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-01-12 15:33:09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>746480</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33779406</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-01-10 08:46:47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>903</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将《先生请出山》放到桌面上，聊聊如何将视频做成动态壁纸</t>
-  </si>
-  <si>
-    <t>935180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17824187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>895</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Markdown 利器 Typora 突然不能升级了，原因令人意想不到！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-12-15 08:15:39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>152190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>893</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55631394</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大神真闲传，又一款纯汇编撸成的操作系统：MenuetOS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-12-08 09:12:51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>890</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个可能是最好的VB连接SQLite的方法</t>
-  </si>
-  <si>
-    <t>530001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-12-01 10:00:35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>889</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为了在 Windows 11 上启用 IE ，我撸了个修复工具</t>
-  </si>
-  <si>
-    <t>924180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-11-30 08:14:29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32042135</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现一款牛叉输入法“小狼毫”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>531331</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77528247</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-11-29 13:31:35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这台电脑无法运行 Windows 11？试试这几招，管用！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>887</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>403031</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-11-26 13:03:04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取U盘神秘的最后访问时间（下）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>884</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>926091</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21605657</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-11-18 19:06:29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就在刚才有人问我怎么拼接合并 PDF 文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>938231</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>876</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-10-21 13:28:39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>875</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同语言系统下的文件名乱码问题</t>
-  </si>
-  <si>
-    <t>308180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48254280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-10-19 08:18:03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何简单快速地清除带有无名分区的U盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>868</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>937211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>98965625</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-09-22 11:27:39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>865</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辞职后全职开发的操作系统 SerenityOS 到底是个怎样的系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>028190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70119476</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-09-13 09:18:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>134390</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28928913</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>864</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动编译安装 KVM 就是找虐，万幸我还活着！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-09-07 09:34:31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>304180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>862</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-09-01 08:14:03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KVM 上安装 Mac OS X 到底难不难？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>861</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48561687</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-08-23 08:20:22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初识 HaikuOS，一款小巧却功能强大的操作系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>又一款“山寨” Windows 系统，可是这次感觉大不一样！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>860</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002390</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77150880</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-08-19 09:32:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>436501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>857</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70413872</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尝试微软自家出品的 Linux 系统 CBL-Mariner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-08-10 10:56:34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何让 ESXi 7.x 识别普通台式机的网卡？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>856</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>757190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>74790846</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-08-09 09:17:57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简单而快速地搞定 SQL Server 高可用（中篇）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>230580</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>847</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66713402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-07-07 08:50:32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>146580</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>81221587</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新版 TPLINK 家用路由器实现自动修改 WIFI 密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-06-28 08:56:41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>844</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>613290</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95605698</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-06-15 09:23:16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历经艰难险阻，我搞定了自动修改路由器 WIFI 密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>841</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WSLg 就是带 GUI 的 WSL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25005794</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>836</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-05-24 11:01:11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不用U盘制作工具，超简单方法让 Windows 7 通过 UEFI 方式启动并安装系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>052231</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07280213</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-03-26 13:22:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>824</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诡异的 SATAFIRM S11 硬盘问题，重启数据自动还原？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>823</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>427290</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36789439</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-03-26 09:27:24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桌面版 FreeBSD 系统 HelloSystem 初体验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>812</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>836380</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>96702065</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-02-25 08:36:38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用 Symantec Backup Exec 将数据备份到磁带库中（二）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-02-12 14:26:11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116241</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77856816</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>808</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>307551</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25342739</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>806</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-02-03 15:57:03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUTLOOK 缓存模式下调整缓存保留时间的滑动块为什么是灰色的？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>804</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>659090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40820813</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-01-29 09:09:56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尝试自制 Windows File Recovery 文件恢复便捷工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>621090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44116806</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-01-26 09:01:26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一文搞懂 phpVirtualBox 远程管理 VirtualBox 服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用 UrBackup 备份和恢复 MySQL 和 MariaDB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>914090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40581887</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-01-20 09:04:19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>444480</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11524547</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-01-20 08:44:44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用 UrBackup 备份和恢复 Microsoft SQL Server (MSSQL)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>826090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有没有优雅一点的BitLocker密钥查询方法？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-29 09:06:28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>795</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>518321</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-24 12:38:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理中如何记住那么多管理员密码？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>794</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40157510</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何手工打造一款公平的年会抽奖软件（二）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>306161</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65642495</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-11 16:16:03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>791</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>754151</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>781</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14553840</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何离线安装XPS查看器？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-11-10 15:14:57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还想免费玩 VMware vSphere Hypervisor 7.x？小心别被坑了哦！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>765</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>356101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09719702</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-08-11 10:16:53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>303111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>758</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37450776</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-07-20 11:13:03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳尼？Windows照片查看器无法显示此图片？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用VB实现Win10内置应用的安装和卸载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>359122</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32715768</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>754</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-07-06 22:19:53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25991328</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-07-02 13:19:01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Win10或2016下的NetFramework3.5安装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>753</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>751</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>748101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70487512</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-06-22 10:18:47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字洗牌游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>750</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22308068</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-06-20 15:30:32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>230351</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VB自制Win10锁屏壁纸自定义程序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WAMPServer最新版一键安装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>112629</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>746</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58998254</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-06-13 11:26:29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能是最简单省钱的数据备份方案：OpenMediaVault+UrBackup 打造整机备份方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>843111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51261257</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-06-09 11:13:48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>742</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看小白如何用VB连接使用PostgreSQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>124104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70750440</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>740</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-06-05 12:41:04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>418041</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能是最简单省钱的数据备份方案：XigmaNas+UrBackup 打造整机备份方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47450576</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-06-03 14:08:14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>739</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VB+SQLite组合，真香！（二）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-05-12 15:08:46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>996</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>809141</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54837657</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-11-13 14:19:08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我又做了一个Windows11下打开IE11的小工具，虽然不一定好使，但关键它不伤系统不修改替换文件！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>798</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>817</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>977</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>996</t>
-  </si>
-  <si>
-    <t>我又做了一个Windows11下打开IE11的小工具，虽然不一定好使，但关键它不伤系统不修改替换文件！</t>
-  </si>
-  <si>
-    <t>2022-11-13 14:19:08</t>
-  </si>
-  <si>
-    <t>000996</t>
-  </si>
-  <si>
-    <t>809141</t>
-  </si>
-  <si>
-    <t>54837657</t>
-  </si>
-  <si>
-    <t>000996</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复注册引导</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可直接查看，同时在网站上的隐藏区域写明可回复本密钥在公众号上查看。</t>
-  </si>
-  <si>
-    <t>可直接查看，同时在网站上的隐藏区域写明可回复本密钥在公众号上查看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号自动回复示例二（游客限免，注册即可查看）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送密钥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复折扣文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复免费文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号自动回复示例一（游客即可查看）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号自动回复示例三（付费内容，基础会员折扣，专业会员免费）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复隐藏信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复54837657，同时在网站上的隐藏区域写明可回复本密钥在公众号上查看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅凭着一腔热血开发出来的 ToaruOS 系统，到底是个什么水平？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-11-28 12:18:55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>558121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Windows 运用 UrBackup 备份服务的最佳实践</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-08-20 10:18:51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>158101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11861580</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老板下令，今天必须搞定居家办公的VPN！我却笑而不语，晚上准时回家吃饭！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不靠某葵某team某desk，更不靠微信QQ啥的聊天软件，就一光板Win10照样实现任意两台电脑远程控制桌面，我去咋做到的？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不是壁纸也不是屏保，没见过真3D电脑桌面吧？甭废话赶紧进来试试 BumpTop 吧！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我倒要看看排到 macOS 前面的 Chrome OS 长什么样</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-03-08 15:42:59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>952451</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92005331</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十六进制的时间格式到底是个什么鬼？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-01-13 09:32:12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>212390</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33716769</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-05-08 16:11:39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>931161</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25902328</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WAMPSERVER仓库镜像（中文）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>448805127</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36316605</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47113543</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>59672094</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>67887173</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18608691</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2818,30 +2818,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
+      <pane ySplit="4" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="9" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="6" customWidth="1"/>
     <col min="6" max="7" width="8.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.08203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.58203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="25" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -2857,8 +2857,8 @@
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
     </row>
-    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -2875,10 +2875,10 @@
         <v>133</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -2896,36 +2896,36 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>94</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J5" s="5" t="str">
         <f t="shared" ref="J5:J62" si="0">"000"&amp;B5</f>
         <v>000720</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -2959,15 +2959,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>32</v>
@@ -2982,7 +2982,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2995,30 +2995,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>32</v>
@@ -3027,28 +3027,28 @@
         <v>21</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000739</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>32</v>
@@ -3057,28 +3057,28 @@
         <v>11</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000740</v>
       </c>
       <c r="K12" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>32</v>
@@ -3087,190 +3087,190 @@
         <v>21</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000742</v>
       </c>
       <c r="K13" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>94</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000746</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000750</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000751</v>
       </c>
       <c r="K16" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000753</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000754</v>
       </c>
       <c r="K18" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000758</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>32</v>
@@ -3285,55 +3285,55 @@
         <v>21</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000765</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>472</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>473</v>
       </c>
       <c r="J21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000781</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>32</v>
@@ -3342,109 +3342,109 @@
         <v>11</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000791</v>
       </c>
       <c r="K22" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000794</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>456</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>457</v>
       </c>
       <c r="J24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000795</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000798</v>
       </c>
       <c r="K25" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>32</v>
@@ -3459,28 +3459,28 @@
         <v>21</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000800</v>
       </c>
       <c r="K26" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>32</v>
@@ -3495,190 +3495,190 @@
         <v>21</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000801</v>
       </c>
       <c r="K27" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J28" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000802</v>
       </c>
       <c r="K28" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J29" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000804</v>
       </c>
       <c r="K29" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="J30" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000806</v>
       </c>
       <c r="K30" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>426</v>
       </c>
       <c r="J31" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000808</v>
       </c>
       <c r="K31" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="L31" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J32" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000812</v>
       </c>
       <c r="K32" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>568</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>569</v>
       </c>
       <c r="J33" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000817</v>
       </c>
       <c r="K33" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="L33" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="L33" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>32</v>
@@ -3693,163 +3693,163 @@
         <v>21</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J34" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000823</v>
       </c>
       <c r="K34" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J35" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000824</v>
       </c>
       <c r="K35" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>409</v>
       </c>
       <c r="J36" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000836</v>
       </c>
       <c r="K36" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="L36" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J37" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000841</v>
       </c>
       <c r="K37" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="L37" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="J38" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000844</v>
       </c>
       <c r="K38" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J39" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000847</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F40" s="6">
         <v>18</v>
@@ -3861,352 +3861,352 @@
         <v>21</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J40" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000856</v>
       </c>
       <c r="K40" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="L40" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="L40" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="J41" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000857</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J42" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000860</v>
       </c>
       <c r="K42" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="L42" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="L42" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J43" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000861</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="J44" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000862</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="H45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>365</v>
       </c>
       <c r="J45" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000864</v>
       </c>
       <c r="K45" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="L45" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="L45" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="H46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J46" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000865</v>
       </c>
       <c r="K46" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="L46" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="L46" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J47" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000868</v>
       </c>
       <c r="K47" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="L47" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="L47" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J48" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000875</v>
       </c>
       <c r="K48" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="L48" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="L48" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>345</v>
       </c>
       <c r="J49" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000876</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J50" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000884</v>
       </c>
       <c r="K50" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="L50" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="L50" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J51" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000887</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J52" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000888</v>
       </c>
       <c r="K52" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="L52" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="L52" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>32</v>
@@ -4221,28 +4221,28 @@
         <v>21</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J53" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000889</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>32</v>
@@ -4257,55 +4257,55 @@
         <v>11</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J54" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000890</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="J55" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000893</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>32</v>
@@ -4320,52 +4320,52 @@
         <v>21</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J56" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000895</v>
       </c>
       <c r="K56" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L56" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="L56" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J57" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000903</v>
       </c>
       <c r="K57" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="L57" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="L57" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>32</v>
@@ -4380,25 +4380,25 @@
         <v>94</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J58" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000904</v>
       </c>
       <c r="K58" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="L58" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="L58" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>32</v>
@@ -4413,25 +4413,25 @@
         <v>94</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J59" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000906</v>
       </c>
       <c r="K59" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="L59" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="L59" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>32</v>
@@ -4446,82 +4446,94 @@
         <v>94</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J60" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000908</v>
       </c>
       <c r="K60" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L60" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="L60" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
+      </c>
+      <c r="F61" s="6">
+        <v>1</v>
+      </c>
+      <c r="G61" s="6">
+        <v>1</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J61" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000911</v>
       </c>
       <c r="K61" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L61" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="L61" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
+      </c>
+      <c r="F62" s="6">
+        <v>1</v>
+      </c>
+      <c r="G62" s="6">
+        <v>1</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J62" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000913</v>
       </c>
       <c r="K62" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="L62" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="L62" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>32</v>
@@ -4536,139 +4548,157 @@
         <v>11</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J63" s="5" t="str">
         <f t="shared" ref="J63:J80" si="1">"000"&amp;B63</f>
         <v>000914</v>
       </c>
       <c r="K63" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="L63" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="L63" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="J64" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000915</v>
       </c>
       <c r="K64" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="L64" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="L64" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="F65" s="6">
+        <v>5</v>
+      </c>
+      <c r="G65" s="6">
+        <v>5</v>
+      </c>
       <c r="H65" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J65" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000920</v>
       </c>
       <c r="K65" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="L65" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="L65" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>259</v>
+      <c r="F66" s="6">
+        <v>1</v>
+      </c>
+      <c r="G66" s="6">
+        <v>1</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J66" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000922</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F67" s="6">
+        <v>1</v>
+      </c>
+      <c r="G67" s="6">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>257</v>
       </c>
       <c r="J67" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000923</v>
       </c>
       <c r="K67" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="L67" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="L67" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>32</v>
@@ -4677,28 +4707,28 @@
         <v>21</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J68" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000926</v>
       </c>
       <c r="K68" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L68" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="L68" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>32</v>
@@ -4707,28 +4737,28 @@
         <v>21</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J69" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000927</v>
       </c>
       <c r="K69" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L69" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="L69" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>32</v>
@@ -4737,82 +4767,88 @@
         <v>21</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J70" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000928</v>
       </c>
       <c r="K70" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="L70" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="L70" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="J71" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000930</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>230</v>
+      <c r="F72" s="6">
+        <v>5</v>
+      </c>
+      <c r="G72" s="6">
+        <v>5</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J72" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000931</v>
       </c>
       <c r="K72" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="L72" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="L72" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>32</v>
@@ -4824,55 +4860,55 @@
         <v>21</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J73" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000934</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="H74" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J74" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000935</v>
       </c>
       <c r="K74" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L74" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="L74" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>32</v>
@@ -4881,85 +4917,97 @@
         <v>21</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J75" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000936</v>
       </c>
       <c r="K75" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="L75" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L75" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J76" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000937</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>206</v>
+        <v>586</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="F77" s="6">
+        <v>1</v>
+      </c>
+      <c r="G77" s="6">
+        <v>1</v>
+      </c>
       <c r="H77" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J77" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000938</v>
       </c>
       <c r="K77" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L77" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L77" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>201</v>
+      </c>
+      <c r="F78" s="6">
+        <v>1</v>
+      </c>
+      <c r="G78" s="6">
+        <v>1</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>21</v>
@@ -4978,15 +5026,21 @@
         <v>203</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>195</v>
+      </c>
+      <c r="F79" s="6">
+        <v>5</v>
+      </c>
+      <c r="G79" s="6">
+        <v>5</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>58</v>
@@ -5005,9 +5059,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>190</v>
@@ -5032,9 +5086,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>186</v>
@@ -5059,9 +5113,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>181</v>
@@ -5089,9 +5143,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>175</v>
@@ -5116,9 +5170,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>171</v>
@@ -5152,9 +5206,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>165</v>
@@ -5188,9 +5242,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>160</v>
@@ -5224,9 +5278,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>157</v>
@@ -5251,7 +5305,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B88" s="4" t="s">
         <v>151</v>
       </c>
@@ -5284,7 +5338,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B89" s="4" t="s">
         <v>146</v>
       </c>
@@ -5317,7 +5371,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
         <v>140</v>
       </c>
@@ -5350,7 +5404,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
         <v>135</v>
       </c>
@@ -5383,9 +5437,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>131</v>
@@ -5413,7 +5467,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
         <v>123</v>
       </c>
@@ -5446,7 +5500,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B94" s="4" t="s">
         <v>118</v>
       </c>
@@ -5479,7 +5533,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
         <v>112</v>
       </c>
@@ -5512,7 +5566,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B96" s="4" t="s">
         <v>109</v>
       </c>
@@ -5545,7 +5599,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B97" s="4" t="s">
         <v>104</v>
       </c>
@@ -5578,7 +5632,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
         <v>98</v>
       </c>
@@ -5611,7 +5665,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
         <v>92</v>
       </c>
@@ -5644,15 +5698,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>32</v>
@@ -5667,22 +5721,22 @@
         <v>21</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J100" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000977</v>
       </c>
       <c r="K100" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="L100" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="L100" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>87</v>
@@ -5707,9 +5761,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>82</v>
@@ -5734,9 +5788,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>77</v>
@@ -5761,15 +5815,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>72</v>
+      </c>
+      <c r="F104" s="6">
+        <v>1</v>
+      </c>
+      <c r="G104" s="6">
+        <v>1</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>21</v>
@@ -5788,9 +5848,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>70</v>
@@ -5815,9 +5875,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>62</v>
@@ -5851,9 +5911,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>56</v>
@@ -5881,9 +5941,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>51</v>
@@ -5908,9 +5968,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>46</v>
@@ -5935,9 +5995,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>43</v>
@@ -5962,9 +6022,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>36</v>
@@ -5989,9 +6049,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>31</v>
@@ -6016,9 +6076,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>26</v>
@@ -6052,9 +6112,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>19</v>
@@ -6079,15 +6139,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>32</v>
@@ -6096,114 +6156,114 @@
         <v>11</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J115" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000996</v>
       </c>
       <c r="K115" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="L115" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="L115" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I116" s="4" t="s">
         <v>555</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>556</v>
       </c>
       <c r="J116" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000998</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J117" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J118" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J119" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J120" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J121" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J122" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J123" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J124" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J125" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J126" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J127" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A4:L4"/>
   <mergeCells count="1">
     <mergeCell ref="A2:L2"/>
   </mergeCells>
@@ -6212,10 +6272,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6225,27 +6285,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
     <col min="3" max="3" width="34" style="4" customWidth="1"/>
     <col min="4" max="4" width="4.75" customWidth="1"/>
-    <col min="8" max="8" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -6259,7 +6319,7 @@
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
     </row>
-    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -6276,10 +6336,10 @@
         <v>133</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -6297,66 +6357,66 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>534</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>535</v>
       </c>
       <c r="D5" s="19"/>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
+        <v>535</v>
+      </c>
+      <c r="J5" t="s">
         <v>536</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>537</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>538</v>
       </c>
-      <c r="L5" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E9" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E10" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>538</v>
       </c>
-      <c r="E10" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>539</v>
-      </c>
       <c r="E11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
         <v>543</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>544</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -6370,7 +6430,7 @@
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
     </row>
-    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -6387,10 +6447,10 @@
         <v>133</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>10</v>
@@ -6408,12 +6468,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>533</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>534</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>535</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>32</v>
@@ -6422,57 +6482,57 @@
         <v>11</v>
       </c>
       <c r="I16" t="s">
+        <v>535</v>
+      </c>
+      <c r="J16" t="s">
         <v>536</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>537</v>
-      </c>
-      <c r="K16" t="s">
-        <v>538</v>
       </c>
       <c r="L16">
         <v>54837657</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C19" s="17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="E20" t="s">
         <v>540</v>
       </c>
-      <c r="E20" t="s">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>537</v>
+      </c>
+      <c r="E21" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>538</v>
+      </c>
+      <c r="E22" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>538</v>
-      </c>
-      <c r="E21" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>539</v>
-      </c>
-      <c r="E22" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C23"/>
     </row>
-    <row r="25" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -6486,7 +6546,7 @@
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
     </row>
-    <row r="27" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
@@ -6503,10 +6563,10 @@
         <v>133</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>10</v>
@@ -6524,63 +6584,63 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
+        <v>533</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>534</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>535</v>
-      </c>
       <c r="E28" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H28" t="s">
         <v>11</v>
       </c>
       <c r="I28" t="s">
+        <v>535</v>
+      </c>
+      <c r="J28" t="s">
         <v>536</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>537</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>538</v>
       </c>
-      <c r="L28" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C31" s="17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C32" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="E32" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>537</v>
+      </c>
+      <c r="E33" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C32" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="E32" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
         <v>538</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>548</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>539</v>
-      </c>
-      <c r="E34" t="s">
-        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -6591,7 +6651,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1930" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
+    <workbookView xWindow="2970" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2822,8 +2822,8 @@
   <dimension ref="A2:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61:XFD61"/>
+      <pane ySplit="4" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3023,6 +3023,12 @@
       <c r="E11" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="F11" s="6">
+        <v>18</v>
+      </c>
+      <c r="G11" s="6">
+        <v>18</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>21</v>
       </c>
@@ -3518,6 +3524,12 @@
       <c r="C28" s="1" t="s">
         <v>442</v>
       </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
       <c r="H28" s="1" t="s">
         <v>21</v>
       </c>
@@ -3965,6 +3977,12 @@
       <c r="C44" s="1" t="s">
         <v>368</v>
       </c>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+      <c r="G44" s="6">
+        <v>1</v>
+      </c>
       <c r="H44" s="1" t="s">
         <v>21</v>
       </c>
@@ -5450,6 +5468,12 @@
       <c r="D92" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="F92" s="6">
+        <v>1</v>
+      </c>
+      <c r="G92" s="6">
+        <v>1</v>
+      </c>
       <c r="H92" s="1" t="s">
         <v>21</v>
       </c>
@@ -5924,6 +5948,12 @@
       <c r="D107" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="F107" s="6">
+        <v>1</v>
+      </c>
+      <c r="G107" s="6">
+        <v>1</v>
+      </c>
       <c r="H107" s="1" t="s">
         <v>21</v>
       </c>
@@ -5950,6 +5980,12 @@
       </c>
       <c r="C108" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="F108" s="6">
+        <v>1</v>
+      </c>
+      <c r="G108" s="6">
+        <v>1</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>58</v>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\writing\11_付费课程\99.资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10081D12-D3CB-4EF4-8CE3-56E2FDA9C328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
+    <workbookView xWindow="885" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$L$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="592">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2339,13 +2340,33 @@
   </si>
   <si>
     <t>我的地盘我做主，电脑显示屏幕也能玩“三八线”之 ScreenSlicer ！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑行小伙儿远在他方是如何帮助父母解决电脑手机问题的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-12-06 08:43:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>223480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18698691</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2818,30 +2839,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
+      <pane ySplit="4" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="9" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="6" customWidth="1"/>
     <col min="6" max="7" width="8.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.08203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.58203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -2857,8 +2878,8 @@
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
     </row>
-    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -2896,7 +2917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>557</v>
       </c>
@@ -2923,7 +2944,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>559</v>
       </c>
@@ -2959,7 +2980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>559</v>
       </c>
@@ -2995,25 +3016,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>522</v>
       </c>
@@ -3046,7 +3067,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>558</v>
       </c>
@@ -3076,7 +3097,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>558</v>
       </c>
@@ -3106,7 +3127,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>557</v>
       </c>
@@ -3133,7 +3154,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>557</v>
       </c>
@@ -3160,7 +3181,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>557</v>
       </c>
@@ -3187,7 +3208,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>557</v>
       </c>
@@ -3214,7 +3235,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>557</v>
       </c>
@@ -3241,7 +3262,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>557</v>
       </c>
@@ -3268,7 +3289,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>559</v>
       </c>
@@ -3304,7 +3325,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>557</v>
       </c>
@@ -3331,7 +3352,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>558</v>
       </c>
@@ -3361,7 +3382,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>557</v>
       </c>
@@ -3388,7 +3409,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>557</v>
       </c>
@@ -3415,7 +3436,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>557</v>
       </c>
@@ -3442,7 +3463,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>559</v>
       </c>
@@ -3478,7 +3499,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>559</v>
       </c>
@@ -3514,7 +3535,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>557</v>
       </c>
@@ -3547,7 +3568,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>557</v>
       </c>
@@ -3574,7 +3595,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>557</v>
       </c>
@@ -3601,7 +3622,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>557</v>
       </c>
@@ -3628,7 +3649,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>557</v>
       </c>
@@ -3655,7 +3676,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>557</v>
       </c>
@@ -3682,7 +3703,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>559</v>
       </c>
@@ -3718,7 +3739,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>557</v>
       </c>
@@ -3745,7 +3766,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>557</v>
       </c>
@@ -3772,7 +3793,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>557</v>
       </c>
@@ -3799,7 +3820,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>557</v>
       </c>
@@ -3826,7 +3847,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>557</v>
       </c>
@@ -3853,7 +3874,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>559</v>
       </c>
@@ -3886,7 +3907,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>557</v>
       </c>
@@ -3913,7 +3934,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>557</v>
       </c>
@@ -3940,7 +3961,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>557</v>
       </c>
@@ -3967,7 +3988,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>557</v>
       </c>
@@ -4000,7 +4021,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>557</v>
       </c>
@@ -4027,7 +4048,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>557</v>
       </c>
@@ -4054,7 +4075,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>557</v>
       </c>
@@ -4081,7 +4102,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>557</v>
       </c>
@@ -4108,7 +4129,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>557</v>
       </c>
@@ -4135,7 +4156,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>557</v>
       </c>
@@ -4162,7 +4183,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>557</v>
       </c>
@@ -4189,7 +4210,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>557</v>
       </c>
@@ -4216,7 +4237,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>559</v>
       </c>
@@ -4252,7 +4273,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>559</v>
       </c>
@@ -4288,7 +4309,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>557</v>
       </c>
@@ -4315,7 +4336,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>558</v>
       </c>
@@ -4351,7 +4372,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>557</v>
       </c>
@@ -4378,7 +4399,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
         <v>298</v>
       </c>
@@ -4411,7 +4432,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
         <v>294</v>
       </c>
@@ -4444,7 +4465,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>289</v>
       </c>
@@ -4477,7 +4498,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>557</v>
       </c>
@@ -4510,7 +4531,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>557</v>
       </c>
@@ -4543,7 +4564,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>559</v>
       </c>
@@ -4579,7 +4600,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>557</v>
       </c>
@@ -4606,7 +4627,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>558</v>
       </c>
@@ -4642,7 +4663,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>559</v>
       </c>
@@ -4675,7 +4696,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>559</v>
       </c>
@@ -4708,7 +4729,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>558</v>
       </c>
@@ -4738,7 +4759,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>558</v>
       </c>
@@ -4768,7 +4789,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>558</v>
       </c>
@@ -4798,7 +4819,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>557</v>
       </c>
@@ -4825,7 +4846,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>557</v>
       </c>
@@ -4858,7 +4879,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>558</v>
       </c>
@@ -4891,7 +4912,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>557</v>
       </c>
@@ -4918,7 +4939,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>558</v>
       </c>
@@ -4948,7 +4969,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>557</v>
       </c>
@@ -4975,7 +4996,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>558</v>
       </c>
@@ -5011,7 +5032,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>557</v>
       </c>
@@ -5044,7 +5065,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>557</v>
       </c>
@@ -5077,7 +5098,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>557</v>
       </c>
@@ -5104,7 +5125,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>557</v>
       </c>
@@ -5131,7 +5152,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>558</v>
       </c>
@@ -5161,7 +5182,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>557</v>
       </c>
@@ -5188,7 +5209,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>559</v>
       </c>
@@ -5224,7 +5245,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>559</v>
       </c>
@@ -5260,7 +5281,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>559</v>
       </c>
@@ -5296,7 +5317,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>557</v>
       </c>
@@ -5323,7 +5344,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B88" s="4" t="s">
         <v>151</v>
       </c>
@@ -5356,7 +5377,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B89" s="4" t="s">
         <v>146</v>
       </c>
@@ -5389,7 +5410,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B90" s="4" t="s">
         <v>140</v>
       </c>
@@ -5422,7 +5443,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
         <v>135</v>
       </c>
@@ -5455,7 +5476,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>558</v>
       </c>
@@ -5491,7 +5512,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
         <v>123</v>
       </c>
@@ -5524,7 +5545,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B94" s="4" t="s">
         <v>118</v>
       </c>
@@ -5557,7 +5578,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
         <v>112</v>
       </c>
@@ -5590,7 +5611,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B96" s="4" t="s">
         <v>109</v>
       </c>
@@ -5623,7 +5644,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B97" s="4" t="s">
         <v>104</v>
       </c>
@@ -5656,7 +5677,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
         <v>98</v>
       </c>
@@ -5689,7 +5710,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
         <v>92</v>
       </c>
@@ -5722,7 +5743,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>559</v>
       </c>
@@ -5758,7 +5779,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>557</v>
       </c>
@@ -5785,7 +5806,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>557</v>
       </c>
@@ -5812,7 +5833,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>557</v>
       </c>
@@ -5839,7 +5860,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>557</v>
       </c>
@@ -5872,7 +5893,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>557</v>
       </c>
@@ -5899,7 +5920,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>559</v>
       </c>
@@ -5935,7 +5956,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>558</v>
       </c>
@@ -5971,7 +5992,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>557</v>
       </c>
@@ -6004,7 +6025,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>557</v>
       </c>
@@ -6031,7 +6052,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>557</v>
       </c>
@@ -6058,7 +6079,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>557</v>
       </c>
@@ -6085,7 +6106,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>557</v>
       </c>
@@ -6112,7 +6133,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>559</v>
       </c>
@@ -6148,7 +6169,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>557</v>
       </c>
@@ -6175,7 +6196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>558</v>
       </c>
@@ -6205,7 +6226,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>557</v>
       </c>
@@ -6232,74 +6253,98 @@
         <v>585</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B117" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F117" s="6">
+        <v>1</v>
+      </c>
+      <c r="G117" s="6">
+        <v>1</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>589</v>
+      </c>
       <c r="J117" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0001000</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J118" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J119" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J120" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J121" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J122" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J123" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J124" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J125" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J126" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J127" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L4"/>
+  <autoFilter ref="A4:L4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A2:L2"/>
   </mergeCells>
@@ -6308,10 +6353,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6321,25 +6366,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
     <col min="3" max="3" width="34" style="4" customWidth="1"/>
     <col min="4" max="4" width="4.75" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>549</v>
       </c>
@@ -6355,7 +6400,7 @@
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
     </row>
-    <row r="4" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -6393,7 +6438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>533</v>
       </c>
@@ -6417,7 +6462,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="17" t="s">
         <v>545</v>
       </c>
@@ -6426,7 +6471,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
         <v>539</v>
       </c>
@@ -6434,7 +6479,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>537</v>
       </c>
@@ -6442,7 +6487,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>538</v>
       </c>
@@ -6450,7 +6495,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>543</v>
       </c>
@@ -6466,7 +6511,7 @@
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
     </row>
-    <row r="15" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -6504,7 +6549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>533</v>
       </c>
@@ -6530,7 +6575,7 @@
         <v>54837657</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C19" s="17" t="s">
         <v>545</v>
       </c>
@@ -6539,7 +6584,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C20" s="4" t="s">
         <v>539</v>
       </c>
@@ -6547,7 +6592,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>537</v>
       </c>
@@ -6555,7 +6600,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>538</v>
       </c>
@@ -6563,10 +6608,10 @@
         <v>541</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C23"/>
     </row>
-    <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
         <v>550</v>
       </c>
@@ -6582,7 +6627,7 @@
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
     </row>
-    <row r="27" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
@@ -6620,7 +6665,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>533</v>
       </c>
@@ -6646,7 +6691,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C31" s="17" t="s">
         <v>545</v>
       </c>
@@ -6655,7 +6700,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C32" s="4" t="s">
         <v>539</v>
       </c>
@@ -6663,7 +6708,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>537</v>
       </c>
@@ -6671,7 +6716,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>538</v>
       </c>
@@ -6687,7 +6732,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10081D12-D3CB-4EF4-8CE3-56E2FDA9C328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E02315-6E11-4430-BBBD-82D570E291F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="592">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2843,8 +2843,8 @@
   <dimension ref="A2:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
+      <pane ySplit="4" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L115" sqref="L115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3545,12 +3545,6 @@
       <c r="C28" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="F28" s="6">
-        <v>1</v>
-      </c>
-      <c r="G28" s="6">
-        <v>1</v>
-      </c>
       <c r="H28" s="1" t="s">
         <v>21</v>
       </c>
@@ -3998,12 +3992,6 @@
       <c r="C44" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F44" s="6">
-        <v>1</v>
-      </c>
-      <c r="G44" s="6">
-        <v>1</v>
-      </c>
       <c r="H44" s="1" t="s">
         <v>21</v>
       </c>
@@ -4254,7 +4242,7 @@
         <v>39</v>
       </c>
       <c r="G53" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>21</v>
@@ -4346,14 +4334,8 @@
       <c r="C56" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="D56" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="F56" s="6">
-        <v>8</v>
-      </c>
-      <c r="G56" s="6">
-        <v>8</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>21</v>
@@ -4508,12 +4490,6 @@
       <c r="C61" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F61" s="6">
-        <v>1</v>
-      </c>
-      <c r="G61" s="6">
-        <v>1</v>
-      </c>
       <c r="H61" s="1" t="s">
         <v>21</v>
       </c>
@@ -4541,12 +4517,6 @@
       <c r="C62" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F62" s="6">
-        <v>1</v>
-      </c>
-      <c r="G62" s="6">
-        <v>1</v>
-      </c>
       <c r="H62" s="1" t="s">
         <v>21</v>
       </c>
@@ -4640,12 +4610,6 @@
       <c r="D65" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F65" s="6">
-        <v>5</v>
-      </c>
-      <c r="G65" s="6">
-        <v>5</v>
-      </c>
       <c r="H65" s="1" t="s">
         <v>21</v>
       </c>
@@ -4673,12 +4637,6 @@
       <c r="C66" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F66" s="6">
-        <v>1</v>
-      </c>
-      <c r="G66" s="6">
-        <v>1</v>
-      </c>
       <c r="H66" s="1" t="s">
         <v>21</v>
       </c>
@@ -4706,12 +4664,6 @@
       <c r="C67" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F67" s="6">
-        <v>1</v>
-      </c>
-      <c r="G67" s="6">
-        <v>1</v>
-      </c>
       <c r="H67" s="1" t="s">
         <v>21</v>
       </c>
@@ -4856,12 +4808,6 @@
       <c r="C72" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F72" s="6">
-        <v>5</v>
-      </c>
-      <c r="G72" s="6">
-        <v>5</v>
-      </c>
       <c r="H72" s="1" t="s">
         <v>58</v>
       </c>
@@ -4949,9 +4895,6 @@
       <c r="C75" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D75" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="H75" s="1" t="s">
         <v>21</v>
       </c>
@@ -5006,15 +4949,6 @@
       <c r="C77" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D77" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F77" s="6">
-        <v>1</v>
-      </c>
-      <c r="G77" s="6">
-        <v>1</v>
-      </c>
       <c r="H77" s="1" t="s">
         <v>21</v>
       </c>
@@ -5042,12 +4976,6 @@
       <c r="C78" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F78" s="6">
-        <v>1</v>
-      </c>
-      <c r="G78" s="6">
-        <v>1</v>
-      </c>
       <c r="H78" s="1" t="s">
         <v>21</v>
       </c>
@@ -5075,12 +5003,6 @@
       <c r="C79" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F79" s="6">
-        <v>5</v>
-      </c>
-      <c r="G79" s="6">
-        <v>5</v>
-      </c>
       <c r="H79" s="1" t="s">
         <v>58</v>
       </c>
@@ -5162,9 +5084,6 @@
       <c r="C82" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D82" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="H82" s="1" t="s">
         <v>21</v>
       </c>
@@ -5486,15 +5405,6 @@
       <c r="C92" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D92" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F92" s="6">
-        <v>1</v>
-      </c>
-      <c r="G92" s="6">
-        <v>1</v>
-      </c>
       <c r="H92" s="1" t="s">
         <v>21</v>
       </c>
@@ -5870,12 +5780,6 @@
       <c r="C104" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F104" s="6">
-        <v>1</v>
-      </c>
-      <c r="G104" s="6">
-        <v>1</v>
-      </c>
       <c r="H104" s="1" t="s">
         <v>21</v>
       </c>
@@ -5966,15 +5870,6 @@
       <c r="C107" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D107" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F107" s="6">
-        <v>1</v>
-      </c>
-      <c r="G107" s="6">
-        <v>1</v>
-      </c>
       <c r="H107" s="1" t="s">
         <v>21</v>
       </c>
@@ -6002,12 +5897,6 @@
       <c r="C108" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F108" s="6">
-        <v>1</v>
-      </c>
-      <c r="G108" s="6">
-        <v>1</v>
-      </c>
       <c r="H108" s="1" t="s">
         <v>58</v>
       </c>
@@ -6254,17 +6143,14 @@
       </c>
     </row>
     <row r="117" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="8" t="s">
+        <v>557</v>
+      </c>
       <c r="B117" s="4" t="s">
         <v>587</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="F117" s="6">
-        <v>1</v>
-      </c>
-      <c r="G117" s="6">
-        <v>1</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>21</v>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E02315-6E11-4430-BBBD-82D570E291F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1930" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$L$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="598">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2360,13 +2359,37 @@
   </si>
   <si>
     <t>18698691</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-12-11 21:03:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81969633</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只会 Windows 也能轻松搭建远程桌面 RustDesk 自用服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2839,30 +2862,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L115" sqref="L115"/>
+      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="9" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="6" customWidth="1"/>
     <col min="6" max="7" width="8.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.08203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.58203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="25" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -2878,8 +2901,8 @@
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
     </row>
-    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -2917,7 +2940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>557</v>
       </c>
@@ -2944,7 +2967,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>559</v>
       </c>
@@ -2980,7 +3003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>559</v>
       </c>
@@ -3016,25 +3039,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>522</v>
       </c>
@@ -3067,7 +3090,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>558</v>
       </c>
@@ -3097,7 +3120,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>558</v>
       </c>
@@ -3127,7 +3150,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>557</v>
       </c>
@@ -3154,7 +3177,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>557</v>
       </c>
@@ -3181,7 +3204,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>557</v>
       </c>
@@ -3208,7 +3231,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>557</v>
       </c>
@@ -3235,7 +3258,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>557</v>
       </c>
@@ -3262,7 +3285,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>557</v>
       </c>
@@ -3289,7 +3312,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>559</v>
       </c>
@@ -3325,7 +3348,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>557</v>
       </c>
@@ -3352,7 +3375,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>558</v>
       </c>
@@ -3382,7 +3405,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>557</v>
       </c>
@@ -3409,7 +3432,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>557</v>
       </c>
@@ -3436,7 +3459,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>557</v>
       </c>
@@ -3463,7 +3486,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>559</v>
       </c>
@@ -3499,7 +3522,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>559</v>
       </c>
@@ -3535,7 +3558,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>557</v>
       </c>
@@ -3562,7 +3585,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>557</v>
       </c>
@@ -3589,7 +3612,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>557</v>
       </c>
@@ -3616,7 +3639,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>557</v>
       </c>
@@ -3643,7 +3666,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>557</v>
       </c>
@@ -3670,7 +3693,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>557</v>
       </c>
@@ -3697,7 +3720,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>559</v>
       </c>
@@ -3733,7 +3756,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>557</v>
       </c>
@@ -3760,7 +3783,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>557</v>
       </c>
@@ -3787,7 +3810,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>557</v>
       </c>
@@ -3814,7 +3837,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>557</v>
       </c>
@@ -3841,7 +3864,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>557</v>
       </c>
@@ -3868,7 +3891,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>559</v>
       </c>
@@ -3901,7 +3924,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>557</v>
       </c>
@@ -3928,7 +3951,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>557</v>
       </c>
@@ -3955,7 +3978,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>557</v>
       </c>
@@ -3982,7 +4005,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>557</v>
       </c>
@@ -4009,7 +4032,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>557</v>
       </c>
@@ -4036,7 +4059,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>557</v>
       </c>
@@ -4063,7 +4086,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>557</v>
       </c>
@@ -4090,7 +4113,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>557</v>
       </c>
@@ -4117,7 +4140,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>557</v>
       </c>
@@ -4144,7 +4167,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>557</v>
       </c>
@@ -4171,7 +4194,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>557</v>
       </c>
@@ -4198,7 +4221,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>557</v>
       </c>
@@ -4225,7 +4248,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>559</v>
       </c>
@@ -4261,7 +4284,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>559</v>
       </c>
@@ -4297,7 +4320,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>557</v>
       </c>
@@ -4324,7 +4347,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>558</v>
       </c>
@@ -4354,7 +4377,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>557</v>
       </c>
@@ -4381,7 +4404,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>298</v>
       </c>
@@ -4414,7 +4437,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
         <v>294</v>
       </c>
@@ -4447,7 +4470,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
         <v>289</v>
       </c>
@@ -4480,7 +4503,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>557</v>
       </c>
@@ -4507,7 +4530,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>557</v>
       </c>
@@ -4534,7 +4557,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>559</v>
       </c>
@@ -4570,7 +4593,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>557</v>
       </c>
@@ -4597,7 +4620,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>558</v>
       </c>
@@ -4627,7 +4650,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>559</v>
       </c>
@@ -4654,7 +4677,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>559</v>
       </c>
@@ -4681,7 +4704,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>558</v>
       </c>
@@ -4711,7 +4734,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>558</v>
       </c>
@@ -4741,7 +4764,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>558</v>
       </c>
@@ -4771,7 +4794,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>557</v>
       </c>
@@ -4798,7 +4821,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>557</v>
       </c>
@@ -4825,7 +4848,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>558</v>
       </c>
@@ -4858,7 +4881,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>557</v>
       </c>
@@ -4885,7 +4908,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>558</v>
       </c>
@@ -4912,7 +4935,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>557</v>
       </c>
@@ -4939,7 +4962,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>558</v>
       </c>
@@ -4966,7 +4989,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>557</v>
       </c>
@@ -4993,7 +5016,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>557</v>
       </c>
@@ -5020,7 +5043,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>557</v>
       </c>
@@ -5047,7 +5070,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>557</v>
       </c>
@@ -5074,7 +5097,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>558</v>
       </c>
@@ -5101,7 +5124,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>557</v>
       </c>
@@ -5128,7 +5151,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>559</v>
       </c>
@@ -5164,7 +5187,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>559</v>
       </c>
@@ -5200,7 +5223,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>559</v>
       </c>
@@ -5236,7 +5259,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>557</v>
       </c>
@@ -5263,7 +5286,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B88" s="4" t="s">
         <v>151</v>
       </c>
@@ -5296,7 +5319,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B89" s="4" t="s">
         <v>146</v>
       </c>
@@ -5329,7 +5352,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
         <v>140</v>
       </c>
@@ -5362,7 +5385,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
         <v>135</v>
       </c>
@@ -5395,7 +5418,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>558</v>
       </c>
@@ -5422,7 +5445,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
         <v>123</v>
       </c>
@@ -5455,7 +5478,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B94" s="4" t="s">
         <v>118</v>
       </c>
@@ -5488,7 +5511,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
         <v>112</v>
       </c>
@@ -5521,7 +5544,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B96" s="4" t="s">
         <v>109</v>
       </c>
@@ -5554,7 +5577,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B97" s="4" t="s">
         <v>104</v>
       </c>
@@ -5587,7 +5610,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
         <v>98</v>
       </c>
@@ -5620,7 +5643,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
         <v>92</v>
       </c>
@@ -5653,7 +5676,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>559</v>
       </c>
@@ -5689,7 +5712,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>557</v>
       </c>
@@ -5716,7 +5739,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>557</v>
       </c>
@@ -5743,7 +5766,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>557</v>
       </c>
@@ -5770,7 +5793,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>557</v>
       </c>
@@ -5797,7 +5820,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>557</v>
       </c>
@@ -5824,7 +5847,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>559</v>
       </c>
@@ -5860,7 +5883,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>558</v>
       </c>
@@ -5887,7 +5910,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>557</v>
       </c>
@@ -5914,7 +5937,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>557</v>
       </c>
@@ -5941,7 +5964,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>557</v>
       </c>
@@ -5968,7 +5991,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>557</v>
       </c>
@@ -5995,7 +6018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>557</v>
       </c>
@@ -6022,7 +6045,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>559</v>
       </c>
@@ -6058,7 +6081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>557</v>
       </c>
@@ -6085,7 +6108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>558</v>
       </c>
@@ -6115,7 +6138,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>557</v>
       </c>
@@ -6142,7 +6165,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>557</v>
       </c>
@@ -6169,68 +6192,89 @@
         <v>591</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A118" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>593</v>
+      </c>
       <c r="J118" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0001001</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J119" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J120" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J121" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J122" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J123" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J124" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J125" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J126" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J127" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A4:L4"/>
   <mergeCells count="1">
     <mergeCell ref="A2:L2"/>
   </mergeCells>
@@ -6239,10 +6283,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6252,25 +6296,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
     <col min="3" max="3" width="34" style="4" customWidth="1"/>
     <col min="4" max="4" width="4.75" customWidth="1"/>
-    <col min="8" max="8" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>549</v>
       </c>
@@ -6286,7 +6330,7 @@
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
     </row>
-    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -6324,7 +6368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>533</v>
       </c>
@@ -6348,7 +6392,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="17" t="s">
         <v>545</v>
       </c>
@@ -6357,7 +6401,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>539</v>
       </c>
@@ -6365,7 +6409,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>537</v>
       </c>
@@ -6373,7 +6417,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>538</v>
       </c>
@@ -6381,7 +6425,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>543</v>
       </c>
@@ -6397,7 +6441,7 @@
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
     </row>
-    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -6435,7 +6479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>533</v>
       </c>
@@ -6461,7 +6505,7 @@
         <v>54837657</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C19" s="17" t="s">
         <v>545</v>
       </c>
@@ -6470,7 +6514,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
         <v>539</v>
       </c>
@@ -6478,7 +6522,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>537</v>
       </c>
@@ -6486,7 +6530,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>538</v>
       </c>
@@ -6494,10 +6538,10 @@
         <v>541</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C23"/>
     </row>
-    <row r="25" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
         <v>550</v>
       </c>
@@ -6513,7 +6557,7 @@
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
     </row>
-    <row r="27" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
@@ -6551,7 +6595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>533</v>
       </c>
@@ -6577,7 +6621,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C31" s="17" t="s">
         <v>545</v>
       </c>
@@ -6586,7 +6630,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C32" s="4" t="s">
         <v>539</v>
       </c>
@@ -6594,7 +6638,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>537</v>
       </c>
@@ -6602,7 +6646,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>538</v>
       </c>
@@ -6618,7 +6662,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1930" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
+    <workbookView xWindow="2970" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="604">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2379,6 +2379,30 @@
   </si>
   <si>
     <t>只会 Windows 也能轻松搭建远程桌面 RustDesk 自用服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-12-18 16:42:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512461</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76486479</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以将手机打造成自动控制电脑、游戏和智能家居的神器 Macro Desk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2867,7 +2891,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
+      <selection pane="bottomLeft" activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6219,10 +6243,31 @@
         <v>595</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A119" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>599</v>
+      </c>
       <c r="J119" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000</v>
+        <v>0001002</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
+    <workbookView xWindow="4010" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="610">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2403,6 +2403,30 @@
   </si>
   <si>
     <t>可以将手机打造成自动控制电脑、游戏和智能家居的神器 Macro Desk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65375468</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方停止支持后，为复原Windows7古早系统，他们最终找到了这个完整更新集成包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-12-25 09:24:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>514290</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2890,8 +2914,8 @@
   <dimension ref="A2:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A119" sqref="A119"/>
+      <pane ySplit="4" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6270,10 +6294,31 @@
         <v>601</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A120" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>607</v>
+      </c>
       <c r="J120" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000</v>
+        <v>0001003</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4010" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
+    <workbookView xWindow="5050" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="616">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2431,6 +2431,30 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白都能使用KODI+TMM打造简易却实用的家庭影院系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-01-08 08:24:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87597580</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2915,7 +2939,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C121" sqref="C121"/>
+      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6321,10 +6345,31 @@
         <v>604</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A121" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>613</v>
+      </c>
       <c r="J121" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000</v>
+        <v>0001005</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5050" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
+    <workbookView xWindow="6090" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="622">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2455,6 +2455,30 @@
   </si>
   <si>
     <t>87597580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糟糕，电脑密码忘了，不能用U盘还有救吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-01-22 09:04:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120409</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84264357</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2939,7 +2963,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
+      <selection pane="bottomLeft" activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6372,10 +6396,31 @@
         <v>615</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A122" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>619</v>
+      </c>
       <c r="J122" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000</v>
+        <v>0001007</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
+    <workbookView xWindow="7130" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="628">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2480,6 +2480,29 @@
   <si>
     <t>84264357</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>824271</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-01-28 17:24:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我做了一个《三体》里面的倒计时程序，你们给打个分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71894210</t>
   </si>
 </sst>
 </file>
@@ -2963,7 +2986,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C123" sqref="C123"/>
+      <selection pane="bottomLeft" activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6423,10 +6446,31 @@
         <v>621</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A123" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>623</v>
+      </c>
       <c r="J123" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000</v>
+        <v>0001008</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\writing\11_付费课程\99.资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96742CF-0C63-4A36-AFEA-8278F7E9059D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7130" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
+    <workbookView xWindow="885" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$L$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="633">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2503,12 +2504,32 @@
   </si>
   <si>
     <t>71894210</t>
+  </si>
+  <si>
+    <t>1009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不拆机箱怎么判断你用的是机械硬盘还是固态硬盘？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-02-03 13:53:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>413531</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43143146</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2593,7 +2614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2609,7 +2630,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2621,19 +2642,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2649,9 +2664,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2981,57 +2993,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I124" sqref="I124"/>
+      <selection pane="bottomLeft" activeCell="M124" sqref="M124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="9" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="6" customWidth="1"/>
     <col min="6" max="7" width="8.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.08203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.58203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="25" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-    </row>
-    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>134</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -3046,20 +3058,20 @@
       <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>557</v>
       </c>
@@ -3086,7 +3098,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>559</v>
       </c>
@@ -3122,7 +3134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>559</v>
       </c>
@@ -3158,25 +3170,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>522</v>
       </c>
@@ -3209,7 +3221,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>558</v>
       </c>
@@ -3219,7 +3231,7 @@
       <c r="C12" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -3239,7 +3251,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>558</v>
       </c>
@@ -3249,7 +3261,7 @@
       <c r="C13" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -3269,7 +3281,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>557</v>
       </c>
@@ -3296,7 +3308,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>557</v>
       </c>
@@ -3323,7 +3335,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>557</v>
       </c>
@@ -3350,7 +3362,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>557</v>
       </c>
@@ -3377,7 +3389,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>557</v>
       </c>
@@ -3404,7 +3416,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>557</v>
       </c>
@@ -3431,7 +3443,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>559</v>
       </c>
@@ -3467,7 +3479,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>557</v>
       </c>
@@ -3494,7 +3506,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>558</v>
       </c>
@@ -3504,7 +3516,7 @@
       <c r="C22" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -3524,7 +3536,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>557</v>
       </c>
@@ -3551,7 +3563,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>557</v>
       </c>
@@ -3578,7 +3590,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>557</v>
       </c>
@@ -3605,7 +3617,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>559</v>
       </c>
@@ -3641,7 +3653,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>559</v>
       </c>
@@ -3677,7 +3689,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>557</v>
       </c>
@@ -3704,7 +3716,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>557</v>
       </c>
@@ -3731,7 +3743,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>557</v>
       </c>
@@ -3758,7 +3770,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>557</v>
       </c>
@@ -3785,7 +3797,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>557</v>
       </c>
@@ -3812,7 +3824,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>557</v>
       </c>
@@ -3839,7 +3851,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>559</v>
       </c>
@@ -3875,7 +3887,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>557</v>
       </c>
@@ -3902,7 +3914,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>557</v>
       </c>
@@ -3929,7 +3941,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>557</v>
       </c>
@@ -3956,7 +3968,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>557</v>
       </c>
@@ -3983,7 +3995,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>557</v>
       </c>
@@ -4010,7 +4022,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>559</v>
       </c>
@@ -4043,7 +4055,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>557</v>
       </c>
@@ -4070,7 +4082,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>557</v>
       </c>
@@ -4097,7 +4109,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>557</v>
       </c>
@@ -4124,7 +4136,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>557</v>
       </c>
@@ -4151,7 +4163,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>557</v>
       </c>
@@ -4178,7 +4190,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>557</v>
       </c>
@@ -4205,7 +4217,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>557</v>
       </c>
@@ -4232,7 +4244,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>557</v>
       </c>
@@ -4259,7 +4271,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>557</v>
       </c>
@@ -4286,7 +4298,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>557</v>
       </c>
@@ -4313,7 +4325,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>557</v>
       </c>
@@ -4340,7 +4352,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>557</v>
       </c>
@@ -4367,7 +4379,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>559</v>
       </c>
@@ -4403,7 +4415,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>559</v>
       </c>
@@ -4439,7 +4451,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>557</v>
       </c>
@@ -4466,7 +4478,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>558</v>
       </c>
@@ -4476,7 +4488,7 @@
       <c r="C56" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H56" s="1" t="s">
@@ -4496,7 +4508,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>557</v>
       </c>
@@ -4523,7 +4535,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
         <v>298</v>
       </c>
@@ -4556,7 +4568,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
         <v>294</v>
       </c>
@@ -4589,7 +4601,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>289</v>
       </c>
@@ -4622,7 +4634,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>557</v>
       </c>
@@ -4649,7 +4661,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>557</v>
       </c>
@@ -4676,7 +4688,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>559</v>
       </c>
@@ -4712,7 +4724,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>557</v>
       </c>
@@ -4739,7 +4751,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>558</v>
       </c>
@@ -4749,7 +4761,7 @@
       <c r="C65" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H65" s="1" t="s">
@@ -4769,7 +4781,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>559</v>
       </c>
@@ -4796,7 +4808,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>559</v>
       </c>
@@ -4823,7 +4835,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>558</v>
       </c>
@@ -4833,7 +4845,7 @@
       <c r="C68" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H68" s="1" t="s">
@@ -4853,7 +4865,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>558</v>
       </c>
@@ -4863,7 +4875,7 @@
       <c r="C69" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H69" s="1" t="s">
@@ -4883,7 +4895,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>558</v>
       </c>
@@ -4893,7 +4905,7 @@
       <c r="C70" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H70" s="1" t="s">
@@ -4913,7 +4925,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>557</v>
       </c>
@@ -4940,7 +4952,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>557</v>
       </c>
@@ -4967,7 +4979,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>558</v>
       </c>
@@ -5000,7 +5012,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>557</v>
       </c>
@@ -5027,7 +5039,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>558</v>
       </c>
@@ -5054,7 +5066,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>557</v>
       </c>
@@ -5081,7 +5093,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>558</v>
       </c>
@@ -5108,7 +5120,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>557</v>
       </c>
@@ -5135,7 +5147,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>557</v>
       </c>
@@ -5162,7 +5174,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>557</v>
       </c>
@@ -5189,7 +5201,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>557</v>
       </c>
@@ -5216,7 +5228,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>558</v>
       </c>
@@ -5243,7 +5255,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>557</v>
       </c>
@@ -5270,7 +5282,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>559</v>
       </c>
@@ -5306,7 +5318,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>559</v>
       </c>
@@ -5342,7 +5354,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>559</v>
       </c>
@@ -5378,7 +5390,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>557</v>
       </c>
@@ -5405,7 +5417,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B88" s="4" t="s">
         <v>151</v>
       </c>
@@ -5438,7 +5450,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B89" s="4" t="s">
         <v>146</v>
       </c>
@@ -5471,7 +5483,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B90" s="4" t="s">
         <v>140</v>
       </c>
@@ -5504,7 +5516,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
         <v>135</v>
       </c>
@@ -5537,7 +5549,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>558</v>
       </c>
@@ -5564,7 +5576,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
         <v>123</v>
       </c>
@@ -5597,7 +5609,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B94" s="4" t="s">
         <v>118</v>
       </c>
@@ -5630,7 +5642,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
         <v>112</v>
       </c>
@@ -5663,7 +5675,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B96" s="4" t="s">
         <v>109</v>
       </c>
@@ -5696,7 +5708,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B97" s="4" t="s">
         <v>104</v>
       </c>
@@ -5729,7 +5741,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
         <v>98</v>
       </c>
@@ -5762,7 +5774,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
         <v>92</v>
       </c>
@@ -5795,7 +5807,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>559</v>
       </c>
@@ -5831,7 +5843,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>557</v>
       </c>
@@ -5858,7 +5870,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>557</v>
       </c>
@@ -5885,7 +5897,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>557</v>
       </c>
@@ -5912,7 +5924,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>557</v>
       </c>
@@ -5939,7 +5951,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>557</v>
       </c>
@@ -5966,7 +5978,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>559</v>
       </c>
@@ -6002,7 +6014,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>558</v>
       </c>
@@ -6029,7 +6041,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>557</v>
       </c>
@@ -6056,7 +6068,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>557</v>
       </c>
@@ -6083,7 +6095,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>557</v>
       </c>
@@ -6110,7 +6122,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>557</v>
       </c>
@@ -6137,7 +6149,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>557</v>
       </c>
@@ -6164,7 +6176,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>559</v>
       </c>
@@ -6200,7 +6212,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>557</v>
       </c>
@@ -6227,7 +6239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>558</v>
       </c>
@@ -6237,7 +6249,7 @@
       <c r="C115" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D115" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H115" s="1" t="s">
@@ -6257,7 +6269,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>557</v>
       </c>
@@ -6284,7 +6296,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>557</v>
       </c>
@@ -6311,7 +6323,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>597</v>
       </c>
@@ -6338,7 +6350,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>603</v>
       </c>
@@ -6365,7 +6377,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>609</v>
       </c>
@@ -6392,7 +6404,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>612</v>
       </c>
@@ -6419,7 +6431,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>618</v>
       </c>
@@ -6446,7 +6458,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>625</v>
       </c>
@@ -6473,32 +6485,53 @@
         <v>627</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A124" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>630</v>
+      </c>
       <c r="J124" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0001009</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J125" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J126" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J127" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L4"/>
+  <autoFilter ref="A4:L4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A2:L2"/>
   </mergeCells>
@@ -6507,10 +6540,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6520,51 +6553,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
     <col min="3" max="3" width="34" style="4" customWidth="1"/>
     <col min="4" max="4" width="4.75" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-    </row>
-    <row r="4" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>134</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -6579,27 +6612,26 @@
       <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>533</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="D5" s="19"/>
       <c r="H5" t="s">
         <v>11</v>
       </c>
@@ -6616,16 +6648,16 @@
         <v>538</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="17" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C8" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
         <v>539</v>
       </c>
@@ -6633,7 +6665,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>537</v>
       </c>
@@ -6641,7 +6673,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>538</v>
       </c>
@@ -6649,33 +6681,33 @@
         <v>542</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-    </row>
-    <row r="15" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="7" t="s">
         <v>134</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -6690,27 +6722,27 @@
       <c r="H15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>533</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H16" t="s">
@@ -6729,16 +6761,16 @@
         <v>54837657</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="17" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C20" s="4" t="s">
         <v>539</v>
       </c>
@@ -6746,7 +6778,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>537</v>
       </c>
@@ -6754,7 +6786,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>538</v>
       </c>
@@ -6762,36 +6794,36 @@
         <v>541</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C23"/>
     </row>
-    <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+    <row r="25" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-    </row>
-    <row r="27" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+    </row>
+    <row r="27" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="7" t="s">
         <v>134</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -6806,27 +6838,27 @@
       <c r="H27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L27" s="14" t="s">
+      <c r="L27" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>533</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="14" t="s">
         <v>544</v>
       </c>
       <c r="H28" t="s">
@@ -6845,16 +6877,16 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C31" s="17" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C31" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18" t="s">
+      <c r="D31" s="16"/>
+      <c r="E31" s="16" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C32" s="4" t="s">
         <v>539</v>
       </c>
@@ -6862,7 +6894,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>537</v>
       </c>
@@ -6870,7 +6902,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>538</v>
       </c>
@@ -6886,7 +6918,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96742CF-0C63-4A36-AFEA-8278F7E9059D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1930" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$L$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="639">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2523,13 +2522,37 @@
   </si>
   <si>
     <t>43143146</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>797</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别慌，文件找不到时我们应该这样做（二）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-01-12 15:52:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>742551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99649358</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2993,30 +3016,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M124" sqref="M124"/>
+      <pane ySplit="4" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="6" customWidth="1"/>
     <col min="6" max="7" width="8.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.08203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.58203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="25" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3032,8 +3055,8 @@
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -3071,7 +3094,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>557</v>
       </c>
@@ -3088,7 +3111,7 @@
         <v>576</v>
       </c>
       <c r="J5" s="5" t="str">
-        <f t="shared" ref="J5:J62" si="0">"000"&amp;B5</f>
+        <f t="shared" ref="J5:J63" si="0">"000"&amp;B5</f>
         <v>000720</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -3098,7 +3121,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>559</v>
       </c>
@@ -3134,7 +3157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>559</v>
       </c>
@@ -3170,25 +3193,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>522</v>
       </c>
@@ -3221,7 +3244,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>558</v>
       </c>
@@ -3251,7 +3274,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>558</v>
       </c>
@@ -3281,7 +3304,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>557</v>
       </c>
@@ -3308,7 +3331,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>557</v>
       </c>
@@ -3335,7 +3358,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>557</v>
       </c>
@@ -3362,7 +3385,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>557</v>
       </c>
@@ -3389,7 +3412,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>557</v>
       </c>
@@ -3416,7 +3439,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>557</v>
       </c>
@@ -3443,7 +3466,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>559</v>
       </c>
@@ -3479,7 +3502,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>557</v>
       </c>
@@ -3506,7 +3529,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>558</v>
       </c>
@@ -3536,7 +3559,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>557</v>
       </c>
@@ -3563,7 +3586,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>557</v>
       </c>
@@ -3590,78 +3613,69 @@
         <v>580</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>530</v>
+        <v>633</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="J25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000798</v>
+        <v>000797</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>573</v>
+        <v>637</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>449</v>
+        <v>530</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="6">
-        <v>38</v>
-      </c>
-      <c r="G26" s="6">
-        <v>38</v>
+        <v>571</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>452</v>
+        <v>572</v>
       </c>
       <c r="J26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000800</v>
+        <v>000798</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>450</v>
+        <v>573</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>559</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>32</v>
@@ -3676,904 +3690,907 @@
         <v>21</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="J27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000801</v>
+        <v>000800</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="6">
+        <v>38</v>
+      </c>
+      <c r="G28" s="6">
+        <v>38</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="J28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000802</v>
+        <v>000801</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="J29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000804</v>
+        <v>000802</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="J30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000806</v>
+        <v>000804</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="J31" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000808</v>
+        <v>000806</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J32" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000812</v>
+        <v>000808</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>531</v>
+        <v>420</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>567</v>
+        <v>419</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>568</v>
+        <v>423</v>
       </c>
       <c r="J33" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000817</v>
+        <v>000812</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>569</v>
+        <v>421</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>415</v>
+        <v>531</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="6">
-        <v>39</v>
-      </c>
-      <c r="G34" s="6">
-        <v>39</v>
+        <v>567</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>418</v>
+        <v>568</v>
       </c>
       <c r="J34" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000823</v>
+        <v>000817</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>416</v>
+        <v>569</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>409</v>
+        <v>414</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="6">
+        <v>39</v>
+      </c>
+      <c r="G35" s="6">
+        <v>39</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="J35" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000824</v>
+        <v>000823</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="J36" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000836</v>
+        <v>000824</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="J37" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000841</v>
+        <v>000836</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="J38" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000844</v>
+        <v>000841</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="J39" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000847</v>
+        <v>000844</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F40" s="6">
-        <v>18</v>
-      </c>
-      <c r="G40" s="6">
-        <v>18</v>
+        <v>389</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="J40" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000856</v>
+        <v>000847</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
+      </c>
+      <c r="F41" s="6">
+        <v>18</v>
+      </c>
+      <c r="G41" s="6">
+        <v>18</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="J41" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000857</v>
+        <v>000856</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="J42" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000860</v>
+        <v>000857</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="J43" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000861</v>
+        <v>000860</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="J44" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000862</v>
+        <v>000861</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="J45" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000864</v>
+        <v>000862</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="J46" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000865</v>
+        <v>000864</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="J47" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000868</v>
+        <v>000865</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="J48" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000875</v>
+        <v>000868</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="J49" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000876</v>
+        <v>000875</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="J50" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000884</v>
+        <v>000876</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="J51" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000887</v>
+        <v>000884</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="J52" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000888</v>
+        <v>000887</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" s="6">
-        <v>39</v>
-      </c>
-      <c r="G53" s="6">
-        <v>19</v>
+        <v>327</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="J53" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000889</v>
+        <v>000888</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>559</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F54" s="6">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="G54" s="6">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J54" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000890</v>
+        <v>000889</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="6">
+        <v>68</v>
+      </c>
+      <c r="G55" s="6">
+        <v>38</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="J55" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000893</v>
+        <v>000890</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>32</v>
+        <v>316</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J56" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000895</v>
+        <v>000893</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="J57" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000903</v>
+        <v>000895</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>557</v>
+      </c>
       <c r="B58" s="4" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F58" s="6">
-        <v>18</v>
-      </c>
-      <c r="G58" s="6">
-        <v>5</v>
+        <v>307</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="J58" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000904</v>
+        <v>000903</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>32</v>
@@ -4582,31 +4599,31 @@
         <v>18</v>
       </c>
       <c r="G59" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>94</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="J59" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000906</v>
+        <v>000904</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>32</v>
@@ -4621,1917 +4638,1950 @@
         <v>94</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="J60" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000908</v>
+        <v>000906</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
-        <v>557</v>
-      </c>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="6">
+        <v>18</v>
+      </c>
+      <c r="G61" s="6">
+        <v>9</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="J61" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000911</v>
+        <v>000908</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="J62" s="5" t="str">
         <f t="shared" si="0"/>
+        <v>000911</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J63" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>000913</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="K63" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="L63" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
+    <row r="64" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F64" s="6">
         <v>18</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G64" s="6">
         <v>18</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="I64" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="J63" s="5" t="str">
-        <f t="shared" ref="J63:J80" si="1">"000"&amp;B63</f>
+      <c r="J64" s="5" t="str">
+        <f t="shared" ref="J64:J81" si="1">"000"&amp;B64</f>
         <v>000914</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="K64" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="L64" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
+    <row r="65" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" s="4" t="s">
+      <c r="H65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="J64" s="5" t="str">
+      <c r="J65" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000915</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="K65" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="L65" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
+    <row r="66" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I65" s="4" t="s">
+      <c r="H66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="J65" s="5" t="str">
+      <c r="J66" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000920</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="K66" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="L66" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
+    <row r="67" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66" s="4" t="s">
+      <c r="H67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="J66" s="5" t="str">
+      <c r="J67" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000922</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="K67" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="L67" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
+    <row r="68" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" s="4" t="s">
+      <c r="H68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="J67" s="5" t="str">
+      <c r="J68" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000923</v>
       </c>
-      <c r="K67" s="3" t="s">
+      <c r="K68" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="L68" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A68" s="8" t="s">
+    <row r="69" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D69" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I68" s="4" t="s">
+      <c r="H69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="J68" s="5" t="str">
+      <c r="J69" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000926</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="K69" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="L69" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="8" t="s">
+    <row r="70" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D70" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I69" s="4" t="s">
+      <c r="H70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="J69" s="5" t="str">
+      <c r="J70" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000927</v>
       </c>
-      <c r="K69" s="3" t="s">
+      <c r="K70" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="L70" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="8" t="s">
+    <row r="71" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D71" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I70" s="4" t="s">
+      <c r="H71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="J70" s="5" t="str">
+      <c r="J71" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000928</v>
       </c>
-      <c r="K70" s="3" t="s">
+      <c r="K71" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="L71" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="8" t="s">
+    <row r="72" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I71" s="4" t="s">
+      <c r="H72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="J71" s="5" t="str">
+      <c r="J72" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000930</v>
       </c>
-      <c r="K71" s="3" t="s">
+      <c r="K72" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="L72" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="8" t="s">
+    <row r="73" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I72" s="4" t="s">
+      <c r="I73" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="J72" s="5" t="str">
+      <c r="J73" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000931</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="K73" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="L72" s="2" t="s">
+      <c r="L73" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
+    <row r="74" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B74" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E74" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F74" s="6">
         <v>38</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I73" s="4" t="s">
+      <c r="H74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="J73" s="5" t="str">
+      <c r="J74" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000934</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="K74" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L73" s="2" t="s">
+      <c r="L74" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="8" t="s">
+    <row r="75" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" s="4" t="s">
+      <c r="H75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="J74" s="5" t="str">
+      <c r="J75" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000935</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="K75" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="L74" s="2" t="s">
+      <c r="L75" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="8" t="s">
+    <row r="76" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B76" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I75" s="4" t="s">
+      <c r="H76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="J75" s="5" t="str">
+      <c r="J76" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000936</v>
       </c>
-      <c r="K75" s="3" t="s">
+      <c r="K76" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="L76" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="8" t="s">
+    <row r="77" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="I77" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="J76" s="5" t="str">
+      <c r="J77" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000937</v>
       </c>
-      <c r="K76" s="3" t="s">
+      <c r="K77" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="L76" s="2" t="s">
+      <c r="L77" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="8" t="s">
+    <row r="78" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I77" s="4" t="s">
+      <c r="H78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="J77" s="5" t="str">
+      <c r="J78" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000938</v>
       </c>
-      <c r="K77" s="3" t="s">
+      <c r="K78" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="L77" s="2" t="s">
+      <c r="L78" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="8" t="s">
+    <row r="79" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I78" s="4" t="s">
+      <c r="H79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="J78" s="5" t="str">
+      <c r="J79" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000940</v>
       </c>
-      <c r="K78" s="3" t="s">
+      <c r="K79" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="L78" s="2" t="s">
+      <c r="L79" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
+    <row r="80" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="I80" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J79" s="5" t="str">
+      <c r="J80" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000941</v>
       </c>
-      <c r="K79" s="3" t="s">
+      <c r="K80" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="L80" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="8" t="s">
+    <row r="81" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H80" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I80" s="4" t="s">
+      <c r="H81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="J80" s="5" t="str">
+      <c r="J81" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000942</v>
       </c>
-      <c r="K80" s="3" t="s">
+      <c r="K81" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="L81" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
+    <row r="82" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I81" s="4" t="s">
+      <c r="I82" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="J81" s="5" t="str">
-        <f t="shared" ref="J81:J127" si="2">"000"&amp;B81</f>
+      <c r="J82" s="5" t="str">
+        <f t="shared" ref="J82:J128" si="2">"000"&amp;B82</f>
         <v>000943</v>
       </c>
-      <c r="K81" s="3" t="s">
+      <c r="K82" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="L81" s="2" t="s">
+      <c r="L82" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="8" t="s">
+    <row r="83" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I82" s="4" t="s">
+      <c r="H83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="J82" s="5" t="str">
+      <c r="J83" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000944</v>
       </c>
-      <c r="K82" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="L82" s="2" t="s">
+      <c r="L83" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
+    <row r="84" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I83" s="4" t="s">
+      <c r="H84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="J83" s="5" t="str">
+      <c r="J84" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000945</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="K84" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="L83" s="2" t="s">
+      <c r="L84" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="8" t="s">
+    <row r="85" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E85" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F85" s="6">
         <v>69</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G85" s="6">
         <v>38</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I84" s="4" t="s">
+      <c r="H85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="J84" s="5" t="str">
+      <c r="J85" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000946</v>
       </c>
-      <c r="K84" s="3" t="s">
+      <c r="K85" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L84" s="2" t="s">
+      <c r="L85" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
+    <row r="86" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E86" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F86" s="6">
         <v>88</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G86" s="6">
         <v>68</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I85" s="4" t="s">
+      <c r="H86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="J85" s="5" t="str">
+      <c r="J86" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000960</v>
       </c>
-      <c r="K85" s="3" t="s">
+      <c r="K86" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="L85" s="2" t="s">
+      <c r="L86" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="8" t="s">
+    <row r="87" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B87" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E87" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F87" s="6">
         <v>68</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G87" s="6">
         <v>68</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I86" s="4" t="s">
+      <c r="I87" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="J86" s="5" t="str">
+      <c r="J87" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000961</v>
       </c>
-      <c r="K86" s="3" t="s">
+      <c r="K87" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L86" s="2" t="s">
+      <c r="L87" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="8" t="s">
+    <row r="88" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B88" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I87" s="4" t="s">
+      <c r="H88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="J87" s="5" t="str">
+      <c r="J88" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000963</v>
       </c>
-      <c r="K87" s="3" t="s">
+      <c r="K88" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L87" s="2" t="s">
+      <c r="L88" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B88" s="4" t="s">
+    <row r="89" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="B89" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E89" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F89" s="6">
         <v>18</v>
       </c>
-      <c r="G88" s="6">
+      <c r="G89" s="6">
         <v>9</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I88" s="4" t="s">
+      <c r="I89" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="J88" s="5" t="str">
+      <c r="J89" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000964</v>
       </c>
-      <c r="K88" s="3" t="s">
+      <c r="K89" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="L88" s="2" t="s">
+      <c r="L89" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B89" s="4" t="s">
+    <row r="90" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="B90" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E90" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F90" s="6">
         <v>18</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G90" s="6">
         <v>9</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="H90" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="I90" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="J89" s="5" t="str">
+      <c r="J90" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000965</v>
       </c>
-      <c r="K89" s="3" t="s">
+      <c r="K90" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L89" s="2" t="s">
+      <c r="L90" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B90" s="4" t="s">
+    <row r="91" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="B91" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E91" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F91" s="6">
         <v>18</v>
       </c>
-      <c r="G90" s="6">
+      <c r="G91" s="6">
         <v>9</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H91" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I90" s="4" t="s">
+      <c r="I91" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="J90" s="5" t="str">
+      <c r="J91" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000966</v>
       </c>
-      <c r="K90" s="3" t="s">
+      <c r="K91" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="L90" s="2" t="s">
+      <c r="L91" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B91" s="4" t="s">
+    <row r="92" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="B92" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E92" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F92" s="6">
         <v>18</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G92" s="6">
         <v>9</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I91" s="4" t="s">
+      <c r="I92" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J91" s="5" t="str">
+      <c r="J92" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000967</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K92" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="L91" s="2" t="s">
+      <c r="L92" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="8" t="s">
+    <row r="93" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A93" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B93" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I92" s="4" t="s">
+      <c r="H93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="J92" s="5" t="str">
+      <c r="J93" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000968</v>
       </c>
-      <c r="K92" s="3" t="s">
+      <c r="K93" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="L92" s="2" t="s">
+      <c r="L93" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B93" s="4" t="s">
+    <row r="94" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="B94" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E94" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F94" s="6">
         <v>18</v>
       </c>
-      <c r="G93" s="6">
+      <c r="G94" s="6">
         <v>9</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I93" s="4" t="s">
+      <c r="I94" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J93" s="5" t="str">
+      <c r="J94" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000969</v>
       </c>
-      <c r="K93" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L93" s="2" t="s">
+      <c r="L94" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B94" s="4" t="s">
+    <row r="95" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="B95" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E95" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F95" s="6">
         <v>18</v>
       </c>
-      <c r="G94" s="6">
+      <c r="G95" s="6">
         <v>9</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I94" s="4" t="s">
+      <c r="I95" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J94" s="5" t="str">
+      <c r="J95" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000970</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="K95" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="L94" s="2" t="s">
+      <c r="L95" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B95" s="4" t="s">
+    <row r="96" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="B96" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E96" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F96" s="6">
         <v>18</v>
       </c>
-      <c r="G95" s="6">
+      <c r="G96" s="6">
         <v>9</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="H96" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I95" s="4" t="s">
+      <c r="I96" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J95" s="5" t="str">
+      <c r="J96" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000971</v>
       </c>
-      <c r="K95" s="3" t="s">
+      <c r="K96" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="L95" s="2" t="s">
+      <c r="L96" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B96" s="4" t="s">
+    <row r="97" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="B97" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E97" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F97" s="6">
         <v>18</v>
       </c>
-      <c r="G96" s="6">
+      <c r="G97" s="6">
         <v>9</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I96" s="4" t="s">
+      <c r="I97" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J96" s="5" t="str">
+      <c r="J97" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000972</v>
       </c>
-      <c r="K96" s="3" t="s">
+      <c r="K97" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="L96" s="2" t="s">
+      <c r="L97" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B97" s="4" t="s">
+    <row r="98" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="B98" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E98" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F98" s="6">
         <v>18</v>
       </c>
-      <c r="G97" s="6">
+      <c r="G98" s="6">
         <v>9</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H98" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I97" s="4" t="s">
+      <c r="I98" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J97" s="5" t="str">
+      <c r="J98" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000973</v>
       </c>
-      <c r="K97" s="3" t="s">
+      <c r="K98" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L97" s="2" t="s">
+      <c r="L98" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B98" s="4" t="s">
+    <row r="99" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="B99" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E99" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F99" s="6">
         <v>18</v>
       </c>
-      <c r="G98" s="6">
+      <c r="G99" s="6">
         <v>9</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I98" s="4" t="s">
+      <c r="I99" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J98" s="5" t="str">
+      <c r="J99" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000974</v>
       </c>
-      <c r="K98" s="3" t="s">
+      <c r="K99" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L98" s="2" t="s">
+      <c r="L99" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B99" s="4" t="s">
+    <row r="100" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="B100" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E100" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F100" s="6">
         <v>18</v>
       </c>
-      <c r="G99" s="6">
+      <c r="G100" s="6">
         <v>9</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I99" s="4" t="s">
+      <c r="I100" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J99" s="5" t="str">
+      <c r="J100" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000975</v>
       </c>
-      <c r="K99" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L99" s="2" t="s">
+      <c r="L100" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="8" t="s">
+    <row r="101" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B101" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E101" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F101" s="6">
         <v>38</v>
       </c>
-      <c r="G100" s="6">
+      <c r="G101" s="6">
         <v>38</v>
       </c>
-      <c r="H100" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I100" s="4" t="s">
+      <c r="H101" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I101" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="J100" s="5" t="str">
+      <c r="J101" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000977</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="L100" s="2" t="s">
+      <c r="L101" s="2" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="8" t="s">
+    <row r="102" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B102" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H101" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I101" s="4" t="s">
+      <c r="H102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I102" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J101" s="5" t="str">
+      <c r="J102" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000979</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="K102" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L101" s="2" t="s">
+      <c r="L102" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="8" t="s">
+    <row r="103" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B103" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I102" s="4" t="s">
+      <c r="I103" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J102" s="5" t="str">
+      <c r="J103" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000980</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="K103" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L102" s="2" t="s">
+      <c r="L103" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="8" t="s">
+    <row r="104" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A104" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B104" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="H104" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I103" s="4" t="s">
+      <c r="I104" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J103" s="5" t="str">
+      <c r="J104" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000981</v>
       </c>
-      <c r="K103" s="3" t="s">
+      <c r="K104" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L103" s="2" t="s">
+      <c r="L104" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="8" t="s">
+    <row r="105" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A105" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B105" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I104" s="4" t="s">
+      <c r="H105" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I105" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J104" s="5" t="str">
+      <c r="J105" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000983</v>
       </c>
-      <c r="K104" s="3" t="s">
+      <c r="K105" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L104" s="2" t="s">
+      <c r="L105" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="8" t="s">
+    <row r="106" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A106" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B106" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I105" s="4" t="s">
+      <c r="H106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I106" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J105" s="5" t="str">
+      <c r="J106" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000984</v>
       </c>
-      <c r="K105" s="3" t="s">
+      <c r="K106" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L105" s="2" t="s">
+      <c r="L106" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="8" t="s">
+    <row r="107" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A107" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E107" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F107" s="6">
         <v>18</v>
       </c>
-      <c r="G106" s="6">
+      <c r="G107" s="6">
         <v>9</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="H107" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I106" s="4" t="s">
+      <c r="I107" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J106" s="5" t="str">
+      <c r="J107" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000986</v>
       </c>
-      <c r="K106" s="3" t="s">
+      <c r="K107" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L106" s="2" t="s">
+      <c r="L107" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A107" s="8" t="s">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B108" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H107" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I107" s="4" t="s">
+      <c r="H108" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I108" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J107" s="5" t="str">
+      <c r="J108" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000987</v>
       </c>
-      <c r="K107" s="3" t="s">
+      <c r="K108" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L107" s="2" t="s">
+      <c r="L108" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="8" t="s">
+    <row r="109" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A109" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B109" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H108" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I108" s="4" t="s">
+      <c r="I109" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J108" s="5" t="str">
+      <c r="J109" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000988</v>
       </c>
-      <c r="K108" s="3" t="s">
+      <c r="K109" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L108" s="2" t="s">
+      <c r="L109" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="8" t="s">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B110" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H109" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I109" s="4" t="s">
+      <c r="H110" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I110" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J109" s="5" t="str">
+      <c r="J110" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000989</v>
       </c>
-      <c r="K109" s="3" t="s">
+      <c r="K110" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L109" s="2" t="s">
+      <c r="L110" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="8" t="s">
+    <row r="111" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A111" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B111" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H110" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I110" s="4" t="s">
+      <c r="H111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I111" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J110" s="5" t="str">
+      <c r="J111" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000990</v>
       </c>
-      <c r="K110" s="3" t="s">
+      <c r="K111" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L110" s="2" t="s">
+      <c r="L111" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A111" s="8" t="s">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B112" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I111" s="4" t="s">
+      <c r="H112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I112" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J111" s="5" t="str">
+      <c r="J112" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000991</v>
       </c>
-      <c r="K111" s="3" t="s">
+      <c r="K112" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L111" s="2" t="s">
+      <c r="L112" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="8" t="s">
+    <row r="113" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A113" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B113" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H112" s="1" t="s">
+      <c r="H113" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I112" s="4" t="s">
+      <c r="I113" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J112" s="5" t="str">
+      <c r="J113" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000993</v>
       </c>
-      <c r="K112" s="3" t="s">
+      <c r="K113" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L112" s="2" t="s">
+      <c r="L113" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="8" t="s">
+    <row r="114" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A114" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B114" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E114" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F113" s="6">
+      <c r="F114" s="6">
         <v>39</v>
       </c>
-      <c r="G113" s="6">
+      <c r="G114" s="6">
         <v>19</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="H114" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I113" s="4" t="s">
+      <c r="I114" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J113" s="5" t="str">
+      <c r="J114" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000994</v>
       </c>
-      <c r="K113" s="3" t="s">
+      <c r="K114" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L113" s="2" t="s">
+      <c r="L114" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="8" t="s">
+    <row r="115" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A115" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B115" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H114" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I114" s="4" t="s">
+      <c r="H115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I115" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J114" s="5" t="str">
+      <c r="J115" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000995</v>
       </c>
-      <c r="K114" s="3" t="s">
+      <c r="K115" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L114" s="2" t="s">
+      <c r="L115" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="8" t="s">
+    <row r="116" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A116" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B116" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D116" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="H116" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I115" s="4" t="s">
+      <c r="I116" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="J115" s="5" t="str">
+      <c r="J116" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000996</v>
       </c>
-      <c r="K115" s="3" t="s">
+      <c r="K116" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="L115" s="2" t="s">
+      <c r="L116" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="8" t="s">
+    <row r="117" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A117" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B117" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="H116" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I116" s="4" t="s">
+      <c r="H117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I117" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="J116" s="5" t="str">
+      <c r="J117" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000998</v>
       </c>
-      <c r="K116" s="3" t="s">
+      <c r="K117" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="L116" s="2" t="s">
+      <c r="L117" s="2" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="8" t="s">
+    <row r="118" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A118" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B118" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="H117" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I117" s="4" t="s">
+      <c r="H118" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I118" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="J117" s="5" t="str">
+      <c r="J118" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0001000</v>
       </c>
-      <c r="K117" s="3" t="s">
+      <c r="K118" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="L117" s="2" t="s">
+      <c r="L118" s="2" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="8" t="s">
+    <row r="119" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A119" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B119" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="H118" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I118" s="4" t="s">
+      <c r="H119" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I119" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="J118" s="5" t="str">
+      <c r="J119" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0001001</v>
       </c>
-      <c r="K118" s="3" t="s">
+      <c r="K119" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="L118" s="2" t="s">
+      <c r="L119" s="2" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="8" t="s">
+    <row r="120" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A120" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B120" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="H119" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I119" s="4" t="s">
+      <c r="H120" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I120" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="J119" s="5" t="str">
+      <c r="J120" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0001002</v>
       </c>
-      <c r="K119" s="3" t="s">
+      <c r="K120" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="L119" s="2" t="s">
+      <c r="L120" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="8" t="s">
+    <row r="121" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A121" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B121" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="H120" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I120" s="4" t="s">
+      <c r="H121" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I121" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="J120" s="5" t="str">
+      <c r="J121" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0001003</v>
       </c>
-      <c r="K120" s="3" t="s">
+      <c r="K121" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="L120" s="2" t="s">
+      <c r="L121" s="2" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="8" t="s">
+    <row r="122" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A122" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B122" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="H121" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I121" s="4" t="s">
+      <c r="H122" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I122" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="J121" s="5" t="str">
+      <c r="J122" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0001005</v>
       </c>
-      <c r="K121" s="3" t="s">
+      <c r="K122" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="L121" s="2" t="s">
+      <c r="L122" s="2" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="8" t="s">
+    <row r="123" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A123" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B123" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="H122" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I122" s="4" t="s">
+      <c r="H123" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I123" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="J122" s="5" t="str">
+      <c r="J123" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0001007</v>
       </c>
-      <c r="K122" s="3" t="s">
+      <c r="K123" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="L122" s="2" t="s">
+      <c r="L123" s="2" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="8" t="s">
+    <row r="124" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A124" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B124" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="H123" s="1" t="s">
+      <c r="H124" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I123" s="4" t="s">
+      <c r="I124" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="J123" s="5" t="str">
+      <c r="J124" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0001008</v>
       </c>
-      <c r="K123" s="3" t="s">
+      <c r="K124" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="L123" s="2" t="s">
+      <c r="L124" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="8" t="s">
+    <row r="125" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A125" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B125" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="H124" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I124" s="4" t="s">
+      <c r="H125" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I125" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="J124" s="5" t="str">
+      <c r="J125" s="5" t="str">
         <f t="shared" si="2"/>
         <v>0001009</v>
       </c>
-      <c r="K124" s="3" t="s">
+      <c r="K125" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="L124" s="2" t="s">
+      <c r="L125" s="2" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J125" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>000</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J126" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J127" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>
     </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J128" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:L4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A4:L4"/>
   <mergeCells count="1">
     <mergeCell ref="A2:L2"/>
   </mergeCells>
@@ -6540,10 +6590,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6553,25 +6603,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
     <col min="3" max="3" width="34" style="4" customWidth="1"/>
     <col min="4" max="4" width="4.75" customWidth="1"/>
-    <col min="8" max="8" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>549</v>
       </c>
@@ -6587,7 +6637,7 @@
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
     </row>
-    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -6625,7 +6675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>533</v>
       </c>
@@ -6648,7 +6698,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="15" t="s">
         <v>545</v>
       </c>
@@ -6657,7 +6707,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>539</v>
       </c>
@@ -6665,7 +6715,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>537</v>
       </c>
@@ -6673,7 +6723,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>538</v>
       </c>
@@ -6681,7 +6731,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>543</v>
       </c>
@@ -6697,7 +6747,7 @@
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
     </row>
-    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -6735,7 +6785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>533</v>
       </c>
@@ -6761,7 +6811,7 @@
         <v>54837657</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C19" s="15" t="s">
         <v>545</v>
       </c>
@@ -6770,7 +6820,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
         <v>539</v>
       </c>
@@ -6778,7 +6828,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>537</v>
       </c>
@@ -6786,7 +6836,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>538</v>
       </c>
@@ -6794,10 +6844,10 @@
         <v>541</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C23"/>
     </row>
-    <row r="25" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>550</v>
       </c>
@@ -6813,7 +6863,7 @@
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
     </row>
-    <row r="27" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
@@ -6851,7 +6901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>533</v>
       </c>
@@ -6877,7 +6927,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C31" s="15" t="s">
         <v>545</v>
       </c>
@@ -6886,7 +6936,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C32" s="4" t="s">
         <v>539</v>
       </c>
@@ -6894,7 +6944,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>537</v>
       </c>
@@ -6902,7 +6952,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>538</v>
       </c>
@@ -6918,7 +6968,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1930" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
+    <workbookView xWindow="2970" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="645">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2546,6 +2546,30 @@
   </si>
   <si>
     <t>99649358</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把XMail企业邮局应用到系统管理中（安装篇）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>743</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-10 13:24:58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>854231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00851570</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3017,11 +3041,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L128"/>
+  <dimension ref="A2:L129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F126" sqref="F126"/>
+      <pane ySplit="4" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3111,7 +3135,7 @@
         <v>576</v>
       </c>
       <c r="J5" s="5" t="str">
-        <f t="shared" ref="J5:J63" si="0">"000"&amp;B5</f>
+        <f t="shared" ref="J5:J64" si="0">"000"&amp;B5</f>
         <v>000720</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -3304,31 +3328,31 @@
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>557</v>
+        <v>641</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>505</v>
+        <v>640</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>503</v>
+        <v>639</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>507</v>
+        <v>642</v>
       </c>
       <c r="J14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000746</v>
+        <v>000743</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>504</v>
+        <v>643</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>506</v>
+        <v>644</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -3336,26 +3360,26 @@
         <v>557</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="J15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000750</v>
+        <v>000746</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -3363,53 +3387,53 @@
         <v>557</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="J16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000751</v>
+        <v>000750</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="J17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000753</v>
+        <v>000751</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="28" x14ac:dyDescent="0.3">
@@ -3417,26 +3441,26 @@
         <v>557</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="J18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000754</v>
+        <v>000753</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="28" x14ac:dyDescent="0.3">
@@ -3444,146 +3468,146 @@
         <v>557</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="J19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000758</v>
+        <v>000754</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="6">
-        <v>39</v>
-      </c>
-      <c r="G20" s="6">
-        <v>39</v>
+        <v>482</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="J20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000765</v>
+        <v>000758</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="6">
+        <v>39</v>
+      </c>
+      <c r="G21" s="6">
+        <v>39</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="J21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000781</v>
+        <v>000765</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>32</v>
+        <v>471</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="J22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000791</v>
+        <v>000781</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="J23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000794</v>
+        <v>000791</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="28" x14ac:dyDescent="0.3">
@@ -3591,116 +3615,107 @@
         <v>557</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="J24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000795</v>
+        <v>000794</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>580</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>634</v>
+        <v>557</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>633</v>
+        <v>457</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>635</v>
+        <v>455</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>636</v>
+        <v>456</v>
       </c>
       <c r="J25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000797</v>
+        <v>000795</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>637</v>
+        <v>454</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>638</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>530</v>
+        <v>633</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="J26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000798</v>
+        <v>000797</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>573</v>
+        <v>637</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>574</v>
+        <v>638</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>449</v>
+        <v>530</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="6">
-        <v>38</v>
-      </c>
-      <c r="G27" s="6">
-        <v>38</v>
+        <v>571</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>452</v>
+        <v>572</v>
       </c>
       <c r="J27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000800</v>
+        <v>000798</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>450</v>
+        <v>573</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>451</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="28" x14ac:dyDescent="0.3">
@@ -3708,10 +3723,10 @@
         <v>559</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>32</v>
@@ -3726,44 +3741,53 @@
         <v>21</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="J28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000801</v>
+        <v>000800</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="6">
+        <v>38</v>
+      </c>
+      <c r="G29" s="6">
+        <v>38</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="J29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000802</v>
+        <v>000801</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="28" x14ac:dyDescent="0.3">
@@ -3771,26 +3795,26 @@
         <v>557</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="J30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000804</v>
+        <v>000802</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.3">
@@ -3798,26 +3822,26 @@
         <v>557</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="J31" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000806</v>
+        <v>000804</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="28" x14ac:dyDescent="0.3">
@@ -3825,26 +3849,26 @@
         <v>557</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="J32" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000808</v>
+        <v>000806</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="28" x14ac:dyDescent="0.3">
@@ -3852,26 +3876,26 @@
         <v>557</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J33" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000812</v>
+        <v>000808</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="28" x14ac:dyDescent="0.3">
@@ -3879,143 +3903,143 @@
         <v>557</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>531</v>
+        <v>420</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>567</v>
+        <v>419</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>568</v>
+        <v>423</v>
       </c>
       <c r="J34" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000817</v>
+        <v>000812</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>569</v>
+        <v>421</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>570</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>415</v>
+        <v>531</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="6">
-        <v>39</v>
-      </c>
-      <c r="G35" s="6">
-        <v>39</v>
+        <v>567</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>418</v>
+        <v>568</v>
       </c>
       <c r="J35" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000823</v>
+        <v>000817</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>416</v>
+        <v>569</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>409</v>
+        <v>414</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="6">
+        <v>39</v>
+      </c>
+      <c r="G36" s="6">
+        <v>39</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="J36" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000824</v>
+        <v>000823</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="J37" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000836</v>
+        <v>000824</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="J38" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000841</v>
+        <v>000836</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="28" x14ac:dyDescent="0.3">
@@ -4023,26 +4047,26 @@
         <v>557</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="J39" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000844</v>
+        <v>000841</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="28" x14ac:dyDescent="0.3">
@@ -4050,86 +4074,86 @@
         <v>557</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="J40" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000847</v>
+        <v>000844</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F41" s="6">
-        <v>18</v>
-      </c>
-      <c r="G41" s="6">
-        <v>18</v>
+        <v>389</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="J41" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000856</v>
+        <v>000847</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
+      </c>
+      <c r="F42" s="6">
+        <v>18</v>
+      </c>
+      <c r="G42" s="6">
+        <v>18</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="J42" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000857</v>
+        <v>000856</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="28" x14ac:dyDescent="0.3">
@@ -4137,26 +4161,26 @@
         <v>557</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="J43" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000860</v>
+        <v>000857</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="28" x14ac:dyDescent="0.3">
@@ -4164,80 +4188,80 @@
         <v>557</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="J44" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000861</v>
+        <v>000860</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="J45" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000862</v>
+        <v>000861</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="J46" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000864</v>
+        <v>000862</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>361</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="28" x14ac:dyDescent="0.3">
@@ -4245,26 +4269,26 @@
         <v>557</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="J47" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000865</v>
+        <v>000864</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="28" x14ac:dyDescent="0.3">
@@ -4272,197 +4296,188 @@
         <v>557</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="J48" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000868</v>
+        <v>000865</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="J49" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000875</v>
+        <v>000868</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="J50" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000876</v>
+        <v>000875</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="J51" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000884</v>
+        <v>000876</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="J52" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000887</v>
+        <v>000884</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="J53" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000888</v>
+        <v>000887</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="6">
-        <v>39</v>
-      </c>
-      <c r="G54" s="6">
-        <v>19</v>
+        <v>327</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="J54" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000889</v>
+        <v>000888</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="28" x14ac:dyDescent="0.3">
@@ -4470,160 +4485,163 @@
         <v>559</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F55" s="6">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="G55" s="6">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J55" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000890</v>
+        <v>000889</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>584</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="6">
+        <v>68</v>
+      </c>
+      <c r="G56" s="6">
+        <v>38</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="J56" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000893</v>
+        <v>000890</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>315</v>
+        <v>584</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>32</v>
+        <v>316</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J57" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000895</v>
+        <v>000893</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="J58" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000903</v>
+        <v>000895</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>557</v>
+      </c>
       <c r="B59" s="4" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" s="6">
-        <v>18</v>
-      </c>
-      <c r="G59" s="6">
-        <v>5</v>
+        <v>307</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="J59" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000904</v>
+        <v>000903</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>32</v>
@@ -4632,31 +4650,31 @@
         <v>18</v>
       </c>
       <c r="G60" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>94</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="J60" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000906</v>
+        <v>000904</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>32</v>
@@ -4671,191 +4689,197 @@
         <v>94</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="J61" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000908</v>
+        <v>000906</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
-        <v>557</v>
-      </c>
       <c r="B62" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" s="6">
+        <v>18</v>
+      </c>
+      <c r="G62" s="6">
+        <v>9</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="J62" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000911</v>
+        <v>000908</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="J63" s="5" t="str">
         <f t="shared" si="0"/>
+        <v>000911</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J64" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>000913</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="K64" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="L64" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="s">
+    <row r="65" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E65" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F65" s="6">
         <v>18</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G65" s="6">
         <v>18</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="I65" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="J64" s="5" t="str">
-        <f t="shared" ref="J64:J81" si="1">"000"&amp;B64</f>
+      <c r="J65" s="5" t="str">
+        <f t="shared" ref="J65:J82" si="1">"000"&amp;B65</f>
         <v>000914</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="K65" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="L65" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="42" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
+    <row r="66" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I65" s="4" t="s">
+      <c r="H66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="J65" s="5" t="str">
+      <c r="J66" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000915</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="K66" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="L66" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
+    <row r="67" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D67" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66" s="4" t="s">
+      <c r="H67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="J66" s="5" t="str">
+      <c r="J67" s="5" t="str">
         <f t="shared" si="1"/>
         <v>000920</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="K67" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="L67" s="2" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="42" x14ac:dyDescent="0.3">
-      <c r="A67" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="J67" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>000922</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="42" x14ac:dyDescent="0.3">
@@ -4863,67 +4887,64 @@
         <v>559</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J68" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000923</v>
+        <v>000922</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="J69" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000926</v>
+        <v>000923</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>558</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>244</v>
+        <v>565</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>32</v>
@@ -4932,28 +4953,28 @@
         <v>21</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J70" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000927</v>
+        <v>000926</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>558</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>32</v>
@@ -4962,44 +4983,47 @@
         <v>21</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="J71" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000928</v>
+        <v>000927</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="J72" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000930</v>
+        <v>000928</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="42" x14ac:dyDescent="0.3">
@@ -5007,194 +5031,194 @@
         <v>557</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="J73" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000931</v>
+        <v>000930</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F74" s="6">
-        <v>38</v>
+        <v>229</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="J74" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000934</v>
+        <v>000931</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>220</v>
+        <v>564</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" s="6">
+        <v>38</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J75" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000935</v>
+        <v>000934</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="J76" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000936</v>
+        <v>000935</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J77" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000937</v>
+        <v>000936</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>586</v>
+        <v>212</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="J78" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000938</v>
+        <v>000937</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>201</v>
+        <v>586</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J79" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000940</v>
+        <v>000938</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="42" x14ac:dyDescent="0.3">
@@ -5202,53 +5226,53 @@
         <v>557</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="J80" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000941</v>
+        <v>000940</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="J81" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>000942</v>
+        <v>000941</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="28" x14ac:dyDescent="0.3">
@@ -5256,116 +5280,107 @@
         <v>557</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="J82" s="5" t="str">
-        <f t="shared" ref="J82:J128" si="2">"000"&amp;B82</f>
-        <v>000943</v>
+        <f t="shared" si="1"/>
+        <v>000942</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J83" s="5" t="str">
+        <f t="shared" ref="J83:J129" si="2">"000"&amp;B83</f>
+        <v>000943</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I83" s="4" t="s">
+      <c r="H84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="J83" s="5" t="str">
+      <c r="J84" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000944</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="K84" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="L83" s="2" t="s">
+      <c r="L84" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="s">
+    <row r="85" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I84" s="4" t="s">
+      <c r="H85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="J84" s="5" t="str">
+      <c r="J85" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000945</v>
       </c>
-      <c r="K84" s="3" t="s">
+      <c r="K85" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="L84" s="2" t="s">
+      <c r="L85" s="2" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="A85" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F85" s="6">
-        <v>69</v>
-      </c>
-      <c r="G85" s="6">
-        <v>38</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J85" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>000946</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="28" x14ac:dyDescent="0.3">
@@ -5373,139 +5388,142 @@
         <v>559</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F86" s="6">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="G86" s="6">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="J86" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000960</v>
+        <v>000946</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>559</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F87" s="6">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="G87" s="6">
         <v>68</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="J87" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000961</v>
+        <v>000960</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F88" s="6">
+        <v>68</v>
+      </c>
+      <c r="G88" s="6">
+        <v>68</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="J88" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000963</v>
+        <v>000961</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
+        <v>557</v>
+      </c>
       <c r="B89" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F89" s="6">
-        <v>18</v>
-      </c>
-      <c r="G89" s="6">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="J89" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000964</v>
+        <v>000963</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>32</v>
@@ -5520,25 +5538,25 @@
         <v>94</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="J90" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000965</v>
+        <v>000964</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>32</v>
@@ -5553,25 +5571,25 @@
         <v>94</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J91" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000966</v>
+        <v>000965</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>32</v>
@@ -5586,85 +5604,85 @@
         <v>94</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="J92" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000967</v>
+        <v>000966</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="42" x14ac:dyDescent="0.3">
-      <c r="A93" s="8" t="s">
-        <v>558</v>
-      </c>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F93" s="6">
+        <v>18</v>
+      </c>
+      <c r="G93" s="6">
+        <v>9</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="J93" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000968</v>
+        <v>000967</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
+        <v>558</v>
+      </c>
       <c r="B94" s="4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F94" s="6">
-        <v>18</v>
-      </c>
-      <c r="G94" s="6">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J94" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000969</v>
+        <v>000968</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>32</v>
@@ -5679,25 +5697,25 @@
         <v>94</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="J95" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000970</v>
+        <v>000969</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B96" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>32</v>
@@ -5712,25 +5730,25 @@
         <v>94</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J96" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000971</v>
+        <v>000970</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B97" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>32</v>
@@ -5745,25 +5763,25 @@
         <v>94</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J97" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000972</v>
+        <v>000971</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>32</v>
@@ -5778,25 +5796,25 @@
         <v>94</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J98" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000973</v>
+        <v>000972</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>32</v>
@@ -5811,25 +5829,25 @@
         <v>94</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J99" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000974</v>
+        <v>000973</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B100" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>32</v>
@@ -5844,80 +5862,86 @@
         <v>94</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J100" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000975</v>
+        <v>000974</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="A101" s="8" t="s">
-        <v>559</v>
-      </c>
       <c r="B101" s="4" t="s">
-        <v>532</v>
+        <v>92</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>560</v>
+        <v>93</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F101" s="6">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G101" s="6">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>561</v>
+        <v>97</v>
       </c>
       <c r="J101" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000977</v>
+        <v>000975</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>562</v>
+        <v>95</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>563</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>87</v>
+        <v>532</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>88</v>
+        <v>560</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F102" s="6">
+        <v>38</v>
+      </c>
+      <c r="G102" s="6">
+        <v>38</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>91</v>
+        <v>561</v>
       </c>
       <c r="J102" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000979</v>
+        <v>000977</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>89</v>
+        <v>562</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>90</v>
+        <v>563</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="28" x14ac:dyDescent="0.3">
@@ -5925,26 +5949,26 @@
         <v>557</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J103" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000980</v>
+        <v>000979</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="28" x14ac:dyDescent="0.3">
@@ -5952,26 +5976,26 @@
         <v>557</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J104" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000981</v>
+        <v>000980</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="28" x14ac:dyDescent="0.3">
@@ -5979,26 +6003,26 @@
         <v>557</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J105" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000983</v>
+        <v>000981</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="28" x14ac:dyDescent="0.3">
@@ -6006,344 +6030,344 @@
         <v>557</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J106" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000984</v>
+        <v>000983</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F107" s="6">
-        <v>18</v>
-      </c>
-      <c r="G107" s="6">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="J107" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000986</v>
+        <v>000984</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F108" s="6">
+        <v>18</v>
+      </c>
+      <c r="G108" s="6">
+        <v>9</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J108" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000987</v>
+        <v>000986</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="J109" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000988</v>
+        <v>000987</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J110" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000989</v>
+        <v>000988</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J111" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000990</v>
+        <v>000989</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J112" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000991</v>
+        <v>000990</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J113" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000993</v>
+        <v>000991</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F114" s="6">
-        <v>39</v>
-      </c>
-      <c r="G114" s="6">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J114" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000994</v>
+        <v>000993</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B115" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F115" s="6">
+        <v>39</v>
+      </c>
+      <c r="G115" s="6">
         <v>19</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="H115" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J115" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000995</v>
+        <v>000994</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>525</v>
+        <v>19</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>528</v>
+        <v>22</v>
       </c>
       <c r="J116" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000996</v>
+        <v>000995</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>526</v>
+        <v>18</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>553</v>
+        <v>529</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
       <c r="J117" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000998</v>
+        <v>000996</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>585</v>
+        <v>527</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="28" x14ac:dyDescent="0.3">
@@ -6351,221 +6375,242 @@
         <v>557</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>587</v>
+        <v>554</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>588</v>
+        <v>553</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>589</v>
+        <v>555</v>
       </c>
       <c r="J118" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0001000</v>
+        <v>000998</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>590</v>
+        <v>556</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
-        <v>597</v>
+        <v>557</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="J119" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0001001</v>
+        <v>0001000</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="J120" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0001002</v>
+        <v>0001001</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="J121" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0001003</v>
+        <v>0001002</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="J122" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0001005</v>
+        <v>0001003</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="J123" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0001007</v>
+        <v>0001005</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="J124" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0001008</v>
+        <v>0001007</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
-        <v>557</v>
+        <v>625</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="J125" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0001009</v>
+        <v>0001008</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A126" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>630</v>
+      </c>
       <c r="J126" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000</v>
+        <v>0001009</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -6576,6 +6621,12 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J128" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>000</v>
+      </c>
+    </row>
+    <row r="129" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J129" s="5" t="str">
         <f t="shared" si="2"/>
         <v>000</v>
       </c>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
+    <workbookView xWindow="4010" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="651">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2570,6 +2570,30 @@
   </si>
   <si>
     <t>00851570</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87597680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>442402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-02-12 20:42:44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用 Qemu 模拟 iPod Touch 上的初版 iPhone OS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3045,7 +3069,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I127" sqref="I127"/>
+      <selection pane="bottomLeft" activeCell="F127" sqref="F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6613,10 +6637,31 @@
         <v>632</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A127" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>647</v>
+      </c>
       <c r="J127" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>000</v>
+        <v>0001011</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4010" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
+    <workbookView xWindow="5050" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="658">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2594,6 +2594,33 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87487579</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用Notepad--替换Notepad++可行吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常随笔</t>
+  </si>
+  <si>
+    <t>2023-02-19 17:06:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>026071</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3065,11 +3092,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L129"/>
+  <dimension ref="A2:L142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F127" sqref="F127"/>
+      <pane ySplit="4" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5343,7 +5370,7 @@
         <v>189</v>
       </c>
       <c r="J83" s="5" t="str">
-        <f t="shared" ref="J83:J129" si="2">"000"&amp;B83</f>
+        <f t="shared" ref="J83:J140" si="2">"000"&amp;B83</f>
         <v>000943</v>
       </c>
       <c r="K83" s="3" t="s">
@@ -6438,8 +6465,8 @@
         <v>589</v>
       </c>
       <c r="J119" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>0001000</v>
+        <f>"00"&amp;B119</f>
+        <v>001000</v>
       </c>
       <c r="K119" s="3" t="s">
         <v>590</v>
@@ -6465,8 +6492,8 @@
         <v>593</v>
       </c>
       <c r="J120" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>0001001</v>
+        <f>"00"&amp;B120</f>
+        <v>001001</v>
       </c>
       <c r="K120" s="3" t="s">
         <v>594</v>
@@ -6492,8 +6519,8 @@
         <v>599</v>
       </c>
       <c r="J121" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>0001002</v>
+        <f>"00"&amp;B121</f>
+        <v>001002</v>
       </c>
       <c r="K121" s="3" t="s">
         <v>600</v>
@@ -6519,8 +6546,8 @@
         <v>607</v>
       </c>
       <c r="J122" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>0001003</v>
+        <f>"00"&amp;B122</f>
+        <v>001003</v>
       </c>
       <c r="K122" s="3" t="s">
         <v>608</v>
@@ -6546,8 +6573,8 @@
         <v>613</v>
       </c>
       <c r="J123" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>0001005</v>
+        <f>"00"&amp;B123</f>
+        <v>001005</v>
       </c>
       <c r="K123" s="3" t="s">
         <v>614</v>
@@ -6573,8 +6600,8 @@
         <v>619</v>
       </c>
       <c r="J124" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>0001007</v>
+        <f>"00"&amp;B124</f>
+        <v>001007</v>
       </c>
       <c r="K124" s="3" t="s">
         <v>620</v>
@@ -6600,8 +6627,8 @@
         <v>623</v>
       </c>
       <c r="J125" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>0001008</v>
+        <f>"00"&amp;B125</f>
+        <v>001008</v>
       </c>
       <c r="K125" s="3" t="s">
         <v>622</v>
@@ -6627,8 +6654,8 @@
         <v>630</v>
       </c>
       <c r="J126" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>0001009</v>
+        <f>"00"&amp;B126</f>
+        <v>001009</v>
       </c>
       <c r="K126" s="3" t="s">
         <v>631</v>
@@ -6654,8 +6681,8 @@
         <v>647</v>
       </c>
       <c r="J127" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>0001011</v>
+        <f>"00"&amp;B127</f>
+        <v>001011</v>
       </c>
       <c r="K127" s="3" t="s">
         <v>646</v>
@@ -6664,16 +6691,115 @@
         <v>645</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A128" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>656</v>
+      </c>
       <c r="J128" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>000</v>
+        <f>"00"&amp;B128</f>
+        <v>001012</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="129" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J129" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>000</v>
+        <f>"00"&amp;B129</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="130" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J130" s="5" t="str">
+        <f>"00"&amp;B130</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="131" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J131" s="5" t="str">
+        <f t="shared" ref="J131:J142" si="3">"00"&amp;B131</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="132" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J132" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="133" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J133" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="134" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J134" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="135" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J135" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="136" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J136" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="137" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J137" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="138" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J138" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="139" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J139" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="140" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J140" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="141" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J141" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="142" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J142" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
       </c>
     </row>
   </sheetData>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5050" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
+    <workbookView xWindow="6090" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3095,8 +3095,8 @@
   <dimension ref="A2:L142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
+      <pane ySplit="4" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I129" sqref="I129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5370,7 +5370,7 @@
         <v>189</v>
       </c>
       <c r="J83" s="5" t="str">
-        <f t="shared" ref="J83:J140" si="2">"000"&amp;B83</f>
+        <f t="shared" ref="J83:J118" si="2">"000"&amp;B83</f>
         <v>000943</v>
       </c>
       <c r="K83" s="3" t="s">
@@ -6465,7 +6465,7 @@
         <v>589</v>
       </c>
       <c r="J119" s="5" t="str">
-        <f>"00"&amp;B119</f>
+        <f t="shared" ref="J119:J130" si="3">"00"&amp;B119</f>
         <v>001000</v>
       </c>
       <c r="K119" s="3" t="s">
@@ -6492,7 +6492,7 @@
         <v>593</v>
       </c>
       <c r="J120" s="5" t="str">
-        <f>"00"&amp;B120</f>
+        <f t="shared" si="3"/>
         <v>001001</v>
       </c>
       <c r="K120" s="3" t="s">
@@ -6519,7 +6519,7 @@
         <v>599</v>
       </c>
       <c r="J121" s="5" t="str">
-        <f>"00"&amp;B121</f>
+        <f t="shared" si="3"/>
         <v>001002</v>
       </c>
       <c r="K121" s="3" t="s">
@@ -6546,7 +6546,7 @@
         <v>607</v>
       </c>
       <c r="J122" s="5" t="str">
-        <f>"00"&amp;B122</f>
+        <f t="shared" si="3"/>
         <v>001003</v>
       </c>
       <c r="K122" s="3" t="s">
@@ -6573,7 +6573,7 @@
         <v>613</v>
       </c>
       <c r="J123" s="5" t="str">
-        <f>"00"&amp;B123</f>
+        <f t="shared" si="3"/>
         <v>001005</v>
       </c>
       <c r="K123" s="3" t="s">
@@ -6600,7 +6600,7 @@
         <v>619</v>
       </c>
       <c r="J124" s="5" t="str">
-        <f>"00"&amp;B124</f>
+        <f t="shared" si="3"/>
         <v>001007</v>
       </c>
       <c r="K124" s="3" t="s">
@@ -6627,7 +6627,7 @@
         <v>623</v>
       </c>
       <c r="J125" s="5" t="str">
-        <f>"00"&amp;B125</f>
+        <f t="shared" si="3"/>
         <v>001008</v>
       </c>
       <c r="K125" s="3" t="s">
@@ -6654,7 +6654,7 @@
         <v>630</v>
       </c>
       <c r="J126" s="5" t="str">
-        <f>"00"&amp;B126</f>
+        <f t="shared" si="3"/>
         <v>001009</v>
       </c>
       <c r="K126" s="3" t="s">
@@ -6681,7 +6681,7 @@
         <v>647</v>
       </c>
       <c r="J127" s="5" t="str">
-        <f>"00"&amp;B127</f>
+        <f t="shared" si="3"/>
         <v>001011</v>
       </c>
       <c r="K127" s="3" t="s">
@@ -6708,7 +6708,7 @@
         <v>656</v>
       </c>
       <c r="J128" s="5" t="str">
-        <f>"00"&amp;B128</f>
+        <f t="shared" si="3"/>
         <v>001012</v>
       </c>
       <c r="K128" s="3" t="s">
@@ -6720,85 +6720,85 @@
     </row>
     <row r="129" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J129" s="5" t="str">
-        <f>"00"&amp;B129</f>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
     </row>
     <row r="130" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J130" s="5" t="str">
-        <f>"00"&amp;B130</f>
+        <f t="shared" si="3"/>
         <v>00</v>
       </c>
     </row>
     <row r="131" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J131" s="5" t="str">
-        <f t="shared" ref="J131:J142" si="3">"00"&amp;B131</f>
+        <f t="shared" ref="J131:J142" si="4">"00"&amp;B131</f>
         <v>00</v>
       </c>
     </row>
     <row r="132" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J132" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
     <row r="133" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J133" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
     <row r="134" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J134" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
     <row r="135" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J135" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
     <row r="136" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J136" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
     <row r="137" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J137" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
     <row r="138" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J138" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
     <row r="139" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J139" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
     <row r="140" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J140" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
     <row r="141" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J141" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
     <row r="142" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J142" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
+    <workbookView xWindow="7130" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="664">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2621,6 +2621,30 @@
   </si>
   <si>
     <t>026071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还在纠结“Windows照片查看器”不能用？别浪费时间了，“Microsoft照片“赶紧安排上！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-02-26 10:04:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>744001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54264357</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3096,7 +3120,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I129" sqref="I129"/>
+      <selection pane="bottomLeft" activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6718,85 +6742,106 @@
         <v>651</v>
       </c>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A129" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>661</v>
+      </c>
       <c r="J129" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.3">
+        <v>001013</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J130" s="5" t="str">
         <f t="shared" si="3"/>
         <v>00</v>
       </c>
     </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J131" s="5" t="str">
         <f t="shared" ref="J131:J142" si="4">"00"&amp;B131</f>
         <v>00</v>
       </c>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J132" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J133" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J134" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J135" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J136" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J137" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J138" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J139" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J140" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J141" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J142" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7130" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
+    <workbookView xWindow="8170" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="670">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2645,6 +2645,30 @@
   </si>
   <si>
     <t>54264357</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没想到 UrBackup 的 Web 密码重置这种简单问题还让我踩到坑里了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>252190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-12 09:12:52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48598680</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3120,7 +3144,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G130" sqref="G130"/>
+      <selection pane="bottomLeft" activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6769,10 +6793,31 @@
         <v>663</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A130" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>668</v>
+      </c>
       <c r="J130" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
+        <v>001015</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\writing\11_付费课程\99.资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049E680B-7912-4614-A925-B0666D1C64B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8170" yWindow="-120" windowWidth="19730" windowHeight="11760"/>
+    <workbookView xWindow="870" yWindow="-120" windowWidth="19740" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$L$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="675">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2669,13 +2670,33 @@
   </si>
   <si>
     <t>48598680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡店奇遇记之摸鱼小工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-23 08:26:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>506280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76486478</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3139,30 +3160,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E131" sqref="E131"/>
+      <selection pane="bottomLeft" activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="6" customWidth="1"/>
     <col min="6" max="7" width="8.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.08203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.58203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3178,8 +3199,8 @@
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -3217,7 +3238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>557</v>
       </c>
@@ -3244,7 +3265,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>559</v>
       </c>
@@ -3280,7 +3301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>559</v>
       </c>
@@ -3316,25 +3337,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>522</v>
       </c>
@@ -3367,7 +3388,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>558</v>
       </c>
@@ -3397,7 +3418,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>558</v>
       </c>
@@ -3427,7 +3448,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>641</v>
       </c>
@@ -3454,7 +3475,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>557</v>
       </c>
@@ -3481,7 +3502,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>557</v>
       </c>
@@ -3508,7 +3529,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>557</v>
       </c>
@@ -3535,7 +3556,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>557</v>
       </c>
@@ -3562,7 +3583,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>557</v>
       </c>
@@ -3589,7 +3610,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>557</v>
       </c>
@@ -3616,7 +3637,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>559</v>
       </c>
@@ -3652,7 +3673,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>557</v>
       </c>
@@ -3679,7 +3700,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>558</v>
       </c>
@@ -3709,7 +3730,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>557</v>
       </c>
@@ -3736,7 +3757,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>557</v>
       </c>
@@ -3763,7 +3784,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>634</v>
       </c>
@@ -3790,7 +3811,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>557</v>
       </c>
@@ -3817,7 +3838,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>559</v>
       </c>
@@ -3853,7 +3874,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>559</v>
       </c>
@@ -3889,7 +3910,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>557</v>
       </c>
@@ -3916,7 +3937,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>557</v>
       </c>
@@ -3943,7 +3964,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>557</v>
       </c>
@@ -3970,7 +3991,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>557</v>
       </c>
@@ -3997,7 +4018,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>557</v>
       </c>
@@ -4024,7 +4045,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>557</v>
       </c>
@@ -4051,7 +4072,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>559</v>
       </c>
@@ -4087,7 +4108,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>557</v>
       </c>
@@ -4114,7 +4135,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>557</v>
       </c>
@@ -4141,7 +4162,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>557</v>
       </c>
@@ -4168,7 +4189,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>557</v>
       </c>
@@ -4195,7 +4216,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>557</v>
       </c>
@@ -4222,7 +4243,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>559</v>
       </c>
@@ -4255,7 +4276,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>557</v>
       </c>
@@ -4282,7 +4303,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>557</v>
       </c>
@@ -4309,7 +4330,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>557</v>
       </c>
@@ -4336,7 +4357,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>557</v>
       </c>
@@ -4363,7 +4384,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>557</v>
       </c>
@@ -4390,7 +4411,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>557</v>
       </c>
@@ -4417,7 +4438,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>557</v>
       </c>
@@ -4444,7 +4465,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>557</v>
       </c>
@@ -4471,7 +4492,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>557</v>
       </c>
@@ -4498,7 +4519,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>557</v>
       </c>
@@ -4525,7 +4546,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>557</v>
       </c>
@@ -4552,7 +4573,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>557</v>
       </c>
@@ -4579,7 +4600,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>559</v>
       </c>
@@ -4615,7 +4636,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>559</v>
       </c>
@@ -4651,7 +4672,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>557</v>
       </c>
@@ -4678,7 +4699,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>558</v>
       </c>
@@ -4708,7 +4729,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>557</v>
       </c>
@@ -4735,7 +4756,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>298</v>
       </c>
@@ -4768,7 +4789,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
         <v>294</v>
       </c>
@@ -4801,7 +4822,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>289</v>
       </c>
@@ -4834,7 +4855,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>557</v>
       </c>
@@ -4861,7 +4882,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>557</v>
       </c>
@@ -4888,7 +4909,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>559</v>
       </c>
@@ -4924,7 +4945,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>557</v>
       </c>
@@ -4951,7 +4972,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>558</v>
       </c>
@@ -4981,7 +5002,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>559</v>
       </c>
@@ -5008,7 +5029,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>559</v>
       </c>
@@ -5035,7 +5056,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>558</v>
       </c>
@@ -5065,7 +5086,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>558</v>
       </c>
@@ -5095,7 +5116,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>558</v>
       </c>
@@ -5125,7 +5146,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>557</v>
       </c>
@@ -5152,7 +5173,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>557</v>
       </c>
@@ -5179,7 +5200,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>558</v>
       </c>
@@ -5212,7 +5233,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>557</v>
       </c>
@@ -5239,7 +5260,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>558</v>
       </c>
@@ -5266,7 +5287,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>557</v>
       </c>
@@ -5293,7 +5314,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>558</v>
       </c>
@@ -5320,7 +5341,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>557</v>
       </c>
@@ -5347,7 +5368,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>557</v>
       </c>
@@ -5374,7 +5395,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>557</v>
       </c>
@@ -5401,7 +5422,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>557</v>
       </c>
@@ -5428,7 +5449,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>558</v>
       </c>
@@ -5455,7 +5476,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>557</v>
       </c>
@@ -5482,7 +5503,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>559</v>
       </c>
@@ -5518,7 +5539,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>559</v>
       </c>
@@ -5554,7 +5575,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>559</v>
       </c>
@@ -5590,7 +5611,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>557</v>
       </c>
@@ -5617,7 +5638,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B90" s="4" t="s">
         <v>151</v>
       </c>
@@ -5650,7 +5671,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
         <v>146</v>
       </c>
@@ -5683,7 +5704,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
         <v>140</v>
       </c>
@@ -5716,7 +5737,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
         <v>135</v>
       </c>
@@ -5749,7 +5770,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>558</v>
       </c>
@@ -5776,7 +5797,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
         <v>123</v>
       </c>
@@ -5809,7 +5830,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B96" s="4" t="s">
         <v>118</v>
       </c>
@@ -5842,7 +5863,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B97" s="4" t="s">
         <v>112</v>
       </c>
@@ -5875,7 +5896,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
         <v>109</v>
       </c>
@@ -5908,7 +5929,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
         <v>104</v>
       </c>
@@ -5941,7 +5962,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B100" s="4" t="s">
         <v>98</v>
       </c>
@@ -5974,7 +5995,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B101" s="4" t="s">
         <v>92</v>
       </c>
@@ -6007,7 +6028,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>559</v>
       </c>
@@ -6043,7 +6064,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>557</v>
       </c>
@@ -6070,7 +6091,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>557</v>
       </c>
@@ -6097,7 +6118,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>557</v>
       </c>
@@ -6124,7 +6145,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>557</v>
       </c>
@@ -6151,7 +6172,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>557</v>
       </c>
@@ -6178,7 +6199,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>559</v>
       </c>
@@ -6214,7 +6235,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>558</v>
       </c>
@@ -6241,7 +6262,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>557</v>
       </c>
@@ -6268,7 +6289,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>557</v>
       </c>
@@ -6295,7 +6316,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>557</v>
       </c>
@@ -6322,7 +6343,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>557</v>
       </c>
@@ -6349,7 +6370,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>557</v>
       </c>
@@ -6376,7 +6397,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>559</v>
       </c>
@@ -6412,7 +6433,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>557</v>
       </c>
@@ -6439,7 +6460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>558</v>
       </c>
@@ -6469,7 +6490,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>557</v>
       </c>
@@ -6496,7 +6517,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>557</v>
       </c>
@@ -6523,7 +6544,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>597</v>
       </c>
@@ -6550,7 +6571,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>603</v>
       </c>
@@ -6577,7 +6598,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>609</v>
       </c>
@@ -6604,7 +6625,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>612</v>
       </c>
@@ -6631,7 +6652,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>618</v>
       </c>
@@ -6658,7 +6679,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>625</v>
       </c>
@@ -6685,7 +6706,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>557</v>
       </c>
@@ -6712,7 +6733,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>650</v>
       </c>
@@ -6739,7 +6760,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>654</v>
       </c>
@@ -6766,7 +6787,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>660</v>
       </c>
@@ -6793,7 +6814,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>665</v>
       </c>
@@ -6820,80 +6841,101 @@
         <v>669</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A131" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>672</v>
+      </c>
       <c r="J131" s="5" t="str">
         <f t="shared" ref="J131:J142" si="4">"00"&amp;B131</f>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+        <v>001017</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J132" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J133" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J134" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J135" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J136" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J137" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J138" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J139" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J140" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J141" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J142" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L4"/>
+  <autoFilter ref="A4:L4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A2:L2"/>
   </mergeCells>
@@ -6902,10 +6944,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6915,25 +6957,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
     <col min="3" max="3" width="34" style="4" customWidth="1"/>
     <col min="4" max="4" width="4.75" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>549</v>
       </c>
@@ -6949,7 +6991,7 @@
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
     </row>
-    <row r="4" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -6987,7 +7029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>533</v>
       </c>
@@ -7010,7 +7052,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="15" t="s">
         <v>545</v>
       </c>
@@ -7019,7 +7061,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
         <v>539</v>
       </c>
@@ -7027,7 +7069,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>537</v>
       </c>
@@ -7035,7 +7077,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>538</v>
       </c>
@@ -7043,7 +7085,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>543</v>
       </c>
@@ -7059,7 +7101,7 @@
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
     </row>
-    <row r="15" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -7097,7 +7139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>533</v>
       </c>
@@ -7123,7 +7165,7 @@
         <v>54837657</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C19" s="15" t="s">
         <v>545</v>
       </c>
@@ -7132,7 +7174,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C20" s="4" t="s">
         <v>539</v>
       </c>
@@ -7140,7 +7182,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>537</v>
       </c>
@@ -7148,7 +7190,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>538</v>
       </c>
@@ -7156,10 +7198,10 @@
         <v>541</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C23"/>
     </row>
-    <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>550</v>
       </c>
@@ -7175,7 +7217,7 @@
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
     </row>
-    <row r="27" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
@@ -7213,7 +7255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>533</v>
       </c>
@@ -7239,7 +7281,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C31" s="15" t="s">
         <v>545</v>
       </c>
@@ -7248,7 +7290,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C32" s="4" t="s">
         <v>539</v>
       </c>
@@ -7256,7 +7298,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>537</v>
       </c>
@@ -7264,7 +7306,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>538</v>
       </c>
@@ -7280,7 +7322,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049E680B-7912-4614-A925-B0666D1C64B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF25A49-2B6B-47CD-A9DF-9B47AFBA3E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-120" windowWidth="19740" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="680">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2690,6 +2690,26 @@
   </si>
   <si>
     <t>76486478</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我，普通小白，想赶时髦体验一把 chatGPT ，还有不用科学的方法吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-26 16:59:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>159561</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54264257</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3165,7 +3185,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F131" sqref="F131"/>
+      <selection pane="bottomLeft" activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6868,10 +6888,31 @@
         <v>674</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A132" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>677</v>
+      </c>
       <c r="J132" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
+        <v>001018</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF25A49-2B6B-47CD-A9DF-9B47AFBA3E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="-120" windowWidth="19740" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1910" yWindow="-120" windowWidth="19740" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$L$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="686">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2710,13 +2709,37 @@
   </si>
   <si>
     <t>54264257</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一玩游戏、一剪视频电脑就学牛叫，可能是这个原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-04-02 15:53:41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>143551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87597681</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3180,30 +3203,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F132" sqref="F132"/>
+      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="6" customWidth="1"/>
     <col min="6" max="7" width="8.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.08203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.58203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="25" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3219,8 +3242,8 @@
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -3258,7 +3281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>557</v>
       </c>
@@ -3285,7 +3308,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>559</v>
       </c>
@@ -3321,7 +3344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>559</v>
       </c>
@@ -3357,25 +3380,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>522</v>
       </c>
@@ -3408,7 +3431,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>558</v>
       </c>
@@ -3438,7 +3461,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>558</v>
       </c>
@@ -3468,7 +3491,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>641</v>
       </c>
@@ -3495,7 +3518,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>557</v>
       </c>
@@ -3522,7 +3545,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>557</v>
       </c>
@@ -3549,7 +3572,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>557</v>
       </c>
@@ -3576,7 +3599,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>557</v>
       </c>
@@ -3603,7 +3626,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>557</v>
       </c>
@@ -3630,7 +3653,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>557</v>
       </c>
@@ -3657,7 +3680,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>559</v>
       </c>
@@ -3693,7 +3716,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>557</v>
       </c>
@@ -3720,7 +3743,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>558</v>
       </c>
@@ -3750,7 +3773,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>557</v>
       </c>
@@ -3777,7 +3800,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>557</v>
       </c>
@@ -3804,7 +3827,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>634</v>
       </c>
@@ -3831,7 +3854,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>557</v>
       </c>
@@ -3858,7 +3881,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>559</v>
       </c>
@@ -3894,7 +3917,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>559</v>
       </c>
@@ -3930,7 +3953,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>557</v>
       </c>
@@ -3957,7 +3980,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>557</v>
       </c>
@@ -3984,7 +4007,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>557</v>
       </c>
@@ -4011,7 +4034,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>557</v>
       </c>
@@ -4038,7 +4061,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>557</v>
       </c>
@@ -4065,7 +4088,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>557</v>
       </c>
@@ -4092,7 +4115,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>559</v>
       </c>
@@ -4128,7 +4151,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>557</v>
       </c>
@@ -4155,7 +4178,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>557</v>
       </c>
@@ -4182,7 +4205,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>557</v>
       </c>
@@ -4209,7 +4232,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>557</v>
       </c>
@@ -4236,7 +4259,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>557</v>
       </c>
@@ -4263,7 +4286,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>559</v>
       </c>
@@ -4296,7 +4319,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>557</v>
       </c>
@@ -4323,7 +4346,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>557</v>
       </c>
@@ -4350,7 +4373,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>557</v>
       </c>
@@ -4377,7 +4400,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>557</v>
       </c>
@@ -4404,7 +4427,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>557</v>
       </c>
@@ -4431,7 +4454,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>557</v>
       </c>
@@ -4458,7 +4481,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>557</v>
       </c>
@@ -4485,7 +4508,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>557</v>
       </c>
@@ -4512,7 +4535,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>557</v>
       </c>
@@ -4539,7 +4562,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>557</v>
       </c>
@@ -4566,7 +4589,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>557</v>
       </c>
@@ -4593,7 +4616,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>557</v>
       </c>
@@ -4620,7 +4643,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>559</v>
       </c>
@@ -4656,7 +4679,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>559</v>
       </c>
@@ -4692,7 +4715,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>557</v>
       </c>
@@ -4719,7 +4742,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>558</v>
       </c>
@@ -4749,7 +4772,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>557</v>
       </c>
@@ -4776,7 +4799,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
         <v>298</v>
       </c>
@@ -4809,7 +4832,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
         <v>294</v>
       </c>
@@ -4842,7 +4865,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
         <v>289</v>
       </c>
@@ -4875,7 +4898,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>557</v>
       </c>
@@ -4902,7 +4925,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>557</v>
       </c>
@@ -4929,7 +4952,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>559</v>
       </c>
@@ -4965,7 +4988,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>557</v>
       </c>
@@ -4992,7 +5015,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>558</v>
       </c>
@@ -5022,7 +5045,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>559</v>
       </c>
@@ -5049,7 +5072,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>559</v>
       </c>
@@ -5076,7 +5099,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>558</v>
       </c>
@@ -5106,7 +5129,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>558</v>
       </c>
@@ -5136,7 +5159,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>558</v>
       </c>
@@ -5166,7 +5189,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>557</v>
       </c>
@@ -5193,7 +5216,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>557</v>
       </c>
@@ -5220,7 +5243,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>558</v>
       </c>
@@ -5253,7 +5276,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>557</v>
       </c>
@@ -5280,7 +5303,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>558</v>
       </c>
@@ -5307,7 +5330,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>557</v>
       </c>
@@ -5334,7 +5357,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>558</v>
       </c>
@@ -5361,7 +5384,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>557</v>
       </c>
@@ -5388,7 +5411,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>557</v>
       </c>
@@ -5415,7 +5438,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>557</v>
       </c>
@@ -5442,7 +5465,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>557</v>
       </c>
@@ -5469,7 +5492,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>558</v>
       </c>
@@ -5496,7 +5519,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>557</v>
       </c>
@@ -5523,7 +5546,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>559</v>
       </c>
@@ -5559,7 +5582,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>559</v>
       </c>
@@ -5595,7 +5618,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>559</v>
       </c>
@@ -5631,7 +5654,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>557</v>
       </c>
@@ -5658,7 +5681,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
         <v>151</v>
       </c>
@@ -5691,7 +5714,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
         <v>146</v>
       </c>
@@ -5724,7 +5747,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
         <v>140</v>
       </c>
@@ -5757,7 +5780,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
         <v>135</v>
       </c>
@@ -5790,7 +5813,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>558</v>
       </c>
@@ -5817,7 +5840,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
         <v>123</v>
       </c>
@@ -5850,7 +5873,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B96" s="4" t="s">
         <v>118</v>
       </c>
@@ -5883,7 +5906,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B97" s="4" t="s">
         <v>112</v>
       </c>
@@ -5916,7 +5939,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
         <v>109</v>
       </c>
@@ -5949,7 +5972,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
         <v>104</v>
       </c>
@@ -5982,7 +6005,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B100" s="4" t="s">
         <v>98</v>
       </c>
@@ -6015,7 +6038,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="s">
         <v>92</v>
       </c>
@@ -6048,7 +6071,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>559</v>
       </c>
@@ -6084,7 +6107,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>557</v>
       </c>
@@ -6111,7 +6134,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>557</v>
       </c>
@@ -6138,7 +6161,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>557</v>
       </c>
@@ -6165,7 +6188,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>557</v>
       </c>
@@ -6192,7 +6215,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>557</v>
       </c>
@@ -6219,7 +6242,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>559</v>
       </c>
@@ -6255,7 +6278,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>558</v>
       </c>
@@ -6282,7 +6305,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>557</v>
       </c>
@@ -6309,7 +6332,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>557</v>
       </c>
@@ -6336,7 +6359,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>557</v>
       </c>
@@ -6363,7 +6386,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>557</v>
       </c>
@@ -6390,7 +6413,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>557</v>
       </c>
@@ -6417,7 +6440,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>559</v>
       </c>
@@ -6453,7 +6476,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>557</v>
       </c>
@@ -6480,7 +6503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>558</v>
       </c>
@@ -6510,7 +6533,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>557</v>
       </c>
@@ -6537,7 +6560,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>557</v>
       </c>
@@ -6564,7 +6587,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>597</v>
       </c>
@@ -6591,7 +6614,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>603</v>
       </c>
@@ -6618,7 +6641,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>609</v>
       </c>
@@ -6645,7 +6668,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>612</v>
       </c>
@@ -6672,7 +6695,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>618</v>
       </c>
@@ -6699,7 +6722,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>625</v>
       </c>
@@ -6726,7 +6749,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>557</v>
       </c>
@@ -6753,7 +6776,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>650</v>
       </c>
@@ -6780,7 +6803,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>654</v>
       </c>
@@ -6807,7 +6830,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>660</v>
       </c>
@@ -6834,7 +6857,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>665</v>
       </c>
@@ -6861,7 +6884,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>557</v>
       </c>
@@ -6888,7 +6911,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
         <v>557</v>
       </c>
@@ -6915,68 +6938,89 @@
         <v>679</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A133" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>683</v>
+      </c>
       <c r="J133" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+        <v>001019</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J134" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J135" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J136" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J137" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J138" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J139" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J140" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J141" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J142" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A4:L4"/>
   <mergeCells count="1">
     <mergeCell ref="A2:L2"/>
   </mergeCells>
@@ -6985,10 +7029,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6998,25 +7042,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
     <col min="3" max="3" width="34" style="4" customWidth="1"/>
     <col min="4" max="4" width="4.75" customWidth="1"/>
-    <col min="8" max="8" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>549</v>
       </c>
@@ -7032,7 +7076,7 @@
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
     </row>
-    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -7070,7 +7114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>533</v>
       </c>
@@ -7093,7 +7137,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="15" t="s">
         <v>545</v>
       </c>
@@ -7102,7 +7146,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>539</v>
       </c>
@@ -7110,7 +7154,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>537</v>
       </c>
@@ -7118,7 +7162,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>538</v>
       </c>
@@ -7126,7 +7170,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>543</v>
       </c>
@@ -7142,7 +7186,7 @@
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
     </row>
-    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -7180,7 +7224,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>533</v>
       </c>
@@ -7206,7 +7250,7 @@
         <v>54837657</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C19" s="15" t="s">
         <v>545</v>
       </c>
@@ -7215,7 +7259,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
         <v>539</v>
       </c>
@@ -7223,7 +7267,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>537</v>
       </c>
@@ -7231,7 +7275,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>538</v>
       </c>
@@ -7239,10 +7283,10 @@
         <v>541</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C23"/>
     </row>
-    <row r="25" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>550</v>
       </c>
@@ -7258,7 +7302,7 @@
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
     </row>
-    <row r="27" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
@@ -7296,7 +7340,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>533</v>
       </c>
@@ -7322,7 +7366,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C31" s="15" t="s">
         <v>545</v>
       </c>
@@ -7331,7 +7375,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C32" s="4" t="s">
         <v>539</v>
       </c>
@@ -7339,7 +7383,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>537</v>
       </c>
@@ -7347,7 +7391,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>538</v>
       </c>
@@ -7363,7 +7407,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1910" yWindow="-120" windowWidth="19740" windowHeight="11760"/>
+    <workbookView xWindow="2950" yWindow="-120" windowWidth="19740" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="692">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2733,6 +2733,30 @@
   </si>
   <si>
     <t>87597681</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UrBackup 客户端安装到 Windows 7 的正确姿势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-04-08 13:10:53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21931925</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3208,7 +3232,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
+      <selection pane="bottomLeft" activeCell="I135" sqref="I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6965,10 +6989,31 @@
         <v>685</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A134" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>689</v>
+      </c>
       <c r="J134" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
+        <v>001020</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\writing\11_付费课程\99.资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3200998-E188-4AAE-B48C-56DDEC1790E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2950" yWindow="-120" windowWidth="19740" windowHeight="11760"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$L$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="698">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2757,13 +2758,37 @@
   </si>
   <si>
     <t>21931925</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-04-29 14:37:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>527341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32042035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日福利，《塞尔达传说 旷野之息 探险指南》PDF版下载</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3227,30 +3252,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I135" sqref="I135"/>
+      <pane ySplit="4" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="6" customWidth="1"/>
     <col min="6" max="7" width="8.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.08203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.58203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3266,8 +3291,8 @@
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -3305,7 +3330,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>557</v>
       </c>
@@ -3332,7 +3357,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>559</v>
       </c>
@@ -3368,7 +3393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>559</v>
       </c>
@@ -3404,25 +3429,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>522</v>
       </c>
@@ -3455,7 +3480,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>558</v>
       </c>
@@ -3485,7 +3510,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>558</v>
       </c>
@@ -3515,7 +3540,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>641</v>
       </c>
@@ -3542,7 +3567,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>557</v>
       </c>
@@ -3569,7 +3594,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>557</v>
       </c>
@@ -3596,7 +3621,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>557</v>
       </c>
@@ -3623,7 +3648,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>557</v>
       </c>
@@ -3650,7 +3675,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>557</v>
       </c>
@@ -3677,7 +3702,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>557</v>
       </c>
@@ -3704,7 +3729,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>559</v>
       </c>
@@ -3740,7 +3765,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>557</v>
       </c>
@@ -3767,7 +3792,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>558</v>
       </c>
@@ -3797,7 +3822,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>557</v>
       </c>
@@ -3824,7 +3849,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>557</v>
       </c>
@@ -3851,7 +3876,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>634</v>
       </c>
@@ -3878,7 +3903,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>557</v>
       </c>
@@ -3905,7 +3930,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>559</v>
       </c>
@@ -3941,7 +3966,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>559</v>
       </c>
@@ -3977,7 +4002,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>557</v>
       </c>
@@ -4004,7 +4029,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>557</v>
       </c>
@@ -4031,7 +4056,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>557</v>
       </c>
@@ -4058,7 +4083,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>557</v>
       </c>
@@ -4085,7 +4110,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>557</v>
       </c>
@@ -4112,7 +4137,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>557</v>
       </c>
@@ -4139,7 +4164,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>559</v>
       </c>
@@ -4175,7 +4200,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>557</v>
       </c>
@@ -4202,7 +4227,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>557</v>
       </c>
@@ -4229,7 +4254,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>557</v>
       </c>
@@ -4256,7 +4281,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>557</v>
       </c>
@@ -4283,7 +4308,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>557</v>
       </c>
@@ -4310,7 +4335,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>559</v>
       </c>
@@ -4343,7 +4368,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>557</v>
       </c>
@@ -4370,7 +4395,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>557</v>
       </c>
@@ -4397,7 +4422,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>557</v>
       </c>
@@ -4424,7 +4449,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>557</v>
       </c>
@@ -4451,7 +4476,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>557</v>
       </c>
@@ -4478,7 +4503,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>557</v>
       </c>
@@ -4505,7 +4530,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>557</v>
       </c>
@@ -4532,7 +4557,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>557</v>
       </c>
@@ -4559,7 +4584,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>557</v>
       </c>
@@ -4586,7 +4611,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>557</v>
       </c>
@@ -4613,7 +4638,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>557</v>
       </c>
@@ -4640,7 +4665,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>557</v>
       </c>
@@ -4667,7 +4692,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>559</v>
       </c>
@@ -4703,7 +4728,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>559</v>
       </c>
@@ -4739,7 +4764,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>557</v>
       </c>
@@ -4766,7 +4791,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>558</v>
       </c>
@@ -4796,7 +4821,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>557</v>
       </c>
@@ -4823,7 +4848,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>298</v>
       </c>
@@ -4856,7 +4881,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
         <v>294</v>
       </c>
@@ -4889,7 +4914,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>289</v>
       </c>
@@ -4922,7 +4947,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>557</v>
       </c>
@@ -4949,7 +4974,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>557</v>
       </c>
@@ -4976,7 +5001,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>559</v>
       </c>
@@ -5012,7 +5037,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>557</v>
       </c>
@@ -5039,7 +5064,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>558</v>
       </c>
@@ -5069,7 +5094,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>559</v>
       </c>
@@ -5096,7 +5121,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>559</v>
       </c>
@@ -5123,7 +5148,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>558</v>
       </c>
@@ -5153,7 +5178,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>558</v>
       </c>
@@ -5183,7 +5208,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>558</v>
       </c>
@@ -5213,7 +5238,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>557</v>
       </c>
@@ -5240,7 +5265,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>557</v>
       </c>
@@ -5267,7 +5292,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>558</v>
       </c>
@@ -5300,7 +5325,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>557</v>
       </c>
@@ -5327,7 +5352,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>558</v>
       </c>
@@ -5354,7 +5379,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>557</v>
       </c>
@@ -5381,7 +5406,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>558</v>
       </c>
@@ -5408,7 +5433,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>557</v>
       </c>
@@ -5435,7 +5460,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>557</v>
       </c>
@@ -5462,7 +5487,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>557</v>
       </c>
@@ -5489,7 +5514,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>557</v>
       </c>
@@ -5516,7 +5541,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>558</v>
       </c>
@@ -5543,7 +5568,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>557</v>
       </c>
@@ -5570,7 +5595,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>559</v>
       </c>
@@ -5606,7 +5631,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>559</v>
       </c>
@@ -5642,7 +5667,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>559</v>
       </c>
@@ -5678,7 +5703,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>557</v>
       </c>
@@ -5705,7 +5730,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B90" s="4" t="s">
         <v>151</v>
       </c>
@@ -5738,7 +5763,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
         <v>146</v>
       </c>
@@ -5771,7 +5796,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
         <v>140</v>
       </c>
@@ -5804,7 +5829,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
         <v>135</v>
       </c>
@@ -5837,7 +5862,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>558</v>
       </c>
@@ -5864,7 +5889,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
         <v>123</v>
       </c>
@@ -5897,7 +5922,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B96" s="4" t="s">
         <v>118</v>
       </c>
@@ -5930,7 +5955,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B97" s="4" t="s">
         <v>112</v>
       </c>
@@ -5963,7 +5988,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
         <v>109</v>
       </c>
@@ -5996,7 +6021,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
         <v>104</v>
       </c>
@@ -6029,7 +6054,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B100" s="4" t="s">
         <v>98</v>
       </c>
@@ -6062,7 +6087,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B101" s="4" t="s">
         <v>92</v>
       </c>
@@ -6095,7 +6120,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>559</v>
       </c>
@@ -6131,7 +6156,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>557</v>
       </c>
@@ -6158,7 +6183,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>557</v>
       </c>
@@ -6185,7 +6210,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>557</v>
       </c>
@@ -6212,7 +6237,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>557</v>
       </c>
@@ -6239,7 +6264,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>557</v>
       </c>
@@ -6266,7 +6291,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>559</v>
       </c>
@@ -6302,7 +6327,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>558</v>
       </c>
@@ -6329,7 +6354,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>557</v>
       </c>
@@ -6356,7 +6381,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>557</v>
       </c>
@@ -6383,7 +6408,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>557</v>
       </c>
@@ -6410,7 +6435,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>557</v>
       </c>
@@ -6437,7 +6462,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>557</v>
       </c>
@@ -6464,7 +6489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>559</v>
       </c>
@@ -6500,7 +6525,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>557</v>
       </c>
@@ -6527,7 +6552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>558</v>
       </c>
@@ -6557,7 +6582,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>557</v>
       </c>
@@ -6584,7 +6609,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>557</v>
       </c>
@@ -6611,7 +6636,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>597</v>
       </c>
@@ -6638,7 +6663,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>603</v>
       </c>
@@ -6665,7 +6690,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>609</v>
       </c>
@@ -6692,7 +6717,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>612</v>
       </c>
@@ -6719,7 +6744,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>618</v>
       </c>
@@ -6746,7 +6771,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>625</v>
       </c>
@@ -6773,7 +6798,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>557</v>
       </c>
@@ -6800,7 +6825,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>650</v>
       </c>
@@ -6827,7 +6852,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>654</v>
       </c>
@@ -6854,7 +6879,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>660</v>
       </c>
@@ -6881,7 +6906,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>665</v>
       </c>
@@ -6908,7 +6933,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>557</v>
       </c>
@@ -6935,7 +6960,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>557</v>
       </c>
@@ -6962,7 +6987,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>682</v>
       </c>
@@ -6989,7 +7014,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>688</v>
       </c>
@@ -7016,56 +7041,77 @@
         <v>691</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A135" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>694</v>
+      </c>
       <c r="J135" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+        <v>001023</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J136" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J137" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J138" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J139" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J140" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J141" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J142" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L4"/>
+  <autoFilter ref="A4:L4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A2:L2"/>
   </mergeCells>
@@ -7074,10 +7120,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7087,25 +7133,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
     <col min="3" max="3" width="34" style="4" customWidth="1"/>
     <col min="4" max="4" width="4.75" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>549</v>
       </c>
@@ -7121,7 +7167,7 @@
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
     </row>
-    <row r="4" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -7159,7 +7205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>533</v>
       </c>
@@ -7182,7 +7228,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="15" t="s">
         <v>545</v>
       </c>
@@ -7191,7 +7237,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
         <v>539</v>
       </c>
@@ -7199,7 +7245,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>537</v>
       </c>
@@ -7207,7 +7253,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>538</v>
       </c>
@@ -7215,7 +7261,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>543</v>
       </c>
@@ -7231,7 +7277,7 @@
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
     </row>
-    <row r="15" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -7269,7 +7315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>533</v>
       </c>
@@ -7295,7 +7341,7 @@
         <v>54837657</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C19" s="15" t="s">
         <v>545</v>
       </c>
@@ -7304,7 +7350,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C20" s="4" t="s">
         <v>539</v>
       </c>
@@ -7312,7 +7358,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>537</v>
       </c>
@@ -7320,7 +7366,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>538</v>
       </c>
@@ -7328,10 +7374,10 @@
         <v>541</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C23"/>
     </row>
-    <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>550</v>
       </c>
@@ -7347,7 +7393,7 @@
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
     </row>
-    <row r="27" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
@@ -7385,7 +7431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>533</v>
       </c>
@@ -7411,7 +7457,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C31" s="15" t="s">
         <v>545</v>
       </c>
@@ -7420,7 +7466,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C32" s="4" t="s">
         <v>539</v>
       </c>
@@ -7428,7 +7474,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>537</v>
       </c>
@@ -7436,7 +7482,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>538</v>
       </c>
@@ -7452,7 +7498,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3200998-E188-4AAE-B48C-56DDEC1790E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC795A1-461D-456C-9F87-165698EFA8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="704">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2782,6 +2782,30 @@
   </si>
   <si>
     <t>节日福利，《塞尔达传说 旷野之息 探险指南》PDF版下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57597580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-05-08 09:02:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好好学习，天天向上，监督孩子网课学习神器，自制定时截图工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>332090</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3257,7 +3281,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
+      <selection pane="bottomLeft" activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7068,10 +7092,31 @@
         <v>696</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A136" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>699</v>
+      </c>
       <c r="J136" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
+        <v>001024</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC795A1-461D-456C-9F87-165698EFA8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1850" yWindow="-120" windowWidth="19800" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$L$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="710">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2806,13 +2805,37 @@
   </si>
   <si>
     <t>332090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赶快看看你有没有中招，系统再现截图工具 Acropalypse 漏洞！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-05-14 08:10:41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54264258</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3276,30 +3299,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G137" sqref="G137"/>
+      <selection pane="bottomLeft" activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="6" customWidth="1"/>
     <col min="6" max="7" width="8.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.08203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.58203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="25" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3315,8 +3338,8 @@
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -3354,7 +3377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>557</v>
       </c>
@@ -3381,7 +3404,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>559</v>
       </c>
@@ -3417,7 +3440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>559</v>
       </c>
@@ -3453,25 +3476,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>522</v>
       </c>
@@ -3504,7 +3527,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>558</v>
       </c>
@@ -3534,7 +3557,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>558</v>
       </c>
@@ -3564,7 +3587,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>641</v>
       </c>
@@ -3591,7 +3614,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>557</v>
       </c>
@@ -3618,7 +3641,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>557</v>
       </c>
@@ -3645,7 +3668,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>557</v>
       </c>
@@ -3672,7 +3695,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>557</v>
       </c>
@@ -3699,7 +3722,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>557</v>
       </c>
@@ -3726,7 +3749,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>557</v>
       </c>
@@ -3753,7 +3776,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>559</v>
       </c>
@@ -3789,7 +3812,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>557</v>
       </c>
@@ -3816,7 +3839,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>558</v>
       </c>
@@ -3846,7 +3869,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>557</v>
       </c>
@@ -3873,7 +3896,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>557</v>
       </c>
@@ -3900,7 +3923,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>634</v>
       </c>
@@ -3927,7 +3950,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>557</v>
       </c>
@@ -3954,7 +3977,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>559</v>
       </c>
@@ -3990,7 +4013,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>559</v>
       </c>
@@ -4026,7 +4049,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>557</v>
       </c>
@@ -4053,7 +4076,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>557</v>
       </c>
@@ -4080,7 +4103,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>557</v>
       </c>
@@ -4107,7 +4130,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>557</v>
       </c>
@@ -4134,7 +4157,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>557</v>
       </c>
@@ -4161,7 +4184,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>557</v>
       </c>
@@ -4188,7 +4211,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>559</v>
       </c>
@@ -4224,7 +4247,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>557</v>
       </c>
@@ -4251,7 +4274,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>557</v>
       </c>
@@ -4278,7 +4301,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>557</v>
       </c>
@@ -4305,7 +4328,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>557</v>
       </c>
@@ -4332,7 +4355,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>557</v>
       </c>
@@ -4359,7 +4382,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>559</v>
       </c>
@@ -4392,7 +4415,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>557</v>
       </c>
@@ -4419,7 +4442,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>557</v>
       </c>
@@ -4446,7 +4469,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>557</v>
       </c>
@@ -4473,7 +4496,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>557</v>
       </c>
@@ -4500,7 +4523,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>557</v>
       </c>
@@ -4527,7 +4550,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>557</v>
       </c>
@@ -4554,7 +4577,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>557</v>
       </c>
@@ -4581,7 +4604,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>557</v>
       </c>
@@ -4608,7 +4631,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>557</v>
       </c>
@@ -4635,7 +4658,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>557</v>
       </c>
@@ -4662,7 +4685,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>557</v>
       </c>
@@ -4689,7 +4712,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>557</v>
       </c>
@@ -4716,7 +4739,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>559</v>
       </c>
@@ -4752,7 +4775,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>559</v>
       </c>
@@ -4788,7 +4811,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>557</v>
       </c>
@@ -4815,7 +4838,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>558</v>
       </c>
@@ -4845,7 +4868,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>557</v>
       </c>
@@ -4872,7 +4895,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
         <v>298</v>
       </c>
@@ -4905,7 +4928,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
         <v>294</v>
       </c>
@@ -4938,7 +4961,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
         <v>289</v>
       </c>
@@ -4971,7 +4994,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>557</v>
       </c>
@@ -4998,7 +5021,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>557</v>
       </c>
@@ -5025,7 +5048,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>559</v>
       </c>
@@ -5061,7 +5084,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>557</v>
       </c>
@@ -5088,7 +5111,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>558</v>
       </c>
@@ -5118,7 +5141,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>559</v>
       </c>
@@ -5145,7 +5168,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>559</v>
       </c>
@@ -5172,7 +5195,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>558</v>
       </c>
@@ -5202,7 +5225,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>558</v>
       </c>
@@ -5232,7 +5255,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>558</v>
       </c>
@@ -5262,7 +5285,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>557</v>
       </c>
@@ -5289,7 +5312,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>557</v>
       </c>
@@ -5316,7 +5339,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>558</v>
       </c>
@@ -5349,7 +5372,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>557</v>
       </c>
@@ -5376,7 +5399,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>558</v>
       </c>
@@ -5403,7 +5426,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>557</v>
       </c>
@@ -5430,7 +5453,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>558</v>
       </c>
@@ -5457,7 +5480,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>557</v>
       </c>
@@ -5484,7 +5507,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>557</v>
       </c>
@@ -5511,7 +5534,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>557</v>
       </c>
@@ -5538,7 +5561,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>557</v>
       </c>
@@ -5565,7 +5588,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>558</v>
       </c>
@@ -5592,7 +5615,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>557</v>
       </c>
@@ -5619,7 +5642,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>559</v>
       </c>
@@ -5655,7 +5678,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>559</v>
       </c>
@@ -5691,7 +5714,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>559</v>
       </c>
@@ -5727,7 +5750,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>557</v>
       </c>
@@ -5754,7 +5777,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
         <v>151</v>
       </c>
@@ -5787,7 +5810,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
         <v>146</v>
       </c>
@@ -5820,7 +5843,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
         <v>140</v>
       </c>
@@ -5853,7 +5876,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
         <v>135</v>
       </c>
@@ -5886,7 +5909,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>558</v>
       </c>
@@ -5913,7 +5936,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
         <v>123</v>
       </c>
@@ -5946,7 +5969,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B96" s="4" t="s">
         <v>118</v>
       </c>
@@ -5979,7 +6002,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B97" s="4" t="s">
         <v>112</v>
       </c>
@@ -6012,7 +6035,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
         <v>109</v>
       </c>
@@ -6045,7 +6068,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
         <v>104</v>
       </c>
@@ -6078,7 +6101,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B100" s="4" t="s">
         <v>98</v>
       </c>
@@ -6111,7 +6134,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="s">
         <v>92</v>
       </c>
@@ -6144,7 +6167,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>559</v>
       </c>
@@ -6180,7 +6203,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>557</v>
       </c>
@@ -6207,7 +6230,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>557</v>
       </c>
@@ -6234,7 +6257,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>557</v>
       </c>
@@ -6261,7 +6284,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>557</v>
       </c>
@@ -6288,7 +6311,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>557</v>
       </c>
@@ -6315,7 +6338,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>559</v>
       </c>
@@ -6351,7 +6374,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>558</v>
       </c>
@@ -6378,7 +6401,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>557</v>
       </c>
@@ -6405,7 +6428,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>557</v>
       </c>
@@ -6432,7 +6455,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>557</v>
       </c>
@@ -6459,7 +6482,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>557</v>
       </c>
@@ -6486,7 +6509,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>557</v>
       </c>
@@ -6513,7 +6536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>559</v>
       </c>
@@ -6549,7 +6572,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>557</v>
       </c>
@@ -6576,7 +6599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>558</v>
       </c>
@@ -6606,7 +6629,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>557</v>
       </c>
@@ -6633,7 +6656,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>557</v>
       </c>
@@ -6660,7 +6683,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>597</v>
       </c>
@@ -6687,7 +6710,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>603</v>
       </c>
@@ -6714,7 +6737,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>609</v>
       </c>
@@ -6741,7 +6764,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>612</v>
       </c>
@@ -6768,7 +6791,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>618</v>
       </c>
@@ -6795,7 +6818,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>625</v>
       </c>
@@ -6822,7 +6845,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>557</v>
       </c>
@@ -6849,7 +6872,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>650</v>
       </c>
@@ -6876,7 +6899,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>654</v>
       </c>
@@ -6903,7 +6926,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>660</v>
       </c>
@@ -6930,7 +6953,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>665</v>
       </c>
@@ -6957,7 +6980,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>557</v>
       </c>
@@ -6984,7 +7007,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
         <v>557</v>
       </c>
@@ -7011,7 +7034,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
         <v>682</v>
       </c>
@@ -7038,7 +7061,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
         <v>688</v>
       </c>
@@ -7065,7 +7088,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
         <v>692</v>
       </c>
@@ -7092,7 +7115,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
         <v>700</v>
       </c>
@@ -7119,44 +7142,65 @@
         <v>698</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A137" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>707</v>
+      </c>
       <c r="J137" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+        <v>001025</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J138" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J139" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J140" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J141" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J142" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A4:L4"/>
   <mergeCells count="1">
     <mergeCell ref="A2:L2"/>
   </mergeCells>
@@ -7165,10 +7209,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7178,25 +7222,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
     <col min="3" max="3" width="34" style="4" customWidth="1"/>
     <col min="4" max="4" width="4.75" customWidth="1"/>
-    <col min="8" max="8" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>549</v>
       </c>
@@ -7212,7 +7256,7 @@
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
     </row>
-    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -7250,7 +7294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>533</v>
       </c>
@@ -7273,7 +7317,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="15" t="s">
         <v>545</v>
       </c>
@@ -7282,7 +7326,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>539</v>
       </c>
@@ -7290,7 +7334,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>537</v>
       </c>
@@ -7298,7 +7342,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>538</v>
       </c>
@@ -7306,7 +7350,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>543</v>
       </c>
@@ -7322,7 +7366,7 @@
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
     </row>
-    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -7360,7 +7404,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>533</v>
       </c>
@@ -7386,7 +7430,7 @@
         <v>54837657</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C19" s="15" t="s">
         <v>545</v>
       </c>
@@ -7395,7 +7439,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
         <v>539</v>
       </c>
@@ -7403,7 +7447,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>537</v>
       </c>
@@ -7411,7 +7455,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>538</v>
       </c>
@@ -7419,10 +7463,10 @@
         <v>541</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C23"/>
     </row>
-    <row r="25" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>550</v>
       </c>
@@ -7438,7 +7482,7 @@
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
     </row>
-    <row r="27" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
@@ -7476,7 +7520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>533</v>
       </c>
@@ -7502,7 +7546,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C31" s="15" t="s">
         <v>545</v>
       </c>
@@ -7511,7 +7555,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C32" s="4" t="s">
         <v>539</v>
       </c>
@@ -7519,7 +7563,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>537</v>
       </c>
@@ -7527,7 +7571,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>538</v>
       </c>
@@ -7543,7 +7587,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1850" yWindow="-120" windowWidth="19800" windowHeight="11760"/>
+    <workbookView xWindow="2890" yWindow="-120" windowWidth="19800" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="716">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2829,6 +2829,30 @@
   </si>
   <si>
     <t>54264258</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过一番魔改我终于让 mPDF 实现了倾斜旋转文字功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-05-21 09:19:19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>919190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15238554</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3302,9 +3326,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I138" sqref="I138"/>
+      <selection pane="bottomLeft" activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7169,10 +7193,31 @@
         <v>709</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A138" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>713</v>
+      </c>
       <c r="J138" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
+        <v>001026</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\writing\11_付费课程\99.资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721F1BC3-E5A1-497A-9894-002836A1DFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2890" yWindow="-120" windowWidth="19800" windowHeight="11760"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$L$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="722">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2853,13 +2854,37 @@
   </si>
   <si>
     <t>15238554</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用 VB6或VBA 将文件批量上传到 Sharepoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-05-28 10:52:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>042501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21931923</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3323,30 +3348,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I139" sqref="I139"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K141" sqref="K141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="6" customWidth="1"/>
     <col min="6" max="7" width="8.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.08203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.58203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3362,8 +3387,8 @@
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -3401,7 +3426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>557</v>
       </c>
@@ -3428,7 +3453,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>559</v>
       </c>
@@ -3464,7 +3489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>559</v>
       </c>
@@ -3500,25 +3525,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>522</v>
       </c>
@@ -3551,7 +3576,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>558</v>
       </c>
@@ -3581,7 +3606,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>558</v>
       </c>
@@ -3611,7 +3636,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>641</v>
       </c>
@@ -3638,7 +3663,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>557</v>
       </c>
@@ -3665,7 +3690,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>557</v>
       </c>
@@ -3692,7 +3717,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>557</v>
       </c>
@@ -3719,7 +3744,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>557</v>
       </c>
@@ -3746,7 +3771,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>557</v>
       </c>
@@ -3773,7 +3798,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>557</v>
       </c>
@@ -3800,7 +3825,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>559</v>
       </c>
@@ -3836,7 +3861,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>557</v>
       </c>
@@ -3863,7 +3888,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>558</v>
       </c>
@@ -3893,7 +3918,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>557</v>
       </c>
@@ -3920,7 +3945,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>557</v>
       </c>
@@ -3947,7 +3972,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>634</v>
       </c>
@@ -3974,7 +3999,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>557</v>
       </c>
@@ -4001,7 +4026,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>559</v>
       </c>
@@ -4037,7 +4062,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>559</v>
       </c>
@@ -4073,7 +4098,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>557</v>
       </c>
@@ -4100,7 +4125,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>557</v>
       </c>
@@ -4127,7 +4152,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>557</v>
       </c>
@@ -4154,7 +4179,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>557</v>
       </c>
@@ -4181,7 +4206,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>557</v>
       </c>
@@ -4208,7 +4233,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>557</v>
       </c>
@@ -4235,7 +4260,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>559</v>
       </c>
@@ -4271,7 +4296,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>557</v>
       </c>
@@ -4298,7 +4323,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>557</v>
       </c>
@@ -4325,7 +4350,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>557</v>
       </c>
@@ -4352,7 +4377,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>557</v>
       </c>
@@ -4379,7 +4404,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>557</v>
       </c>
@@ -4406,7 +4431,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>559</v>
       </c>
@@ -4439,7 +4464,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>557</v>
       </c>
@@ -4466,7 +4491,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>557</v>
       </c>
@@ -4493,7 +4518,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>557</v>
       </c>
@@ -4520,7 +4545,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>557</v>
       </c>
@@ -4547,7 +4572,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>557</v>
       </c>
@@ -4574,7 +4599,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>557</v>
       </c>
@@ -4601,7 +4626,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>557</v>
       </c>
@@ -4628,7 +4653,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>557</v>
       </c>
@@ -4655,7 +4680,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>557</v>
       </c>
@@ -4682,7 +4707,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>557</v>
       </c>
@@ -4709,7 +4734,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>557</v>
       </c>
@@ -4736,7 +4761,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>557</v>
       </c>
@@ -4763,7 +4788,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>559</v>
       </c>
@@ -4799,7 +4824,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>559</v>
       </c>
@@ -4835,7 +4860,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>557</v>
       </c>
@@ -4862,7 +4887,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>558</v>
       </c>
@@ -4892,7 +4917,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>557</v>
       </c>
@@ -4919,7 +4944,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>298</v>
       </c>
@@ -4952,7 +4977,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
         <v>294</v>
       </c>
@@ -4985,7 +5010,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>289</v>
       </c>
@@ -5018,7 +5043,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>557</v>
       </c>
@@ -5045,7 +5070,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>557</v>
       </c>
@@ -5072,7 +5097,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>559</v>
       </c>
@@ -5108,7 +5133,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>557</v>
       </c>
@@ -5135,7 +5160,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>558</v>
       </c>
@@ -5165,7 +5190,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>559</v>
       </c>
@@ -5192,7 +5217,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>559</v>
       </c>
@@ -5219,7 +5244,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>558</v>
       </c>
@@ -5249,7 +5274,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>558</v>
       </c>
@@ -5279,7 +5304,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>558</v>
       </c>
@@ -5309,7 +5334,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>557</v>
       </c>
@@ -5336,7 +5361,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>557</v>
       </c>
@@ -5363,7 +5388,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>558</v>
       </c>
@@ -5396,7 +5421,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>557</v>
       </c>
@@ -5423,7 +5448,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>558</v>
       </c>
@@ -5450,7 +5475,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>557</v>
       </c>
@@ -5477,7 +5502,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>558</v>
       </c>
@@ -5504,7 +5529,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>557</v>
       </c>
@@ -5531,7 +5556,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>557</v>
       </c>
@@ -5558,7 +5583,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>557</v>
       </c>
@@ -5585,7 +5610,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>557</v>
       </c>
@@ -5612,7 +5637,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>558</v>
       </c>
@@ -5639,7 +5664,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>557</v>
       </c>
@@ -5666,7 +5691,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>559</v>
       </c>
@@ -5702,7 +5727,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>559</v>
       </c>
@@ -5738,7 +5763,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>559</v>
       </c>
@@ -5774,7 +5799,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>557</v>
       </c>
@@ -5801,7 +5826,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B90" s="4" t="s">
         <v>151</v>
       </c>
@@ -5834,7 +5859,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
         <v>146</v>
       </c>
@@ -5867,7 +5892,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
         <v>140</v>
       </c>
@@ -5900,7 +5925,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
         <v>135</v>
       </c>
@@ -5933,7 +5958,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>558</v>
       </c>
@@ -5960,7 +5985,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
         <v>123</v>
       </c>
@@ -5993,7 +6018,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B96" s="4" t="s">
         <v>118</v>
       </c>
@@ -6026,7 +6051,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B97" s="4" t="s">
         <v>112</v>
       </c>
@@ -6059,7 +6084,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
         <v>109</v>
       </c>
@@ -6092,7 +6117,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
         <v>104</v>
       </c>
@@ -6125,7 +6150,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B100" s="4" t="s">
         <v>98</v>
       </c>
@@ -6158,7 +6183,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B101" s="4" t="s">
         <v>92</v>
       </c>
@@ -6191,7 +6216,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>559</v>
       </c>
@@ -6227,7 +6252,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>557</v>
       </c>
@@ -6254,7 +6279,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>557</v>
       </c>
@@ -6281,7 +6306,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>557</v>
       </c>
@@ -6308,7 +6333,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>557</v>
       </c>
@@ -6335,7 +6360,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>557</v>
       </c>
@@ -6362,7 +6387,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>559</v>
       </c>
@@ -6398,7 +6423,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>558</v>
       </c>
@@ -6425,7 +6450,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>557</v>
       </c>
@@ -6452,7 +6477,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>557</v>
       </c>
@@ -6479,7 +6504,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>557</v>
       </c>
@@ -6506,7 +6531,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>557</v>
       </c>
@@ -6533,7 +6558,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>557</v>
       </c>
@@ -6560,7 +6585,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>559</v>
       </c>
@@ -6596,7 +6621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>557</v>
       </c>
@@ -6623,7 +6648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>558</v>
       </c>
@@ -6653,7 +6678,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>557</v>
       </c>
@@ -6680,7 +6705,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>557</v>
       </c>
@@ -6707,7 +6732,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>597</v>
       </c>
@@ -6734,7 +6759,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>603</v>
       </c>
@@ -6761,7 +6786,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>609</v>
       </c>
@@ -6788,7 +6813,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>612</v>
       </c>
@@ -6815,7 +6840,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>618</v>
       </c>
@@ -6842,7 +6867,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>625</v>
       </c>
@@ -6869,7 +6894,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>557</v>
       </c>
@@ -6896,7 +6921,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>650</v>
       </c>
@@ -6923,7 +6948,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>654</v>
       </c>
@@ -6950,7 +6975,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>660</v>
       </c>
@@ -6977,7 +7002,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>665</v>
       </c>
@@ -7004,7 +7029,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>557</v>
       </c>
@@ -7031,7 +7056,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>557</v>
       </c>
@@ -7058,7 +7083,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>682</v>
       </c>
@@ -7085,7 +7110,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>688</v>
       </c>
@@ -7112,7 +7137,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>692</v>
       </c>
@@ -7139,7 +7164,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>700</v>
       </c>
@@ -7166,7 +7191,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>705</v>
       </c>
@@ -7193,7 +7218,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
         <v>712</v>
       </c>
@@ -7220,32 +7245,53 @@
         <v>715</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A139" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>719</v>
+      </c>
       <c r="J139" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+        <v>001027</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J140" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J141" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J142" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L4"/>
+  <autoFilter ref="A4:L4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A2:L2"/>
   </mergeCells>
@@ -7254,10 +7300,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7267,25 +7313,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
     <col min="3" max="3" width="34" style="4" customWidth="1"/>
     <col min="4" max="4" width="4.75" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>549</v>
       </c>
@@ -7301,7 +7347,7 @@
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
     </row>
-    <row r="4" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -7339,7 +7385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>533</v>
       </c>
@@ -7362,7 +7408,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="15" t="s">
         <v>545</v>
       </c>
@@ -7371,7 +7417,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
         <v>539</v>
       </c>
@@ -7379,7 +7425,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>537</v>
       </c>
@@ -7387,7 +7433,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>538</v>
       </c>
@@ -7395,7 +7441,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>543</v>
       </c>
@@ -7411,7 +7457,7 @@
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
     </row>
-    <row r="15" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -7449,7 +7495,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>533</v>
       </c>
@@ -7475,7 +7521,7 @@
         <v>54837657</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C19" s="15" t="s">
         <v>545</v>
       </c>
@@ -7484,7 +7530,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C20" s="4" t="s">
         <v>539</v>
       </c>
@@ -7492,7 +7538,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>537</v>
       </c>
@@ -7500,7 +7546,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>538</v>
       </c>
@@ -7508,10 +7554,10 @@
         <v>541</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C23"/>
     </row>
-    <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>550</v>
       </c>
@@ -7527,7 +7573,7 @@
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
     </row>
-    <row r="27" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
@@ -7565,7 +7611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>533</v>
       </c>
@@ -7591,7 +7637,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C31" s="15" t="s">
         <v>545</v>
       </c>
@@ -7600,7 +7646,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C32" s="4" t="s">
         <v>539</v>
       </c>
@@ -7608,7 +7654,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>537</v>
       </c>
@@ -7616,7 +7662,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>538</v>
       </c>
@@ -7632,7 +7678,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721F1BC3-E5A1-497A-9894-002836A1DFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2890" yWindow="-120" windowWidth="19800" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$L$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="728">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2878,13 +2877,37 @@
   </si>
   <si>
     <t>21931923</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-06-04 16:21:57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明明连上网了，为啥还是显示小地球图标？Outlook 也无法连接！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>751261</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98608791</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3348,30 +3371,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L142"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K141" sqref="K141"/>
+      <selection pane="bottomLeft" activeCell="L144" sqref="L144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="6" customWidth="1"/>
     <col min="6" max="7" width="8.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.08203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.58203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="25" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3387,8 +3410,8 @@
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -3426,7 +3449,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>557</v>
       </c>
@@ -3453,7 +3476,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>559</v>
       </c>
@@ -3489,7 +3512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>559</v>
       </c>
@@ -3525,25 +3548,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>522</v>
       </c>
@@ -3576,7 +3599,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>558</v>
       </c>
@@ -3606,7 +3629,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>558</v>
       </c>
@@ -3636,7 +3659,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>641</v>
       </c>
@@ -3663,7 +3686,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>557</v>
       </c>
@@ -3690,7 +3713,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>557</v>
       </c>
@@ -3717,7 +3740,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>557</v>
       </c>
@@ -3744,7 +3767,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>557</v>
       </c>
@@ -3771,7 +3794,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>557</v>
       </c>
@@ -3798,7 +3821,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>557</v>
       </c>
@@ -3825,7 +3848,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>559</v>
       </c>
@@ -3861,7 +3884,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>557</v>
       </c>
@@ -3888,7 +3911,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>558</v>
       </c>
@@ -3918,7 +3941,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>557</v>
       </c>
@@ -3945,7 +3968,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>557</v>
       </c>
@@ -3972,7 +3995,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>634</v>
       </c>
@@ -3999,7 +4022,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>557</v>
       </c>
@@ -4026,7 +4049,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>559</v>
       </c>
@@ -4062,7 +4085,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>559</v>
       </c>
@@ -4098,7 +4121,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>557</v>
       </c>
@@ -4125,7 +4148,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>557</v>
       </c>
@@ -4152,7 +4175,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>557</v>
       </c>
@@ -4179,7 +4202,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>557</v>
       </c>
@@ -4206,7 +4229,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>557</v>
       </c>
@@ -4233,7 +4256,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>557</v>
       </c>
@@ -4260,7 +4283,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>559</v>
       </c>
@@ -4296,7 +4319,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>557</v>
       </c>
@@ -4323,7 +4346,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>557</v>
       </c>
@@ -4350,7 +4373,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>557</v>
       </c>
@@ -4377,7 +4400,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>557</v>
       </c>
@@ -4404,7 +4427,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>557</v>
       </c>
@@ -4431,7 +4454,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>559</v>
       </c>
@@ -4464,7 +4487,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>557</v>
       </c>
@@ -4491,7 +4514,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>557</v>
       </c>
@@ -4518,7 +4541,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>557</v>
       </c>
@@ -4545,7 +4568,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>557</v>
       </c>
@@ -4572,7 +4595,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>557</v>
       </c>
@@ -4599,7 +4622,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>557</v>
       </c>
@@ -4626,7 +4649,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>557</v>
       </c>
@@ -4653,7 +4676,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>557</v>
       </c>
@@ -4680,7 +4703,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>557</v>
       </c>
@@ -4707,7 +4730,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>557</v>
       </c>
@@ -4734,7 +4757,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>557</v>
       </c>
@@ -4761,7 +4784,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>557</v>
       </c>
@@ -4788,7 +4811,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>559</v>
       </c>
@@ -4824,7 +4847,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>559</v>
       </c>
@@ -4860,7 +4883,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>557</v>
       </c>
@@ -4887,7 +4910,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>558</v>
       </c>
@@ -4917,7 +4940,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>557</v>
       </c>
@@ -4944,7 +4967,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
         <v>298</v>
       </c>
@@ -4977,7 +5000,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
         <v>294</v>
       </c>
@@ -5010,7 +5033,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
         <v>289</v>
       </c>
@@ -5043,7 +5066,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>557</v>
       </c>
@@ -5070,7 +5093,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>557</v>
       </c>
@@ -5097,7 +5120,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>559</v>
       </c>
@@ -5133,7 +5156,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>557</v>
       </c>
@@ -5160,7 +5183,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>558</v>
       </c>
@@ -5190,7 +5213,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>559</v>
       </c>
@@ -5217,7 +5240,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>559</v>
       </c>
@@ -5244,7 +5267,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>558</v>
       </c>
@@ -5274,7 +5297,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>558</v>
       </c>
@@ -5304,7 +5327,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>558</v>
       </c>
@@ -5334,7 +5357,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>557</v>
       </c>
@@ -5361,7 +5384,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>557</v>
       </c>
@@ -5388,7 +5411,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>558</v>
       </c>
@@ -5421,7 +5444,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>557</v>
       </c>
@@ -5448,7 +5471,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>558</v>
       </c>
@@ -5475,7 +5498,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>557</v>
       </c>
@@ -5502,7 +5525,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>558</v>
       </c>
@@ -5529,7 +5552,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>557</v>
       </c>
@@ -5556,7 +5579,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>557</v>
       </c>
@@ -5583,7 +5606,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>557</v>
       </c>
@@ -5610,7 +5633,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>557</v>
       </c>
@@ -5637,7 +5660,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>558</v>
       </c>
@@ -5664,7 +5687,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>557</v>
       </c>
@@ -5691,7 +5714,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>559</v>
       </c>
@@ -5727,7 +5750,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>559</v>
       </c>
@@ -5763,7 +5786,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>559</v>
       </c>
@@ -5799,7 +5822,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>557</v>
       </c>
@@ -5826,7 +5849,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
         <v>151</v>
       </c>
@@ -5859,7 +5882,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
         <v>146</v>
       </c>
@@ -5892,7 +5915,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
         <v>140</v>
       </c>
@@ -5925,7 +5948,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
         <v>135</v>
       </c>
@@ -5958,7 +5981,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>558</v>
       </c>
@@ -5985,7 +6008,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
         <v>123</v>
       </c>
@@ -6018,7 +6041,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B96" s="4" t="s">
         <v>118</v>
       </c>
@@ -6051,7 +6074,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B97" s="4" t="s">
         <v>112</v>
       </c>
@@ -6084,7 +6107,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
         <v>109</v>
       </c>
@@ -6117,7 +6140,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
         <v>104</v>
       </c>
@@ -6150,7 +6173,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B100" s="4" t="s">
         <v>98</v>
       </c>
@@ -6183,7 +6206,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="s">
         <v>92</v>
       </c>
@@ -6216,7 +6239,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>559</v>
       </c>
@@ -6252,7 +6275,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>557</v>
       </c>
@@ -6279,7 +6302,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>557</v>
       </c>
@@ -6306,7 +6329,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>557</v>
       </c>
@@ -6333,7 +6356,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>557</v>
       </c>
@@ -6360,7 +6383,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>557</v>
       </c>
@@ -6387,7 +6410,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>559</v>
       </c>
@@ -6423,7 +6446,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>558</v>
       </c>
@@ -6450,7 +6473,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>557</v>
       </c>
@@ -6477,7 +6500,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>557</v>
       </c>
@@ -6504,7 +6527,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>557</v>
       </c>
@@ -6531,7 +6554,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>557</v>
       </c>
@@ -6558,7 +6581,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>557</v>
       </c>
@@ -6585,7 +6608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>559</v>
       </c>
@@ -6621,7 +6644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>557</v>
       </c>
@@ -6648,7 +6671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>558</v>
       </c>
@@ -6678,7 +6701,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>557</v>
       </c>
@@ -6705,7 +6728,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>557</v>
       </c>
@@ -6732,7 +6755,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>597</v>
       </c>
@@ -6759,7 +6782,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>603</v>
       </c>
@@ -6786,7 +6809,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>609</v>
       </c>
@@ -6813,7 +6836,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>612</v>
       </c>
@@ -6840,7 +6863,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>618</v>
       </c>
@@ -6867,7 +6890,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>625</v>
       </c>
@@ -6894,7 +6917,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>557</v>
       </c>
@@ -6921,7 +6944,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>650</v>
       </c>
@@ -6948,7 +6971,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>654</v>
       </c>
@@ -6975,7 +6998,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>660</v>
       </c>
@@ -7002,7 +7025,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>665</v>
       </c>
@@ -7029,7 +7052,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>557</v>
       </c>
@@ -7046,7 +7069,7 @@
         <v>672</v>
       </c>
       <c r="J131" s="5" t="str">
-        <f t="shared" ref="J131:J142" si="4">"00"&amp;B131</f>
+        <f t="shared" ref="J131:J150" si="4">"00"&amp;B131</f>
         <v>001017</v>
       </c>
       <c r="K131" s="3" t="s">
@@ -7056,7 +7079,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
         <v>557</v>
       </c>
@@ -7083,7 +7106,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
         <v>682</v>
       </c>
@@ -7110,7 +7133,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
         <v>688</v>
       </c>
@@ -7137,7 +7160,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
         <v>692</v>
       </c>
@@ -7164,7 +7187,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
         <v>700</v>
       </c>
@@ -7191,7 +7214,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
         <v>705</v>
       </c>
@@ -7218,7 +7241,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
         <v>712</v>
       </c>
@@ -7245,7 +7268,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
         <v>717</v>
       </c>
@@ -7272,26 +7295,95 @@
         <v>721</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A140" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>722</v>
+      </c>
       <c r="J140" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+        <v>001028</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J141" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J142" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J143" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J144" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="145" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J145" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="146" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J146" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="147" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J147" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="148" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J148" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="149" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J149" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="150" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J150" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>00</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:L4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A4:L4"/>
   <mergeCells count="1">
     <mergeCell ref="A2:L2"/>
   </mergeCells>
@@ -7300,10 +7392,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7313,25 +7405,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
     <col min="3" max="3" width="34" style="4" customWidth="1"/>
     <col min="4" max="4" width="4.75" customWidth="1"/>
-    <col min="8" max="8" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>549</v>
       </c>
@@ -7347,7 +7439,7 @@
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
     </row>
-    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -7385,7 +7477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>533</v>
       </c>
@@ -7408,7 +7500,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="15" t="s">
         <v>545</v>
       </c>
@@ -7417,7 +7509,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>539</v>
       </c>
@@ -7425,7 +7517,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>537</v>
       </c>
@@ -7433,7 +7525,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>538</v>
       </c>
@@ -7441,7 +7533,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>543</v>
       </c>
@@ -7457,7 +7549,7 @@
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
     </row>
-    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -7495,7 +7587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>533</v>
       </c>
@@ -7521,7 +7613,7 @@
         <v>54837657</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C19" s="15" t="s">
         <v>545</v>
       </c>
@@ -7530,7 +7622,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
         <v>539</v>
       </c>
@@ -7538,7 +7630,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>537</v>
       </c>
@@ -7546,7 +7638,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>538</v>
       </c>
@@ -7554,10 +7646,10 @@
         <v>541</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C23"/>
     </row>
-    <row r="25" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>550</v>
       </c>
@@ -7573,7 +7665,7 @@
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
     </row>
-    <row r="27" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
@@ -7611,7 +7703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>533</v>
       </c>
@@ -7637,7 +7729,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C31" s="15" t="s">
         <v>545</v>
       </c>
@@ -7646,7 +7738,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C32" s="4" t="s">
         <v>539</v>
       </c>
@@ -7654,7 +7746,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>537</v>
       </c>
@@ -7662,7 +7754,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>538</v>
       </c>
@@ -7678,7 +7770,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2890" yWindow="-120" windowWidth="19800" windowHeight="11760"/>
+    <workbookView xWindow="3930" yWindow="-120" windowWidth="19800" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="734">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2901,6 +2901,30 @@
   </si>
   <si>
     <t>98608791</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一款开源神器，可以肆意翻出浏览器藏着的所有秘密，扒得你底裤都不剩！附下载使用方法！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-06-18 08:15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00850570</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1030</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3376,7 +3400,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L144" sqref="L144"/>
+      <selection pane="bottomLeft" activeCell="K142" sqref="K142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7322,10 +7346,31 @@
         <v>727</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A141" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>730</v>
+      </c>
       <c r="J141" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
+        <v>001030</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="-120" windowWidth="19800" windowHeight="11760"/>
+    <workbookView xWindow="4970" yWindow="-120" windowWidth="19800" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="740">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2925,6 +2925,30 @@
   </si>
   <si>
     <t>1030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22931024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-06-24 15:23:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私人笔记：如何简单快速地在 Windows 上搭建 SSH 服务？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>553251</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3398,9 +3422,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K142" sqref="K142"/>
+      <selection pane="bottomLeft" activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7373,10 +7397,31 @@
         <v>732</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A142" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>735</v>
+      </c>
       <c r="J142" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
+        <v>001031</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4970" yWindow="-120" windowWidth="19800" windowHeight="11760"/>
+    <workbookView xWindow="6010" yWindow="-120" windowWidth="19800" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="746">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2949,6 +2949,30 @@
   </si>
   <si>
     <t>553251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99740469</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-07-02 16:48:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>048461</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何简单快速地在 Windows 上搭建 OpenSSH 服务？看这一篇就够了！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3422,9 +3446,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F142" sqref="F142"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7424,10 +7448,31 @@
         <v>734</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A143" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>743</v>
+      </c>
       <c r="J143" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
+        <v>001032</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\writing\11_付费课程\99.资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0DDEE7-D32A-4936-9881-EB6040BE6067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6010" yWindow="-120" windowWidth="19800" windowHeight="11760"/>
+    <workbookView xWindow="4575" yWindow="1140" windowWidth="14670" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$L$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="752">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2973,13 +2974,37 @@
   </si>
   <si>
     <t>如何简单快速地在 Windows 上搭建 OpenSSH 服务？看这一篇就够了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22072792</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多出来几个奇怪的开机启动项，怎么去掉呢？有方法，赶快拿小本记下来！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-07-09 12:37:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>747321</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3443,30 +3468,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F143" sqref="F143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="6" customWidth="1"/>
     <col min="6" max="7" width="8.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.08203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.58203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3482,8 +3507,8 @@
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -3521,7 +3546,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>557</v>
       </c>
@@ -3548,7 +3573,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>559</v>
       </c>
@@ -3584,7 +3609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>559</v>
       </c>
@@ -3620,25 +3645,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>522</v>
       </c>
@@ -3671,7 +3696,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>558</v>
       </c>
@@ -3701,7 +3726,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>558</v>
       </c>
@@ -3731,7 +3756,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>641</v>
       </c>
@@ -3758,7 +3783,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>557</v>
       </c>
@@ -3785,7 +3810,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>557</v>
       </c>
@@ -3812,7 +3837,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>557</v>
       </c>
@@ -3839,7 +3864,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>557</v>
       </c>
@@ -3866,7 +3891,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>557</v>
       </c>
@@ -3893,7 +3918,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>557</v>
       </c>
@@ -3920,7 +3945,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>559</v>
       </c>
@@ -3956,7 +3981,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>557</v>
       </c>
@@ -3983,7 +4008,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>558</v>
       </c>
@@ -4013,7 +4038,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>557</v>
       </c>
@@ -4040,7 +4065,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>557</v>
       </c>
@@ -4067,7 +4092,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>634</v>
       </c>
@@ -4094,7 +4119,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>557</v>
       </c>
@@ -4121,7 +4146,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>559</v>
       </c>
@@ -4157,7 +4182,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>559</v>
       </c>
@@ -4193,7 +4218,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>557</v>
       </c>
@@ -4220,7 +4245,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>557</v>
       </c>
@@ -4247,7 +4272,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>557</v>
       </c>
@@ -4274,7 +4299,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>557</v>
       </c>
@@ -4301,7 +4326,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>557</v>
       </c>
@@ -4328,7 +4353,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>557</v>
       </c>
@@ -4355,7 +4380,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>559</v>
       </c>
@@ -4391,7 +4416,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>557</v>
       </c>
@@ -4418,7 +4443,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>557</v>
       </c>
@@ -4445,7 +4470,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>557</v>
       </c>
@@ -4472,7 +4497,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>557</v>
       </c>
@@ -4499,7 +4524,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>557</v>
       </c>
@@ -4526,7 +4551,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>559</v>
       </c>
@@ -4559,7 +4584,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>557</v>
       </c>
@@ -4586,7 +4611,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>557</v>
       </c>
@@ -4613,7 +4638,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>557</v>
       </c>
@@ -4640,7 +4665,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>557</v>
       </c>
@@ -4667,7 +4692,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>557</v>
       </c>
@@ -4694,7 +4719,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>557</v>
       </c>
@@ -4721,7 +4746,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>557</v>
       </c>
@@ -4748,7 +4773,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>557</v>
       </c>
@@ -4775,7 +4800,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>557</v>
       </c>
@@ -4802,7 +4827,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>557</v>
       </c>
@@ -4829,7 +4854,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>557</v>
       </c>
@@ -4856,7 +4881,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>557</v>
       </c>
@@ -4883,7 +4908,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>559</v>
       </c>
@@ -4919,7 +4944,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>559</v>
       </c>
@@ -4955,7 +4980,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>557</v>
       </c>
@@ -4982,7 +5007,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>558</v>
       </c>
@@ -5012,7 +5037,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>557</v>
       </c>
@@ -5039,7 +5064,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>298</v>
       </c>
@@ -5072,7 +5097,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
         <v>294</v>
       </c>
@@ -5105,7 +5130,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>289</v>
       </c>
@@ -5138,7 +5163,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>557</v>
       </c>
@@ -5165,7 +5190,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>557</v>
       </c>
@@ -5192,7 +5217,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>559</v>
       </c>
@@ -5228,7 +5253,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>557</v>
       </c>
@@ -5255,7 +5280,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>558</v>
       </c>
@@ -5285,7 +5310,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>559</v>
       </c>
@@ -5312,7 +5337,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>559</v>
       </c>
@@ -5339,7 +5364,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>558</v>
       </c>
@@ -5369,7 +5394,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>558</v>
       </c>
@@ -5399,7 +5424,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>558</v>
       </c>
@@ -5429,7 +5454,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>557</v>
       </c>
@@ -5456,7 +5481,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>557</v>
       </c>
@@ -5483,7 +5508,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>558</v>
       </c>
@@ -5516,7 +5541,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>557</v>
       </c>
@@ -5543,7 +5568,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>558</v>
       </c>
@@ -5570,7 +5595,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>557</v>
       </c>
@@ -5597,7 +5622,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>558</v>
       </c>
@@ -5624,7 +5649,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>557</v>
       </c>
@@ -5651,7 +5676,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>557</v>
       </c>
@@ -5678,7 +5703,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>557</v>
       </c>
@@ -5705,7 +5730,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>557</v>
       </c>
@@ -5732,7 +5757,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>558</v>
       </c>
@@ -5759,7 +5784,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>557</v>
       </c>
@@ -5786,7 +5811,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>559</v>
       </c>
@@ -5822,7 +5847,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>559</v>
       </c>
@@ -5858,7 +5883,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>559</v>
       </c>
@@ -5894,7 +5919,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>557</v>
       </c>
@@ -5921,7 +5946,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B90" s="4" t="s">
         <v>151</v>
       </c>
@@ -5954,7 +5979,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
         <v>146</v>
       </c>
@@ -5987,7 +6012,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
         <v>140</v>
       </c>
@@ -6020,7 +6045,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
         <v>135</v>
       </c>
@@ -6053,7 +6078,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>558</v>
       </c>
@@ -6080,7 +6105,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
         <v>123</v>
       </c>
@@ -6113,7 +6138,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B96" s="4" t="s">
         <v>118</v>
       </c>
@@ -6146,7 +6171,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B97" s="4" t="s">
         <v>112</v>
       </c>
@@ -6179,7 +6204,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
         <v>109</v>
       </c>
@@ -6212,7 +6237,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
         <v>104</v>
       </c>
@@ -6245,7 +6270,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B100" s="4" t="s">
         <v>98</v>
       </c>
@@ -6278,7 +6303,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B101" s="4" t="s">
         <v>92</v>
       </c>
@@ -6311,7 +6336,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>559</v>
       </c>
@@ -6347,7 +6372,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>557</v>
       </c>
@@ -6374,7 +6399,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>557</v>
       </c>
@@ -6401,7 +6426,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>557</v>
       </c>
@@ -6428,7 +6453,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>557</v>
       </c>
@@ -6455,7 +6480,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>557</v>
       </c>
@@ -6482,7 +6507,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>559</v>
       </c>
@@ -6518,7 +6543,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>558</v>
       </c>
@@ -6545,7 +6570,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>557</v>
       </c>
@@ -6572,7 +6597,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>557</v>
       </c>
@@ -6599,7 +6624,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>557</v>
       </c>
@@ -6626,7 +6651,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>557</v>
       </c>
@@ -6653,7 +6678,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>557</v>
       </c>
@@ -6680,7 +6705,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>559</v>
       </c>
@@ -6716,7 +6741,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>557</v>
       </c>
@@ -6743,7 +6768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>558</v>
       </c>
@@ -6773,7 +6798,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>557</v>
       </c>
@@ -6800,7 +6825,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>557</v>
       </c>
@@ -6827,7 +6852,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>597</v>
       </c>
@@ -6854,7 +6879,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>603</v>
       </c>
@@ -6881,7 +6906,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>609</v>
       </c>
@@ -6908,7 +6933,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>612</v>
       </c>
@@ -6935,7 +6960,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>618</v>
       </c>
@@ -6962,7 +6987,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>625</v>
       </c>
@@ -6989,7 +7014,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>557</v>
       </c>
@@ -7016,7 +7041,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>650</v>
       </c>
@@ -7043,7 +7068,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>654</v>
       </c>
@@ -7070,7 +7095,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>660</v>
       </c>
@@ -7097,7 +7122,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>665</v>
       </c>
@@ -7124,7 +7149,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>557</v>
       </c>
@@ -7151,7 +7176,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>557</v>
       </c>
@@ -7178,7 +7203,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>682</v>
       </c>
@@ -7205,7 +7230,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>688</v>
       </c>
@@ -7232,7 +7257,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>692</v>
       </c>
@@ -7259,7 +7284,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>700</v>
       </c>
@@ -7286,7 +7311,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>705</v>
       </c>
@@ -7313,7 +7338,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
         <v>712</v>
       </c>
@@ -7340,7 +7365,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>717</v>
       </c>
@@ -7367,7 +7392,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>725</v>
       </c>
@@ -7394,7 +7419,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
         <v>728</v>
       </c>
@@ -7421,7 +7446,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
         <v>737</v>
       </c>
@@ -7448,7 +7473,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
         <v>741</v>
       </c>
@@ -7475,50 +7500,71 @@
         <v>742</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A144" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>750</v>
+      </c>
       <c r="J144" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.3">
+        <v>001033</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="145" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J145" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J146" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J147" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J148" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J149" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J150" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L4"/>
+  <autoFilter ref="A4:L4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A2:L2"/>
   </mergeCells>
@@ -7527,10 +7573,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7540,25 +7586,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
     <col min="3" max="3" width="34" style="4" customWidth="1"/>
     <col min="4" max="4" width="4.75" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>549</v>
       </c>
@@ -7574,7 +7620,7 @@
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
     </row>
-    <row r="4" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -7612,7 +7658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>533</v>
       </c>
@@ -7635,7 +7681,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="15" t="s">
         <v>545</v>
       </c>
@@ -7644,7 +7690,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
         <v>539</v>
       </c>
@@ -7652,7 +7698,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>537</v>
       </c>
@@ -7660,7 +7706,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>538</v>
       </c>
@@ -7668,7 +7714,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>543</v>
       </c>
@@ -7684,7 +7730,7 @@
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
     </row>
-    <row r="15" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -7722,7 +7768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>533</v>
       </c>
@@ -7748,7 +7794,7 @@
         <v>54837657</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C19" s="15" t="s">
         <v>545</v>
       </c>
@@ -7757,7 +7803,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C20" s="4" t="s">
         <v>539</v>
       </c>
@@ -7765,7 +7811,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>537</v>
       </c>
@@ -7773,7 +7819,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>538</v>
       </c>
@@ -7781,10 +7827,10 @@
         <v>541</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C23"/>
     </row>
-    <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>550</v>
       </c>
@@ -7800,7 +7846,7 @@
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
     </row>
-    <row r="27" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
@@ -7838,7 +7884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>533</v>
       </c>
@@ -7864,7 +7910,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C31" s="15" t="s">
         <v>545</v>
       </c>
@@ -7873,7 +7919,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C32" s="4" t="s">
         <v>539</v>
       </c>
@@ -7881,7 +7927,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>537</v>
       </c>
@@ -7889,7 +7935,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>538</v>
       </c>
@@ -7905,7 +7951,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0DDEE7-D32A-4936-9881-EB6040BE6067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237AFFAB-BE2E-49F2-893D-63B7F4C0BB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="1140" windowWidth="14670" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="1170" windowWidth="14670" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3471,9 +3471,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F144" sqref="F144"/>
+      <selection pane="bottomLeft" activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237AFFAB-BE2E-49F2-893D-63B7F4C0BB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="1170" windowWidth="14670" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3140" yWindow="1170" windowWidth="14670" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$L$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="758">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2998,13 +2997,37 @@
   </si>
   <si>
     <t>747321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-07-16 16:25:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我被一伙人当场围观，要求说出PE盘的超级简单制作方法！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>245261</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81524983</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3468,30 +3491,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G145" sqref="G145"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L145" sqref="L145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="6" customWidth="1"/>
     <col min="6" max="7" width="8.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.08203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.58203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="25" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3507,8 +3530,8 @@
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -3546,7 +3569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>557</v>
       </c>
@@ -3573,7 +3596,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>559</v>
       </c>
@@ -3609,7 +3632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>559</v>
       </c>
@@ -3645,25 +3668,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>522</v>
       </c>
@@ -3696,7 +3719,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>558</v>
       </c>
@@ -3726,7 +3749,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>558</v>
       </c>
@@ -3756,7 +3779,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>641</v>
       </c>
@@ -3783,7 +3806,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>557</v>
       </c>
@@ -3810,7 +3833,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>557</v>
       </c>
@@ -3837,7 +3860,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>557</v>
       </c>
@@ -3864,7 +3887,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>557</v>
       </c>
@@ -3891,7 +3914,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>557</v>
       </c>
@@ -3918,7 +3941,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>557</v>
       </c>
@@ -3945,7 +3968,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>559</v>
       </c>
@@ -3981,7 +4004,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>557</v>
       </c>
@@ -4008,7 +4031,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>558</v>
       </c>
@@ -4038,7 +4061,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>557</v>
       </c>
@@ -4065,7 +4088,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>557</v>
       </c>
@@ -4092,7 +4115,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>634</v>
       </c>
@@ -4119,7 +4142,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>557</v>
       </c>
@@ -4146,7 +4169,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>559</v>
       </c>
@@ -4182,7 +4205,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>559</v>
       </c>
@@ -4218,7 +4241,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>557</v>
       </c>
@@ -4245,7 +4268,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>557</v>
       </c>
@@ -4272,7 +4295,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>557</v>
       </c>
@@ -4299,7 +4322,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>557</v>
       </c>
@@ -4326,7 +4349,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>557</v>
       </c>
@@ -4353,7 +4376,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>557</v>
       </c>
@@ -4380,7 +4403,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>559</v>
       </c>
@@ -4416,7 +4439,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>557</v>
       </c>
@@ -4443,7 +4466,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>557</v>
       </c>
@@ -4470,7 +4493,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>557</v>
       </c>
@@ -4497,7 +4520,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>557</v>
       </c>
@@ -4524,7 +4547,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>557</v>
       </c>
@@ -4551,7 +4574,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>559</v>
       </c>
@@ -4584,7 +4607,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>557</v>
       </c>
@@ -4611,7 +4634,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>557</v>
       </c>
@@ -4638,7 +4661,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>557</v>
       </c>
@@ -4665,7 +4688,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>557</v>
       </c>
@@ -4692,7 +4715,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>557</v>
       </c>
@@ -4719,7 +4742,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>557</v>
       </c>
@@ -4746,7 +4769,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>557</v>
       </c>
@@ -4773,7 +4796,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>557</v>
       </c>
@@ -4800,7 +4823,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>557</v>
       </c>
@@ -4827,7 +4850,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>557</v>
       </c>
@@ -4854,7 +4877,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>557</v>
       </c>
@@ -4881,7 +4904,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>557</v>
       </c>
@@ -4908,7 +4931,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>559</v>
       </c>
@@ -4944,7 +4967,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>559</v>
       </c>
@@ -4980,7 +5003,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>557</v>
       </c>
@@ -5007,7 +5030,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>558</v>
       </c>
@@ -5037,7 +5060,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>557</v>
       </c>
@@ -5064,7 +5087,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
         <v>298</v>
       </c>
@@ -5097,7 +5120,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
         <v>294</v>
       </c>
@@ -5130,7 +5153,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
         <v>289</v>
       </c>
@@ -5163,7 +5186,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>557</v>
       </c>
@@ -5190,7 +5213,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>557</v>
       </c>
@@ -5217,7 +5240,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>559</v>
       </c>
@@ -5253,7 +5276,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>557</v>
       </c>
@@ -5280,7 +5303,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>558</v>
       </c>
@@ -5310,7 +5333,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>559</v>
       </c>
@@ -5337,7 +5360,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>559</v>
       </c>
@@ -5364,7 +5387,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>558</v>
       </c>
@@ -5394,7 +5417,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>558</v>
       </c>
@@ -5424,7 +5447,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>558</v>
       </c>
@@ -5454,7 +5477,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>557</v>
       </c>
@@ -5481,7 +5504,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>557</v>
       </c>
@@ -5508,7 +5531,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>558</v>
       </c>
@@ -5541,7 +5564,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>557</v>
       </c>
@@ -5568,7 +5591,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>558</v>
       </c>
@@ -5595,7 +5618,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>557</v>
       </c>
@@ -5622,7 +5645,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>558</v>
       </c>
@@ -5649,7 +5672,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>557</v>
       </c>
@@ -5676,7 +5699,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>557</v>
       </c>
@@ -5703,7 +5726,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>557</v>
       </c>
@@ -5730,7 +5753,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>557</v>
       </c>
@@ -5757,7 +5780,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>558</v>
       </c>
@@ -5784,7 +5807,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>557</v>
       </c>
@@ -5811,7 +5834,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>559</v>
       </c>
@@ -5847,7 +5870,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>559</v>
       </c>
@@ -5883,7 +5906,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>559</v>
       </c>
@@ -5919,7 +5942,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>557</v>
       </c>
@@ -5946,7 +5969,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
         <v>151</v>
       </c>
@@ -5979,7 +6002,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
         <v>146</v>
       </c>
@@ -6012,7 +6035,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
         <v>140</v>
       </c>
@@ -6045,7 +6068,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
         <v>135</v>
       </c>
@@ -6078,7 +6101,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>558</v>
       </c>
@@ -6105,7 +6128,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
         <v>123</v>
       </c>
@@ -6138,7 +6161,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B96" s="4" t="s">
         <v>118</v>
       </c>
@@ -6171,7 +6194,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B97" s="4" t="s">
         <v>112</v>
       </c>
@@ -6204,7 +6227,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
         <v>109</v>
       </c>
@@ -6237,7 +6260,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
         <v>104</v>
       </c>
@@ -6270,7 +6293,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B100" s="4" t="s">
         <v>98</v>
       </c>
@@ -6303,7 +6326,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="s">
         <v>92</v>
       </c>
@@ -6336,7 +6359,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>559</v>
       </c>
@@ -6372,7 +6395,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>557</v>
       </c>
@@ -6399,7 +6422,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>557</v>
       </c>
@@ -6426,7 +6449,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>557</v>
       </c>
@@ -6453,7 +6476,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>557</v>
       </c>
@@ -6480,7 +6503,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>557</v>
       </c>
@@ -6507,7 +6530,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>559</v>
       </c>
@@ -6543,7 +6566,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>558</v>
       </c>
@@ -6570,7 +6593,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>557</v>
       </c>
@@ -6597,7 +6620,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>557</v>
       </c>
@@ -6624,7 +6647,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>557</v>
       </c>
@@ -6651,7 +6674,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>557</v>
       </c>
@@ -6678,7 +6701,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>557</v>
       </c>
@@ -6705,7 +6728,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>559</v>
       </c>
@@ -6741,7 +6764,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>557</v>
       </c>
@@ -6768,7 +6791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>558</v>
       </c>
@@ -6798,7 +6821,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>557</v>
       </c>
@@ -6825,7 +6848,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>557</v>
       </c>
@@ -6852,7 +6875,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>597</v>
       </c>
@@ -6879,7 +6902,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>603</v>
       </c>
@@ -6906,7 +6929,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>609</v>
       </c>
@@ -6933,7 +6956,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>612</v>
       </c>
@@ -6960,7 +6983,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>618</v>
       </c>
@@ -6987,7 +7010,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>625</v>
       </c>
@@ -7014,7 +7037,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>557</v>
       </c>
@@ -7041,7 +7064,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>650</v>
       </c>
@@ -7068,7 +7091,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>654</v>
       </c>
@@ -7095,7 +7118,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>660</v>
       </c>
@@ -7122,7 +7145,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>665</v>
       </c>
@@ -7149,7 +7172,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>557</v>
       </c>
@@ -7176,7 +7199,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
         <v>557</v>
       </c>
@@ -7203,7 +7226,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
         <v>682</v>
       </c>
@@ -7230,7 +7253,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
         <v>688</v>
       </c>
@@ -7257,7 +7280,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
         <v>692</v>
       </c>
@@ -7284,7 +7307,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
         <v>700</v>
       </c>
@@ -7311,7 +7334,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
         <v>705</v>
       </c>
@@ -7338,7 +7361,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
         <v>712</v>
       </c>
@@ -7365,7 +7388,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
         <v>717</v>
       </c>
@@ -7392,7 +7415,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
         <v>725</v>
       </c>
@@ -7419,7 +7442,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
         <v>728</v>
       </c>
@@ -7446,7 +7469,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
         <v>737</v>
       </c>
@@ -7473,7 +7496,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" ht="28" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
         <v>741</v>
       </c>
@@ -7500,7 +7523,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
         <v>747</v>
       </c>
@@ -7527,44 +7550,65 @@
         <v>748</v>
       </c>
     </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A145" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>752</v>
+      </c>
       <c r="J145" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.2">
+        <v>001034</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J146" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J147" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J148" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J149" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J150" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A4:L4"/>
   <mergeCells count="1">
     <mergeCell ref="A2:L2"/>
   </mergeCells>
@@ -7573,10 +7617,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7586,25 +7630,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
     <col min="3" max="3" width="34" style="4" customWidth="1"/>
     <col min="4" max="4" width="4.75" customWidth="1"/>
-    <col min="8" max="8" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>549</v>
       </c>
@@ -7620,7 +7664,7 @@
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
     </row>
-    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -7658,7 +7702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>533</v>
       </c>
@@ -7681,7 +7725,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="15" t="s">
         <v>545</v>
       </c>
@@ -7690,7 +7734,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>539</v>
       </c>
@@ -7698,7 +7742,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>537</v>
       </c>
@@ -7706,7 +7750,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>538</v>
       </c>
@@ -7714,7 +7758,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>543</v>
       </c>
@@ -7730,7 +7774,7 @@
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
     </row>
-    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -7768,7 +7812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>533</v>
       </c>
@@ -7794,7 +7838,7 @@
         <v>54837657</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C19" s="15" t="s">
         <v>545</v>
       </c>
@@ -7803,7 +7847,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
         <v>539</v>
       </c>
@@ -7811,7 +7855,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>537</v>
       </c>
@@ -7819,7 +7863,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>538</v>
       </c>
@@ -7827,10 +7871,10 @@
         <v>541</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C23"/>
     </row>
-    <row r="25" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>550</v>
       </c>
@@ -7846,7 +7890,7 @@
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
     </row>
-    <row r="27" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="56" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
@@ -7884,7 +7928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>533</v>
       </c>
@@ -7910,7 +7954,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C31" s="15" t="s">
         <v>545</v>
       </c>
@@ -7919,7 +7963,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C32" s="4" t="s">
         <v>539</v>
       </c>
@@ -7927,7 +7971,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>537</v>
       </c>
@@ -7935,7 +7979,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>538</v>
       </c>
@@ -7951,7 +7995,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\writing\11_付费课程\99.资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE65FAD-F76C-4A95-9417-8E5C7B36FBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="1170" windowWidth="14670" windowHeight="10050"/>
+    <workbookView xWindow="5520" yWindow="510" windowWidth="14670" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$L$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="764">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3021,13 +3022,37 @@
   </si>
   <si>
     <t>81524983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自从给Windows设置了密码后，每次登录都要输密码，能不能搞成自动登录？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02042035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-07-23 08:10:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130180</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3491,30 +3516,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L145" sqref="L145"/>
+      <selection pane="bottomLeft" activeCell="I147" sqref="I147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="6" customWidth="1"/>
     <col min="6" max="7" width="8.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.08203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.58203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3530,8 +3555,8 @@
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -3569,7 +3594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>557</v>
       </c>
@@ -3596,7 +3621,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>559</v>
       </c>
@@ -3632,7 +3657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>559</v>
       </c>
@@ -3668,25 +3693,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>522</v>
       </c>
@@ -3719,7 +3744,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>558</v>
       </c>
@@ -3749,7 +3774,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>558</v>
       </c>
@@ -3779,7 +3804,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>641</v>
       </c>
@@ -3806,7 +3831,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>557</v>
       </c>
@@ -3833,7 +3858,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>557</v>
       </c>
@@ -3860,7 +3885,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>557</v>
       </c>
@@ -3887,7 +3912,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>557</v>
       </c>
@@ -3914,7 +3939,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>557</v>
       </c>
@@ -3941,7 +3966,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>557</v>
       </c>
@@ -3968,7 +3993,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>559</v>
       </c>
@@ -4004,7 +4029,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>557</v>
       </c>
@@ -4031,7 +4056,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>558</v>
       </c>
@@ -4061,7 +4086,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>557</v>
       </c>
@@ -4088,7 +4113,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>557</v>
       </c>
@@ -4115,7 +4140,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>634</v>
       </c>
@@ -4142,7 +4167,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>557</v>
       </c>
@@ -4169,7 +4194,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>559</v>
       </c>
@@ -4205,7 +4230,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>559</v>
       </c>
@@ -4241,7 +4266,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>557</v>
       </c>
@@ -4268,7 +4293,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>557</v>
       </c>
@@ -4295,7 +4320,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>557</v>
       </c>
@@ -4322,7 +4347,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>557</v>
       </c>
@@ -4349,7 +4374,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>557</v>
       </c>
@@ -4376,7 +4401,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>557</v>
       </c>
@@ -4403,7 +4428,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>559</v>
       </c>
@@ -4439,7 +4464,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>557</v>
       </c>
@@ -4466,7 +4491,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>557</v>
       </c>
@@ -4493,7 +4518,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>557</v>
       </c>
@@ -4520,7 +4545,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>557</v>
       </c>
@@ -4547,7 +4572,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>557</v>
       </c>
@@ -4574,7 +4599,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>559</v>
       </c>
@@ -4607,7 +4632,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>557</v>
       </c>
@@ -4634,7 +4659,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>557</v>
       </c>
@@ -4661,7 +4686,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>557</v>
       </c>
@@ -4688,7 +4713,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>557</v>
       </c>
@@ -4715,7 +4740,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>557</v>
       </c>
@@ -4742,7 +4767,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>557</v>
       </c>
@@ -4769,7 +4794,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>557</v>
       </c>
@@ -4796,7 +4821,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>557</v>
       </c>
@@ -4823,7 +4848,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>557</v>
       </c>
@@ -4850,7 +4875,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>557</v>
       </c>
@@ -4877,7 +4902,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>557</v>
       </c>
@@ -4904,7 +4929,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>557</v>
       </c>
@@ -4931,7 +4956,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>559</v>
       </c>
@@ -4967,7 +4992,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>559</v>
       </c>
@@ -5003,7 +5028,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>557</v>
       </c>
@@ -5030,7 +5055,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>558</v>
       </c>
@@ -5060,7 +5085,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>557</v>
       </c>
@@ -5087,7 +5112,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>298</v>
       </c>
@@ -5120,7 +5145,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
         <v>294</v>
       </c>
@@ -5153,7 +5178,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>289</v>
       </c>
@@ -5186,7 +5211,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>557</v>
       </c>
@@ -5213,7 +5238,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>557</v>
       </c>
@@ -5240,7 +5265,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>559</v>
       </c>
@@ -5276,7 +5301,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>557</v>
       </c>
@@ -5303,7 +5328,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>558</v>
       </c>
@@ -5333,7 +5358,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>559</v>
       </c>
@@ -5360,7 +5385,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>559</v>
       </c>
@@ -5387,7 +5412,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>558</v>
       </c>
@@ -5417,7 +5442,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>558</v>
       </c>
@@ -5447,7 +5472,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>558</v>
       </c>
@@ -5477,7 +5502,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>557</v>
       </c>
@@ -5504,7 +5529,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>557</v>
       </c>
@@ -5531,7 +5556,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>558</v>
       </c>
@@ -5564,7 +5589,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>557</v>
       </c>
@@ -5591,7 +5616,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>558</v>
       </c>
@@ -5618,7 +5643,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>557</v>
       </c>
@@ -5645,7 +5670,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>558</v>
       </c>
@@ -5672,7 +5697,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>557</v>
       </c>
@@ -5699,7 +5724,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>557</v>
       </c>
@@ -5726,7 +5751,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>557</v>
       </c>
@@ -5753,7 +5778,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>557</v>
       </c>
@@ -5780,7 +5805,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>558</v>
       </c>
@@ -5807,7 +5832,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>557</v>
       </c>
@@ -5834,7 +5859,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>559</v>
       </c>
@@ -5870,7 +5895,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>559</v>
       </c>
@@ -5906,7 +5931,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>559</v>
       </c>
@@ -5942,7 +5967,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>557</v>
       </c>
@@ -5969,7 +5994,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B90" s="4" t="s">
         <v>151</v>
       </c>
@@ -6002,7 +6027,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
         <v>146</v>
       </c>
@@ -6035,7 +6060,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
         <v>140</v>
       </c>
@@ -6068,7 +6093,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
         <v>135</v>
       </c>
@@ -6101,7 +6126,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>558</v>
       </c>
@@ -6128,7 +6153,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
         <v>123</v>
       </c>
@@ -6161,7 +6186,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B96" s="4" t="s">
         <v>118</v>
       </c>
@@ -6194,7 +6219,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B97" s="4" t="s">
         <v>112</v>
       </c>
@@ -6227,7 +6252,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
         <v>109</v>
       </c>
@@ -6260,7 +6285,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
         <v>104</v>
       </c>
@@ -6293,7 +6318,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B100" s="4" t="s">
         <v>98</v>
       </c>
@@ -6326,7 +6351,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B101" s="4" t="s">
         <v>92</v>
       </c>
@@ -6359,7 +6384,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>559</v>
       </c>
@@ -6395,7 +6420,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>557</v>
       </c>
@@ -6422,7 +6447,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>557</v>
       </c>
@@ -6449,7 +6474,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>557</v>
       </c>
@@ -6476,7 +6501,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>557</v>
       </c>
@@ -6503,7 +6528,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>557</v>
       </c>
@@ -6530,7 +6555,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>559</v>
       </c>
@@ -6566,7 +6591,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>558</v>
       </c>
@@ -6593,7 +6618,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>557</v>
       </c>
@@ -6620,7 +6645,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>557</v>
       </c>
@@ -6647,7 +6672,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>557</v>
       </c>
@@ -6674,7 +6699,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>557</v>
       </c>
@@ -6701,7 +6726,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>557</v>
       </c>
@@ -6728,7 +6753,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>559</v>
       </c>
@@ -6764,7 +6789,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>557</v>
       </c>
@@ -6791,7 +6816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>558</v>
       </c>
@@ -6821,7 +6846,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>557</v>
       </c>
@@ -6848,7 +6873,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>557</v>
       </c>
@@ -6875,7 +6900,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>597</v>
       </c>
@@ -6902,7 +6927,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>603</v>
       </c>
@@ -6929,7 +6954,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>609</v>
       </c>
@@ -6956,7 +6981,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>612</v>
       </c>
@@ -6983,7 +7008,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>618</v>
       </c>
@@ -7010,7 +7035,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>625</v>
       </c>
@@ -7037,7 +7062,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>557</v>
       </c>
@@ -7064,7 +7089,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>650</v>
       </c>
@@ -7091,7 +7116,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>654</v>
       </c>
@@ -7118,7 +7143,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>660</v>
       </c>
@@ -7145,7 +7170,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>665</v>
       </c>
@@ -7172,7 +7197,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>557</v>
       </c>
@@ -7199,7 +7224,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>557</v>
       </c>
@@ -7226,7 +7251,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>682</v>
       </c>
@@ -7253,7 +7278,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>688</v>
       </c>
@@ -7280,7 +7305,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>692</v>
       </c>
@@ -7307,7 +7332,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>700</v>
       </c>
@@ -7334,7 +7359,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>705</v>
       </c>
@@ -7361,7 +7386,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
         <v>712</v>
       </c>
@@ -7388,7 +7413,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>717</v>
       </c>
@@ -7415,7 +7440,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>725</v>
       </c>
@@ -7442,7 +7467,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
         <v>728</v>
       </c>
@@ -7469,7 +7494,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
         <v>737</v>
       </c>
@@ -7496,7 +7521,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
         <v>741</v>
       </c>
@@ -7523,7 +7548,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
         <v>747</v>
       </c>
@@ -7550,7 +7575,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
         <v>755</v>
       </c>
@@ -7577,38 +7602,59 @@
         <v>757</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A146" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>762</v>
+      </c>
       <c r="J146" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+        <v>001035</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J147" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J148" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J149" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J150" s="5" t="str">
         <f t="shared" si="4"/>
         <v>00</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L4"/>
+  <autoFilter ref="A4:L4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A2:L2"/>
   </mergeCells>
@@ -7617,10 +7663,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1 D3:E3 D6:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7630,25 +7676,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
     <col min="3" max="3" width="34" style="4" customWidth="1"/>
     <col min="4" max="4" width="4.75" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>549</v>
       </c>
@@ -7664,7 +7710,7 @@
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
     </row>
-    <row r="4" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -7702,7 +7748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>533</v>
       </c>
@@ -7725,7 +7771,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="15" t="s">
         <v>545</v>
       </c>
@@ -7734,7 +7780,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
         <v>539</v>
       </c>
@@ -7742,7 +7788,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>537</v>
       </c>
@@ -7750,7 +7796,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>538</v>
       </c>
@@ -7758,7 +7804,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>543</v>
       </c>
@@ -7774,7 +7820,7 @@
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
     </row>
-    <row r="15" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -7812,7 +7858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>533</v>
       </c>
@@ -7838,7 +7884,7 @@
         <v>54837657</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C19" s="15" t="s">
         <v>545</v>
       </c>
@@ -7847,7 +7893,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C20" s="4" t="s">
         <v>539</v>
       </c>
@@ -7855,7 +7901,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>537</v>
       </c>
@@ -7863,7 +7909,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>538</v>
       </c>
@@ -7871,10 +7917,10 @@
         <v>541</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C23"/>
     </row>
-    <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>550</v>
       </c>
@@ -7890,7 +7936,7 @@
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
     </row>
-    <row r="27" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
@@ -7928,7 +7974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>533</v>
       </c>
@@ -7954,7 +8000,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C31" s="15" t="s">
         <v>545</v>
       </c>
@@ -7963,7 +8009,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C32" s="4" t="s">
         <v>539</v>
       </c>
@@ -7971,7 +8017,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>537</v>
       </c>
@@ -7979,7 +8025,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>538</v>
       </c>
@@ -7995,7 +8041,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H27 H4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"VB编程,系统运维,WEB学习,游戏碎片,日常随笔"</formula1>
     </dataValidation>
   </dataValidations>

--- a/11_付费课程/99.资料/文章信息备忘表.xlsx
+++ b/11_付费课程/99.资料/文章信息备忘表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\99.资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE65FAD-F76C-4A95-9417-8E5C7B36FBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEB211D-4C21-466D-893F-D854F93DF429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="510" windowWidth="14670" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="1275" windowWidth="14670" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="770">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3046,6 +3046,30 @@
   </si>
   <si>
     <t>130180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21931933</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-24 21:43:44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>443412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>752</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三国赛马之VB多线程演示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3517,11 +3541,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L150"/>
+  <dimension ref="A2:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I147" sqref="I147"/>
+      <pane ySplit="4" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H148" sqref="H148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3611,7 +3635,7 @@
         <v>576</v>
       </c>
       <c r="J5" s="5" t="str">
-        <f t="shared" ref="J5:J64" si="0">"000"&amp;B5</f>
+        <f t="shared" ref="J5:J65" si="0">"000"&amp;B5</f>
         <v>000720</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -3912,31 +3936,31 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>557</v>
+        <v>768</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>492</v>
+        <v>767</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>491</v>
+        <v>769</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>490</v>
+        <v>765</v>
       </c>
       <c r="J18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000753</v>
+        <v>000752</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>488</v>
+        <v>766</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>489</v>
+        <v>764</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -3944,26 +3968,26 @@
         <v>557</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="J19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000754</v>
+        <v>000753</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -3971,146 +3995,146 @@
         <v>557</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="J20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000758</v>
+        <v>000754</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="6">
-        <v>39</v>
-      </c>
-      <c r="G21" s="6">
-        <v>39</v>
+        <v>482</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="J21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000765</v>
+        <v>000758</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="6">
+        <v>39</v>
+      </c>
+      <c r="G22" s="6">
+        <v>39</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="J22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000781</v>
+        <v>000765</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>32</v>
+        <v>471</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="J23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000791</v>
+        <v>000781</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="J24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000794</v>
+        <v>000791</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -4118,116 +4142,107 @@
         <v>557</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="J25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000795</v>
+        <v>000794</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>580</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>634</v>
+        <v>557</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>633</v>
+        <v>457</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>635</v>
+        <v>455</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>636</v>
+        <v>456</v>
       </c>
       <c r="J26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000797</v>
+        <v>000795</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>637</v>
+        <v>454</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>638</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>530</v>
+        <v>633</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="J27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000798</v>
+        <v>000797</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>573</v>
+        <v>637</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>574</v>
+        <v>638</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>449</v>
+        <v>530</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="6">
-        <v>38</v>
-      </c>
-      <c r="G28" s="6">
-        <v>38</v>
+        <v>571</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>452</v>
+        <v>572</v>
       </c>
       <c r="J28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000800</v>
+        <v>000798</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>450</v>
+        <v>573</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>451</v>
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -4235,10 +4250,10 @@
         <v>559</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>32</v>
@@ -4253,44 +4268,53 @@
         <v>21</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="J29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000801</v>
+        <v>000800</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="6">
+        <v>38</v>
+      </c>
+      <c r="G30" s="6">
+        <v>38</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="J30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000802</v>
+        <v>000801</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -4298,26 +4322,26 @@
         <v>557</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="J31" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000804</v>
+        <v>000802</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -4325,26 +4349,26 @@
         <v>557</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="J32" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000806</v>
+        <v>000804</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -4352,26 +4376,26 @@
         <v>557</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="J33" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000808</v>
+        <v>000806</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -4379,26 +4403,26 @@
         <v>557</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J34" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000812</v>
+        <v>000808</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -4406,143 +4430,143 @@
         <v>557</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>531</v>
+        <v>420</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>567</v>
+        <v>419</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>568</v>
+        <v>423</v>
       </c>
       <c r="J35" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000817</v>
+        <v>000812</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>569</v>
+        <v>421</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>570</v>
+        <v>422</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>415</v>
+        <v>531</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="6">
-        <v>39</v>
-      </c>
-      <c r="G36" s="6">
-        <v>39</v>
+        <v>567</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>418</v>
+        <v>568</v>
       </c>
       <c r="J36" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000823</v>
+        <v>000817</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>416</v>
+        <v>569</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>409</v>
+        <v>414</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="6">
+        <v>39</v>
+      </c>
+      <c r="G37" s="6">
+        <v>39</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="J37" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000824</v>
+        <v>000823</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="J38" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000836</v>
+        <v>000824</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="J39" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000841</v>
+        <v>000836</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -4550,26 +4574,26 @@
         <v>557</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="J40" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000844</v>
+        <v>000841</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -4577,86 +4601,86 @@
         <v>557</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="J41" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000847</v>
+        <v>000844</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F42" s="6">
-        <v>18</v>
-      </c>
-      <c r="G42" s="6">
-        <v>18</v>
+        <v>389</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="J42" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000856</v>
+        <v>000847</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
+      </c>
+      <c r="F43" s="6">
+        <v>18</v>
+      </c>
+      <c r="G43" s="6">
+        <v>18</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="J43" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000857</v>
+        <v>000856</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -4664,26 +4688,26 @@
         <v>557</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="J44" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000860</v>
+        <v>000857</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -4691,80 +4715,80 @@
         <v>557</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="J45" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000861</v>
+        <v>000860</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="J46" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000862</v>
+        <v>000861</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="J47" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000864</v>
+        <v>000862</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>361</v>
+        <v>581</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -4772,26 +4796,26 @@
         <v>557</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="J48" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000865</v>
+        <v>000864</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -4799,197 +4823,188 @@
         <v>557</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="J49" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000868</v>
+        <v>000865</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="J50" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000875</v>
+        <v>000868</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="J51" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000876</v>
+        <v>000875</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="J52" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000884</v>
+        <v>000876</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="J53" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000887</v>
+        <v>000884</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="J54" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000888</v>
+        <v>000887</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" s="6">
-        <v>39</v>
-      </c>
-      <c r="G55" s="6">
-        <v>19</v>
+        <v>327</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="J55" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000889</v>
+        <v>000888</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -4997,160 +5012,163 @@
         <v>559</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F56" s="6">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="G56" s="6">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J56" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000890</v>
+        <v>000889</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>584</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" s="6">
+        <v>68</v>
+      </c>
+      <c r="G57" s="6">
+        <v>38</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="J57" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000893</v>
+        <v>000890</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>315</v>
+        <v>584</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>32</v>
+        <v>316</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J58" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000895</v>
+        <v>000893</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="J59" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000903</v>
+        <v>000895</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>557</v>
+      </c>
       <c r="B60" s="4" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60" s="6">
-        <v>18</v>
-      </c>
-      <c r="G60" s="6">
-        <v>5</v>
+        <v>307</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="J60" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000904</v>
+        <v>000903</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>32</v>
@@ -5159,31 +5177,31 @@
         <v>18</v>
       </c>
       <c r="G61" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>94</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="J61" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000906</v>
+        <v>000904</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>32</v>
@@ -5198,191 +5216,197 @@
         <v>94</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="J62" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000908</v>
+        <v>000906</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
-        <v>557</v>
-      </c>
       <c r="B63" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" s="6">
+        <v>18</v>
+      </c>
+      <c r="G63" s="6">
+        <v>9</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="J63" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>000911</v>
+        <v>000908</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="J64" s="5" t="str">
         <f t="shared" si="0"/>
+        <v>000911</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J65" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>000913</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="K65" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="L65" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
+    <row r="66" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F66" s="6">
         <v>18</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G66" s="6">
         <v>18</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="I66" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="J65" s="5" t="str">
-        <f t="shared" ref="J65:J82" si="1">"000"&amp;B65</f>
+      <c r="J66" s="5" t="str">
+        <f t="shared" ref="J66:J83" si="1">"000"&amp;B66</f>
         <v>000914</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="K66" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="L66" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
+    <row r="67" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66" s="4" t="s">
+      <c r="H67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="J66" s="5" t="str">
+      <c r="J67" s="5"